--- a/datacovidhn/LOCALIZAHN.xlsx
+++ b/datacovidhn/LOCALIZAHN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\000 DRIVE\000 DATACOVID HN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{23A5930A-7705-4873-9354-6671A8986A46}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{BD912FE3-1129-4ED5-9577-2DB3AE28073F}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{23A5930A-7705-4873-9354-6671A8986A46}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{BC5F9EF6-C4D2-4F55-A4B0-9607C15AFDFC}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E12A4D3B-4BD9-444E-BCAD-8267569BA124}"/>
   </bookViews>
@@ -4940,8 +4940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57166B67-A93A-452E-A5E0-8FB31F384F7A}">
   <dimension ref="A1:M299"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" topLeftCell="A277" workbookViewId="0">
+      <selection activeCell="J283" sqref="J283"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
@@ -5038,7 +5038,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" ht="15">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -5075,7 +5075,7 @@
       <c r="L3" t="s">
         <v>25</v>
       </c>
-      <c r="M3" t="s">
+      <c r="M3" s="1" t="s">
         <v>26</v>
       </c>
     </row>
@@ -16518,7 +16518,7 @@
         <v>1421</v>
       </c>
     </row>
-    <row r="283" spans="1:13">
+    <row r="283" spans="1:13" ht="15">
       <c r="A283" t="s">
         <v>13</v>
       </c>
@@ -16555,7 +16555,7 @@
       <c r="L283" t="s">
         <v>1425</v>
       </c>
-      <c r="M283" t="s">
+      <c r="M283" s="1" t="s">
         <v>1426</v>
       </c>
     </row>
@@ -17218,10 +17218,12 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="M2" r:id="rId1" xr:uid="{C1D39B31-F093-4443-8E56-AB312BD2C198}"/>
+    <hyperlink ref="M3" r:id="rId2" xr:uid="{7F9AC178-7925-462F-9377-1D53986C46B8}"/>
+    <hyperlink ref="M283" r:id="rId3" xr:uid="{4D56EABC-E703-43B9-9CE2-F8421E9FDAD3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>
--- a/datacovidhn/LOCALIZAHN.xlsx
+++ b/datacovidhn/LOCALIZAHN.xlsx
@@ -4940,8 +4940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57166B67-A93A-452E-A5E0-8FB31F384F7A}">
   <dimension ref="A1:M299"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A277" workbookViewId="0">
-      <selection activeCell="J283" sqref="J283"/>
+    <sheetView tabSelected="1" topLeftCell="A174" workbookViewId="0">
+      <selection activeCell="J185" sqref="J185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>

--- a/datacovidhn/LOCALIZAHN.xlsx
+++ b/datacovidhn/LOCALIZAHN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\000 DRIVE\000 DATACOVID HN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{23A5930A-7705-4873-9354-6671A8986A46}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{BC5F9EF6-C4D2-4F55-A4B0-9607C15AFDFC}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{23A5930A-7705-4873-9354-6671A8986A46}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{2B10AFAF-D541-4A76-B81C-9F307AC6D393}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E12A4D3B-4BD9-444E-BCAD-8267569BA124}"/>
   </bookViews>
@@ -4940,8 +4940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57166B67-A93A-452E-A5E0-8FB31F384F7A}">
   <dimension ref="A1:M299"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A174" workbookViewId="0">
-      <selection activeCell="J185" sqref="J185"/>
+    <sheetView tabSelected="1" topLeftCell="A277" workbookViewId="0">
+      <selection activeCell="J286" sqref="J286"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
@@ -12910,7 +12910,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="195" spans="1:13">
+    <row r="195" spans="1:13" ht="15">
       <c r="A195" t="s">
         <v>13</v>
       </c>
@@ -12947,7 +12947,7 @@
       <c r="L195" t="s">
         <v>989</v>
       </c>
-      <c r="M195" t="s">
+      <c r="M195" s="1" t="s">
         <v>990</v>
       </c>
     </row>
@@ -17220,10 +17220,11 @@
     <hyperlink ref="M2" r:id="rId1" xr:uid="{C1D39B31-F093-4443-8E56-AB312BD2C198}"/>
     <hyperlink ref="M3" r:id="rId2" xr:uid="{7F9AC178-7925-462F-9377-1D53986C46B8}"/>
     <hyperlink ref="M283" r:id="rId3" xr:uid="{4D56EABC-E703-43B9-9CE2-F8421E9FDAD3}"/>
+    <hyperlink ref="M195" r:id="rId4" xr:uid="{E090D897-0CBE-4BE0-8282-3A9A8B6C7557}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
 </file>
--- a/datacovidhn/LOCALIZAHN.xlsx
+++ b/datacovidhn/LOCALIZAHN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\000 DRIVE\000 DATACOVID HN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{23A5930A-7705-4873-9354-6671A8986A46}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{2B10AFAF-D541-4A76-B81C-9F307AC6D393}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{23A5930A-7705-4873-9354-6671A8986A46}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{26896FD2-6F31-4E80-9A55-6CF3D12050A9}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E12A4D3B-4BD9-444E-BCAD-8267569BA124}"/>
   </bookViews>
@@ -4940,8 +4940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57166B67-A93A-452E-A5E0-8FB31F384F7A}">
   <dimension ref="A1:M299"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A277" workbookViewId="0">
-      <selection activeCell="J286" sqref="J286"/>
+    <sheetView tabSelected="1" topLeftCell="A198" workbookViewId="0">
+      <selection activeCell="H205" sqref="H205"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>

--- a/datacovidhn/LOCALIZAHN.xlsx
+++ b/datacovidhn/LOCALIZAHN.xlsx
@@ -4940,8 +4940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57166B67-A93A-452E-A5E0-8FB31F384F7A}">
   <dimension ref="A1:M299"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A198" workbookViewId="0">
-      <selection activeCell="H205" sqref="H205"/>
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="J64" sqref="J64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>

--- a/datacovidhn/LOCALIZAHN.xlsx
+++ b/datacovidhn/LOCALIZAHN.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22823"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22904"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\000 DRIVE\000 DATACOVID HN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{23A5930A-7705-4873-9354-6671A8986A46}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{26896FD2-6F31-4E80-9A55-6CF3D12050A9}"/>
+  <xr:revisionPtr revIDLastSave="94" documentId="13_ncr:1_{23A5930A-7705-4873-9354-6671A8986A46}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F74796FC-B243-4FD1-A76A-6EDA25760783}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E12A4D3B-4BD9-444E-BCAD-8267569BA124}"/>
   </bookViews>
@@ -83,7 +83,7 @@
     <t>01</t>
   </si>
   <si>
-    <t>Atlantida</t>
+    <t>Atlántida</t>
   </si>
   <si>
     <t>0101</t>
@@ -209,7 +209,7 @@
     <t>02</t>
   </si>
   <si>
-    <t>Colon</t>
+    <t>Colón</t>
   </si>
   <si>
     <t>0201</t>
@@ -260,7 +260,7 @@
     <t>0204</t>
   </si>
   <si>
-    <t>Limon</t>
+    <t>Limón</t>
   </si>
   <si>
     <t>HND-0204</t>
@@ -275,7 +275,7 @@
     <t>0205</t>
   </si>
   <si>
-    <t>Saba</t>
+    <t>Sabá</t>
   </si>
   <si>
     <t>HND-0205</t>
@@ -305,7 +305,7 @@
     <t>0207</t>
   </si>
   <si>
-    <t>Santa Rosa de Aguan</t>
+    <t>Santa Rosa de Aguán</t>
   </si>
   <si>
     <t>HND-0207</t>
@@ -413,7 +413,7 @@
     <t>0304</t>
   </si>
   <si>
-    <t>Esquias</t>
+    <t>Esquías</t>
   </si>
   <si>
     <t>HND-0304</t>
@@ -458,7 +458,7 @@
     <t>0307</t>
   </si>
   <si>
-    <t>Lamani</t>
+    <t>Lamaní</t>
   </si>
   <si>
     <t>HND-0307</t>
@@ -563,7 +563,7 @@
     <t>0314</t>
   </si>
   <si>
-    <t>San Jose de Comayagua</t>
+    <t>San José de Comayagua</t>
   </si>
   <si>
     <t>HND-0314</t>
@@ -578,7 +578,7 @@
     <t>0315</t>
   </si>
   <si>
-    <t>San Jose del Potrero</t>
+    <t>San José del Potrero</t>
   </si>
   <si>
     <t>HND-0315</t>
@@ -608,7 +608,7 @@
     <t>0317</t>
   </si>
   <si>
-    <t>San Sebastian</t>
+    <t>San Sebastián</t>
   </si>
   <si>
     <t>HND-0317</t>
@@ -668,7 +668,7 @@
     <t>0321</t>
   </si>
   <si>
-    <t>Taulabe</t>
+    <t>Taulabé</t>
   </si>
   <si>
     <t>HND-0321</t>
@@ -683,13 +683,13 @@
     <t>04</t>
   </si>
   <si>
-    <t>Copan</t>
+    <t>Copán</t>
   </si>
   <si>
     <t>0401</t>
   </si>
   <si>
-    <t>Santa Rosa de Copan</t>
+    <t>Santa Rosa de Copán</t>
   </si>
   <si>
     <t>HND-0401</t>
@@ -704,7 +704,7 @@
     <t>0402</t>
   </si>
   <si>
-    <t>Cabana</t>
+    <t>Cabañas</t>
   </si>
   <si>
     <t>HND-0402</t>
@@ -734,7 +734,7 @@
     <t>0404</t>
   </si>
   <si>
-    <t>Copan Ruinas</t>
+    <t>Copán Ruinas</t>
   </si>
   <si>
     <t>HND-0404</t>
@@ -749,7 +749,7 @@
     <t>0405</t>
   </si>
   <si>
-    <t>Corquin</t>
+    <t>Corquín</t>
   </si>
   <si>
     <t>HND-0405</t>
@@ -809,661 +809,661 @@
     <t>0409</t>
   </si>
   <si>
+    <t>El Paraíso</t>
+  </si>
+  <si>
+    <t>HND-0409</t>
+  </si>
+  <si>
+    <t>Municipio de El Paraiso + Departamento de Copan + Honduras</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Municipio de El Paraiso + Departamento de Copan + Honduras</t>
+  </si>
+  <si>
+    <t>0410</t>
+  </si>
+  <si>
+    <t>Florida</t>
+  </si>
+  <si>
+    <t>HND-0410</t>
+  </si>
+  <si>
+    <t>Municipio de Florida + Departamento de Copan + Honduras</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Municipio de Florida + Departamento de Copan + Honduras</t>
+  </si>
+  <si>
+    <t>0411</t>
+  </si>
+  <si>
+    <t>La Jigua</t>
+  </si>
+  <si>
+    <t>HND-0411</t>
+  </si>
+  <si>
+    <t>Municipio de La Jigua + Departamento de Copan + Honduras</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Municipio de La Jigua + Departamento de Copan + Honduras</t>
+  </si>
+  <si>
+    <t>0412</t>
+  </si>
+  <si>
+    <t>La Unión</t>
+  </si>
+  <si>
+    <t>HND-0412</t>
+  </si>
+  <si>
+    <t>Municipio de La Union + Departamento de Copan + Honduras</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Municipio de La Union + Departamento de Copan + Honduras</t>
+  </si>
+  <si>
+    <t>0413</t>
+  </si>
+  <si>
+    <t>Nueva Arcadia</t>
+  </si>
+  <si>
+    <t>HND-0413</t>
+  </si>
+  <si>
+    <t>Municipio de Nueva Arcadia + Departamento de Copan + Honduras</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Municipio de Nueva Arcadia + Departamento de Copan + Honduras</t>
+  </si>
+  <si>
+    <t>0414</t>
+  </si>
+  <si>
+    <t>San Agustín</t>
+  </si>
+  <si>
+    <t>HND-0414</t>
+  </si>
+  <si>
+    <t>Municipio de San Agustin + Departamento de Copan + Honduras</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Municipio de San Agustin + Departamento de Copan + Honduras</t>
+  </si>
+  <si>
+    <t>0415</t>
+  </si>
+  <si>
+    <t>San Antonio</t>
+  </si>
+  <si>
+    <t>HND-0415</t>
+  </si>
+  <si>
+    <t>Municipio de San Antonio + Departamento de Copan + Honduras</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Municipio de San Antonio + Departamento de Copan + Honduras</t>
+  </si>
+  <si>
+    <t>0416</t>
+  </si>
+  <si>
+    <t>HND-0416</t>
+  </si>
+  <si>
+    <t>Municipio de San Jeronimo + Departamento de Copan + Honduras</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Municipio de San Jeronimo + Departamento de Copan + Honduras</t>
+  </si>
+  <si>
+    <t>0417</t>
+  </si>
+  <si>
+    <t>San José</t>
+  </si>
+  <si>
+    <t>HND-0417</t>
+  </si>
+  <si>
+    <t>Municipio de San Jose + Departamento de Copan + Honduras</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Municipio de San Jose + Departamento de Copan + Honduras</t>
+  </si>
+  <si>
+    <t>0418</t>
+  </si>
+  <si>
+    <t>San Juan de Opoa</t>
+  </si>
+  <si>
+    <t>HND-0418</t>
+  </si>
+  <si>
+    <t>Municipio de San Juan de Opoa + Departamento de Copan + Honduras</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Municipio de San Juan de Opoa + Departamento de Copan + Honduras</t>
+  </si>
+  <si>
+    <t>0419</t>
+  </si>
+  <si>
+    <t>San Nicolas</t>
+  </si>
+  <si>
+    <t>HND-0419</t>
+  </si>
+  <si>
+    <t>Municipio de San Nicolas + Departamento de Copan + Honduras</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Municipio de San Nicolas + Departamento de Copan + Honduras</t>
+  </si>
+  <si>
+    <t>0420</t>
+  </si>
+  <si>
+    <t>San Pedro</t>
+  </si>
+  <si>
+    <t>HND-0420</t>
+  </si>
+  <si>
+    <t>Municipio de San Pedro + Departamento de Copan + Honduras</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Municipio de San Pedro + Departamento de Copan + Honduras</t>
+  </si>
+  <si>
+    <t>0421</t>
+  </si>
+  <si>
+    <t>Santa Rita</t>
+  </si>
+  <si>
+    <t>HND-0421</t>
+  </si>
+  <si>
+    <t>Municipio de Santa Rita + Departamento de Copan + Honduras</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Municipio de Santa Rita + Departamento de Copan + Honduras</t>
+  </si>
+  <si>
+    <t>0422</t>
+  </si>
+  <si>
+    <t>Trinidad de Copan</t>
+  </si>
+  <si>
+    <t>HND-0422</t>
+  </si>
+  <si>
+    <t>Municipio de Trinidad de Copan + Departamento de Copan + Honduras</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Municipio de Trinidad de Copan + Departamento de Copan + Honduras</t>
+  </si>
+  <si>
+    <t>0423</t>
+  </si>
+  <si>
+    <t>Veracruz</t>
+  </si>
+  <si>
+    <t>HND-0423</t>
+  </si>
+  <si>
+    <t>Municipio de Veracruz + Departamento de Copan + Honduras</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Municipio de Veracruz + Departamento de Copan + Honduras</t>
+  </si>
+  <si>
+    <t>05</t>
+  </si>
+  <si>
+    <t>Cortés</t>
+  </si>
+  <si>
+    <t>0501</t>
+  </si>
+  <si>
+    <t>San Pedro Sula</t>
+  </si>
+  <si>
+    <t>HND-0501</t>
+  </si>
+  <si>
+    <t>Municipio de San Pedro Sula + Departamento de Cortes + Honduras</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Municipio de San Pedro Sula + Departamento de Cortes + Honduras</t>
+  </si>
+  <si>
+    <t>0502</t>
+  </si>
+  <si>
+    <t>Choloma</t>
+  </si>
+  <si>
+    <t>HND-0502</t>
+  </si>
+  <si>
+    <t>Municipio de Choloma + Departamento de Cortes + Honduras</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Municipio de Choloma + Departamento de Cortes + Honduras</t>
+  </si>
+  <si>
+    <t>0503</t>
+  </si>
+  <si>
+    <t>Omoa</t>
+  </si>
+  <si>
+    <t>HND-0503</t>
+  </si>
+  <si>
+    <t>Municipio de Omoa + Departamento de Cortes + Honduras</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Municipio de Omoa + Departamento de Cortes + Honduras</t>
+  </si>
+  <si>
+    <t>0504</t>
+  </si>
+  <si>
+    <t>Pimienta</t>
+  </si>
+  <si>
+    <t>HND-0504</t>
+  </si>
+  <si>
+    <t>Municipio de Pimienta + Departamento de Cortes + Honduras</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Municipio de Pimienta + Departamento de Cortes + Honduras</t>
+  </si>
+  <si>
+    <t>0505</t>
+  </si>
+  <si>
+    <t>Potrerillos</t>
+  </si>
+  <si>
+    <t>HND-0505</t>
+  </si>
+  <si>
+    <t>Municipio de Potrerillos + Departamento de Cortes + Honduras</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Municipio de Potrerillos + Departamento de Cortes + Honduras</t>
+  </si>
+  <si>
+    <t>0506</t>
+  </si>
+  <si>
+    <t>Puerto Cortés</t>
+  </si>
+  <si>
+    <t>HND-0506</t>
+  </si>
+  <si>
+    <t>Municipio de Puerto Cortes + Departamento de Cortes + Honduras</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Municipio de Puerto Cortes + Departamento de Cortes + Honduras</t>
+  </si>
+  <si>
+    <t>0507</t>
+  </si>
+  <si>
+    <t>San Antonio de Cortés</t>
+  </si>
+  <si>
+    <t>HND-0507</t>
+  </si>
+  <si>
+    <t>Municipio de San Antonio de Cortes + Departamento de Cortes + Honduras</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Municipio de San Antonio de Cortes + Departamento de Cortes + Honduras</t>
+  </si>
+  <si>
+    <t>0508</t>
+  </si>
+  <si>
+    <t>San Francisco de Yojoa</t>
+  </si>
+  <si>
+    <t>HND-0508</t>
+  </si>
+  <si>
+    <t>Municipio de San Francisco de Yojoa + Departamento de Cortes + Honduras</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Municipio de San Francisco de Yojoa + Departamento de Cortes + Honduras</t>
+  </si>
+  <si>
+    <t>0509</t>
+  </si>
+  <si>
+    <t>San Manuel</t>
+  </si>
+  <si>
+    <t>HND-0509</t>
+  </si>
+  <si>
+    <t>Municipio de San Manuel + Departamento de Cortes + Honduras</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Municipio de San Manuel + Departamento de Cortes + Honduras</t>
+  </si>
+  <si>
+    <t>0510</t>
+  </si>
+  <si>
+    <t>Santa Cruz de Yojoa</t>
+  </si>
+  <si>
+    <t>HND-0510</t>
+  </si>
+  <si>
+    <t>Municipio de Santa Cruz de Yojoa + Departamento de Cortes + Honduras</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Municipio de Santa Cruz de Yojoa + Departamento de Cortes + Honduras</t>
+  </si>
+  <si>
+    <t>0511</t>
+  </si>
+  <si>
+    <t>Villanueva</t>
+  </si>
+  <si>
+    <t>HND-0511</t>
+  </si>
+  <si>
+    <t>Municipio de Villanueva + Departamento de Cortes + Honduras</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Municipio de Villanueva + Departamento de Cortes + Honduras</t>
+  </si>
+  <si>
+    <t>0512</t>
+  </si>
+  <si>
+    <t>La Lima</t>
+  </si>
+  <si>
+    <t>HND-0512</t>
+  </si>
+  <si>
+    <t>Municipio de La Lima + Departamento de Cortes + Honduras</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Municipio de La Lima + Departamento de Cortes + Honduras</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>Choluteca</t>
+  </si>
+  <si>
+    <t>0601</t>
+  </si>
+  <si>
+    <t>HND-0601</t>
+  </si>
+  <si>
+    <t>Municipio de Choluteca + Departamento de Choluteca + Honduras</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Municipio de Choluteca + Departamento de Choluteca + Honduras</t>
+  </si>
+  <si>
+    <t>0602</t>
+  </si>
+  <si>
+    <t>Apacilagua</t>
+  </si>
+  <si>
+    <t>HND-0602</t>
+  </si>
+  <si>
+    <t>Municipio de Apacilagua + Departamento de Choluteca + Honduras</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Municipio de Apacilagua + Departamento de Choluteca + Honduras</t>
+  </si>
+  <si>
+    <t>0603</t>
+  </si>
+  <si>
+    <t>Concepción de María</t>
+  </si>
+  <si>
+    <t>HND-0603</t>
+  </si>
+  <si>
+    <t>Municipio de Concepcion de Maria + Departamento de Choluteca + Honduras</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Municipio de Concepcion de Maria + Departamento de Choluteca + Honduras</t>
+  </si>
+  <si>
+    <t>0604</t>
+  </si>
+  <si>
+    <t>Duyure</t>
+  </si>
+  <si>
+    <t>HND-0604</t>
+  </si>
+  <si>
+    <t>Municipio de Duyure + Departamento de Choluteca + Honduras</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Municipio de Duyure + Departamento de Choluteca + Honduras</t>
+  </si>
+  <si>
+    <t>0605</t>
+  </si>
+  <si>
+    <t>El Corpus</t>
+  </si>
+  <si>
+    <t>HND-0605</t>
+  </si>
+  <si>
+    <t>Municipio de El Corpus + Departamento de Choluteca + Honduras</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Municipio de El Corpus + Departamento de Choluteca + Honduras</t>
+  </si>
+  <si>
+    <t>0606</t>
+  </si>
+  <si>
+    <t>El Triunfo</t>
+  </si>
+  <si>
+    <t>HND-0606</t>
+  </si>
+  <si>
+    <t>Municipio de El Triunfo + Departamento de Choluteca + Honduras</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Municipio de El Triunfo + Departamento de Choluteca + Honduras</t>
+  </si>
+  <si>
+    <t>0607</t>
+  </si>
+  <si>
+    <t>Marcovia</t>
+  </si>
+  <si>
+    <t>HND-0607</t>
+  </si>
+  <si>
+    <t>Municipio de Marcovia + Departamento de Choluteca + Honduras</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Municipio de Marcovia + Departamento de Choluteca + Honduras</t>
+  </si>
+  <si>
+    <t>0608</t>
+  </si>
+  <si>
+    <t>Morolica</t>
+  </si>
+  <si>
+    <t>HND-0608</t>
+  </si>
+  <si>
+    <t>Municipio de Morolica + Departamento de Choluteca + Honduras</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Municipio de Morolica + Departamento de Choluteca + Honduras</t>
+  </si>
+  <si>
+    <t>0609</t>
+  </si>
+  <si>
+    <t>Namasigue</t>
+  </si>
+  <si>
+    <t>HND-0609</t>
+  </si>
+  <si>
+    <t>Municipio de Namasigue + Departamento de Choluteca + Honduras</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Municipio de Namasigue + Departamento de Choluteca + Honduras</t>
+  </si>
+  <si>
+    <t>0610</t>
+  </si>
+  <si>
+    <t>Orocuina</t>
+  </si>
+  <si>
+    <t>HND-0610</t>
+  </si>
+  <si>
+    <t>Municipio de Orocuina + Departamento de Choluteca + Honduras</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Municipio de Orocuina + Departamento de Choluteca + Honduras</t>
+  </si>
+  <si>
+    <t>0611</t>
+  </si>
+  <si>
+    <t>Pespire</t>
+  </si>
+  <si>
+    <t>HND-0611</t>
+  </si>
+  <si>
+    <t>Municipio de Pespire + Departamento de Choluteca + Honduras</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Municipio de Pespire + Departamento de Choluteca + Honduras</t>
+  </si>
+  <si>
+    <t>0612</t>
+  </si>
+  <si>
+    <t>San Antonio de Flores</t>
+  </si>
+  <si>
+    <t>HND-0612</t>
+  </si>
+  <si>
+    <t>Municipio de San Antonio de Flores + Departamento de Choluteca + Honduras</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Municipio de San Antonio de Flores + Departamento de Choluteca + Honduras</t>
+  </si>
+  <si>
+    <t>0613</t>
+  </si>
+  <si>
+    <t>San Isidro</t>
+  </si>
+  <si>
+    <t>HND-0613</t>
+  </si>
+  <si>
+    <t>Municipio de San Isidro + Departamento de Choluteca + Honduras</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Municipio de San Isidro + Departamento de Choluteca + Honduras</t>
+  </si>
+  <si>
+    <t>0614</t>
+  </si>
+  <si>
+    <t>HND-0614</t>
+  </si>
+  <si>
+    <t>Municipio de San Jose + Departamento de Choluteca + Honduras</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Municipio de San Jose + Departamento de Choluteca + Honduras</t>
+  </si>
+  <si>
+    <t>0615</t>
+  </si>
+  <si>
+    <t>San Marcos de Colón</t>
+  </si>
+  <si>
+    <t>HND-0615</t>
+  </si>
+  <si>
+    <t>Municipio de San Marcos de Colon + Departamento de Choluteca + Honduras</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Municipio de San Marcos de Colon + Departamento de Choluteca + Honduras</t>
+  </si>
+  <si>
+    <t>0616</t>
+  </si>
+  <si>
+    <t>Santa Ana de Yusguare</t>
+  </si>
+  <si>
+    <t>HND-0616</t>
+  </si>
+  <si>
+    <t>Municipio de Santa Ana de Yusguare + Departamento de Choluteca + Honduras</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Municipio de Santa Ana de Yusguare + Departamento de Choluteca + Honduras</t>
+  </si>
+  <si>
+    <t>07</t>
+  </si>
+  <si>
     <t>El Paraiso</t>
   </si>
   <si>
-    <t>HND-0409</t>
-  </si>
-  <si>
-    <t>Municipio de El Paraiso + Departamento de Copan + Honduras</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Municipio de El Paraiso + Departamento de Copan + Honduras</t>
-  </si>
-  <si>
-    <t>0410</t>
-  </si>
-  <si>
-    <t>Florida</t>
-  </si>
-  <si>
-    <t>HND-0410</t>
-  </si>
-  <si>
-    <t>Municipio de Florida + Departamento de Copan + Honduras</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Municipio de Florida + Departamento de Copan + Honduras</t>
-  </si>
-  <si>
-    <t>0411</t>
-  </si>
-  <si>
-    <t>La Jigua</t>
-  </si>
-  <si>
-    <t>HND-0411</t>
-  </si>
-  <si>
-    <t>Municipio de La Jigua + Departamento de Copan + Honduras</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Municipio de La Jigua + Departamento de Copan + Honduras</t>
-  </si>
-  <si>
-    <t>0412</t>
-  </si>
-  <si>
-    <t>La Union</t>
-  </si>
-  <si>
-    <t>HND-0412</t>
-  </si>
-  <si>
-    <t>Municipio de La Union + Departamento de Copan + Honduras</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Municipio de La Union + Departamento de Copan + Honduras</t>
-  </si>
-  <si>
-    <t>0413</t>
-  </si>
-  <si>
-    <t>Nueva Arcadia</t>
-  </si>
-  <si>
-    <t>HND-0413</t>
-  </si>
-  <si>
-    <t>Municipio de Nueva Arcadia + Departamento de Copan + Honduras</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Municipio de Nueva Arcadia + Departamento de Copan + Honduras</t>
-  </si>
-  <si>
-    <t>0414</t>
-  </si>
-  <si>
-    <t>San Agustin</t>
-  </si>
-  <si>
-    <t>HND-0414</t>
-  </si>
-  <si>
-    <t>Municipio de San Agustin + Departamento de Copan + Honduras</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Municipio de San Agustin + Departamento de Copan + Honduras</t>
-  </si>
-  <si>
-    <t>0415</t>
-  </si>
-  <si>
-    <t>San Antonio</t>
-  </si>
-  <si>
-    <t>HND-0415</t>
-  </si>
-  <si>
-    <t>Municipio de San Antonio + Departamento de Copan + Honduras</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Municipio de San Antonio + Departamento de Copan + Honduras</t>
-  </si>
-  <si>
-    <t>0416</t>
-  </si>
-  <si>
-    <t>San Jeronimo</t>
-  </si>
-  <si>
-    <t>HND-0416</t>
-  </si>
-  <si>
-    <t>Municipio de San Jeronimo + Departamento de Copan + Honduras</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Municipio de San Jeronimo + Departamento de Copan + Honduras</t>
-  </si>
-  <si>
-    <t>0417</t>
-  </si>
-  <si>
-    <t>San Jose</t>
-  </si>
-  <si>
-    <t>HND-0417</t>
-  </si>
-  <si>
-    <t>Municipio de San Jose + Departamento de Copan + Honduras</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Municipio de San Jose + Departamento de Copan + Honduras</t>
-  </si>
-  <si>
-    <t>0418</t>
-  </si>
-  <si>
-    <t>San Juan de Opoa</t>
-  </si>
-  <si>
-    <t>HND-0418</t>
-  </si>
-  <si>
-    <t>Municipio de San Juan de Opoa + Departamento de Copan + Honduras</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Municipio de San Juan de Opoa + Departamento de Copan + Honduras</t>
-  </si>
-  <si>
-    <t>0419</t>
-  </si>
-  <si>
-    <t>San Nicolas</t>
-  </si>
-  <si>
-    <t>HND-0419</t>
-  </si>
-  <si>
-    <t>Municipio de San Nicolas + Departamento de Copan + Honduras</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Municipio de San Nicolas + Departamento de Copan + Honduras</t>
-  </si>
-  <si>
-    <t>0420</t>
-  </si>
-  <si>
-    <t>San Pedro</t>
-  </si>
-  <si>
-    <t>HND-0420</t>
-  </si>
-  <si>
-    <t>Municipio de San Pedro + Departamento de Copan + Honduras</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Municipio de San Pedro + Departamento de Copan + Honduras</t>
-  </si>
-  <si>
-    <t>0421</t>
-  </si>
-  <si>
-    <t>Santa Rita</t>
-  </si>
-  <si>
-    <t>HND-0421</t>
-  </si>
-  <si>
-    <t>Municipio de Santa Rita + Departamento de Copan + Honduras</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Municipio de Santa Rita + Departamento de Copan + Honduras</t>
-  </si>
-  <si>
-    <t>0422</t>
-  </si>
-  <si>
-    <t>Trinidad de Copan</t>
-  </si>
-  <si>
-    <t>HND-0422</t>
-  </si>
-  <si>
-    <t>Municipio de Trinidad de Copan + Departamento de Copan + Honduras</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Municipio de Trinidad de Copan + Departamento de Copan + Honduras</t>
-  </si>
-  <si>
-    <t>0423</t>
-  </si>
-  <si>
-    <t>Veracruz</t>
-  </si>
-  <si>
-    <t>HND-0423</t>
-  </si>
-  <si>
-    <t>Municipio de Veracruz + Departamento de Copan + Honduras</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Municipio de Veracruz + Departamento de Copan + Honduras</t>
-  </si>
-  <si>
-    <t>05</t>
-  </si>
-  <si>
-    <t>Cortes</t>
-  </si>
-  <si>
-    <t>0501</t>
-  </si>
-  <si>
-    <t>San Pedro Sula</t>
-  </si>
-  <si>
-    <t>HND-0501</t>
-  </si>
-  <si>
-    <t>Municipio de San Pedro Sula + Departamento de Cortes + Honduras</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Municipio de San Pedro Sula + Departamento de Cortes + Honduras</t>
-  </si>
-  <si>
-    <t>0502</t>
-  </si>
-  <si>
-    <t>Choloma</t>
-  </si>
-  <si>
-    <t>HND-0502</t>
-  </si>
-  <si>
-    <t>Municipio de Choloma + Departamento de Cortes + Honduras</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Municipio de Choloma + Departamento de Cortes + Honduras</t>
-  </si>
-  <si>
-    <t>0503</t>
-  </si>
-  <si>
-    <t>Omoa</t>
-  </si>
-  <si>
-    <t>HND-0503</t>
-  </si>
-  <si>
-    <t>Municipio de Omoa + Departamento de Cortes + Honduras</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Municipio de Omoa + Departamento de Cortes + Honduras</t>
-  </si>
-  <si>
-    <t>0504</t>
-  </si>
-  <si>
-    <t>Pimienta</t>
-  </si>
-  <si>
-    <t>HND-0504</t>
-  </si>
-  <si>
-    <t>Municipio de Pimienta + Departamento de Cortes + Honduras</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Municipio de Pimienta + Departamento de Cortes + Honduras</t>
-  </si>
-  <si>
-    <t>0505</t>
-  </si>
-  <si>
-    <t>Potrerillos</t>
-  </si>
-  <si>
-    <t>HND-0505</t>
-  </si>
-  <si>
-    <t>Municipio de Potrerillos + Departamento de Cortes + Honduras</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Municipio de Potrerillos + Departamento de Cortes + Honduras</t>
-  </si>
-  <si>
-    <t>0506</t>
-  </si>
-  <si>
-    <t>Puerto Cortes</t>
-  </si>
-  <si>
-    <t>HND-0506</t>
-  </si>
-  <si>
-    <t>Municipio de Puerto Cortes + Departamento de Cortes + Honduras</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Municipio de Puerto Cortes + Departamento de Cortes + Honduras</t>
-  </si>
-  <si>
-    <t>0507</t>
-  </si>
-  <si>
-    <t>San Antonio de Cortes</t>
-  </si>
-  <si>
-    <t>HND-0507</t>
-  </si>
-  <si>
-    <t>Municipio de San Antonio de Cortes + Departamento de Cortes + Honduras</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Municipio de San Antonio de Cortes + Departamento de Cortes + Honduras</t>
-  </si>
-  <si>
-    <t>0508</t>
-  </si>
-  <si>
-    <t>San Francisco de Yojoa</t>
-  </si>
-  <si>
-    <t>HND-0508</t>
-  </si>
-  <si>
-    <t>Municipio de San Francisco de Yojoa + Departamento de Cortes + Honduras</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Municipio de San Francisco de Yojoa + Departamento de Cortes + Honduras</t>
-  </si>
-  <si>
-    <t>0509</t>
-  </si>
-  <si>
-    <t>San Manuel</t>
-  </si>
-  <si>
-    <t>HND-0509</t>
-  </si>
-  <si>
-    <t>Municipio de San Manuel + Departamento de Cortes + Honduras</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Municipio de San Manuel + Departamento de Cortes + Honduras</t>
-  </si>
-  <si>
-    <t>0510</t>
-  </si>
-  <si>
-    <t>Santa Cruz de Yojoa</t>
-  </si>
-  <si>
-    <t>HND-0510</t>
-  </si>
-  <si>
-    <t>Municipio de Santa Cruz de Yojoa + Departamento de Cortes + Honduras</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Municipio de Santa Cruz de Yojoa + Departamento de Cortes + Honduras</t>
-  </si>
-  <si>
-    <t>0511</t>
-  </si>
-  <si>
-    <t>Villanueva</t>
-  </si>
-  <si>
-    <t>HND-0511</t>
-  </si>
-  <si>
-    <t>Municipio de Villanueva + Departamento de Cortes + Honduras</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Municipio de Villanueva + Departamento de Cortes + Honduras</t>
-  </si>
-  <si>
-    <t>0512</t>
-  </si>
-  <si>
-    <t>La Lima</t>
-  </si>
-  <si>
-    <t>HND-0512</t>
-  </si>
-  <si>
-    <t>Municipio de La Lima + Departamento de Cortes + Honduras</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Municipio de La Lima + Departamento de Cortes + Honduras</t>
-  </si>
-  <si>
-    <t>06</t>
-  </si>
-  <si>
-    <t>Choluteca</t>
-  </si>
-  <si>
-    <t>0601</t>
-  </si>
-  <si>
-    <t>HND-0601</t>
-  </si>
-  <si>
-    <t>Municipio de Choluteca + Departamento de Choluteca + Honduras</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Municipio de Choluteca + Departamento de Choluteca + Honduras</t>
-  </si>
-  <si>
-    <t>0602</t>
-  </si>
-  <si>
-    <t>Apacilagua</t>
-  </si>
-  <si>
-    <t>HND-0602</t>
-  </si>
-  <si>
-    <t>Municipio de Apacilagua + Departamento de Choluteca + Honduras</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Municipio de Apacilagua + Departamento de Choluteca + Honduras</t>
-  </si>
-  <si>
-    <t>0603</t>
-  </si>
-  <si>
-    <t>Concepcion de Maria</t>
-  </si>
-  <si>
-    <t>HND-0603</t>
-  </si>
-  <si>
-    <t>Municipio de Concepcion de Maria + Departamento de Choluteca + Honduras</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Municipio de Concepcion de Maria + Departamento de Choluteca + Honduras</t>
-  </si>
-  <si>
-    <t>0604</t>
-  </si>
-  <si>
-    <t>Duyure</t>
-  </si>
-  <si>
-    <t>HND-0604</t>
-  </si>
-  <si>
-    <t>Municipio de Duyure + Departamento de Choluteca + Honduras</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Municipio de Duyure + Departamento de Choluteca + Honduras</t>
-  </si>
-  <si>
-    <t>0605</t>
-  </si>
-  <si>
-    <t>El Corpus</t>
-  </si>
-  <si>
-    <t>HND-0605</t>
-  </si>
-  <si>
-    <t>Municipio de El Corpus + Departamento de Choluteca + Honduras</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Municipio de El Corpus + Departamento de Choluteca + Honduras</t>
-  </si>
-  <si>
-    <t>0606</t>
-  </si>
-  <si>
-    <t>El Triunfo</t>
-  </si>
-  <si>
-    <t>HND-0606</t>
-  </si>
-  <si>
-    <t>Municipio de El Triunfo + Departamento de Choluteca + Honduras</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Municipio de El Triunfo + Departamento de Choluteca + Honduras</t>
-  </si>
-  <si>
-    <t>0607</t>
-  </si>
-  <si>
-    <t>Marcovia</t>
-  </si>
-  <si>
-    <t>HND-0607</t>
-  </si>
-  <si>
-    <t>Municipio de Marcovia + Departamento de Choluteca + Honduras</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Municipio de Marcovia + Departamento de Choluteca + Honduras</t>
-  </si>
-  <si>
-    <t>0608</t>
-  </si>
-  <si>
-    <t>Morolica</t>
-  </si>
-  <si>
-    <t>HND-0608</t>
-  </si>
-  <si>
-    <t>Municipio de Morolica + Departamento de Choluteca + Honduras</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Municipio de Morolica + Departamento de Choluteca + Honduras</t>
-  </si>
-  <si>
-    <t>0609</t>
-  </si>
-  <si>
-    <t>Namasigue</t>
-  </si>
-  <si>
-    <t>HND-0609</t>
-  </si>
-  <si>
-    <t>Municipio de Namasigue + Departamento de Choluteca + Honduras</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Municipio de Namasigue + Departamento de Choluteca + Honduras</t>
-  </si>
-  <si>
-    <t>0610</t>
-  </si>
-  <si>
-    <t>Orocuina</t>
-  </si>
-  <si>
-    <t>HND-0610</t>
-  </si>
-  <si>
-    <t>Municipio de Orocuina + Departamento de Choluteca + Honduras</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Municipio de Orocuina + Departamento de Choluteca + Honduras</t>
-  </si>
-  <si>
-    <t>0611</t>
-  </si>
-  <si>
-    <t>Pespire</t>
-  </si>
-  <si>
-    <t>HND-0611</t>
-  </si>
-  <si>
-    <t>Municipio de Pespire + Departamento de Choluteca + Honduras</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Municipio de Pespire + Departamento de Choluteca + Honduras</t>
-  </si>
-  <si>
-    <t>0612</t>
-  </si>
-  <si>
-    <t>San Antonio de Flores</t>
-  </si>
-  <si>
-    <t>HND-0612</t>
-  </si>
-  <si>
-    <t>Municipio de San Antonio de Flores + Departamento de Choluteca + Honduras</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Municipio de San Antonio de Flores + Departamento de Choluteca + Honduras</t>
-  </si>
-  <si>
-    <t>0613</t>
-  </si>
-  <si>
-    <t>San Isidro</t>
-  </si>
-  <si>
-    <t>HND-0613</t>
-  </si>
-  <si>
-    <t>Municipio de San Isidro + Departamento de Choluteca + Honduras</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Municipio de San Isidro + Departamento de Choluteca + Honduras</t>
-  </si>
-  <si>
-    <t>0614</t>
-  </si>
-  <si>
-    <t>HND-0614</t>
-  </si>
-  <si>
-    <t>Municipio de San Jose + Departamento de Choluteca + Honduras</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Municipio de San Jose + Departamento de Choluteca + Honduras</t>
-  </si>
-  <si>
-    <t>0615</t>
-  </si>
-  <si>
-    <t>San Marcos de Colon</t>
-  </si>
-  <si>
-    <t>HND-0615</t>
-  </si>
-  <si>
-    <t>Municipio de San Marcos de Colon + Departamento de Choluteca + Honduras</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Municipio de San Marcos de Colon + Departamento de Choluteca + Honduras</t>
-  </si>
-  <si>
-    <t>0616</t>
-  </si>
-  <si>
-    <t>Santa Ana de Yusguare</t>
-  </si>
-  <si>
-    <t>HND-0616</t>
-  </si>
-  <si>
-    <t>Municipio de Santa Ana de Yusguare + Departamento de Choluteca + Honduras</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Municipio de Santa Ana de Yusguare + Departamento de Choluteca + Honduras</t>
-  </si>
-  <si>
-    <t>07</t>
-  </si>
-  <si>
     <t>0701</t>
   </si>
   <si>
-    <t>Yuscaran</t>
+    <t>Yuscarán</t>
   </si>
   <si>
     <t>HND-0701</t>
@@ -1493,7 +1493,7 @@
     <t>0703</t>
   </si>
   <si>
-    <t>Danli</t>
+    <t>Danlí</t>
   </si>
   <si>
     <t>HND-0703</t>
@@ -1520,7 +1520,7 @@
     <t>0705</t>
   </si>
   <si>
-    <t>Guinope</t>
+    <t>Güinope</t>
   </si>
   <si>
     <t>HND-0705</t>
@@ -1565,7 +1565,7 @@
     <t>0708</t>
   </si>
   <si>
-    <t>Moroceli</t>
+    <t>Morocelí</t>
   </si>
   <si>
     <t>HND-0708</t>
@@ -1580,7 +1580,7 @@
     <t>0709</t>
   </si>
   <si>
-    <t>Oropoli</t>
+    <t>Oropolí</t>
   </si>
   <si>
     <t>HND-0709</t>
@@ -1634,7 +1634,7 @@
     <t>0713</t>
   </si>
   <si>
-    <t>San Matias</t>
+    <t>San Matías</t>
   </si>
   <si>
     <t>HND-0713</t>
@@ -1739,7 +1739,7 @@
     <t>08</t>
   </si>
   <si>
-    <t>Francisco Morazan</t>
+    <t>Francisco Morazán</t>
   </si>
   <si>
     <t>0801</t>
@@ -1760,7 +1760,7 @@
     <t>0802</t>
   </si>
   <si>
-    <t>Alubaren</t>
+    <t>Alubarén</t>
   </si>
   <si>
     <t>HND-0802</t>
@@ -1790,7 +1790,7 @@
     <t>0804</t>
   </si>
   <si>
-    <t>Curaren</t>
+    <t>Curarén</t>
   </si>
   <si>
     <t>HND-0804</t>
@@ -2069,7 +2069,7 @@
     <t>0823</t>
   </si>
   <si>
-    <t>Santa Lucia</t>
+    <t>Santa Lucía</t>
   </si>
   <si>
     <t>HND-0823</t>
@@ -2114,7 +2114,7 @@
     <t>0826</t>
   </si>
   <si>
-    <t>Valle de Angeles</t>
+    <t>Valle de Ángeles</t>
   </si>
   <si>
     <t>HND-0826</t>
@@ -2255,7 +2255,7 @@
     <t>10</t>
   </si>
   <si>
-    <t>Intibuca</t>
+    <t>Intibucá</t>
   </si>
   <si>
     <t>1001</t>
@@ -2306,9 +2306,6 @@
     <t>1004</t>
   </si>
   <si>
-    <t>Concepcion</t>
-  </si>
-  <si>
     <t>HND-1004</t>
   </si>
   <si>
@@ -2345,7 +2342,7 @@
     <t>1007</t>
   </si>
   <si>
-    <t>Jesus de Otoro</t>
+    <t>Jesús de Otoro</t>
   </si>
   <si>
     <t>HND-1007</t>
@@ -2498,13 +2495,13 @@
     <t>11</t>
   </si>
   <si>
-    <t>Islas de La Bahia</t>
+    <t>Islas de La Bahía</t>
   </si>
   <si>
     <t>1101</t>
   </si>
   <si>
-    <t>Roatan</t>
+    <t>Roatán</t>
   </si>
   <si>
     <t>HND-1101</t>
@@ -2534,7 +2531,7 @@
     <t>1103</t>
   </si>
   <si>
-    <t>Jose Santos Guardiola</t>
+    <t>José Santos Guardiola</t>
   </si>
   <si>
     <t>HND-1103</t>
@@ -2798,7 +2795,7 @@
     <t>1217</t>
   </si>
   <si>
-    <t>Santa Maria</t>
+    <t>Santa María</t>
   </si>
   <si>
     <t>HND-1217</t>
@@ -2864,7 +2861,7 @@
     <t>1302</t>
   </si>
   <si>
-    <t>Belen</t>
+    <t>Belén</t>
   </si>
   <si>
     <t>HND-1302</t>
@@ -3071,7 +3068,7 @@
     <t>1316</t>
   </si>
   <si>
-    <t>San Andres</t>
+    <t>San Andrés</t>
   </si>
   <si>
     <t>HND-1316</t>
@@ -3200,7 +3197,7 @@
     <t>1325</t>
   </si>
   <si>
-    <t>Tomala</t>
+    <t>Tomalá</t>
   </si>
   <si>
     <t>HND-1325</t>
@@ -3245,7 +3242,7 @@
     <t>1328</t>
   </si>
   <si>
-    <t>San Marcos de Caiquin</t>
+    <t>San Marcos de Caiquín</t>
   </si>
   <si>
     <t>HND-1328</t>
@@ -3278,7 +3275,7 @@
     <t>1402</t>
   </si>
   <si>
-    <t>Belen Gualcho</t>
+    <t>Belén Gualcho</t>
   </si>
   <si>
     <t>HND-1402</t>
@@ -3305,7 +3302,7 @@
     <t>1404</t>
   </si>
   <si>
-    <t>Dolores Merendon</t>
+    <t>Dolores Merendón</t>
   </si>
   <si>
     <t>HND-1404</t>
@@ -3335,7 +3332,7 @@
     <t>1406</t>
   </si>
   <si>
-    <t>La Encarnacion</t>
+    <t>La Encarnación</t>
   </si>
   <si>
     <t>HND-1406</t>
@@ -3563,7 +3560,7 @@
     <t>1505</t>
   </si>
   <si>
-    <t>Dulce Nombre de Culmi</t>
+    <t>Dulce Nombre de Culmí</t>
   </si>
   <si>
     <t>HND-1505</t>
@@ -3722,7 +3719,7 @@
     <t>1516</t>
   </si>
   <si>
-    <t>Salama</t>
+    <t>Salamá</t>
   </si>
   <si>
     <t>HND-1516</t>
@@ -3782,7 +3779,7 @@
     <t>1520</t>
   </si>
   <si>
-    <t>Santa Maria del Real</t>
+    <t>Santa María del Real</t>
   </si>
   <si>
     <t>HND-1520</t>
@@ -3812,7 +3809,7 @@
     <t>1522</t>
   </si>
   <si>
-    <t>Yocon</t>
+    <t>Yocón</t>
   </si>
   <si>
     <t>HND-1522</t>
@@ -3842,7 +3839,7 @@
     <t>16</t>
   </si>
   <si>
-    <t>Santa Barbara</t>
+    <t>Santa Bárbara</t>
   </si>
   <si>
     <t>1601</t>
@@ -3920,7 +3917,7 @@
     <t>1606</t>
   </si>
   <si>
-    <t>Concepcion del Norte</t>
+    <t>Concepción del Norte</t>
   </si>
   <si>
     <t>HND-1606</t>
@@ -3935,7 +3932,7 @@
     <t>1607</t>
   </si>
   <si>
-    <t>Concepcion del Sur</t>
+    <t>Concepción del Sur</t>
   </si>
   <si>
     <t>HND-1607</t>
@@ -3965,7 +3962,7 @@
     <t>1609</t>
   </si>
   <si>
-    <t>El Nispero</t>
+    <t>El Níspero</t>
   </si>
   <si>
     <t>HND-1609</t>
@@ -4070,7 +4067,7 @@
     <t>1616</t>
   </si>
   <si>
-    <t>Proteccion</t>
+    <t>Protección</t>
   </si>
   <si>
     <t>HND-1616</t>
@@ -4085,7 +4082,7 @@
     <t>1617</t>
   </si>
   <si>
-    <t>Quimistan</t>
+    <t>Quimistán</t>
   </si>
   <si>
     <t>HND-1617</t>
@@ -4115,7 +4112,7 @@
     <t>1619</t>
   </si>
   <si>
-    <t>San Jose de Colinas</t>
+    <t>San José de Colinas</t>
   </si>
   <si>
     <t>HND-1619</t>
@@ -4154,6 +4151,9 @@
     <t>1622</t>
   </si>
   <si>
+    <t>San Nicolás</t>
+  </si>
+  <si>
     <t>HND-1622</t>
   </si>
   <si>
@@ -4334,7 +4334,7 @@
     <t>1706</t>
   </si>
   <si>
-    <t>Goascoran</t>
+    <t>Goascorán</t>
   </si>
   <si>
     <t>HND-1706</t>
@@ -4457,7 +4457,7 @@
     <t>1805</t>
   </si>
   <si>
-    <t>Jocon</t>
+    <t>Jocón</t>
   </si>
   <si>
     <t>HND-1805</t>
@@ -4472,7 +4472,7 @@
     <t>1806</t>
   </si>
   <si>
-    <t>Morazan</t>
+    <t>Morazán</t>
   </si>
   <si>
     <t>HND-1806</t>
@@ -4940,8 +4940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57166B67-A93A-452E-A5E0-8FB31F384F7A}">
   <dimension ref="A1:M299"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="J64" sqref="J64"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="H44" sqref="H44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
@@ -7234,7 +7234,7 @@
         <v>292</v>
       </c>
       <c r="H56" t="s">
-        <v>293</v>
+        <v>171</v>
       </c>
       <c r="I56">
         <v>14.960699999999999</v>
@@ -7243,13 +7243,13 @@
         <v>-88.899600000000007</v>
       </c>
       <c r="K56" t="s">
+        <v>293</v>
+      </c>
+      <c r="L56" t="s">
         <v>294</v>
       </c>
-      <c r="L56" t="s">
+      <c r="M56" t="s">
         <v>295</v>
-      </c>
-      <c r="M56" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="57" spans="1:13">
@@ -7272,10 +7272,10 @@
         <v>17</v>
       </c>
       <c r="G57" t="s">
+        <v>296</v>
+      </c>
+      <c r="H57" t="s">
         <v>297</v>
-      </c>
-      <c r="H57" t="s">
-        <v>298</v>
       </c>
       <c r="I57">
         <v>14.9137</v>
@@ -7284,13 +7284,13 @@
         <v>-88.714500000000001</v>
       </c>
       <c r="K57" t="s">
+        <v>298</v>
+      </c>
+      <c r="L57" t="s">
         <v>299</v>
       </c>
-      <c r="L57" t="s">
+      <c r="M57" t="s">
         <v>300</v>
-      </c>
-      <c r="M57" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="58" spans="1:13">
@@ -7313,10 +7313,10 @@
         <v>18</v>
       </c>
       <c r="G58" t="s">
+        <v>301</v>
+      </c>
+      <c r="H58" t="s">
         <v>302</v>
-      </c>
-      <c r="H58" t="s">
-        <v>303</v>
       </c>
       <c r="I58">
         <v>14.8124</v>
@@ -7325,13 +7325,13 @@
         <v>-88.708100000000002</v>
       </c>
       <c r="K58" t="s">
+        <v>303</v>
+      </c>
+      <c r="L58" t="s">
         <v>304</v>
       </c>
-      <c r="L58" t="s">
+      <c r="M58" t="s">
         <v>305</v>
-      </c>
-      <c r="M58" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="59" spans="1:13">
@@ -7354,10 +7354,10 @@
         <v>19</v>
       </c>
       <c r="G59" t="s">
+        <v>306</v>
+      </c>
+      <c r="H59" t="s">
         <v>307</v>
-      </c>
-      <c r="H59" t="s">
-        <v>308</v>
       </c>
       <c r="I59">
         <v>14.9945</v>
@@ -7366,13 +7366,13 @@
         <v>-88.753500000000003</v>
       </c>
       <c r="K59" t="s">
+        <v>308</v>
+      </c>
+      <c r="L59" t="s">
         <v>309</v>
       </c>
-      <c r="L59" t="s">
+      <c r="M59" t="s">
         <v>310</v>
-      </c>
-      <c r="M59" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="60" spans="1:13">
@@ -7395,10 +7395,10 @@
         <v>20</v>
       </c>
       <c r="G60" t="s">
+        <v>311</v>
+      </c>
+      <c r="H60" t="s">
         <v>312</v>
-      </c>
-      <c r="H60" t="s">
-        <v>313</v>
       </c>
       <c r="I60">
         <v>14.617599999999999</v>
@@ -7407,13 +7407,13 @@
         <v>-88.809100000000001</v>
       </c>
       <c r="K60" t="s">
+        <v>313</v>
+      </c>
+      <c r="L60" t="s">
         <v>314</v>
       </c>
-      <c r="L60" t="s">
+      <c r="M60" t="s">
         <v>315</v>
-      </c>
-      <c r="M60" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="61" spans="1:13">
@@ -7436,10 +7436,10 @@
         <v>21</v>
       </c>
       <c r="G61" t="s">
+        <v>316</v>
+      </c>
+      <c r="H61" t="s">
         <v>317</v>
-      </c>
-      <c r="H61" t="s">
-        <v>318</v>
       </c>
       <c r="I61">
         <v>14.886799999999999</v>
@@ -7448,13 +7448,13 @@
         <v>-89.036000000000001</v>
       </c>
       <c r="K61" t="s">
+        <v>318</v>
+      </c>
+      <c r="L61" t="s">
         <v>319</v>
       </c>
-      <c r="L61" t="s">
+      <c r="M61" t="s">
         <v>320</v>
-      </c>
-      <c r="M61" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="62" spans="1:13">
@@ -7477,10 +7477,10 @@
         <v>22</v>
       </c>
       <c r="G62" t="s">
+        <v>321</v>
+      </c>
+      <c r="H62" t="s">
         <v>322</v>
-      </c>
-      <c r="H62" t="s">
-        <v>323</v>
       </c>
       <c r="I62">
         <v>14.9497</v>
@@ -7489,13 +7489,13 @@
         <v>-88.775199999999998</v>
       </c>
       <c r="K62" t="s">
+        <v>323</v>
+      </c>
+      <c r="L62" t="s">
         <v>324</v>
       </c>
-      <c r="L62" t="s">
+      <c r="M62" t="s">
         <v>325</v>
-      </c>
-      <c r="M62" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="63" spans="1:13">
@@ -7518,10 +7518,10 @@
         <v>23</v>
       </c>
       <c r="G63" t="s">
+        <v>326</v>
+      </c>
+      <c r="H63" t="s">
         <v>327</v>
-      </c>
-      <c r="H63" t="s">
-        <v>328</v>
       </c>
       <c r="I63">
         <v>14.8874</v>
@@ -7530,13 +7530,13 @@
         <v>-88.787999999999997</v>
       </c>
       <c r="K63" t="s">
+        <v>328</v>
+      </c>
+      <c r="L63" t="s">
         <v>329</v>
       </c>
-      <c r="L63" t="s">
+      <c r="M63" t="s">
         <v>330</v>
-      </c>
-      <c r="M63" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="64" spans="1:13">
@@ -7550,19 +7550,19 @@
         <v>5</v>
       </c>
       <c r="D64" t="s">
+        <v>331</v>
+      </c>
+      <c r="E64" t="s">
         <v>332</v>
-      </c>
-      <c r="E64" t="s">
-        <v>333</v>
       </c>
       <c r="F64">
         <v>1</v>
       </c>
       <c r="G64" t="s">
+        <v>333</v>
+      </c>
+      <c r="H64" t="s">
         <v>334</v>
-      </c>
-      <c r="H64" t="s">
-        <v>335</v>
       </c>
       <c r="I64">
         <v>15.5151</v>
@@ -7571,13 +7571,13 @@
         <v>-88.114599999999996</v>
       </c>
       <c r="K64" t="s">
+        <v>335</v>
+      </c>
+      <c r="L64" t="s">
         <v>336</v>
       </c>
-      <c r="L64" t="s">
+      <c r="M64" t="s">
         <v>337</v>
-      </c>
-      <c r="M64" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="65" spans="1:13">
@@ -7591,19 +7591,19 @@
         <v>5</v>
       </c>
       <c r="D65" t="s">
+        <v>331</v>
+      </c>
+      <c r="E65" t="s">
         <v>332</v>
-      </c>
-      <c r="E65" t="s">
-        <v>333</v>
       </c>
       <c r="F65">
         <v>2</v>
       </c>
       <c r="G65" t="s">
+        <v>338</v>
+      </c>
+      <c r="H65" t="s">
         <v>339</v>
-      </c>
-      <c r="H65" t="s">
-        <v>340</v>
       </c>
       <c r="I65">
         <v>15.6435</v>
@@ -7612,13 +7612,13 @@
         <v>-87.933999999999997</v>
       </c>
       <c r="K65" t="s">
+        <v>340</v>
+      </c>
+      <c r="L65" t="s">
         <v>341</v>
       </c>
-      <c r="L65" t="s">
+      <c r="M65" t="s">
         <v>342</v>
-      </c>
-      <c r="M65" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="66" spans="1:13">
@@ -7632,19 +7632,19 @@
         <v>5</v>
       </c>
       <c r="D66" t="s">
+        <v>331</v>
+      </c>
+      <c r="E66" t="s">
         <v>332</v>
-      </c>
-      <c r="E66" t="s">
-        <v>333</v>
       </c>
       <c r="F66">
         <v>3</v>
       </c>
       <c r="G66" t="s">
+        <v>343</v>
+      </c>
+      <c r="H66" t="s">
         <v>344</v>
-      </c>
-      <c r="H66" t="s">
-        <v>345</v>
       </c>
       <c r="I66">
         <v>15.6675</v>
@@ -7653,13 +7653,13 @@
         <v>-88.214399999999998</v>
       </c>
       <c r="K66" t="s">
+        <v>345</v>
+      </c>
+      <c r="L66" t="s">
         <v>346</v>
       </c>
-      <c r="L66" t="s">
+      <c r="M66" t="s">
         <v>347</v>
-      </c>
-      <c r="M66" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="67" spans="1:13">
@@ -7673,19 +7673,19 @@
         <v>5</v>
       </c>
       <c r="D67" t="s">
+        <v>331</v>
+      </c>
+      <c r="E67" t="s">
         <v>332</v>
-      </c>
-      <c r="E67" t="s">
-        <v>333</v>
       </c>
       <c r="F67">
         <v>4</v>
       </c>
       <c r="G67" t="s">
+        <v>348</v>
+      </c>
+      <c r="H67" t="s">
         <v>349</v>
-      </c>
-      <c r="H67" t="s">
-        <v>350</v>
       </c>
       <c r="I67">
         <v>15.2746</v>
@@ -7694,13 +7694,13 @@
         <v>-87.970200000000006</v>
       </c>
       <c r="K67" t="s">
+        <v>350</v>
+      </c>
+      <c r="L67" t="s">
         <v>351</v>
       </c>
-      <c r="L67" t="s">
+      <c r="M67" t="s">
         <v>352</v>
-      </c>
-      <c r="M67" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="68" spans="1:13">
@@ -7714,19 +7714,19 @@
         <v>5</v>
       </c>
       <c r="D68" t="s">
+        <v>331</v>
+      </c>
+      <c r="E68" t="s">
         <v>332</v>
-      </c>
-      <c r="E68" t="s">
-        <v>333</v>
       </c>
       <c r="F68">
         <v>5</v>
       </c>
       <c r="G68" t="s">
+        <v>353</v>
+      </c>
+      <c r="H68" t="s">
         <v>354</v>
-      </c>
-      <c r="H68" t="s">
-        <v>355</v>
       </c>
       <c r="I68">
         <v>15.197699999999999</v>
@@ -7735,13 +7735,13 @@
         <v>-87.960099999999997</v>
       </c>
       <c r="K68" t="s">
+        <v>355</v>
+      </c>
+      <c r="L68" t="s">
         <v>356</v>
       </c>
-      <c r="L68" t="s">
+      <c r="M68" t="s">
         <v>357</v>
-      </c>
-      <c r="M68" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="69" spans="1:13">
@@ -7755,19 +7755,19 @@
         <v>5</v>
       </c>
       <c r="D69" t="s">
+        <v>331</v>
+      </c>
+      <c r="E69" t="s">
         <v>332</v>
-      </c>
-      <c r="E69" t="s">
-        <v>333</v>
       </c>
       <c r="F69">
         <v>6</v>
       </c>
       <c r="G69" t="s">
+        <v>358</v>
+      </c>
+      <c r="H69" t="s">
         <v>359</v>
-      </c>
-      <c r="H69" t="s">
-        <v>360</v>
       </c>
       <c r="I69">
         <v>15.7897</v>
@@ -7776,13 +7776,13 @@
         <v>-87.846000000000004</v>
       </c>
       <c r="K69" t="s">
+        <v>360</v>
+      </c>
+      <c r="L69" t="s">
         <v>361</v>
       </c>
-      <c r="L69" t="s">
+      <c r="M69" t="s">
         <v>362</v>
-      </c>
-      <c r="M69" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="70" spans="1:13">
@@ -7796,19 +7796,19 @@
         <v>5</v>
       </c>
       <c r="D70" t="s">
+        <v>331</v>
+      </c>
+      <c r="E70" t="s">
         <v>332</v>
-      </c>
-      <c r="E70" t="s">
-        <v>333</v>
       </c>
       <c r="F70">
         <v>7</v>
       </c>
       <c r="G70" t="s">
+        <v>363</v>
+      </c>
+      <c r="H70" t="s">
         <v>364</v>
-      </c>
-      <c r="H70" t="s">
-        <v>365</v>
       </c>
       <c r="I70">
         <v>15.1311</v>
@@ -7817,13 +7817,13 @@
         <v>-88.027600000000007</v>
       </c>
       <c r="K70" t="s">
+        <v>365</v>
+      </c>
+      <c r="L70" t="s">
         <v>366</v>
       </c>
-      <c r="L70" t="s">
+      <c r="M70" t="s">
         <v>367</v>
-      </c>
-      <c r="M70" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="71" spans="1:13">
@@ -7837,19 +7837,19 @@
         <v>5</v>
       </c>
       <c r="D71" t="s">
+        <v>331</v>
+      </c>
+      <c r="E71" t="s">
         <v>332</v>
-      </c>
-      <c r="E71" t="s">
-        <v>333</v>
       </c>
       <c r="F71">
         <v>8</v>
       </c>
       <c r="G71" t="s">
+        <v>368</v>
+      </c>
+      <c r="H71" t="s">
         <v>369</v>
-      </c>
-      <c r="H71" t="s">
-        <v>370</v>
       </c>
       <c r="I71">
         <v>15.0252</v>
@@ -7858,13 +7858,13 @@
         <v>-87.9863</v>
       </c>
       <c r="K71" t="s">
+        <v>370</v>
+      </c>
+      <c r="L71" t="s">
         <v>371</v>
       </c>
-      <c r="L71" t="s">
+      <c r="M71" t="s">
         <v>372</v>
-      </c>
-      <c r="M71" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="72" spans="1:13">
@@ -7878,19 +7878,19 @@
         <v>5</v>
       </c>
       <c r="D72" t="s">
+        <v>331</v>
+      </c>
+      <c r="E72" t="s">
         <v>332</v>
-      </c>
-      <c r="E72" t="s">
-        <v>333</v>
       </c>
       <c r="F72">
         <v>9</v>
       </c>
       <c r="G72" t="s">
+        <v>373</v>
+      </c>
+      <c r="H72" t="s">
         <v>374</v>
-      </c>
-      <c r="H72" t="s">
-        <v>375</v>
       </c>
       <c r="I72">
         <v>15.3802</v>
@@ -7899,13 +7899,13 @@
         <v>-87.899699999999996</v>
       </c>
       <c r="K72" t="s">
+        <v>375</v>
+      </c>
+      <c r="L72" t="s">
         <v>376</v>
       </c>
-      <c r="L72" t="s">
+      <c r="M72" t="s">
         <v>377</v>
-      </c>
-      <c r="M72" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="73" spans="1:13">
@@ -7919,19 +7919,19 @@
         <v>5</v>
       </c>
       <c r="D73" t="s">
+        <v>331</v>
+      </c>
+      <c r="E73" t="s">
         <v>332</v>
-      </c>
-      <c r="E73" t="s">
-        <v>333</v>
       </c>
       <c r="F73">
         <v>10</v>
       </c>
       <c r="G73" t="s">
+        <v>378</v>
+      </c>
+      <c r="H73" t="s">
         <v>379</v>
-      </c>
-      <c r="H73" t="s">
-        <v>380</v>
       </c>
       <c r="I73">
         <v>15.012700000000001</v>
@@ -7940,13 +7940,13 @@
         <v>-87.871499999999997</v>
       </c>
       <c r="K73" t="s">
+        <v>380</v>
+      </c>
+      <c r="L73" t="s">
         <v>381</v>
       </c>
-      <c r="L73" t="s">
+      <c r="M73" t="s">
         <v>382</v>
-      </c>
-      <c r="M73" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="74" spans="1:13">
@@ -7960,19 +7960,19 @@
         <v>5</v>
       </c>
       <c r="D74" t="s">
+        <v>331</v>
+      </c>
+      <c r="E74" t="s">
         <v>332</v>
-      </c>
-      <c r="E74" t="s">
-        <v>333</v>
       </c>
       <c r="F74">
         <v>11</v>
       </c>
       <c r="G74" t="s">
+        <v>383</v>
+      </c>
+      <c r="H74" t="s">
         <v>384</v>
-      </c>
-      <c r="H74" t="s">
-        <v>385</v>
       </c>
       <c r="I74">
         <v>15.3307</v>
@@ -7981,13 +7981,13 @@
         <v>-88.047399999999996</v>
       </c>
       <c r="K74" t="s">
+        <v>385</v>
+      </c>
+      <c r="L74" t="s">
         <v>386</v>
       </c>
-      <c r="L74" t="s">
+      <c r="M74" t="s">
         <v>387</v>
-      </c>
-      <c r="M74" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="75" spans="1:13">
@@ -8001,19 +8001,19 @@
         <v>5</v>
       </c>
       <c r="D75" t="s">
+        <v>331</v>
+      </c>
+      <c r="E75" t="s">
         <v>332</v>
-      </c>
-      <c r="E75" t="s">
-        <v>333</v>
       </c>
       <c r="F75">
         <v>12</v>
       </c>
       <c r="G75" t="s">
+        <v>388</v>
+      </c>
+      <c r="H75" t="s">
         <v>389</v>
-      </c>
-      <c r="H75" t="s">
-        <v>390</v>
       </c>
       <c r="I75">
         <v>15.484500000000001</v>
@@ -8022,13 +8022,13 @@
         <v>-87.869299999999996</v>
       </c>
       <c r="K75" t="s">
+        <v>390</v>
+      </c>
+      <c r="L75" t="s">
         <v>391</v>
       </c>
-      <c r="L75" t="s">
+      <c r="M75" t="s">
         <v>392</v>
-      </c>
-      <c r="M75" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="76" spans="1:13">
@@ -8042,19 +8042,19 @@
         <v>6</v>
       </c>
       <c r="D76" t="s">
+        <v>393</v>
+      </c>
+      <c r="E76" t="s">
         <v>394</v>
-      </c>
-      <c r="E76" t="s">
-        <v>395</v>
       </c>
       <c r="F76">
         <v>1</v>
       </c>
       <c r="G76" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H76" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="I76">
         <v>13.260899999999999</v>
@@ -8063,13 +8063,13 @@
         <v>-87.231700000000004</v>
       </c>
       <c r="K76" t="s">
+        <v>396</v>
+      </c>
+      <c r="L76" t="s">
         <v>397</v>
       </c>
-      <c r="L76" t="s">
+      <c r="M76" t="s">
         <v>398</v>
-      </c>
-      <c r="M76" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="77" spans="1:13">
@@ -8083,19 +8083,19 @@
         <v>6</v>
       </c>
       <c r="D77" t="s">
+        <v>393</v>
+      </c>
+      <c r="E77" t="s">
         <v>394</v>
-      </c>
-      <c r="E77" t="s">
-        <v>395</v>
       </c>
       <c r="F77">
         <v>2</v>
       </c>
       <c r="G77" t="s">
+        <v>399</v>
+      </c>
+      <c r="H77" t="s">
         <v>400</v>
-      </c>
-      <c r="H77" t="s">
-        <v>401</v>
       </c>
       <c r="I77">
         <v>13.455299999999999</v>
@@ -8104,13 +8104,13 @@
         <v>-87.015699999999995</v>
       </c>
       <c r="K77" t="s">
+        <v>401</v>
+      </c>
+      <c r="L77" t="s">
         <v>402</v>
       </c>
-      <c r="L77" t="s">
+      <c r="M77" t="s">
         <v>403</v>
-      </c>
-      <c r="M77" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="78" spans="1:13">
@@ -8124,19 +8124,19 @@
         <v>6</v>
       </c>
       <c r="D78" t="s">
+        <v>393</v>
+      </c>
+      <c r="E78" t="s">
         <v>394</v>
-      </c>
-      <c r="E78" t="s">
-        <v>395</v>
       </c>
       <c r="F78">
         <v>3</v>
       </c>
       <c r="G78" t="s">
+        <v>404</v>
+      </c>
+      <c r="H78" t="s">
         <v>405</v>
-      </c>
-      <c r="H78" t="s">
-        <v>406</v>
       </c>
       <c r="I78">
         <v>13.221399999999999</v>
@@ -8145,13 +8145,13 @@
         <v>-86.962000000000003</v>
       </c>
       <c r="K78" t="s">
+        <v>406</v>
+      </c>
+      <c r="L78" t="s">
         <v>407</v>
       </c>
-      <c r="L78" t="s">
+      <c r="M78" t="s">
         <v>408</v>
-      </c>
-      <c r="M78" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="79" spans="1:13">
@@ -8165,19 +8165,19 @@
         <v>6</v>
       </c>
       <c r="D79" t="s">
+        <v>393</v>
+      </c>
+      <c r="E79" t="s">
         <v>394</v>
-      </c>
-      <c r="E79" t="s">
-        <v>395</v>
       </c>
       <c r="F79">
         <v>4</v>
       </c>
       <c r="G79" t="s">
+        <v>409</v>
+      </c>
+      <c r="H79" t="s">
         <v>410</v>
-      </c>
-      <c r="H79" t="s">
-        <v>411</v>
       </c>
       <c r="I79">
         <v>13.6485</v>
@@ -8186,13 +8186,13 @@
         <v>-86.818600000000004</v>
       </c>
       <c r="K79" t="s">
+        <v>411</v>
+      </c>
+      <c r="L79" t="s">
         <v>412</v>
       </c>
-      <c r="L79" t="s">
+      <c r="M79" t="s">
         <v>413</v>
-      </c>
-      <c r="M79" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="80" spans="1:13">
@@ -8206,19 +8206,19 @@
         <v>6</v>
       </c>
       <c r="D80" t="s">
+        <v>393</v>
+      </c>
+      <c r="E80" t="s">
         <v>394</v>
-      </c>
-      <c r="E80" t="s">
-        <v>395</v>
       </c>
       <c r="F80">
         <v>5</v>
       </c>
       <c r="G80" t="s">
+        <v>414</v>
+      </c>
+      <c r="H80" t="s">
         <v>415</v>
-      </c>
-      <c r="H80" t="s">
-        <v>416</v>
       </c>
       <c r="I80">
         <v>13.3226</v>
@@ -8227,13 +8227,13 @@
         <v>-87.008799999999994</v>
       </c>
       <c r="K80" t="s">
+        <v>416</v>
+      </c>
+      <c r="L80" t="s">
         <v>417</v>
       </c>
-      <c r="L80" t="s">
+      <c r="M80" t="s">
         <v>418</v>
-      </c>
-      <c r="M80" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="81" spans="1:13">
@@ -8247,19 +8247,19 @@
         <v>6</v>
       </c>
       <c r="D81" t="s">
+        <v>393</v>
+      </c>
+      <c r="E81" t="s">
         <v>394</v>
-      </c>
-      <c r="E81" t="s">
-        <v>395</v>
       </c>
       <c r="F81">
         <v>6</v>
       </c>
       <c r="G81" t="s">
+        <v>419</v>
+      </c>
+      <c r="H81" t="s">
         <v>420</v>
-      </c>
-      <c r="H81" t="s">
-        <v>421</v>
       </c>
       <c r="I81">
         <v>13.0838</v>
@@ -8268,13 +8268,13 @@
         <v>-87.025800000000004</v>
       </c>
       <c r="K81" t="s">
+        <v>421</v>
+      </c>
+      <c r="L81" t="s">
         <v>422</v>
       </c>
-      <c r="L81" t="s">
+      <c r="M81" t="s">
         <v>423</v>
-      </c>
-      <c r="M81" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="82" spans="1:13">
@@ -8288,19 +8288,19 @@
         <v>6</v>
       </c>
       <c r="D82" t="s">
+        <v>393</v>
+      </c>
+      <c r="E82" t="s">
         <v>394</v>
-      </c>
-      <c r="E82" t="s">
-        <v>395</v>
       </c>
       <c r="F82">
         <v>7</v>
       </c>
       <c r="G82" t="s">
+        <v>424</v>
+      </c>
+      <c r="H82" t="s">
         <v>425</v>
-      </c>
-      <c r="H82" t="s">
-        <v>426</v>
       </c>
       <c r="I82">
         <v>13.2552</v>
@@ -8309,13 +8309,13 @@
         <v>-87.374200000000002</v>
       </c>
       <c r="K82" t="s">
+        <v>426</v>
+      </c>
+      <c r="L82" t="s">
         <v>427</v>
       </c>
-      <c r="L82" t="s">
+      <c r="M82" t="s">
         <v>428</v>
-      </c>
-      <c r="M82" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="83" spans="1:13">
@@ -8329,19 +8329,19 @@
         <v>6</v>
       </c>
       <c r="D83" t="s">
+        <v>393</v>
+      </c>
+      <c r="E83" t="s">
         <v>394</v>
-      </c>
-      <c r="E83" t="s">
-        <v>395</v>
       </c>
       <c r="F83">
         <v>8</v>
       </c>
       <c r="G83" t="s">
+        <v>429</v>
+      </c>
+      <c r="H83" t="s">
         <v>430</v>
-      </c>
-      <c r="H83" t="s">
-        <v>431</v>
       </c>
       <c r="I83">
         <v>13.563700000000001</v>
@@ -8350,13 +8350,13 @@
         <v>-86.901700000000005</v>
       </c>
       <c r="K83" t="s">
+        <v>431</v>
+      </c>
+      <c r="L83" t="s">
         <v>432</v>
       </c>
-      <c r="L83" t="s">
+      <c r="M83" t="s">
         <v>433</v>
-      </c>
-      <c r="M83" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="84" spans="1:13">
@@ -8370,19 +8370,19 @@
         <v>6</v>
       </c>
       <c r="D84" t="s">
+        <v>393</v>
+      </c>
+      <c r="E84" t="s">
         <v>394</v>
-      </c>
-      <c r="E84" t="s">
-        <v>395</v>
       </c>
       <c r="F84">
         <v>9</v>
       </c>
       <c r="G84" t="s">
+        <v>434</v>
+      </c>
+      <c r="H84" t="s">
         <v>435</v>
-      </c>
-      <c r="H84" t="s">
-        <v>436</v>
       </c>
       <c r="I84">
         <v>13.1602</v>
@@ -8391,13 +8391,13 @@
         <v>-87.134900000000002</v>
       </c>
       <c r="K84" t="s">
+        <v>436</v>
+      </c>
+      <c r="L84" t="s">
         <v>437</v>
       </c>
-      <c r="L84" t="s">
+      <c r="M84" t="s">
         <v>438</v>
-      </c>
-      <c r="M84" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="85" spans="1:13">
@@ -8411,19 +8411,19 @@
         <v>6</v>
       </c>
       <c r="D85" t="s">
+        <v>393</v>
+      </c>
+      <c r="E85" t="s">
         <v>394</v>
-      </c>
-      <c r="E85" t="s">
-        <v>395</v>
       </c>
       <c r="F85">
         <v>10</v>
       </c>
       <c r="G85" t="s">
+        <v>439</v>
+      </c>
+      <c r="H85" t="s">
         <v>440</v>
-      </c>
-      <c r="H85" t="s">
-        <v>441</v>
       </c>
       <c r="I85">
         <v>13.5078</v>
@@ -8432,13 +8432,13 @@
         <v>-87.143100000000004</v>
       </c>
       <c r="K85" t="s">
+        <v>441</v>
+      </c>
+      <c r="L85" t="s">
         <v>442</v>
       </c>
-      <c r="L85" t="s">
+      <c r="M85" t="s">
         <v>443</v>
-      </c>
-      <c r="M85" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="86" spans="1:13">
@@ -8452,19 +8452,19 @@
         <v>6</v>
       </c>
       <c r="D86" t="s">
+        <v>393</v>
+      </c>
+      <c r="E86" t="s">
         <v>394</v>
-      </c>
-      <c r="E86" t="s">
-        <v>395</v>
       </c>
       <c r="F86">
         <v>11</v>
       </c>
       <c r="G86" t="s">
+        <v>444</v>
+      </c>
+      <c r="H86" t="s">
         <v>445</v>
-      </c>
-      <c r="H86" t="s">
-        <v>446</v>
       </c>
       <c r="I86">
         <v>13.560600000000001</v>
@@ -8473,13 +8473,13 @@
         <v>-87.321600000000004</v>
       </c>
       <c r="K86" t="s">
+        <v>446</v>
+      </c>
+      <c r="L86" t="s">
         <v>447</v>
       </c>
-      <c r="L86" t="s">
+      <c r="M86" t="s">
         <v>448</v>
-      </c>
-      <c r="M86" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="87" spans="1:13">
@@ -8493,19 +8493,19 @@
         <v>6</v>
       </c>
       <c r="D87" t="s">
+        <v>393</v>
+      </c>
+      <c r="E87" t="s">
         <v>394</v>
-      </c>
-      <c r="E87" t="s">
-        <v>395</v>
       </c>
       <c r="F87">
         <v>12</v>
       </c>
       <c r="G87" t="s">
+        <v>449</v>
+      </c>
+      <c r="H87" t="s">
         <v>450</v>
-      </c>
-      <c r="H87" t="s">
-        <v>451</v>
       </c>
       <c r="I87">
         <v>13.6518</v>
@@ -8514,13 +8514,13 @@
         <v>-87.337400000000002</v>
       </c>
       <c r="K87" t="s">
+        <v>451</v>
+      </c>
+      <c r="L87" t="s">
         <v>452</v>
       </c>
-      <c r="L87" t="s">
+      <c r="M87" t="s">
         <v>453</v>
-      </c>
-      <c r="M87" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="88" spans="1:13">
@@ -8534,19 +8534,19 @@
         <v>6</v>
       </c>
       <c r="D88" t="s">
+        <v>393</v>
+      </c>
+      <c r="E88" t="s">
         <v>394</v>
       </c>
-      <c r="E88" t="s">
-        <v>395</v>
-      </c>
       <c r="F88">
         <v>13</v>
       </c>
       <c r="G88" t="s">
+        <v>454</v>
+      </c>
+      <c r="H88" t="s">
         <v>455</v>
-      </c>
-      <c r="H88" t="s">
-        <v>456</v>
       </c>
       <c r="I88">
         <v>13.6465</v>
@@ -8555,13 +8555,13 @@
         <v>-87.260099999999994</v>
       </c>
       <c r="K88" t="s">
+        <v>456</v>
+      </c>
+      <c r="L88" t="s">
         <v>457</v>
       </c>
-      <c r="L88" t="s">
+      <c r="M88" t="s">
         <v>458</v>
-      </c>
-      <c r="M88" t="s">
-        <v>459</v>
       </c>
     </row>
     <row r="89" spans="1:13">
@@ -8575,19 +8575,19 @@
         <v>6</v>
       </c>
       <c r="D89" t="s">
+        <v>393</v>
+      </c>
+      <c r="E89" t="s">
         <v>394</v>
       </c>
-      <c r="E89" t="s">
-        <v>395</v>
-      </c>
       <c r="F89">
         <v>14</v>
       </c>
       <c r="G89" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="H89" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I89">
         <v>13.7171</v>
@@ -8596,13 +8596,13 @@
         <v>-87.422600000000003</v>
       </c>
       <c r="K89" t="s">
+        <v>460</v>
+      </c>
+      <c r="L89" t="s">
         <v>461</v>
       </c>
-      <c r="L89" t="s">
+      <c r="M89" t="s">
         <v>462</v>
-      </c>
-      <c r="M89" t="s">
-        <v>463</v>
       </c>
     </row>
     <row r="90" spans="1:13">
@@ -8616,19 +8616,19 @@
         <v>6</v>
       </c>
       <c r="D90" t="s">
+        <v>393</v>
+      </c>
+      <c r="E90" t="s">
         <v>394</v>
-      </c>
-      <c r="E90" t="s">
-        <v>395</v>
       </c>
       <c r="F90">
         <v>15</v>
       </c>
       <c r="G90" t="s">
+        <v>463</v>
+      </c>
+      <c r="H90" t="s">
         <v>464</v>
-      </c>
-      <c r="H90" t="s">
-        <v>465</v>
       </c>
       <c r="I90">
         <v>13.4057</v>
@@ -8637,13 +8637,13 @@
         <v>-86.822400000000002</v>
       </c>
       <c r="K90" t="s">
+        <v>465</v>
+      </c>
+      <c r="L90" t="s">
         <v>466</v>
       </c>
-      <c r="L90" t="s">
+      <c r="M90" t="s">
         <v>467</v>
-      </c>
-      <c r="M90" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="91" spans="1:13">
@@ -8657,19 +8657,19 @@
         <v>6</v>
       </c>
       <c r="D91" t="s">
+        <v>393</v>
+      </c>
+      <c r="E91" t="s">
         <v>394</v>
-      </c>
-      <c r="E91" t="s">
-        <v>395</v>
       </c>
       <c r="F91">
         <v>16</v>
       </c>
       <c r="G91" t="s">
+        <v>468</v>
+      </c>
+      <c r="H91" t="s">
         <v>469</v>
-      </c>
-      <c r="H91" t="s">
-        <v>470</v>
       </c>
       <c r="I91">
         <v>13.305300000000001</v>
@@ -8678,13 +8678,13 @@
         <v>-87.097399999999993</v>
       </c>
       <c r="K91" t="s">
+        <v>470</v>
+      </c>
+      <c r="L91" t="s">
         <v>471</v>
       </c>
-      <c r="L91" t="s">
+      <c r="M91" t="s">
         <v>472</v>
-      </c>
-      <c r="M91" t="s">
-        <v>473</v>
       </c>
     </row>
     <row r="92" spans="1:13">
@@ -8698,10 +8698,10 @@
         <v>7</v>
       </c>
       <c r="D92" t="s">
+        <v>473</v>
+      </c>
+      <c r="E92" t="s">
         <v>474</v>
-      </c>
-      <c r="E92" t="s">
-        <v>258</v>
       </c>
       <c r="F92">
         <v>1</v>
@@ -8739,10 +8739,10 @@
         <v>7</v>
       </c>
       <c r="D93" t="s">
+        <v>473</v>
+      </c>
+      <c r="E93" t="s">
         <v>474</v>
-      </c>
-      <c r="E93" t="s">
-        <v>258</v>
       </c>
       <c r="F93">
         <v>2</v>
@@ -8780,10 +8780,10 @@
         <v>7</v>
       </c>
       <c r="D94" t="s">
+        <v>473</v>
+      </c>
+      <c r="E94" t="s">
         <v>474</v>
-      </c>
-      <c r="E94" t="s">
-        <v>258</v>
       </c>
       <c r="F94">
         <v>3</v>
@@ -8821,10 +8821,10 @@
         <v>7</v>
       </c>
       <c r="D95" t="s">
+        <v>473</v>
+      </c>
+      <c r="E95" t="s">
         <v>474</v>
-      </c>
-      <c r="E95" t="s">
-        <v>258</v>
       </c>
       <c r="F95">
         <v>4</v>
@@ -8862,10 +8862,10 @@
         <v>7</v>
       </c>
       <c r="D96" t="s">
+        <v>473</v>
+      </c>
+      <c r="E96" t="s">
         <v>474</v>
-      </c>
-      <c r="E96" t="s">
-        <v>258</v>
       </c>
       <c r="F96">
         <v>5</v>
@@ -8903,10 +8903,10 @@
         <v>7</v>
       </c>
       <c r="D97" t="s">
+        <v>473</v>
+      </c>
+      <c r="E97" t="s">
         <v>474</v>
-      </c>
-      <c r="E97" t="s">
-        <v>258</v>
       </c>
       <c r="F97">
         <v>6</v>
@@ -8944,10 +8944,10 @@
         <v>7</v>
       </c>
       <c r="D98" t="s">
+        <v>473</v>
+      </c>
+      <c r="E98" t="s">
         <v>474</v>
-      </c>
-      <c r="E98" t="s">
-        <v>258</v>
       </c>
       <c r="F98">
         <v>7</v>
@@ -8985,10 +8985,10 @@
         <v>7</v>
       </c>
       <c r="D99" t="s">
+        <v>473</v>
+      </c>
+      <c r="E99" t="s">
         <v>474</v>
-      </c>
-      <c r="E99" t="s">
-        <v>258</v>
       </c>
       <c r="F99">
         <v>8</v>
@@ -9026,10 +9026,10 @@
         <v>7</v>
       </c>
       <c r="D100" t="s">
+        <v>473</v>
+      </c>
+      <c r="E100" t="s">
         <v>474</v>
-      </c>
-      <c r="E100" t="s">
-        <v>258</v>
       </c>
       <c r="F100">
         <v>9</v>
@@ -9067,10 +9067,10 @@
         <v>7</v>
       </c>
       <c r="D101" t="s">
+        <v>473</v>
+      </c>
+      <c r="E101" t="s">
         <v>474</v>
-      </c>
-      <c r="E101" t="s">
-        <v>258</v>
       </c>
       <c r="F101">
         <v>10</v>
@@ -9079,7 +9079,7 @@
         <v>519</v>
       </c>
       <c r="H101" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I101">
         <v>14.0541</v>
@@ -9108,10 +9108,10 @@
         <v>7</v>
       </c>
       <c r="D102" t="s">
+        <v>473</v>
+      </c>
+      <c r="E102" t="s">
         <v>474</v>
-      </c>
-      <c r="E102" t="s">
-        <v>258</v>
       </c>
       <c r="F102">
         <v>11</v>
@@ -9120,7 +9120,7 @@
         <v>523</v>
       </c>
       <c r="H102" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="I102">
         <v>13.715400000000001</v>
@@ -9149,10 +9149,10 @@
         <v>7</v>
       </c>
       <c r="D103" t="s">
+        <v>473</v>
+      </c>
+      <c r="E103" t="s">
         <v>474</v>
-      </c>
-      <c r="E103" t="s">
-        <v>258</v>
       </c>
       <c r="F103">
         <v>12</v>
@@ -9190,10 +9190,10 @@
         <v>7</v>
       </c>
       <c r="D104" t="s">
+        <v>473</v>
+      </c>
+      <c r="E104" t="s">
         <v>474</v>
-      </c>
-      <c r="E104" t="s">
-        <v>258</v>
       </c>
       <c r="F104">
         <v>13</v>
@@ -9231,10 +9231,10 @@
         <v>7</v>
       </c>
       <c r="D105" t="s">
+        <v>473</v>
+      </c>
+      <c r="E105" t="s">
         <v>474</v>
-      </c>
-      <c r="E105" t="s">
-        <v>258</v>
       </c>
       <c r="F105">
         <v>14</v>
@@ -9272,10 +9272,10 @@
         <v>7</v>
       </c>
       <c r="D106" t="s">
+        <v>473</v>
+      </c>
+      <c r="E106" t="s">
         <v>474</v>
-      </c>
-      <c r="E106" t="s">
-        <v>258</v>
       </c>
       <c r="F106">
         <v>15</v>
@@ -9313,10 +9313,10 @@
         <v>7</v>
       </c>
       <c r="D107" t="s">
+        <v>473</v>
+      </c>
+      <c r="E107" t="s">
         <v>474</v>
-      </c>
-      <c r="E107" t="s">
-        <v>258</v>
       </c>
       <c r="F107">
         <v>16</v>
@@ -9354,10 +9354,10 @@
         <v>7</v>
       </c>
       <c r="D108" t="s">
+        <v>473</v>
+      </c>
+      <c r="E108" t="s">
         <v>474</v>
-      </c>
-      <c r="E108" t="s">
-        <v>258</v>
       </c>
       <c r="F108">
         <v>17</v>
@@ -9395,10 +9395,10 @@
         <v>7</v>
       </c>
       <c r="D109" t="s">
+        <v>473</v>
+      </c>
+      <c r="E109" t="s">
         <v>474</v>
-      </c>
-      <c r="E109" t="s">
-        <v>258</v>
       </c>
       <c r="F109">
         <v>18</v>
@@ -9436,10 +9436,10 @@
         <v>7</v>
       </c>
       <c r="D110" t="s">
+        <v>473</v>
+      </c>
+      <c r="E110" t="s">
         <v>474</v>
-      </c>
-      <c r="E110" t="s">
-        <v>258</v>
       </c>
       <c r="F110">
         <v>19</v>
@@ -11006,7 +11006,7 @@
         <v>756</v>
       </c>
       <c r="H148" t="s">
-        <v>757</v>
+        <v>228</v>
       </c>
       <c r="I148">
         <v>14.0487</v>
@@ -11015,13 +11015,13 @@
         <v>-88.318799999999996</v>
       </c>
       <c r="K148" t="s">
+        <v>757</v>
+      </c>
+      <c r="L148" t="s">
         <v>758</v>
       </c>
-      <c r="L148" t="s">
+      <c r="M148" t="s">
         <v>759</v>
-      </c>
-      <c r="M148" t="s">
-        <v>760</v>
       </c>
     </row>
     <row r="149" spans="1:13">
@@ -11044,7 +11044,7 @@
         <v>5</v>
       </c>
       <c r="G149" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="H149" t="s">
         <v>248</v>
@@ -11056,13 +11056,13 @@
         <v>-88.357900000000001</v>
       </c>
       <c r="K149" t="s">
+        <v>761</v>
+      </c>
+      <c r="L149" t="s">
         <v>762</v>
       </c>
-      <c r="L149" t="s">
+      <c r="M149" t="s">
         <v>763</v>
-      </c>
-      <c r="M149" t="s">
-        <v>764</v>
       </c>
     </row>
     <row r="150" spans="1:13">
@@ -11085,7 +11085,7 @@
         <v>6</v>
       </c>
       <c r="G150" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="H150" t="s">
         <v>740</v>
@@ -11097,13 +11097,13 @@
         <v>-88.153999999999996</v>
       </c>
       <c r="K150" t="s">
+        <v>765</v>
+      </c>
+      <c r="L150" t="s">
         <v>766</v>
       </c>
-      <c r="L150" t="s">
+      <c r="M150" t="s">
         <v>767</v>
-      </c>
-      <c r="M150" t="s">
-        <v>768</v>
       </c>
     </row>
     <row r="151" spans="1:13">
@@ -11126,10 +11126,10 @@
         <v>7</v>
       </c>
       <c r="G151" t="s">
+        <v>768</v>
+      </c>
+      <c r="H151" t="s">
         <v>769</v>
-      </c>
-      <c r="H151" t="s">
-        <v>770</v>
       </c>
       <c r="I151">
         <v>14.528700000000001</v>
@@ -11138,13 +11138,13 @@
         <v>-88.023799999999994</v>
       </c>
       <c r="K151" t="s">
+        <v>770</v>
+      </c>
+      <c r="L151" t="s">
         <v>771</v>
       </c>
-      <c r="L151" t="s">
+      <c r="M151" t="s">
         <v>772</v>
-      </c>
-      <c r="M151" t="s">
-        <v>773</v>
       </c>
     </row>
     <row r="152" spans="1:13">
@@ -11167,10 +11167,10 @@
         <v>8</v>
       </c>
       <c r="G152" t="s">
+        <v>773</v>
+      </c>
+      <c r="H152" t="s">
         <v>774</v>
-      </c>
-      <c r="H152" t="s">
-        <v>775</v>
       </c>
       <c r="I152">
         <v>13.9239</v>
@@ -11179,13 +11179,13 @@
         <v>-88.372</v>
       </c>
       <c r="K152" t="s">
+        <v>775</v>
+      </c>
+      <c r="L152" t="s">
         <v>776</v>
       </c>
-      <c r="L152" t="s">
+      <c r="M152" t="s">
         <v>777</v>
-      </c>
-      <c r="M152" t="s">
-        <v>778</v>
       </c>
     </row>
     <row r="153" spans="1:13">
@@ -11208,10 +11208,10 @@
         <v>9</v>
       </c>
       <c r="G153" t="s">
+        <v>778</v>
+      </c>
+      <c r="H153" t="s">
         <v>779</v>
-      </c>
-      <c r="H153" t="s">
-        <v>780</v>
       </c>
       <c r="I153">
         <v>14.353999999999999</v>
@@ -11220,13 +11220,13 @@
         <v>-88.013900000000007</v>
       </c>
       <c r="K153" t="s">
+        <v>780</v>
+      </c>
+      <c r="L153" t="s">
         <v>781</v>
       </c>
-      <c r="L153" t="s">
+      <c r="M153" t="s">
         <v>782</v>
-      </c>
-      <c r="M153" t="s">
-        <v>783</v>
       </c>
     </row>
     <row r="154" spans="1:13">
@@ -11249,7 +11249,7 @@
         <v>10</v>
       </c>
       <c r="G154" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="H154" t="s">
         <v>288</v>
@@ -11261,13 +11261,13 @@
         <v>-88.466300000000004</v>
       </c>
       <c r="K154" t="s">
+        <v>784</v>
+      </c>
+      <c r="L154" t="s">
         <v>785</v>
       </c>
-      <c r="L154" t="s">
+      <c r="M154" t="s">
         <v>786</v>
-      </c>
-      <c r="M154" t="s">
-        <v>787</v>
       </c>
     </row>
     <row r="155" spans="1:13">
@@ -11290,10 +11290,10 @@
         <v>11</v>
       </c>
       <c r="G155" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="H155" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="I155">
         <v>14.568300000000001</v>
@@ -11302,13 +11302,13 @@
         <v>-88.120900000000006</v>
       </c>
       <c r="K155" t="s">
+        <v>788</v>
+      </c>
+      <c r="L155" t="s">
         <v>789</v>
       </c>
-      <c r="L155" t="s">
+      <c r="M155" t="s">
         <v>790</v>
-      </c>
-      <c r="M155" t="s">
-        <v>791</v>
       </c>
     </row>
     <row r="156" spans="1:13">
@@ -11331,10 +11331,10 @@
         <v>12</v>
       </c>
       <c r="G156" t="s">
+        <v>791</v>
+      </c>
+      <c r="H156" t="s">
         <v>792</v>
-      </c>
-      <c r="H156" t="s">
-        <v>793</v>
       </c>
       <c r="I156">
         <v>14.4208</v>
@@ -11343,13 +11343,13 @@
         <v>-88.423100000000005</v>
       </c>
       <c r="K156" t="s">
+        <v>793</v>
+      </c>
+      <c r="L156" t="s">
         <v>794</v>
       </c>
-      <c r="L156" t="s">
+      <c r="M156" t="s">
         <v>795</v>
-      </c>
-      <c r="M156" t="s">
-        <v>796</v>
       </c>
     </row>
     <row r="157" spans="1:13">
@@ -11372,10 +11372,10 @@
         <v>13</v>
       </c>
       <c r="G157" t="s">
+        <v>796</v>
+      </c>
+      <c r="H157" t="s">
         <v>797</v>
-      </c>
-      <c r="H157" t="s">
-        <v>798</v>
       </c>
       <c r="I157">
         <v>14.135999999999999</v>
@@ -11384,13 +11384,13 @@
         <v>-88.248400000000004</v>
       </c>
       <c r="K157" t="s">
+        <v>798</v>
+      </c>
+      <c r="L157" t="s">
         <v>799</v>
       </c>
-      <c r="L157" t="s">
+      <c r="M157" t="s">
         <v>800</v>
-      </c>
-      <c r="M157" t="s">
-        <v>801</v>
       </c>
     </row>
     <row r="158" spans="1:13">
@@ -11413,7 +11413,7 @@
         <v>14</v>
       </c>
       <c r="G158" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="H158" t="s">
         <v>668</v>
@@ -11425,13 +11425,13 @@
         <v>-88.343800000000002</v>
       </c>
       <c r="K158" t="s">
+        <v>802</v>
+      </c>
+      <c r="L158" t="s">
         <v>803</v>
       </c>
-      <c r="L158" t="s">
+      <c r="M158" t="s">
         <v>804</v>
-      </c>
-      <c r="M158" t="s">
-        <v>805</v>
       </c>
     </row>
     <row r="159" spans="1:13">
@@ -11454,7 +11454,7 @@
         <v>15</v>
       </c>
       <c r="G159" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="H159" t="s">
         <v>678</v>
@@ -11466,13 +11466,13 @@
         <v>-88.426199999999994</v>
       </c>
       <c r="K159" t="s">
+        <v>806</v>
+      </c>
+      <c r="L159" t="s">
         <v>807</v>
       </c>
-      <c r="L159" t="s">
+      <c r="M159" t="s">
         <v>808</v>
-      </c>
-      <c r="M159" t="s">
-        <v>809</v>
       </c>
     </row>
     <row r="160" spans="1:13">
@@ -11495,10 +11495,10 @@
         <v>16</v>
       </c>
       <c r="G160" t="s">
+        <v>809</v>
+      </c>
+      <c r="H160" t="s">
         <v>810</v>
-      </c>
-      <c r="H160" t="s">
-        <v>811</v>
       </c>
       <c r="I160">
         <v>14.2638</v>
@@ -11507,13 +11507,13 @@
         <v>-88.248900000000006</v>
       </c>
       <c r="K160" t="s">
+        <v>811</v>
+      </c>
+      <c r="L160" t="s">
         <v>812</v>
       </c>
-      <c r="L160" t="s">
+      <c r="M160" t="s">
         <v>813</v>
-      </c>
-      <c r="M160" t="s">
-        <v>814</v>
       </c>
     </row>
     <row r="161" spans="1:13">
@@ -11536,10 +11536,10 @@
         <v>17</v>
       </c>
       <c r="G161" t="s">
+        <v>814</v>
+      </c>
+      <c r="H161" t="s">
         <v>815</v>
-      </c>
-      <c r="H161" t="s">
-        <v>816</v>
       </c>
       <c r="I161">
         <v>14.5341</v>
@@ -11548,13 +11548,13 @@
         <v>-88.284499999999994</v>
       </c>
       <c r="K161" t="s">
+        <v>816</v>
+      </c>
+      <c r="L161" t="s">
         <v>817</v>
       </c>
-      <c r="L161" t="s">
+      <c r="M161" t="s">
         <v>818</v>
-      </c>
-      <c r="M161" t="s">
-        <v>819</v>
       </c>
     </row>
     <row r="162" spans="1:13">
@@ -11568,19 +11568,19 @@
         <v>11</v>
       </c>
       <c r="D162" t="s">
+        <v>819</v>
+      </c>
+      <c r="E162" t="s">
         <v>820</v>
-      </c>
-      <c r="E162" t="s">
-        <v>821</v>
       </c>
       <c r="F162">
         <v>1</v>
       </c>
       <c r="G162" t="s">
+        <v>821</v>
+      </c>
+      <c r="H162" t="s">
         <v>822</v>
-      </c>
-      <c r="H162" t="s">
-        <v>823</v>
       </c>
       <c r="I162">
         <v>16.3338</v>
@@ -11589,13 +11589,13 @@
         <v>-86.520399999999995</v>
       </c>
       <c r="K162" t="s">
+        <v>823</v>
+      </c>
+      <c r="L162" t="s">
         <v>824</v>
       </c>
-      <c r="L162" t="s">
+      <c r="M162" t="s">
         <v>825</v>
-      </c>
-      <c r="M162" t="s">
-        <v>826</v>
       </c>
     </row>
     <row r="163" spans="1:13">
@@ -11609,19 +11609,19 @@
         <v>11</v>
       </c>
       <c r="D163" t="s">
+        <v>819</v>
+      </c>
+      <c r="E163" t="s">
         <v>820</v>
-      </c>
-      <c r="E163" t="s">
-        <v>821</v>
       </c>
       <c r="F163">
         <v>2</v>
       </c>
       <c r="G163" t="s">
+        <v>826</v>
+      </c>
+      <c r="H163" t="s">
         <v>827</v>
-      </c>
-      <c r="H163" t="s">
-        <v>828</v>
       </c>
       <c r="I163">
         <v>16.468699999999998</v>
@@ -11630,13 +11630,13 @@
         <v>-85.884299999999996</v>
       </c>
       <c r="K163" t="s">
+        <v>828</v>
+      </c>
+      <c r="L163" t="s">
         <v>829</v>
       </c>
-      <c r="L163" t="s">
+      <c r="M163" t="s">
         <v>830</v>
-      </c>
-      <c r="M163" t="s">
-        <v>831</v>
       </c>
     </row>
     <row r="164" spans="1:13">
@@ -11650,19 +11650,19 @@
         <v>11</v>
       </c>
       <c r="D164" t="s">
+        <v>819</v>
+      </c>
+      <c r="E164" t="s">
         <v>820</v>
-      </c>
-      <c r="E164" t="s">
-        <v>821</v>
       </c>
       <c r="F164">
         <v>3</v>
       </c>
       <c r="G164" t="s">
+        <v>831</v>
+      </c>
+      <c r="H164" t="s">
         <v>832</v>
-      </c>
-      <c r="H164" t="s">
-        <v>833</v>
       </c>
       <c r="I164">
         <v>16.408300000000001</v>
@@ -11671,13 +11671,13 @@
         <v>-86.3292</v>
       </c>
       <c r="K164" t="s">
+        <v>833</v>
+      </c>
+      <c r="L164" t="s">
         <v>834</v>
       </c>
-      <c r="L164" t="s">
+      <c r="M164" t="s">
         <v>835</v>
-      </c>
-      <c r="M164" t="s">
-        <v>836</v>
       </c>
     </row>
     <row r="165" spans="1:13">
@@ -11691,19 +11691,19 @@
         <v>11</v>
       </c>
       <c r="D165" t="s">
+        <v>819</v>
+      </c>
+      <c r="E165" t="s">
         <v>820</v>
-      </c>
-      <c r="E165" t="s">
-        <v>821</v>
       </c>
       <c r="F165">
         <v>4</v>
       </c>
       <c r="G165" t="s">
+        <v>836</v>
+      </c>
+      <c r="H165" t="s">
         <v>837</v>
-      </c>
-      <c r="H165" t="s">
-        <v>838</v>
       </c>
       <c r="I165">
         <v>16.097899999999999</v>
@@ -11712,13 +11712,13 @@
         <v>-86.932199999999995</v>
       </c>
       <c r="K165" t="s">
+        <v>838</v>
+      </c>
+      <c r="L165" t="s">
         <v>839</v>
       </c>
-      <c r="L165" t="s">
+      <c r="M165" t="s">
         <v>840</v>
-      </c>
-      <c r="M165" t="s">
-        <v>841</v>
       </c>
     </row>
     <row r="166" spans="1:13">
@@ -11732,19 +11732,19 @@
         <v>12</v>
       </c>
       <c r="D166" t="s">
+        <v>841</v>
+      </c>
+      <c r="E166" t="s">
         <v>842</v>
-      </c>
-      <c r="E166" t="s">
-        <v>843</v>
       </c>
       <c r="F166">
         <v>1</v>
       </c>
       <c r="G166" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="H166" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="I166">
         <v>14.3101</v>
@@ -11753,13 +11753,13 @@
         <v>-87.754199999999997</v>
       </c>
       <c r="K166" t="s">
+        <v>844</v>
+      </c>
+      <c r="L166" t="s">
         <v>845</v>
       </c>
-      <c r="L166" t="s">
+      <c r="M166" t="s">
         <v>846</v>
-      </c>
-      <c r="M166" t="s">
-        <v>847</v>
       </c>
     </row>
     <row r="167" spans="1:13">
@@ -11773,19 +11773,19 @@
         <v>12</v>
       </c>
       <c r="D167" t="s">
+        <v>841</v>
+      </c>
+      <c r="E167" t="s">
         <v>842</v>
-      </c>
-      <c r="E167" t="s">
-        <v>843</v>
       </c>
       <c r="F167">
         <v>2</v>
       </c>
       <c r="G167" t="s">
+        <v>847</v>
+      </c>
+      <c r="H167" t="s">
         <v>848</v>
-      </c>
-      <c r="H167" t="s">
-        <v>849</v>
       </c>
       <c r="I167">
         <v>13.9834</v>
@@ -11794,13 +11794,13 @@
         <v>-87.643000000000001</v>
       </c>
       <c r="K167" t="s">
+        <v>849</v>
+      </c>
+      <c r="L167" t="s">
         <v>850</v>
       </c>
-      <c r="L167" t="s">
+      <c r="M167" t="s">
         <v>851</v>
-      </c>
-      <c r="M167" t="s">
-        <v>852</v>
       </c>
     </row>
     <row r="168" spans="1:13">
@@ -11814,19 +11814,19 @@
         <v>12</v>
       </c>
       <c r="D168" t="s">
+        <v>841</v>
+      </c>
+      <c r="E168" t="s">
         <v>842</v>
-      </c>
-      <c r="E168" t="s">
-        <v>843</v>
       </c>
       <c r="F168">
         <v>3</v>
       </c>
       <c r="G168" t="s">
+        <v>852</v>
+      </c>
+      <c r="H168" t="s">
         <v>853</v>
-      </c>
-      <c r="H168" t="s">
-        <v>854</v>
       </c>
       <c r="I168">
         <v>13.9909</v>
@@ -11835,13 +11835,13 @@
         <v>-88.018299999999996</v>
       </c>
       <c r="K168" t="s">
+        <v>854</v>
+      </c>
+      <c r="L168" t="s">
         <v>855</v>
       </c>
-      <c r="L168" t="s">
+      <c r="M168" t="s">
         <v>856</v>
-      </c>
-      <c r="M168" t="s">
-        <v>857</v>
       </c>
     </row>
     <row r="169" spans="1:13">
@@ -11855,19 +11855,19 @@
         <v>12</v>
       </c>
       <c r="D169" t="s">
+        <v>841</v>
+      </c>
+      <c r="E169" t="s">
         <v>842</v>
-      </c>
-      <c r="E169" t="s">
-        <v>843</v>
       </c>
       <c r="F169">
         <v>4</v>
       </c>
       <c r="G169" t="s">
+        <v>857</v>
+      </c>
+      <c r="H169" t="s">
         <v>858</v>
-      </c>
-      <c r="H169" t="s">
-        <v>859</v>
       </c>
       <c r="I169">
         <v>14.2827</v>
@@ -11876,13 +11876,13 @@
         <v>-87.681600000000003</v>
       </c>
       <c r="K169" t="s">
+        <v>859</v>
+      </c>
+      <c r="L169" t="s">
         <v>860</v>
       </c>
-      <c r="L169" t="s">
+      <c r="M169" t="s">
         <v>861</v>
-      </c>
-      <c r="M169" t="s">
-        <v>862</v>
       </c>
     </row>
     <row r="170" spans="1:13">
@@ -11896,19 +11896,19 @@
         <v>12</v>
       </c>
       <c r="D170" t="s">
+        <v>841</v>
+      </c>
+      <c r="E170" t="s">
         <v>842</v>
-      </c>
-      <c r="E170" t="s">
-        <v>843</v>
       </c>
       <c r="F170">
         <v>5</v>
       </c>
       <c r="G170" t="s">
+        <v>862</v>
+      </c>
+      <c r="H170" t="s">
         <v>863</v>
-      </c>
-      <c r="H170" t="s">
-        <v>864</v>
       </c>
       <c r="I170">
         <v>14.1854</v>
@@ -11917,13 +11917,13 @@
         <v>-87.958299999999994</v>
       </c>
       <c r="K170" t="s">
+        <v>864</v>
+      </c>
+      <c r="L170" t="s">
         <v>865</v>
       </c>
-      <c r="L170" t="s">
+      <c r="M170" t="s">
         <v>866</v>
-      </c>
-      <c r="M170" t="s">
-        <v>867</v>
       </c>
     </row>
     <row r="171" spans="1:13">
@@ -11937,19 +11937,19 @@
         <v>12</v>
       </c>
       <c r="D171" t="s">
+        <v>841</v>
+      </c>
+      <c r="E171" t="s">
         <v>842</v>
-      </c>
-      <c r="E171" t="s">
-        <v>843</v>
       </c>
       <c r="F171">
         <v>6</v>
       </c>
       <c r="G171" t="s">
+        <v>867</v>
+      </c>
+      <c r="H171" t="s">
         <v>868</v>
-      </c>
-      <c r="H171" t="s">
-        <v>869</v>
       </c>
       <c r="I171">
         <v>14.080399999999999</v>
@@ -11958,13 +11958,13 @@
         <v>-87.786100000000005</v>
       </c>
       <c r="K171" t="s">
+        <v>869</v>
+      </c>
+      <c r="L171" t="s">
         <v>870</v>
       </c>
-      <c r="L171" t="s">
+      <c r="M171" t="s">
         <v>871</v>
-      </c>
-      <c r="M171" t="s">
-        <v>872</v>
       </c>
     </row>
     <row r="172" spans="1:13">
@@ -11978,19 +11978,19 @@
         <v>12</v>
       </c>
       <c r="D172" t="s">
+        <v>841</v>
+      </c>
+      <c r="E172" t="s">
         <v>842</v>
-      </c>
-      <c r="E172" t="s">
-        <v>843</v>
       </c>
       <c r="F172">
         <v>7</v>
       </c>
       <c r="G172" t="s">
+        <v>872</v>
+      </c>
+      <c r="H172" t="s">
         <v>873</v>
-      </c>
-      <c r="H172" t="s">
-        <v>874</v>
       </c>
       <c r="I172">
         <v>13.8627</v>
@@ -11999,13 +11999,13 @@
         <v>-87.655100000000004</v>
       </c>
       <c r="K172" t="s">
+        <v>874</v>
+      </c>
+      <c r="L172" t="s">
         <v>875</v>
       </c>
-      <c r="L172" t="s">
+      <c r="M172" t="s">
         <v>876</v>
-      </c>
-      <c r="M172" t="s">
-        <v>877</v>
       </c>
     </row>
     <row r="173" spans="1:13">
@@ -12019,19 +12019,19 @@
         <v>12</v>
       </c>
       <c r="D173" t="s">
+        <v>841</v>
+      </c>
+      <c r="E173" t="s">
         <v>842</v>
-      </c>
-      <c r="E173" t="s">
-        <v>843</v>
       </c>
       <c r="F173">
         <v>8</v>
       </c>
       <c r="G173" t="s">
+        <v>877</v>
+      </c>
+      <c r="H173" t="s">
         <v>878</v>
-      </c>
-      <c r="H173" t="s">
-        <v>879</v>
       </c>
       <c r="I173">
         <v>14.146000000000001</v>
@@ -12040,13 +12040,13 @@
         <v>-88.037300000000002</v>
       </c>
       <c r="K173" t="s">
+        <v>879</v>
+      </c>
+      <c r="L173" t="s">
         <v>880</v>
       </c>
-      <c r="L173" t="s">
+      <c r="M173" t="s">
         <v>881</v>
-      </c>
-      <c r="M173" t="s">
-        <v>882</v>
       </c>
     </row>
     <row r="174" spans="1:13">
@@ -12060,19 +12060,19 @@
         <v>12</v>
       </c>
       <c r="D174" t="s">
+        <v>841</v>
+      </c>
+      <c r="E174" t="s">
         <v>842</v>
-      </c>
-      <c r="E174" t="s">
-        <v>843</v>
       </c>
       <c r="F174">
         <v>9</v>
       </c>
       <c r="G174" t="s">
+        <v>882</v>
+      </c>
+      <c r="H174" t="s">
         <v>883</v>
-      </c>
-      <c r="H174" t="s">
-        <v>884</v>
       </c>
       <c r="I174">
         <v>13.918799999999999</v>
@@ -12081,13 +12081,13 @@
         <v>-87.779700000000005</v>
       </c>
       <c r="K174" t="s">
+        <v>884</v>
+      </c>
+      <c r="L174" t="s">
         <v>885</v>
       </c>
-      <c r="L174" t="s">
+      <c r="M174" t="s">
         <v>886</v>
-      </c>
-      <c r="M174" t="s">
-        <v>887</v>
       </c>
     </row>
     <row r="175" spans="1:13">
@@ -12101,19 +12101,19 @@
         <v>12</v>
       </c>
       <c r="D175" t="s">
+        <v>841</v>
+      </c>
+      <c r="E175" t="s">
         <v>842</v>
-      </c>
-      <c r="E175" t="s">
-        <v>843</v>
       </c>
       <c r="F175">
         <v>10</v>
       </c>
       <c r="G175" t="s">
+        <v>887</v>
+      </c>
+      <c r="H175" t="s">
         <v>888</v>
-      </c>
-      <c r="H175" t="s">
-        <v>889</v>
       </c>
       <c r="I175">
         <v>14.013199999999999</v>
@@ -12122,13 +12122,13 @@
         <v>-87.873000000000005</v>
       </c>
       <c r="K175" t="s">
+        <v>889</v>
+      </c>
+      <c r="L175" t="s">
         <v>890</v>
       </c>
-      <c r="L175" t="s">
+      <c r="M175" t="s">
         <v>891</v>
-      </c>
-      <c r="M175" t="s">
-        <v>892</v>
       </c>
     </row>
     <row r="176" spans="1:13">
@@ -12142,19 +12142,19 @@
         <v>12</v>
       </c>
       <c r="D176" t="s">
+        <v>841</v>
+      </c>
+      <c r="E176" t="s">
         <v>842</v>
-      </c>
-      <c r="E176" t="s">
-        <v>843</v>
       </c>
       <c r="F176">
         <v>11</v>
       </c>
       <c r="G176" t="s">
+        <v>892</v>
+      </c>
+      <c r="H176" t="s">
         <v>893</v>
-      </c>
-      <c r="H176" t="s">
-        <v>894</v>
       </c>
       <c r="I176">
         <v>13.8932</v>
@@ -12163,13 +12163,13 @@
         <v>-87.716999999999999</v>
       </c>
       <c r="K176" t="s">
+        <v>894</v>
+      </c>
+      <c r="L176" t="s">
         <v>895</v>
       </c>
-      <c r="L176" t="s">
+      <c r="M176" t="s">
         <v>896</v>
-      </c>
-      <c r="M176" t="s">
-        <v>897</v>
       </c>
     </row>
     <row r="177" spans="1:13">
@@ -12183,19 +12183,19 @@
         <v>12</v>
       </c>
       <c r="D177" t="s">
+        <v>841</v>
+      </c>
+      <c r="E177" t="s">
         <v>842</v>
-      </c>
-      <c r="E177" t="s">
-        <v>843</v>
       </c>
       <c r="F177">
         <v>12</v>
       </c>
       <c r="G177" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="H177" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I177">
         <v>14.232200000000001</v>
@@ -12204,13 +12204,13 @@
         <v>-87.955299999999994</v>
       </c>
       <c r="K177" t="s">
+        <v>898</v>
+      </c>
+      <c r="L177" t="s">
         <v>899</v>
       </c>
-      <c r="L177" t="s">
+      <c r="M177" t="s">
         <v>900</v>
-      </c>
-      <c r="M177" t="s">
-        <v>901</v>
       </c>
     </row>
     <row r="178" spans="1:13">
@@ -12224,19 +12224,19 @@
         <v>12</v>
       </c>
       <c r="D178" t="s">
+        <v>841</v>
+      </c>
+      <c r="E178" t="s">
         <v>842</v>
       </c>
-      <c r="E178" t="s">
-        <v>843</v>
-      </c>
       <c r="F178">
         <v>13</v>
       </c>
       <c r="G178" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="H178" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="I178">
         <v>13.955500000000001</v>
@@ -12245,13 +12245,13 @@
         <v>-87.732399999999998</v>
       </c>
       <c r="K178" t="s">
+        <v>902</v>
+      </c>
+      <c r="L178" t="s">
         <v>903</v>
       </c>
-      <c r="L178" t="s">
+      <c r="M178" t="s">
         <v>904</v>
-      </c>
-      <c r="M178" t="s">
-        <v>905</v>
       </c>
     </row>
     <row r="179" spans="1:13">
@@ -12265,19 +12265,19 @@
         <v>12</v>
       </c>
       <c r="D179" t="s">
+        <v>841</v>
+      </c>
+      <c r="E179" t="s">
         <v>842</v>
       </c>
-      <c r="E179" t="s">
-        <v>843</v>
-      </c>
       <c r="F179">
         <v>14</v>
       </c>
       <c r="G179" t="s">
+        <v>905</v>
+      </c>
+      <c r="H179" t="s">
         <v>906</v>
-      </c>
-      <c r="H179" t="s">
-        <v>907</v>
       </c>
       <c r="I179">
         <v>14.2483</v>
@@ -12286,13 +12286,13 @@
         <v>-87.8506</v>
       </c>
       <c r="K179" t="s">
+        <v>907</v>
+      </c>
+      <c r="L179" t="s">
         <v>908</v>
       </c>
-      <c r="L179" t="s">
+      <c r="M179" t="s">
         <v>909</v>
-      </c>
-      <c r="M179" t="s">
-        <v>910</v>
       </c>
     </row>
     <row r="180" spans="1:13">
@@ -12306,16 +12306,16 @@
         <v>12</v>
       </c>
       <c r="D180" t="s">
+        <v>841</v>
+      </c>
+      <c r="E180" t="s">
         <v>842</v>
-      </c>
-      <c r="E180" t="s">
-        <v>843</v>
       </c>
       <c r="F180">
         <v>15</v>
       </c>
       <c r="G180" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="H180" t="s">
         <v>673</v>
@@ -12327,13 +12327,13 @@
         <v>-87.950299999999999</v>
       </c>
       <c r="K180" t="s">
+        <v>911</v>
+      </c>
+      <c r="L180" t="s">
         <v>912</v>
       </c>
-      <c r="L180" t="s">
+      <c r="M180" t="s">
         <v>913</v>
-      </c>
-      <c r="M180" t="s">
-        <v>914</v>
       </c>
     </row>
     <row r="181" spans="1:13">
@@ -12347,19 +12347,19 @@
         <v>12</v>
       </c>
       <c r="D181" t="s">
+        <v>841</v>
+      </c>
+      <c r="E181" t="s">
         <v>842</v>
-      </c>
-      <c r="E181" t="s">
-        <v>843</v>
       </c>
       <c r="F181">
         <v>16</v>
       </c>
       <c r="G181" t="s">
+        <v>914</v>
+      </c>
+      <c r="H181" t="s">
         <v>915</v>
-      </c>
-      <c r="H181" t="s">
-        <v>916</v>
       </c>
       <c r="I181">
         <v>14.065899999999999</v>
@@ -12368,13 +12368,13 @@
         <v>-88.159599999999998</v>
       </c>
       <c r="K181" t="s">
+        <v>916</v>
+      </c>
+      <c r="L181" t="s">
         <v>917</v>
       </c>
-      <c r="L181" t="s">
+      <c r="M181" t="s">
         <v>918</v>
-      </c>
-      <c r="M181" t="s">
-        <v>919</v>
       </c>
     </row>
     <row r="182" spans="1:13">
@@ -12388,19 +12388,19 @@
         <v>12</v>
       </c>
       <c r="D182" t="s">
+        <v>841</v>
+      </c>
+      <c r="E182" t="s">
         <v>842</v>
-      </c>
-      <c r="E182" t="s">
-        <v>843</v>
       </c>
       <c r="F182">
         <v>17</v>
       </c>
       <c r="G182" t="s">
+        <v>919</v>
+      </c>
+      <c r="H182" t="s">
         <v>920</v>
-      </c>
-      <c r="H182" t="s">
-        <v>921</v>
       </c>
       <c r="I182">
         <v>14.271599999999999</v>
@@ -12409,13 +12409,13 @@
         <v>-87.920900000000003</v>
       </c>
       <c r="K182" t="s">
+        <v>921</v>
+      </c>
+      <c r="L182" t="s">
         <v>922</v>
       </c>
-      <c r="L182" t="s">
+      <c r="M182" t="s">
         <v>923</v>
-      </c>
-      <c r="M182" t="s">
-        <v>924</v>
       </c>
     </row>
     <row r="183" spans="1:13">
@@ -12429,19 +12429,19 @@
         <v>12</v>
       </c>
       <c r="D183" t="s">
+        <v>841</v>
+      </c>
+      <c r="E183" t="s">
         <v>842</v>
-      </c>
-      <c r="E183" t="s">
-        <v>843</v>
       </c>
       <c r="F183">
         <v>18</v>
       </c>
       <c r="G183" t="s">
+        <v>924</v>
+      </c>
+      <c r="H183" t="s">
         <v>925</v>
-      </c>
-      <c r="H183" t="s">
-        <v>926</v>
       </c>
       <c r="I183">
         <v>14.3584</v>
@@ -12450,13 +12450,13 @@
         <v>-87.879400000000004</v>
       </c>
       <c r="K183" t="s">
+        <v>926</v>
+      </c>
+      <c r="L183" t="s">
         <v>927</v>
       </c>
-      <c r="L183" t="s">
+      <c r="M183" t="s">
         <v>928</v>
-      </c>
-      <c r="M183" t="s">
-        <v>929</v>
       </c>
     </row>
     <row r="184" spans="1:13">
@@ -12470,19 +12470,19 @@
         <v>12</v>
       </c>
       <c r="D184" t="s">
+        <v>841</v>
+      </c>
+      <c r="E184" t="s">
         <v>842</v>
-      </c>
-      <c r="E184" t="s">
-        <v>843</v>
       </c>
       <c r="F184">
         <v>19</v>
       </c>
       <c r="G184" t="s">
+        <v>929</v>
+      </c>
+      <c r="H184" t="s">
         <v>930</v>
-      </c>
-      <c r="H184" t="s">
-        <v>931</v>
       </c>
       <c r="I184">
         <v>14.1503</v>
@@ -12491,13 +12491,13 @@
         <v>-88.126900000000006</v>
       </c>
       <c r="K184" t="s">
+        <v>931</v>
+      </c>
+      <c r="L184" t="s">
         <v>932</v>
       </c>
-      <c r="L184" t="s">
+      <c r="M184" t="s">
         <v>933</v>
-      </c>
-      <c r="M184" t="s">
-        <v>934</v>
       </c>
     </row>
     <row r="185" spans="1:13">
@@ -12511,19 +12511,19 @@
         <v>13</v>
       </c>
       <c r="D185" t="s">
+        <v>934</v>
+      </c>
+      <c r="E185" t="s">
         <v>935</v>
-      </c>
-      <c r="E185" t="s">
-        <v>936</v>
       </c>
       <c r="F185">
         <v>1</v>
       </c>
       <c r="G185" t="s">
+        <v>936</v>
+      </c>
+      <c r="H185" t="s">
         <v>937</v>
-      </c>
-      <c r="H185" t="s">
-        <v>938</v>
       </c>
       <c r="I185">
         <v>14.586499999999999</v>
@@ -12532,13 +12532,13 @@
         <v>-88.636200000000002</v>
       </c>
       <c r="K185" t="s">
+        <v>938</v>
+      </c>
+      <c r="L185" t="s">
         <v>939</v>
       </c>
-      <c r="L185" t="s">
+      <c r="M185" t="s">
         <v>940</v>
-      </c>
-      <c r="M185" t="s">
-        <v>941</v>
       </c>
     </row>
     <row r="186" spans="1:13">
@@ -12552,19 +12552,19 @@
         <v>13</v>
       </c>
       <c r="D186" t="s">
+        <v>934</v>
+      </c>
+      <c r="E186" t="s">
         <v>935</v>
-      </c>
-      <c r="E186" t="s">
-        <v>936</v>
       </c>
       <c r="F186">
         <v>2</v>
       </c>
       <c r="G186" t="s">
+        <v>941</v>
+      </c>
+      <c r="H186" t="s">
         <v>942</v>
-      </c>
-      <c r="H186" t="s">
-        <v>943</v>
       </c>
       <c r="I186">
         <v>14.507300000000001</v>
@@ -12573,13 +12573,13 @@
         <v>-88.434299999999993</v>
       </c>
       <c r="K186" t="s">
+        <v>943</v>
+      </c>
+      <c r="L186" t="s">
         <v>944</v>
       </c>
-      <c r="L186" t="s">
+      <c r="M186" t="s">
         <v>945</v>
-      </c>
-      <c r="M186" t="s">
-        <v>946</v>
       </c>
     </row>
     <row r="187" spans="1:13">
@@ -12593,19 +12593,19 @@
         <v>13</v>
       </c>
       <c r="D187" t="s">
+        <v>934</v>
+      </c>
+      <c r="E187" t="s">
         <v>935</v>
-      </c>
-      <c r="E187" t="s">
-        <v>936</v>
       </c>
       <c r="F187">
         <v>3</v>
       </c>
       <c r="G187" t="s">
+        <v>946</v>
+      </c>
+      <c r="H187" t="s">
         <v>947</v>
-      </c>
-      <c r="H187" t="s">
-        <v>948</v>
       </c>
       <c r="I187">
         <v>14.056800000000001</v>
@@ -12614,13 +12614,13 @@
         <v>-88.557699999999997</v>
       </c>
       <c r="K187" t="s">
+        <v>948</v>
+      </c>
+      <c r="L187" t="s">
         <v>949</v>
       </c>
-      <c r="L187" t="s">
+      <c r="M187" t="s">
         <v>950</v>
-      </c>
-      <c r="M187" t="s">
-        <v>951</v>
       </c>
     </row>
     <row r="188" spans="1:13">
@@ -12634,19 +12634,19 @@
         <v>13</v>
       </c>
       <c r="D188" t="s">
+        <v>934</v>
+      </c>
+      <c r="E188" t="s">
         <v>935</v>
-      </c>
-      <c r="E188" t="s">
-        <v>936</v>
       </c>
       <c r="F188">
         <v>4</v>
       </c>
       <c r="G188" t="s">
+        <v>951</v>
+      </c>
+      <c r="H188" t="s">
         <v>952</v>
-      </c>
-      <c r="H188" t="s">
-        <v>953</v>
       </c>
       <c r="I188">
         <v>14.310700000000001</v>
@@ -12655,13 +12655,13 @@
         <v>-88.884500000000003</v>
       </c>
       <c r="K188" t="s">
+        <v>953</v>
+      </c>
+      <c r="L188" t="s">
         <v>954</v>
       </c>
-      <c r="L188" t="s">
+      <c r="M188" t="s">
         <v>955</v>
-      </c>
-      <c r="M188" t="s">
-        <v>956</v>
       </c>
     </row>
     <row r="189" spans="1:13">
@@ -12675,19 +12675,19 @@
         <v>13</v>
       </c>
       <c r="D189" t="s">
+        <v>934</v>
+      </c>
+      <c r="E189" t="s">
         <v>935</v>
-      </c>
-      <c r="E189" t="s">
-        <v>936</v>
       </c>
       <c r="F189">
         <v>5</v>
       </c>
       <c r="G189" t="s">
+        <v>956</v>
+      </c>
+      <c r="H189" t="s">
         <v>957</v>
-      </c>
-      <c r="H189" t="s">
-        <v>958</v>
       </c>
       <c r="I189">
         <v>14.2386</v>
@@ -12696,13 +12696,13 @@
         <v>-88.456299999999999</v>
       </c>
       <c r="K189" t="s">
+        <v>958</v>
+      </c>
+      <c r="L189" t="s">
         <v>959</v>
       </c>
-      <c r="L189" t="s">
+      <c r="M189" t="s">
         <v>960</v>
-      </c>
-      <c r="M189" t="s">
-        <v>961</v>
       </c>
     </row>
     <row r="190" spans="1:13">
@@ -12716,19 +12716,19 @@
         <v>13</v>
       </c>
       <c r="D190" t="s">
+        <v>934</v>
+      </c>
+      <c r="E190" t="s">
         <v>935</v>
-      </c>
-      <c r="E190" t="s">
-        <v>936</v>
       </c>
       <c r="F190">
         <v>6</v>
       </c>
       <c r="G190" t="s">
+        <v>961</v>
+      </c>
+      <c r="H190" t="s">
         <v>962</v>
-      </c>
-      <c r="H190" t="s">
-        <v>963</v>
       </c>
       <c r="I190">
         <v>14.1274</v>
@@ -12737,13 +12737,13 @@
         <v>-88.570499999999996</v>
       </c>
       <c r="K190" t="s">
+        <v>963</v>
+      </c>
+      <c r="L190" t="s">
         <v>964</v>
       </c>
-      <c r="L190" t="s">
+      <c r="M190" t="s">
         <v>965</v>
-      </c>
-      <c r="M190" t="s">
-        <v>966</v>
       </c>
     </row>
     <row r="191" spans="1:13">
@@ -12757,19 +12757,19 @@
         <v>13</v>
       </c>
       <c r="D191" t="s">
+        <v>934</v>
+      </c>
+      <c r="E191" t="s">
         <v>935</v>
-      </c>
-      <c r="E191" t="s">
-        <v>936</v>
       </c>
       <c r="F191">
         <v>7</v>
       </c>
       <c r="G191" t="s">
+        <v>966</v>
+      </c>
+      <c r="H191" t="s">
         <v>967</v>
-      </c>
-      <c r="H191" t="s">
-        <v>968</v>
       </c>
       <c r="I191">
         <v>14.2079</v>
@@ -12778,13 +12778,13 @@
         <v>-88.842100000000002</v>
       </c>
       <c r="K191" t="s">
+        <v>968</v>
+      </c>
+      <c r="L191" t="s">
         <v>969</v>
       </c>
-      <c r="L191" t="s">
+      <c r="M191" t="s">
         <v>970</v>
-      </c>
-      <c r="M191" t="s">
-        <v>971</v>
       </c>
     </row>
     <row r="192" spans="1:13">
@@ -12798,19 +12798,19 @@
         <v>13</v>
       </c>
       <c r="D192" t="s">
+        <v>934</v>
+      </c>
+      <c r="E192" t="s">
         <v>935</v>
-      </c>
-      <c r="E192" t="s">
-        <v>936</v>
       </c>
       <c r="F192">
         <v>8</v>
       </c>
       <c r="G192" t="s">
+        <v>971</v>
+      </c>
+      <c r="H192" t="s">
         <v>972</v>
-      </c>
-      <c r="H192" t="s">
-        <v>973</v>
       </c>
       <c r="I192">
         <v>14.472799999999999</v>
@@ -12819,13 +12819,13 @@
         <v>-88.560699999999997</v>
       </c>
       <c r="K192" t="s">
+        <v>973</v>
+      </c>
+      <c r="L192" t="s">
         <v>974</v>
       </c>
-      <c r="L192" t="s">
+      <c r="M192" t="s">
         <v>975</v>
-      </c>
-      <c r="M192" t="s">
-        <v>976</v>
       </c>
     </row>
     <row r="193" spans="1:13">
@@ -12839,19 +12839,19 @@
         <v>13</v>
       </c>
       <c r="D193" t="s">
+        <v>934</v>
+      </c>
+      <c r="E193" t="s">
         <v>935</v>
-      </c>
-      <c r="E193" t="s">
-        <v>936</v>
       </c>
       <c r="F193">
         <v>9</v>
       </c>
       <c r="G193" t="s">
+        <v>976</v>
+      </c>
+      <c r="H193" t="s">
         <v>977</v>
-      </c>
-      <c r="H193" t="s">
-        <v>978</v>
       </c>
       <c r="I193">
         <v>14.665100000000001</v>
@@ -12860,13 +12860,13 @@
         <v>-88.461500000000001</v>
       </c>
       <c r="K193" t="s">
+        <v>978</v>
+      </c>
+      <c r="L193" t="s">
         <v>979</v>
       </c>
-      <c r="L193" t="s">
+      <c r="M193" t="s">
         <v>980</v>
-      </c>
-      <c r="M193" t="s">
-        <v>981</v>
       </c>
     </row>
     <row r="194" spans="1:13">
@@ -12880,19 +12880,19 @@
         <v>13</v>
       </c>
       <c r="D194" t="s">
+        <v>934</v>
+      </c>
+      <c r="E194" t="s">
         <v>935</v>
-      </c>
-      <c r="E194" t="s">
-        <v>936</v>
       </c>
       <c r="F194">
         <v>10</v>
       </c>
       <c r="G194" t="s">
+        <v>981</v>
+      </c>
+      <c r="H194" t="s">
         <v>982</v>
-      </c>
-      <c r="H194" t="s">
-        <v>983</v>
       </c>
       <c r="I194">
         <v>14.6808</v>
@@ -12901,13 +12901,13 @@
         <v>-88.658799999999999</v>
       </c>
       <c r="K194" t="s">
+        <v>983</v>
+      </c>
+      <c r="L194" t="s">
         <v>984</v>
       </c>
-      <c r="L194" t="s">
+      <c r="M194" t="s">
         <v>985</v>
-      </c>
-      <c r="M194" t="s">
-        <v>986</v>
       </c>
     </row>
     <row r="195" spans="1:13" ht="15">
@@ -12921,16 +12921,16 @@
         <v>13</v>
       </c>
       <c r="D195" t="s">
+        <v>934</v>
+      </c>
+      <c r="E195" t="s">
         <v>935</v>
-      </c>
-      <c r="E195" t="s">
-        <v>936</v>
       </c>
       <c r="F195">
         <v>11</v>
       </c>
       <c r="G195" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="H195" t="s">
         <v>273</v>
@@ -12942,13 +12942,13 @@
         <v>-88.422399999999996</v>
       </c>
       <c r="K195" t="s">
+        <v>987</v>
+      </c>
+      <c r="L195" t="s">
         <v>988</v>
       </c>
-      <c r="L195" t="s">
+      <c r="M195" s="1" t="s">
         <v>989</v>
-      </c>
-      <c r="M195" s="1" t="s">
-        <v>990</v>
       </c>
     </row>
     <row r="196" spans="1:13">
@@ -12962,19 +12962,19 @@
         <v>13</v>
       </c>
       <c r="D196" t="s">
+        <v>934</v>
+      </c>
+      <c r="E196" t="s">
         <v>935</v>
-      </c>
-      <c r="E196" t="s">
-        <v>936</v>
       </c>
       <c r="F196">
         <v>12</v>
       </c>
       <c r="G196" t="s">
+        <v>990</v>
+      </c>
+      <c r="H196" t="s">
         <v>991</v>
-      </c>
-      <c r="H196" t="s">
-        <v>992</v>
       </c>
       <c r="I196">
         <v>14.071300000000001</v>
@@ -12983,13 +12983,13 @@
         <v>-88.686300000000003</v>
       </c>
       <c r="K196" t="s">
+        <v>992</v>
+      </c>
+      <c r="L196" t="s">
         <v>993</v>
       </c>
-      <c r="L196" t="s">
+      <c r="M196" t="s">
         <v>994</v>
-      </c>
-      <c r="M196" t="s">
-        <v>995</v>
       </c>
     </row>
     <row r="197" spans="1:13">
@@ -13003,19 +13003,19 @@
         <v>13</v>
       </c>
       <c r="D197" t="s">
+        <v>934</v>
+      </c>
+      <c r="E197" t="s">
         <v>935</v>
       </c>
-      <c r="E197" t="s">
-        <v>936</v>
-      </c>
       <c r="F197">
         <v>13</v>
       </c>
       <c r="G197" t="s">
+        <v>995</v>
+      </c>
+      <c r="H197" t="s">
         <v>996</v>
-      </c>
-      <c r="H197" t="s">
-        <v>997</v>
       </c>
       <c r="I197">
         <v>14.826599999999999</v>
@@ -13024,13 +13024,13 @@
         <v>-88.595100000000002</v>
       </c>
       <c r="K197" t="s">
+        <v>997</v>
+      </c>
+      <c r="L197" t="s">
         <v>998</v>
       </c>
-      <c r="L197" t="s">
+      <c r="M197" t="s">
         <v>999</v>
-      </c>
-      <c r="M197" t="s">
-        <v>1000</v>
       </c>
     </row>
     <row r="198" spans="1:13">
@@ -13044,19 +13044,19 @@
         <v>13</v>
       </c>
       <c r="D198" t="s">
+        <v>934</v>
+      </c>
+      <c r="E198" t="s">
         <v>935</v>
       </c>
-      <c r="E198" t="s">
-        <v>936</v>
-      </c>
       <c r="F198">
         <v>14</v>
       </c>
       <c r="G198" t="s">
+        <v>1000</v>
+      </c>
+      <c r="H198" t="s">
         <v>1001</v>
-      </c>
-      <c r="H198" t="s">
-        <v>1002</v>
       </c>
       <c r="I198">
         <v>14.0487</v>
@@ -13065,13 +13065,13 @@
         <v>-88.621499999999997</v>
       </c>
       <c r="K198" t="s">
+        <v>1002</v>
+      </c>
+      <c r="L198" t="s">
         <v>1003</v>
       </c>
-      <c r="L198" t="s">
+      <c r="M198" t="s">
         <v>1004</v>
-      </c>
-      <c r="M198" t="s">
-        <v>1005</v>
       </c>
     </row>
     <row r="199" spans="1:13">
@@ -13085,19 +13085,19 @@
         <v>13</v>
       </c>
       <c r="D199" t="s">
+        <v>934</v>
+      </c>
+      <c r="E199" t="s">
         <v>935</v>
-      </c>
-      <c r="E199" t="s">
-        <v>936</v>
       </c>
       <c r="F199">
         <v>15</v>
       </c>
       <c r="G199" t="s">
+        <v>1005</v>
+      </c>
+      <c r="H199" t="s">
         <v>1006</v>
-      </c>
-      <c r="H199" t="s">
-        <v>1007</v>
       </c>
       <c r="I199">
         <v>14.056900000000001</v>
@@ -13106,13 +13106,13 @@
         <v>-88.464299999999994</v>
       </c>
       <c r="K199" t="s">
+        <v>1007</v>
+      </c>
+      <c r="L199" t="s">
         <v>1008</v>
       </c>
-      <c r="L199" t="s">
+      <c r="M199" t="s">
         <v>1009</v>
-      </c>
-      <c r="M199" t="s">
-        <v>1010</v>
       </c>
     </row>
     <row r="200" spans="1:13">
@@ -13126,19 +13126,19 @@
         <v>13</v>
       </c>
       <c r="D200" t="s">
+        <v>934</v>
+      </c>
+      <c r="E200" t="s">
         <v>935</v>
-      </c>
-      <c r="E200" t="s">
-        <v>936</v>
       </c>
       <c r="F200">
         <v>16</v>
       </c>
       <c r="G200" t="s">
+        <v>1010</v>
+      </c>
+      <c r="H200" t="s">
         <v>1011</v>
-      </c>
-      <c r="H200" t="s">
-        <v>1012</v>
       </c>
       <c r="I200">
         <v>14.2311</v>
@@ -13147,13 +13147,13 @@
         <v>-88.613500000000002</v>
       </c>
       <c r="K200" t="s">
+        <v>1012</v>
+      </c>
+      <c r="L200" t="s">
         <v>1013</v>
       </c>
-      <c r="L200" t="s">
+      <c r="M200" t="s">
         <v>1014</v>
-      </c>
-      <c r="M200" t="s">
-        <v>1015</v>
       </c>
     </row>
     <row r="201" spans="1:13">
@@ -13167,16 +13167,16 @@
         <v>13</v>
       </c>
       <c r="D201" t="s">
+        <v>934</v>
+      </c>
+      <c r="E201" t="s">
         <v>935</v>
-      </c>
-      <c r="E201" t="s">
-        <v>936</v>
       </c>
       <c r="F201">
         <v>17</v>
       </c>
       <c r="G201" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="H201" t="s">
         <v>43</v>
@@ -13188,13 +13188,13 @@
         <v>-88.369399999999999</v>
       </c>
       <c r="K201" t="s">
+        <v>1016</v>
+      </c>
+      <c r="L201" t="s">
         <v>1017</v>
       </c>
-      <c r="L201" t="s">
+      <c r="M201" t="s">
         <v>1018</v>
-      </c>
-      <c r="M201" t="s">
-        <v>1019</v>
       </c>
     </row>
     <row r="202" spans="1:13">
@@ -13208,19 +13208,19 @@
         <v>13</v>
       </c>
       <c r="D202" t="s">
+        <v>934</v>
+      </c>
+      <c r="E202" t="s">
         <v>935</v>
-      </c>
-      <c r="E202" t="s">
-        <v>936</v>
       </c>
       <c r="F202">
         <v>18</v>
       </c>
       <c r="G202" t="s">
+        <v>1019</v>
+      </c>
+      <c r="H202" t="s">
         <v>1020</v>
-      </c>
-      <c r="H202" t="s">
-        <v>1021</v>
       </c>
       <c r="I202">
         <v>14.1416</v>
@@ -13229,13 +13229,13 @@
         <v>-88.772900000000007</v>
       </c>
       <c r="K202" t="s">
+        <v>1021</v>
+      </c>
+      <c r="L202" t="s">
         <v>1022</v>
       </c>
-      <c r="L202" t="s">
+      <c r="M202" t="s">
         <v>1023</v>
-      </c>
-      <c r="M202" t="s">
-        <v>1024</v>
       </c>
     </row>
     <row r="203" spans="1:13">
@@ -13249,19 +13249,19 @@
         <v>13</v>
       </c>
       <c r="D203" t="s">
+        <v>934</v>
+      </c>
+      <c r="E203" t="s">
         <v>935</v>
-      </c>
-      <c r="E203" t="s">
-        <v>936</v>
       </c>
       <c r="F203">
         <v>19</v>
       </c>
       <c r="G203" t="s">
+        <v>1024</v>
+      </c>
+      <c r="H203" t="s">
         <v>1025</v>
-      </c>
-      <c r="H203" t="s">
-        <v>1026</v>
       </c>
       <c r="I203">
         <v>14.4512</v>
@@ -13270,13 +13270,13 @@
         <v>-88.67</v>
       </c>
       <c r="K203" t="s">
+        <v>1026</v>
+      </c>
+      <c r="L203" t="s">
         <v>1027</v>
       </c>
-      <c r="L203" t="s">
+      <c r="M203" t="s">
         <v>1028</v>
-      </c>
-      <c r="M203" t="s">
-        <v>1029</v>
       </c>
     </row>
     <row r="204" spans="1:13">
@@ -13290,19 +13290,19 @@
         <v>13</v>
       </c>
       <c r="D204" t="s">
+        <v>934</v>
+      </c>
+      <c r="E204" t="s">
         <v>935</v>
-      </c>
-      <c r="E204" t="s">
-        <v>936</v>
       </c>
       <c r="F204">
         <v>20</v>
       </c>
       <c r="G204" t="s">
+        <v>1029</v>
+      </c>
+      <c r="H204" t="s">
         <v>1030</v>
-      </c>
-      <c r="H204" t="s">
-        <v>1031</v>
       </c>
       <c r="I204">
         <v>14.7095</v>
@@ -13311,13 +13311,13 @@
         <v>-88.379900000000006</v>
       </c>
       <c r="K204" t="s">
+        <v>1031</v>
+      </c>
+      <c r="L204" t="s">
         <v>1032</v>
       </c>
-      <c r="L204" t="s">
+      <c r="M204" t="s">
         <v>1033</v>
-      </c>
-      <c r="M204" t="s">
-        <v>1034</v>
       </c>
     </row>
     <row r="205" spans="1:13">
@@ -13331,16 +13331,16 @@
         <v>13</v>
       </c>
       <c r="D205" t="s">
+        <v>934</v>
+      </c>
+      <c r="E205" t="s">
         <v>935</v>
-      </c>
-      <c r="E205" t="s">
-        <v>936</v>
       </c>
       <c r="F205">
         <v>21</v>
       </c>
       <c r="G205" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="H205" t="s">
         <v>191</v>
@@ -13352,13 +13352,13 @@
         <v>-88.7316</v>
       </c>
       <c r="K205" t="s">
+        <v>1035</v>
+      </c>
+      <c r="L205" t="s">
         <v>1036</v>
       </c>
-      <c r="L205" t="s">
+      <c r="M205" t="s">
         <v>1037</v>
-      </c>
-      <c r="M205" t="s">
-        <v>1038</v>
       </c>
     </row>
     <row r="206" spans="1:13">
@@ -13372,19 +13372,19 @@
         <v>13</v>
       </c>
       <c r="D206" t="s">
+        <v>934</v>
+      </c>
+      <c r="E206" t="s">
         <v>935</v>
-      </c>
-      <c r="E206" t="s">
-        <v>936</v>
       </c>
       <c r="F206">
         <v>22</v>
       </c>
       <c r="G206" t="s">
+        <v>1038</v>
+      </c>
+      <c r="H206" t="s">
         <v>1039</v>
-      </c>
-      <c r="H206" t="s">
-        <v>1040</v>
       </c>
       <c r="I206">
         <v>14.3474</v>
@@ -13393,13 +13393,13 @@
         <v>-88.535899999999998</v>
       </c>
       <c r="K206" t="s">
+        <v>1040</v>
+      </c>
+      <c r="L206" t="s">
         <v>1041</v>
       </c>
-      <c r="L206" t="s">
+      <c r="M206" t="s">
         <v>1042</v>
-      </c>
-      <c r="M206" t="s">
-        <v>1043</v>
       </c>
     </row>
     <row r="207" spans="1:13">
@@ -13413,19 +13413,19 @@
         <v>13</v>
       </c>
       <c r="D207" t="s">
+        <v>934</v>
+      </c>
+      <c r="E207" t="s">
         <v>935</v>
-      </c>
-      <c r="E207" t="s">
-        <v>936</v>
       </c>
       <c r="F207">
         <v>23</v>
       </c>
       <c r="G207" t="s">
+        <v>1043</v>
+      </c>
+      <c r="H207" t="s">
         <v>1044</v>
-      </c>
-      <c r="H207" t="s">
-        <v>1045</v>
       </c>
       <c r="I207">
         <v>14.6843</v>
@@ -13434,13 +13434,13 @@
         <v>-88.733800000000002</v>
       </c>
       <c r="K207" t="s">
+        <v>1045</v>
+      </c>
+      <c r="L207" t="s">
         <v>1046</v>
       </c>
-      <c r="L207" t="s">
+      <c r="M207" t="s">
         <v>1047</v>
-      </c>
-      <c r="M207" t="s">
-        <v>1048</v>
       </c>
     </row>
     <row r="208" spans="1:13">
@@ -13454,19 +13454,19 @@
         <v>13</v>
       </c>
       <c r="D208" t="s">
+        <v>934</v>
+      </c>
+      <c r="E208" t="s">
         <v>935</v>
-      </c>
-      <c r="E208" t="s">
-        <v>936</v>
       </c>
       <c r="F208">
         <v>24</v>
       </c>
       <c r="G208" t="s">
+        <v>1048</v>
+      </c>
+      <c r="H208" t="s">
         <v>1049</v>
-      </c>
-      <c r="H208" t="s">
-        <v>1050</v>
       </c>
       <c r="I208">
         <v>14.2082</v>
@@ -13475,13 +13475,13 @@
         <v>-88.755200000000002</v>
       </c>
       <c r="K208" t="s">
+        <v>1050</v>
+      </c>
+      <c r="L208" t="s">
         <v>1051</v>
       </c>
-      <c r="L208" t="s">
+      <c r="M208" t="s">
         <v>1052</v>
-      </c>
-      <c r="M208" t="s">
-        <v>1053</v>
       </c>
     </row>
     <row r="209" spans="1:13">
@@ -13495,19 +13495,19 @@
         <v>13</v>
       </c>
       <c r="D209" t="s">
+        <v>934</v>
+      </c>
+      <c r="E209" t="s">
         <v>935</v>
-      </c>
-      <c r="E209" t="s">
-        <v>936</v>
       </c>
       <c r="F209">
         <v>25</v>
       </c>
       <c r="G209" t="s">
+        <v>1053</v>
+      </c>
+      <c r="H209" t="s">
         <v>1054</v>
-      </c>
-      <c r="H209" t="s">
-        <v>1055</v>
       </c>
       <c r="I209">
         <v>14.2499</v>
@@ -13516,13 +13516,13 @@
         <v>-88.739900000000006</v>
       </c>
       <c r="K209" t="s">
+        <v>1055</v>
+      </c>
+      <c r="L209" t="s">
         <v>1056</v>
       </c>
-      <c r="L209" t="s">
+      <c r="M209" t="s">
         <v>1057</v>
-      </c>
-      <c r="M209" t="s">
-        <v>1058</v>
       </c>
     </row>
     <row r="210" spans="1:13">
@@ -13536,19 +13536,19 @@
         <v>13</v>
       </c>
       <c r="D210" t="s">
+        <v>934</v>
+      </c>
+      <c r="E210" t="s">
         <v>935</v>
-      </c>
-      <c r="E210" t="s">
-        <v>936</v>
       </c>
       <c r="F210">
         <v>26</v>
       </c>
       <c r="G210" t="s">
+        <v>1058</v>
+      </c>
+      <c r="H210" t="s">
         <v>1059</v>
-      </c>
-      <c r="H210" t="s">
-        <v>1060</v>
       </c>
       <c r="I210">
         <v>14.1531</v>
@@ -13557,13 +13557,13 @@
         <v>-88.711799999999997</v>
       </c>
       <c r="K210" t="s">
+        <v>1060</v>
+      </c>
+      <c r="L210" t="s">
         <v>1061</v>
       </c>
-      <c r="L210" t="s">
+      <c r="M210" t="s">
         <v>1062</v>
-      </c>
-      <c r="M210" t="s">
-        <v>1063</v>
       </c>
     </row>
     <row r="211" spans="1:13">
@@ -13577,19 +13577,19 @@
         <v>13</v>
       </c>
       <c r="D211" t="s">
+        <v>934</v>
+      </c>
+      <c r="E211" t="s">
         <v>935</v>
-      </c>
-      <c r="E211" t="s">
-        <v>936</v>
       </c>
       <c r="F211">
         <v>27</v>
       </c>
       <c r="G211" t="s">
+        <v>1063</v>
+      </c>
+      <c r="H211" t="s">
         <v>1064</v>
-      </c>
-      <c r="H211" t="s">
-        <v>1065</v>
       </c>
       <c r="I211">
         <v>14.008800000000001</v>
@@ -13598,13 +13598,13 @@
         <v>-88.5642</v>
       </c>
       <c r="K211" t="s">
+        <v>1065</v>
+      </c>
+      <c r="L211" t="s">
         <v>1066</v>
       </c>
-      <c r="L211" t="s">
+      <c r="M211" t="s">
         <v>1067</v>
-      </c>
-      <c r="M211" t="s">
-        <v>1068</v>
       </c>
     </row>
     <row r="212" spans="1:13">
@@ -13618,19 +13618,19 @@
         <v>13</v>
       </c>
       <c r="D212" t="s">
+        <v>934</v>
+      </c>
+      <c r="E212" t="s">
         <v>935</v>
-      </c>
-      <c r="E212" t="s">
-        <v>936</v>
       </c>
       <c r="F212">
         <v>28</v>
       </c>
       <c r="G212" t="s">
+        <v>1068</v>
+      </c>
+      <c r="H212" t="s">
         <v>1069</v>
-      </c>
-      <c r="H212" t="s">
-        <v>1070</v>
       </c>
       <c r="I212">
         <v>14.387600000000001</v>
@@ -13639,13 +13639,13 @@
         <v>-88.600499999999997</v>
       </c>
       <c r="K212" t="s">
+        <v>1070</v>
+      </c>
+      <c r="L212" t="s">
         <v>1071</v>
       </c>
-      <c r="L212" t="s">
+      <c r="M212" t="s">
         <v>1072</v>
-      </c>
-      <c r="M212" t="s">
-        <v>1073</v>
       </c>
     </row>
     <row r="213" spans="1:13">
@@ -13659,19 +13659,19 @@
         <v>14</v>
       </c>
       <c r="D213" t="s">
+        <v>1073</v>
+      </c>
+      <c r="E213" t="s">
         <v>1074</v>
-      </c>
-      <c r="E213" t="s">
-        <v>1075</v>
       </c>
       <c r="F213">
         <v>1</v>
       </c>
       <c r="G213" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="H213" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="I213">
         <v>14.403700000000001</v>
@@ -13680,13 +13680,13 @@
         <v>-89.165400000000005</v>
       </c>
       <c r="K213" t="s">
+        <v>1076</v>
+      </c>
+      <c r="L213" t="s">
         <v>1077</v>
       </c>
-      <c r="L213" t="s">
+      <c r="M213" t="s">
         <v>1078</v>
-      </c>
-      <c r="M213" t="s">
-        <v>1079</v>
       </c>
     </row>
     <row r="214" spans="1:13">
@@ -13700,19 +13700,19 @@
         <v>14</v>
       </c>
       <c r="D214" t="s">
+        <v>1073</v>
+      </c>
+      <c r="E214" t="s">
         <v>1074</v>
-      </c>
-      <c r="E214" t="s">
-        <v>1075</v>
       </c>
       <c r="F214">
         <v>2</v>
       </c>
       <c r="G214" t="s">
+        <v>1079</v>
+      </c>
+      <c r="H214" t="s">
         <v>1080</v>
-      </c>
-      <c r="H214" t="s">
-        <v>1081</v>
       </c>
       <c r="I214">
         <v>14.484999999999999</v>
@@ -13721,13 +13721,13 @@
         <v>-88.783100000000005</v>
       </c>
       <c r="K214" t="s">
+        <v>1081</v>
+      </c>
+      <c r="L214" t="s">
         <v>1082</v>
       </c>
-      <c r="L214" t="s">
+      <c r="M214" t="s">
         <v>1083</v>
-      </c>
-      <c r="M214" t="s">
-        <v>1084</v>
       </c>
     </row>
     <row r="215" spans="1:13">
@@ -13741,19 +13741,19 @@
         <v>14</v>
       </c>
       <c r="D215" t="s">
+        <v>1073</v>
+      </c>
+      <c r="E215" t="s">
         <v>1074</v>
-      </c>
-      <c r="E215" t="s">
-        <v>1075</v>
       </c>
       <c r="F215">
         <v>3</v>
       </c>
       <c r="G215" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="H215" t="s">
-        <v>757</v>
+        <v>228</v>
       </c>
       <c r="I215">
         <v>14.526300000000001</v>
@@ -13762,13 +13762,13 @@
         <v>-89.197100000000006</v>
       </c>
       <c r="K215" t="s">
+        <v>1085</v>
+      </c>
+      <c r="L215" t="s">
         <v>1086</v>
       </c>
-      <c r="L215" t="s">
+      <c r="M215" t="s">
         <v>1087</v>
-      </c>
-      <c r="M215" t="s">
-        <v>1088</v>
       </c>
     </row>
     <row r="216" spans="1:13">
@@ -13782,19 +13782,19 @@
         <v>14</v>
       </c>
       <c r="D216" t="s">
+        <v>1073</v>
+      </c>
+      <c r="E216" t="s">
         <v>1074</v>
-      </c>
-      <c r="E216" t="s">
-        <v>1075</v>
       </c>
       <c r="F216">
         <v>4</v>
       </c>
       <c r="G216" t="s">
+        <v>1088</v>
+      </c>
+      <c r="H216" t="s">
         <v>1089</v>
-      </c>
-      <c r="H216" t="s">
-        <v>1090</v>
       </c>
       <c r="I216">
         <v>14.5573</v>
@@ -13803,13 +13803,13 @@
         <v>-89.132999999999996</v>
       </c>
       <c r="K216" t="s">
+        <v>1090</v>
+      </c>
+      <c r="L216" t="s">
         <v>1091</v>
       </c>
-      <c r="L216" t="s">
+      <c r="M216" t="s">
         <v>1092</v>
-      </c>
-      <c r="M216" t="s">
-        <v>1093</v>
       </c>
     </row>
     <row r="217" spans="1:13">
@@ -13823,19 +13823,19 @@
         <v>14</v>
       </c>
       <c r="D217" t="s">
+        <v>1073</v>
+      </c>
+      <c r="E217" t="s">
         <v>1074</v>
-      </c>
-      <c r="E217" t="s">
-        <v>1075</v>
       </c>
       <c r="F217">
         <v>5</v>
       </c>
       <c r="G217" t="s">
+        <v>1093</v>
+      </c>
+      <c r="H217" t="s">
         <v>1094</v>
-      </c>
-      <c r="H217" t="s">
-        <v>1095</v>
       </c>
       <c r="I217">
         <v>14.5847</v>
@@ -13844,13 +13844,13 @@
         <v>-89.072599999999994</v>
       </c>
       <c r="K217" t="s">
+        <v>1095</v>
+      </c>
+      <c r="L217" t="s">
         <v>1096</v>
       </c>
-      <c r="L217" t="s">
+      <c r="M217" t="s">
         <v>1097</v>
-      </c>
-      <c r="M217" t="s">
-        <v>1098</v>
       </c>
     </row>
     <row r="218" spans="1:13">
@@ -13864,19 +13864,19 @@
         <v>14</v>
       </c>
       <c r="D218" t="s">
+        <v>1073</v>
+      </c>
+      <c r="E218" t="s">
         <v>1074</v>
-      </c>
-      <c r="E218" t="s">
-        <v>1075</v>
       </c>
       <c r="F218">
         <v>6</v>
       </c>
       <c r="G218" t="s">
+        <v>1098</v>
+      </c>
+      <c r="H218" t="s">
         <v>1099</v>
-      </c>
-      <c r="H218" t="s">
-        <v>1100</v>
       </c>
       <c r="I218">
         <v>14.667</v>
@@ -13885,13 +13885,13 @@
         <v>-89.047399999999996</v>
       </c>
       <c r="K218" t="s">
+        <v>1100</v>
+      </c>
+      <c r="L218" t="s">
         <v>1101</v>
       </c>
-      <c r="L218" t="s">
+      <c r="M218" t="s">
         <v>1102</v>
-      </c>
-      <c r="M218" t="s">
-        <v>1103</v>
       </c>
     </row>
     <row r="219" spans="1:13">
@@ -13905,19 +13905,19 @@
         <v>14</v>
       </c>
       <c r="D219" t="s">
+        <v>1073</v>
+      </c>
+      <c r="E219" t="s">
         <v>1074</v>
-      </c>
-      <c r="E219" t="s">
-        <v>1075</v>
       </c>
       <c r="F219">
         <v>7</v>
       </c>
       <c r="G219" t="s">
+        <v>1103</v>
+      </c>
+      <c r="H219" t="s">
         <v>1104</v>
-      </c>
-      <c r="H219" t="s">
-        <v>1105</v>
       </c>
       <c r="I219">
         <v>14.4953</v>
@@ -13926,13 +13926,13 @@
         <v>-89.0334</v>
       </c>
       <c r="K219" t="s">
+        <v>1105</v>
+      </c>
+      <c r="L219" t="s">
         <v>1106</v>
       </c>
-      <c r="L219" t="s">
+      <c r="M219" t="s">
         <v>1107</v>
-      </c>
-      <c r="M219" t="s">
-        <v>1108</v>
       </c>
     </row>
     <row r="220" spans="1:13">
@@ -13946,19 +13946,19 @@
         <v>14</v>
       </c>
       <c r="D220" t="s">
+        <v>1073</v>
+      </c>
+      <c r="E220" t="s">
         <v>1074</v>
-      </c>
-      <c r="E220" t="s">
-        <v>1075</v>
       </c>
       <c r="F220">
         <v>8</v>
       </c>
       <c r="G220" t="s">
+        <v>1108</v>
+      </c>
+      <c r="H220" t="s">
         <v>1109</v>
-      </c>
-      <c r="H220" t="s">
-        <v>1110</v>
       </c>
       <c r="I220">
         <v>14.581</v>
@@ -13967,13 +13967,13 @@
         <v>-88.944999999999993</v>
       </c>
       <c r="K220" t="s">
+        <v>1110</v>
+      </c>
+      <c r="L220" t="s">
         <v>1111</v>
       </c>
-      <c r="L220" t="s">
+      <c r="M220" t="s">
         <v>1112</v>
-      </c>
-      <c r="M220" t="s">
-        <v>1113</v>
       </c>
     </row>
     <row r="221" spans="1:13">
@@ -13987,19 +13987,19 @@
         <v>14</v>
       </c>
       <c r="D221" t="s">
+        <v>1073</v>
+      </c>
+      <c r="E221" t="s">
         <v>1074</v>
-      </c>
-      <c r="E221" t="s">
-        <v>1075</v>
       </c>
       <c r="F221">
         <v>9</v>
       </c>
       <c r="G221" t="s">
+        <v>1113</v>
+      </c>
+      <c r="H221" t="s">
         <v>1114</v>
-      </c>
-      <c r="H221" t="s">
-        <v>1115</v>
       </c>
       <c r="I221">
         <v>14.3195</v>
@@ -14008,13 +14008,13 @@
         <v>-89.011700000000005</v>
       </c>
       <c r="K221" t="s">
+        <v>1115</v>
+      </c>
+      <c r="L221" t="s">
         <v>1116</v>
       </c>
-      <c r="L221" t="s">
+      <c r="M221" t="s">
         <v>1117</v>
-      </c>
-      <c r="M221" t="s">
-        <v>1118</v>
       </c>
     </row>
     <row r="222" spans="1:13">
@@ -14028,19 +14028,19 @@
         <v>14</v>
       </c>
       <c r="D222" t="s">
+        <v>1073</v>
+      </c>
+      <c r="E222" t="s">
         <v>1074</v>
-      </c>
-      <c r="E222" t="s">
-        <v>1075</v>
       </c>
       <c r="F222">
         <v>10</v>
       </c>
       <c r="G222" t="s">
+        <v>1118</v>
+      </c>
+      <c r="H222" t="s">
         <v>1119</v>
-      </c>
-      <c r="H222" t="s">
-        <v>1120</v>
       </c>
       <c r="I222">
         <v>14.6911</v>
@@ -14049,13 +14049,13 @@
         <v>-89.098799999999997</v>
       </c>
       <c r="K222" t="s">
+        <v>1120</v>
+      </c>
+      <c r="L222" t="s">
         <v>1121</v>
       </c>
-      <c r="L222" t="s">
+      <c r="M222" t="s">
         <v>1122</v>
-      </c>
-      <c r="M222" t="s">
-        <v>1123</v>
       </c>
     </row>
     <row r="223" spans="1:13">
@@ -14069,19 +14069,19 @@
         <v>14</v>
       </c>
       <c r="D223" t="s">
+        <v>1073</v>
+      </c>
+      <c r="E223" t="s">
         <v>1074</v>
-      </c>
-      <c r="E223" t="s">
-        <v>1075</v>
       </c>
       <c r="F223">
         <v>11</v>
       </c>
       <c r="G223" t="s">
+        <v>1123</v>
+      </c>
+      <c r="H223" t="s">
         <v>1124</v>
-      </c>
-      <c r="H223" t="s">
-        <v>1125</v>
       </c>
       <c r="I223">
         <v>14.4284</v>
@@ -14090,13 +14090,13 @@
         <v>-88.9923</v>
       </c>
       <c r="K223" t="s">
+        <v>1125</v>
+      </c>
+      <c r="L223" t="s">
         <v>1126</v>
       </c>
-      <c r="L223" t="s">
+      <c r="M223" t="s">
         <v>1127</v>
-      </c>
-      <c r="M223" t="s">
-        <v>1128</v>
       </c>
     </row>
     <row r="224" spans="1:13">
@@ -14110,19 +14110,19 @@
         <v>14</v>
       </c>
       <c r="D224" t="s">
+        <v>1073</v>
+      </c>
+      <c r="E224" t="s">
         <v>1074</v>
-      </c>
-      <c r="E224" t="s">
-        <v>1075</v>
       </c>
       <c r="F224">
         <v>12</v>
       </c>
       <c r="G224" t="s">
+        <v>1128</v>
+      </c>
+      <c r="H224" t="s">
         <v>1129</v>
-      </c>
-      <c r="H224" t="s">
-        <v>1130</v>
       </c>
       <c r="I224">
         <v>14.632400000000001</v>
@@ -14131,13 +14131,13 @@
         <v>-89.124799999999993</v>
       </c>
       <c r="K224" t="s">
+        <v>1130</v>
+      </c>
+      <c r="L224" t="s">
         <v>1131</v>
       </c>
-      <c r="L224" t="s">
+      <c r="M224" t="s">
         <v>1132</v>
-      </c>
-      <c r="M224" t="s">
-        <v>1133</v>
       </c>
     </row>
     <row r="225" spans="1:13">
@@ -14151,19 +14151,19 @@
         <v>14</v>
       </c>
       <c r="D225" t="s">
+        <v>1073</v>
+      </c>
+      <c r="E225" t="s">
         <v>1074</v>
       </c>
-      <c r="E225" t="s">
-        <v>1075</v>
-      </c>
       <c r="F225">
         <v>13</v>
       </c>
       <c r="G225" t="s">
+        <v>1133</v>
+      </c>
+      <c r="H225" t="s">
         <v>1134</v>
-      </c>
-      <c r="H225" t="s">
-        <v>1135</v>
       </c>
       <c r="I225">
         <v>14.394500000000001</v>
@@ -14172,13 +14172,13 @@
         <v>-88.924999999999997</v>
       </c>
       <c r="K225" t="s">
+        <v>1135</v>
+      </c>
+      <c r="L225" t="s">
         <v>1136</v>
       </c>
-      <c r="L225" t="s">
+      <c r="M225" t="s">
         <v>1137</v>
-      </c>
-      <c r="M225" t="s">
-        <v>1138</v>
       </c>
     </row>
     <row r="226" spans="1:13">
@@ -14192,16 +14192,16 @@
         <v>14</v>
       </c>
       <c r="D226" t="s">
+        <v>1073</v>
+      </c>
+      <c r="E226" t="s">
         <v>1074</v>
       </c>
-      <c r="E226" t="s">
-        <v>1075</v>
-      </c>
       <c r="F226">
         <v>14</v>
       </c>
       <c r="G226" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="H226" t="s">
         <v>85</v>
@@ -14213,13 +14213,13 @@
         <v>-89.284300000000002</v>
       </c>
       <c r="K226" t="s">
+        <v>1139</v>
+      </c>
+      <c r="L226" t="s">
         <v>1140</v>
       </c>
-      <c r="L226" t="s">
+      <c r="M226" t="s">
         <v>1141</v>
-      </c>
-      <c r="M226" t="s">
-        <v>1142</v>
       </c>
     </row>
     <row r="227" spans="1:13">
@@ -14233,19 +14233,19 @@
         <v>14</v>
       </c>
       <c r="D227" t="s">
+        <v>1073</v>
+      </c>
+      <c r="E227" t="s">
         <v>1074</v>
-      </c>
-      <c r="E227" t="s">
-        <v>1075</v>
       </c>
       <c r="F227">
         <v>15</v>
       </c>
       <c r="G227" t="s">
+        <v>1142</v>
+      </c>
+      <c r="H227" t="s">
         <v>1143</v>
-      </c>
-      <c r="H227" t="s">
-        <v>1144</v>
       </c>
       <c r="I227">
         <v>14.504899999999999</v>
@@ -14254,13 +14254,13 @@
         <v>-88.927599999999998</v>
       </c>
       <c r="K227" t="s">
+        <v>1144</v>
+      </c>
+      <c r="L227" t="s">
         <v>1145</v>
       </c>
-      <c r="L227" t="s">
+      <c r="M227" t="s">
         <v>1146</v>
-      </c>
-      <c r="M227" t="s">
-        <v>1147</v>
       </c>
     </row>
     <row r="228" spans="1:13">
@@ -14274,19 +14274,19 @@
         <v>14</v>
       </c>
       <c r="D228" t="s">
+        <v>1073</v>
+      </c>
+      <c r="E228" t="s">
         <v>1074</v>
-      </c>
-      <c r="E228" t="s">
-        <v>1075</v>
       </c>
       <c r="F228">
         <v>16</v>
       </c>
       <c r="G228" t="s">
+        <v>1147</v>
+      </c>
+      <c r="H228" t="s">
         <v>1148</v>
-      </c>
-      <c r="H228" t="s">
-        <v>1149</v>
       </c>
       <c r="I228">
         <v>14.4612</v>
@@ -14295,13 +14295,13 @@
         <v>-89.122600000000006</v>
       </c>
       <c r="K228" t="s">
+        <v>1149</v>
+      </c>
+      <c r="L228" t="s">
         <v>1150</v>
       </c>
-      <c r="L228" t="s">
+      <c r="M228" t="s">
         <v>1151</v>
-      </c>
-      <c r="M228" t="s">
-        <v>1152</v>
       </c>
     </row>
     <row r="229" spans="1:13">
@@ -14315,19 +14315,19 @@
         <v>15</v>
       </c>
       <c r="D229" t="s">
+        <v>1152</v>
+      </c>
+      <c r="E229" t="s">
         <v>1153</v>
-      </c>
-      <c r="E229" t="s">
-        <v>1154</v>
       </c>
       <c r="F229">
         <v>1</v>
       </c>
       <c r="G229" t="s">
+        <v>1154</v>
+      </c>
+      <c r="H229" t="s">
         <v>1155</v>
-      </c>
-      <c r="H229" t="s">
-        <v>1156</v>
       </c>
       <c r="I229">
         <v>14.542</v>
@@ -14336,13 +14336,13 @@
         <v>-86.315200000000004</v>
       </c>
       <c r="K229" t="s">
+        <v>1156</v>
+      </c>
+      <c r="L229" t="s">
         <v>1157</v>
       </c>
-      <c r="L229" t="s">
+      <c r="M229" t="s">
         <v>1158</v>
-      </c>
-      <c r="M229" t="s">
-        <v>1159</v>
       </c>
     </row>
     <row r="230" spans="1:13">
@@ -14356,19 +14356,19 @@
         <v>15</v>
       </c>
       <c r="D230" t="s">
+        <v>1152</v>
+      </c>
+      <c r="E230" t="s">
         <v>1153</v>
-      </c>
-      <c r="E230" t="s">
-        <v>1154</v>
       </c>
       <c r="F230">
         <v>2</v>
       </c>
       <c r="G230" t="s">
+        <v>1159</v>
+      </c>
+      <c r="H230" t="s">
         <v>1160</v>
-      </c>
-      <c r="H230" t="s">
-        <v>1161</v>
       </c>
       <c r="I230">
         <v>14.492100000000001</v>
@@ -14377,13 +14377,13 @@
         <v>-86.641400000000004</v>
       </c>
       <c r="K230" t="s">
+        <v>1161</v>
+      </c>
+      <c r="L230" t="s">
         <v>1162</v>
       </c>
-      <c r="L230" t="s">
+      <c r="M230" t="s">
         <v>1163</v>
-      </c>
-      <c r="M230" t="s">
-        <v>1164</v>
       </c>
     </row>
     <row r="231" spans="1:13">
@@ -14397,19 +14397,19 @@
         <v>15</v>
       </c>
       <c r="D231" t="s">
+        <v>1152</v>
+      </c>
+      <c r="E231" t="s">
         <v>1153</v>
-      </c>
-      <c r="E231" t="s">
-        <v>1154</v>
       </c>
       <c r="F231">
         <v>3</v>
       </c>
       <c r="G231" t="s">
+        <v>1164</v>
+      </c>
+      <c r="H231" t="s">
         <v>1165</v>
-      </c>
-      <c r="H231" t="s">
-        <v>1166</v>
       </c>
       <c r="I231">
         <v>14.581200000000001</v>
@@ -14418,13 +14418,13 @@
         <v>-85.555000000000007</v>
       </c>
       <c r="K231" t="s">
+        <v>1166</v>
+      </c>
+      <c r="L231" t="s">
         <v>1167</v>
       </c>
-      <c r="L231" t="s">
+      <c r="M231" t="s">
         <v>1168</v>
-      </c>
-      <c r="M231" t="s">
-        <v>1169</v>
       </c>
     </row>
     <row r="232" spans="1:13">
@@ -14438,19 +14438,19 @@
         <v>15</v>
       </c>
       <c r="D232" t="s">
+        <v>1152</v>
+      </c>
+      <c r="E232" t="s">
         <v>1153</v>
-      </c>
-      <c r="E232" t="s">
-        <v>1154</v>
       </c>
       <c r="F232">
         <v>4</v>
       </c>
       <c r="G232" t="s">
+        <v>1169</v>
+      </c>
+      <c r="H232" t="s">
         <v>1170</v>
-      </c>
-      <c r="H232" t="s">
-        <v>1171</v>
       </c>
       <c r="I232">
         <v>14.647600000000001</v>
@@ -14459,13 +14459,13 @@
         <v>-86.711100000000002</v>
       </c>
       <c r="K232" t="s">
+        <v>1171</v>
+      </c>
+      <c r="L232" t="s">
         <v>1172</v>
       </c>
-      <c r="L232" t="s">
+      <c r="M232" t="s">
         <v>1173</v>
-      </c>
-      <c r="M232" t="s">
-        <v>1174</v>
       </c>
     </row>
     <row r="233" spans="1:13">
@@ -14479,19 +14479,19 @@
         <v>15</v>
       </c>
       <c r="D233" t="s">
+        <v>1152</v>
+      </c>
+      <c r="E233" t="s">
         <v>1153</v>
-      </c>
-      <c r="E233" t="s">
-        <v>1154</v>
       </c>
       <c r="F233">
         <v>5</v>
       </c>
       <c r="G233" t="s">
+        <v>1174</v>
+      </c>
+      <c r="H233" t="s">
         <v>1175</v>
-      </c>
-      <c r="H233" t="s">
-        <v>1176</v>
       </c>
       <c r="I233">
         <v>15.058</v>
@@ -14500,13 +14500,13 @@
         <v>-85.306899999999999</v>
       </c>
       <c r="K233" t="s">
+        <v>1176</v>
+      </c>
+      <c r="L233" t="s">
         <v>1177</v>
       </c>
-      <c r="L233" t="s">
+      <c r="M233" t="s">
         <v>1178</v>
-      </c>
-      <c r="M233" t="s">
-        <v>1179</v>
       </c>
     </row>
     <row r="234" spans="1:13">
@@ -14520,16 +14520,16 @@
         <v>15</v>
       </c>
       <c r="D234" t="s">
+        <v>1152</v>
+      </c>
+      <c r="E234" t="s">
         <v>1153</v>
-      </c>
-      <c r="E234" t="s">
-        <v>1154</v>
       </c>
       <c r="F234">
         <v>6</v>
       </c>
       <c r="G234" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="H234" t="s">
         <v>121</v>
@@ -14541,13 +14541,13 @@
         <v>-86.692400000000006</v>
       </c>
       <c r="K234" t="s">
+        <v>1180</v>
+      </c>
+      <c r="L234" t="s">
         <v>1181</v>
       </c>
-      <c r="L234" t="s">
+      <c r="M234" t="s">
         <v>1182</v>
-      </c>
-      <c r="M234" t="s">
-        <v>1183</v>
       </c>
     </row>
     <row r="235" spans="1:13">
@@ -14561,19 +14561,19 @@
         <v>15</v>
       </c>
       <c r="D235" t="s">
+        <v>1152</v>
+      </c>
+      <c r="E235" t="s">
         <v>1153</v>
-      </c>
-      <c r="E235" t="s">
-        <v>1154</v>
       </c>
       <c r="F235">
         <v>7</v>
       </c>
       <c r="G235" t="s">
+        <v>1183</v>
+      </c>
+      <c r="H235" t="s">
         <v>1184</v>
-      </c>
-      <c r="H235" t="s">
-        <v>1185</v>
       </c>
       <c r="I235">
         <v>15.280900000000001</v>
@@ -14582,13 +14582,13 @@
         <v>-86.547300000000007</v>
       </c>
       <c r="K235" t="s">
+        <v>1185</v>
+      </c>
+      <c r="L235" t="s">
         <v>1186</v>
       </c>
-      <c r="L235" t="s">
+      <c r="M235" t="s">
         <v>1187</v>
-      </c>
-      <c r="M235" t="s">
-        <v>1188</v>
       </c>
     </row>
     <row r="236" spans="1:13">
@@ -14602,19 +14602,19 @@
         <v>15</v>
       </c>
       <c r="D236" t="s">
+        <v>1152</v>
+      </c>
+      <c r="E236" t="s">
         <v>1153</v>
-      </c>
-      <c r="E236" t="s">
-        <v>1154</v>
       </c>
       <c r="F236">
         <v>8</v>
       </c>
       <c r="G236" t="s">
+        <v>1188</v>
+      </c>
+      <c r="H236" t="s">
         <v>1189</v>
-      </c>
-      <c r="H236" t="s">
-        <v>1190</v>
       </c>
       <c r="I236">
         <v>15.1937</v>
@@ -14623,13 +14623,13 @@
         <v>-86.078599999999994</v>
       </c>
       <c r="K236" t="s">
+        <v>1190</v>
+      </c>
+      <c r="L236" t="s">
         <v>1191</v>
       </c>
-      <c r="L236" t="s">
+      <c r="M236" t="s">
         <v>1192</v>
-      </c>
-      <c r="M236" t="s">
-        <v>1193</v>
       </c>
     </row>
     <row r="237" spans="1:13">
@@ -14643,19 +14643,19 @@
         <v>15</v>
       </c>
       <c r="D237" t="s">
+        <v>1152</v>
+      </c>
+      <c r="E237" t="s">
         <v>1153</v>
-      </c>
-      <c r="E237" t="s">
-        <v>1154</v>
       </c>
       <c r="F237">
         <v>9</v>
       </c>
       <c r="G237" t="s">
+        <v>1193</v>
+      </c>
+      <c r="H237" t="s">
         <v>1194</v>
-      </c>
-      <c r="H237" t="s">
-        <v>1195</v>
       </c>
       <c r="I237">
         <v>14.9048</v>
@@ -14664,13 +14664,13 @@
         <v>-86.289199999999994</v>
       </c>
       <c r="K237" t="s">
+        <v>1195</v>
+      </c>
+      <c r="L237" t="s">
         <v>1196</v>
       </c>
-      <c r="L237" t="s">
+      <c r="M237" t="s">
         <v>1197</v>
-      </c>
-      <c r="M237" t="s">
-        <v>1198</v>
       </c>
     </row>
     <row r="238" spans="1:13">
@@ -14684,19 +14684,19 @@
         <v>15</v>
       </c>
       <c r="D238" t="s">
+        <v>1152</v>
+      </c>
+      <c r="E238" t="s">
         <v>1153</v>
-      </c>
-      <c r="E238" t="s">
-        <v>1154</v>
       </c>
       <c r="F238">
         <v>10</v>
       </c>
       <c r="G238" t="s">
+        <v>1198</v>
+      </c>
+      <c r="H238" t="s">
         <v>1199</v>
-      </c>
-      <c r="H238" t="s">
-        <v>1200</v>
       </c>
       <c r="I238">
         <v>15.162100000000001</v>
@@ -14705,13 +14705,13 @@
         <v>-86.374300000000005</v>
       </c>
       <c r="K238" t="s">
+        <v>1200</v>
+      </c>
+      <c r="L238" t="s">
         <v>1201</v>
       </c>
-      <c r="L238" t="s">
+      <c r="M238" t="s">
         <v>1202</v>
-      </c>
-      <c r="M238" t="s">
-        <v>1203</v>
       </c>
     </row>
     <row r="239" spans="1:13">
@@ -14725,19 +14725,19 @@
         <v>15</v>
       </c>
       <c r="D239" t="s">
+        <v>1152</v>
+      </c>
+      <c r="E239" t="s">
         <v>1153</v>
-      </c>
-      <c r="E239" t="s">
-        <v>1154</v>
       </c>
       <c r="F239">
         <v>11</v>
       </c>
       <c r="G239" t="s">
+        <v>1203</v>
+      </c>
+      <c r="H239" t="s">
         <v>1204</v>
-      </c>
-      <c r="H239" t="s">
-        <v>1205</v>
       </c>
       <c r="I239">
         <v>14.801399999999999</v>
@@ -14746,13 +14746,13 @@
         <v>-86.831400000000002</v>
       </c>
       <c r="K239" t="s">
+        <v>1205</v>
+      </c>
+      <c r="L239" t="s">
         <v>1206</v>
       </c>
-      <c r="L239" t="s">
+      <c r="M239" t="s">
         <v>1207</v>
-      </c>
-      <c r="M239" t="s">
-        <v>1208</v>
       </c>
     </row>
     <row r="240" spans="1:13">
@@ -14766,19 +14766,19 @@
         <v>15</v>
       </c>
       <c r="D240" t="s">
+        <v>1152</v>
+      </c>
+      <c r="E240" t="s">
         <v>1153</v>
-      </c>
-      <c r="E240" t="s">
-        <v>1154</v>
       </c>
       <c r="F240">
         <v>12</v>
       </c>
       <c r="G240" t="s">
+        <v>1208</v>
+      </c>
+      <c r="H240" t="s">
         <v>1209</v>
-      </c>
-      <c r="H240" t="s">
-        <v>1210</v>
       </c>
       <c r="I240">
         <v>15.071999999999999</v>
@@ -14787,13 +14787,13 @@
         <v>-86.518799999999999</v>
       </c>
       <c r="K240" t="s">
+        <v>1210</v>
+      </c>
+      <c r="L240" t="s">
         <v>1211</v>
       </c>
-      <c r="L240" t="s">
+      <c r="M240" t="s">
         <v>1212</v>
-      </c>
-      <c r="M240" t="s">
-        <v>1213</v>
       </c>
     </row>
     <row r="241" spans="1:13">
@@ -14807,16 +14807,16 @@
         <v>15</v>
       </c>
       <c r="D241" t="s">
+        <v>1152</v>
+      </c>
+      <c r="E241" t="s">
         <v>1153</v>
       </c>
-      <c r="E241" t="s">
-        <v>1154</v>
-      </c>
       <c r="F241">
         <v>13</v>
       </c>
       <c r="G241" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="H241" t="s">
         <v>273</v>
@@ -14828,13 +14828,13 @@
         <v>-86.683300000000003</v>
       </c>
       <c r="K241" t="s">
+        <v>1214</v>
+      </c>
+      <c r="L241" t="s">
         <v>1215</v>
       </c>
-      <c r="L241" t="s">
+      <c r="M241" t="s">
         <v>1216</v>
-      </c>
-      <c r="M241" t="s">
-        <v>1217</v>
       </c>
     </row>
     <row r="242" spans="1:13">
@@ -14848,19 +14848,19 @@
         <v>15</v>
       </c>
       <c r="D242" t="s">
+        <v>1152</v>
+      </c>
+      <c r="E242" t="s">
         <v>1153</v>
       </c>
-      <c r="E242" t="s">
-        <v>1154</v>
-      </c>
       <c r="F242">
         <v>14</v>
       </c>
       <c r="G242" t="s">
+        <v>1217</v>
+      </c>
+      <c r="H242" t="s">
         <v>1218</v>
-      </c>
-      <c r="H242" t="s">
-        <v>1219</v>
       </c>
       <c r="I242">
         <v>15.106999999999999</v>
@@ -14869,13 +14869,13 @@
         <v>-86.847399999999993</v>
       </c>
       <c r="K242" t="s">
+        <v>1219</v>
+      </c>
+      <c r="L242" t="s">
         <v>1220</v>
       </c>
-      <c r="L242" t="s">
+      <c r="M242" t="s">
         <v>1221</v>
-      </c>
-      <c r="M242" t="s">
-        <v>1222</v>
       </c>
     </row>
     <row r="243" spans="1:13">
@@ -14889,19 +14889,19 @@
         <v>15</v>
       </c>
       <c r="D243" t="s">
+        <v>1152</v>
+      </c>
+      <c r="E243" t="s">
         <v>1153</v>
-      </c>
-      <c r="E243" t="s">
-        <v>1154</v>
       </c>
       <c r="F243">
         <v>15</v>
       </c>
       <c r="G243" t="s">
+        <v>1222</v>
+      </c>
+      <c r="H243" t="s">
         <v>1223</v>
-      </c>
-      <c r="H243" t="s">
-        <v>1224</v>
       </c>
       <c r="I243">
         <v>14.905200000000001</v>
@@ -14910,13 +14910,13 @@
         <v>-86.463399999999993</v>
       </c>
       <c r="K243" t="s">
+        <v>1224</v>
+      </c>
+      <c r="L243" t="s">
         <v>1225</v>
       </c>
-      <c r="L243" t="s">
+      <c r="M243" t="s">
         <v>1226</v>
-      </c>
-      <c r="M243" t="s">
-        <v>1227</v>
       </c>
     </row>
     <row r="244" spans="1:13">
@@ -14930,19 +14930,19 @@
         <v>15</v>
       </c>
       <c r="D244" t="s">
+        <v>1152</v>
+      </c>
+      <c r="E244" t="s">
         <v>1153</v>
-      </c>
-      <c r="E244" t="s">
-        <v>1154</v>
       </c>
       <c r="F244">
         <v>16</v>
       </c>
       <c r="G244" t="s">
+        <v>1227</v>
+      </c>
+      <c r="H244" t="s">
         <v>1228</v>
-      </c>
-      <c r="H244" t="s">
-        <v>1229</v>
       </c>
       <c r="I244">
         <v>14.7963</v>
@@ -14951,13 +14951,13 @@
         <v>-86.644900000000007</v>
       </c>
       <c r="K244" t="s">
+        <v>1229</v>
+      </c>
+      <c r="L244" t="s">
         <v>1230</v>
       </c>
-      <c r="L244" t="s">
+      <c r="M244" t="s">
         <v>1231</v>
-      </c>
-      <c r="M244" t="s">
-        <v>1232</v>
       </c>
     </row>
     <row r="245" spans="1:13">
@@ -14971,19 +14971,19 @@
         <v>15</v>
       </c>
       <c r="D245" t="s">
+        <v>1152</v>
+      </c>
+      <c r="E245" t="s">
         <v>1153</v>
-      </c>
-      <c r="E245" t="s">
-        <v>1154</v>
       </c>
       <c r="F245">
         <v>17</v>
       </c>
       <c r="G245" t="s">
+        <v>1232</v>
+      </c>
+      <c r="H245" t="s">
         <v>1233</v>
-      </c>
-      <c r="H245" t="s">
-        <v>1234</v>
       </c>
       <c r="I245">
         <v>15.3162</v>
@@ -14992,13 +14992,13 @@
         <v>-85.719700000000003</v>
       </c>
       <c r="K245" t="s">
+        <v>1234</v>
+      </c>
+      <c r="L245" t="s">
         <v>1235</v>
       </c>
-      <c r="L245" t="s">
+      <c r="M245" t="s">
         <v>1236</v>
-      </c>
-      <c r="M245" t="s">
-        <v>1237</v>
       </c>
     </row>
     <row r="246" spans="1:13">
@@ -15012,19 +15012,19 @@
         <v>15</v>
       </c>
       <c r="D246" t="s">
+        <v>1152</v>
+      </c>
+      <c r="E246" t="s">
         <v>1153</v>
-      </c>
-      <c r="E246" t="s">
-        <v>1154</v>
       </c>
       <c r="F246">
         <v>18</v>
       </c>
       <c r="G246" t="s">
+        <v>1237</v>
+      </c>
+      <c r="H246" t="s">
         <v>1238</v>
-      </c>
-      <c r="H246" t="s">
-        <v>1239</v>
       </c>
       <c r="I246">
         <v>14.613899999999999</v>
@@ -15033,13 +15033,13 @@
         <v>-86.043199999999999</v>
       </c>
       <c r="K246" t="s">
+        <v>1239</v>
+      </c>
+      <c r="L246" t="s">
         <v>1240</v>
       </c>
-      <c r="L246" t="s">
+      <c r="M246" t="s">
         <v>1241</v>
-      </c>
-      <c r="M246" t="s">
-        <v>1242</v>
       </c>
     </row>
     <row r="247" spans="1:13">
@@ -15053,19 +15053,19 @@
         <v>15</v>
       </c>
       <c r="D247" t="s">
+        <v>1152</v>
+      </c>
+      <c r="E247" t="s">
         <v>1153</v>
-      </c>
-      <c r="E247" t="s">
-        <v>1154</v>
       </c>
       <c r="F247">
         <v>19</v>
       </c>
       <c r="G247" t="s">
+        <v>1242</v>
+      </c>
+      <c r="H247" t="s">
         <v>1243</v>
-      </c>
-      <c r="H247" t="s">
-        <v>1244</v>
       </c>
       <c r="I247">
         <v>14.8399</v>
@@ -15074,13 +15074,13 @@
         <v>-86.138400000000004</v>
       </c>
       <c r="K247" t="s">
+        <v>1244</v>
+      </c>
+      <c r="L247" t="s">
         <v>1245</v>
       </c>
-      <c r="L247" t="s">
+      <c r="M247" t="s">
         <v>1246</v>
-      </c>
-      <c r="M247" t="s">
-        <v>1247</v>
       </c>
     </row>
     <row r="248" spans="1:13">
@@ -15094,19 +15094,19 @@
         <v>15</v>
       </c>
       <c r="D248" t="s">
+        <v>1152</v>
+      </c>
+      <c r="E248" t="s">
         <v>1153</v>
-      </c>
-      <c r="E248" t="s">
-        <v>1154</v>
       </c>
       <c r="F248">
         <v>20</v>
       </c>
       <c r="G248" t="s">
+        <v>1247</v>
+      </c>
+      <c r="H248" t="s">
         <v>1248</v>
-      </c>
-      <c r="H248" t="s">
-        <v>1249</v>
       </c>
       <c r="I248">
         <v>14.8185</v>
@@ -15115,13 +15115,13 @@
         <v>-85.962199999999996</v>
       </c>
       <c r="K248" t="s">
+        <v>1249</v>
+      </c>
+      <c r="L248" t="s">
         <v>1250</v>
       </c>
-      <c r="L248" t="s">
+      <c r="M248" t="s">
         <v>1251</v>
-      </c>
-      <c r="M248" t="s">
-        <v>1252</v>
       </c>
     </row>
     <row r="249" spans="1:13">
@@ -15135,19 +15135,19 @@
         <v>15</v>
       </c>
       <c r="D249" t="s">
+        <v>1152</v>
+      </c>
+      <c r="E249" t="s">
         <v>1153</v>
-      </c>
-      <c r="E249" t="s">
-        <v>1154</v>
       </c>
       <c r="F249">
         <v>21</v>
       </c>
       <c r="G249" t="s">
+        <v>1252</v>
+      </c>
+      <c r="H249" t="s">
         <v>1253</v>
-      </c>
-      <c r="H249" t="s">
-        <v>1254</v>
       </c>
       <c r="I249">
         <v>14.763</v>
@@ -15156,13 +15156,13 @@
         <v>-86.5274</v>
       </c>
       <c r="K249" t="s">
+        <v>1254</v>
+      </c>
+      <c r="L249" t="s">
         <v>1255</v>
       </c>
-      <c r="L249" t="s">
+      <c r="M249" t="s">
         <v>1256</v>
-      </c>
-      <c r="M249" t="s">
-        <v>1257</v>
       </c>
     </row>
     <row r="250" spans="1:13">
@@ -15176,19 +15176,19 @@
         <v>15</v>
       </c>
       <c r="D250" t="s">
+        <v>1152</v>
+      </c>
+      <c r="E250" t="s">
         <v>1153</v>
-      </c>
-      <c r="E250" t="s">
-        <v>1154</v>
       </c>
       <c r="F250">
         <v>22</v>
       </c>
       <c r="G250" t="s">
+        <v>1257</v>
+      </c>
+      <c r="H250" t="s">
         <v>1258</v>
-      </c>
-      <c r="H250" t="s">
-        <v>1259</v>
       </c>
       <c r="I250">
         <v>14.959899999999999</v>
@@ -15197,13 +15197,13 @@
         <v>-86.811599999999999</v>
       </c>
       <c r="K250" t="s">
+        <v>1259</v>
+      </c>
+      <c r="L250" t="s">
         <v>1260</v>
       </c>
-      <c r="L250" t="s">
+      <c r="M250" t="s">
         <v>1261</v>
-      </c>
-      <c r="M250" t="s">
-        <v>1262</v>
       </c>
     </row>
     <row r="251" spans="1:13">
@@ -15217,19 +15217,19 @@
         <v>15</v>
       </c>
       <c r="D251" t="s">
+        <v>1152</v>
+      </c>
+      <c r="E251" t="s">
         <v>1153</v>
-      </c>
-      <c r="E251" t="s">
-        <v>1154</v>
       </c>
       <c r="F251">
         <v>23</v>
       </c>
       <c r="G251" t="s">
+        <v>1262</v>
+      </c>
+      <c r="H251" t="s">
         <v>1263</v>
-      </c>
-      <c r="H251" t="s">
-        <v>1264</v>
       </c>
       <c r="I251">
         <v>14.313700000000001</v>
@@ -15238,13 +15238,13 @@
         <v>-85.962999999999994</v>
       </c>
       <c r="K251" t="s">
+        <v>1264</v>
+      </c>
+      <c r="L251" t="s">
         <v>1265</v>
       </c>
-      <c r="L251" t="s">
+      <c r="M251" t="s">
         <v>1266</v>
-      </c>
-      <c r="M251" t="s">
-        <v>1267</v>
       </c>
     </row>
     <row r="252" spans="1:13">
@@ -15258,19 +15258,19 @@
         <v>16</v>
       </c>
       <c r="D252" t="s">
+        <v>1267</v>
+      </c>
+      <c r="E252" t="s">
         <v>1268</v>
-      </c>
-      <c r="E252" t="s">
-        <v>1269</v>
       </c>
       <c r="F252">
         <v>1</v>
       </c>
       <c r="G252" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="H252" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="I252">
         <v>14.9224</v>
@@ -15279,13 +15279,13 @@
         <v>-88.181899999999999</v>
       </c>
       <c r="K252" t="s">
+        <v>1270</v>
+      </c>
+      <c r="L252" t="s">
         <v>1271</v>
       </c>
-      <c r="L252" t="s">
+      <c r="M252" t="s">
         <v>1272</v>
-      </c>
-      <c r="M252" t="s">
-        <v>1273</v>
       </c>
     </row>
     <row r="253" spans="1:13">
@@ -15299,19 +15299,19 @@
         <v>16</v>
       </c>
       <c r="D253" t="s">
+        <v>1267</v>
+      </c>
+      <c r="E253" t="s">
         <v>1268</v>
-      </c>
-      <c r="E253" t="s">
-        <v>1269</v>
       </c>
       <c r="F253">
         <v>2</v>
       </c>
       <c r="G253" t="s">
+        <v>1273</v>
+      </c>
+      <c r="H253" t="s">
         <v>1274</v>
-      </c>
-      <c r="H253" t="s">
-        <v>1275</v>
       </c>
       <c r="I253">
         <v>14.8605</v>
@@ -15320,13 +15320,13 @@
         <v>-88.361999999999995</v>
       </c>
       <c r="K253" t="s">
+        <v>1275</v>
+      </c>
+      <c r="L253" t="s">
         <v>1276</v>
       </c>
-      <c r="L253" t="s">
+      <c r="M253" t="s">
         <v>1277</v>
-      </c>
-      <c r="M253" t="s">
-        <v>1278</v>
       </c>
     </row>
     <row r="254" spans="1:13">
@@ -15340,19 +15340,19 @@
         <v>16</v>
       </c>
       <c r="D254" t="s">
+        <v>1267</v>
+      </c>
+      <c r="E254" t="s">
         <v>1268</v>
-      </c>
-      <c r="E254" t="s">
-        <v>1269</v>
       </c>
       <c r="F254">
         <v>3</v>
       </c>
       <c r="G254" t="s">
+        <v>1278</v>
+      </c>
+      <c r="H254" t="s">
         <v>1279</v>
-      </c>
-      <c r="H254" t="s">
-        <v>1280</v>
       </c>
       <c r="I254">
         <v>14.919</v>
@@ -15361,13 +15361,13 @@
         <v>-88.498599999999996</v>
       </c>
       <c r="K254" t="s">
+        <v>1280</v>
+      </c>
+      <c r="L254" t="s">
         <v>1281</v>
       </c>
-      <c r="L254" t="s">
+      <c r="M254" t="s">
         <v>1282</v>
-      </c>
-      <c r="M254" t="s">
-        <v>1283</v>
       </c>
     </row>
     <row r="255" spans="1:13">
@@ -15381,19 +15381,19 @@
         <v>16</v>
       </c>
       <c r="D255" t="s">
+        <v>1267</v>
+      </c>
+      <c r="E255" t="s">
         <v>1268</v>
-      </c>
-      <c r="E255" t="s">
-        <v>1269</v>
       </c>
       <c r="F255">
         <v>4</v>
       </c>
       <c r="G255" t="s">
+        <v>1283</v>
+      </c>
+      <c r="H255" t="s">
         <v>1284</v>
-      </c>
-      <c r="H255" t="s">
-        <v>1285</v>
       </c>
       <c r="I255">
         <v>15.366</v>
@@ -15402,13 +15402,13 @@
         <v>-88.575299999999999</v>
       </c>
       <c r="K255" t="s">
+        <v>1285</v>
+      </c>
+      <c r="L255" t="s">
         <v>1286</v>
       </c>
-      <c r="L255" t="s">
+      <c r="M255" t="s">
         <v>1287</v>
-      </c>
-      <c r="M255" t="s">
-        <v>1288</v>
       </c>
     </row>
     <row r="256" spans="1:13">
@@ -15422,19 +15422,19 @@
         <v>16</v>
       </c>
       <c r="D256" t="s">
+        <v>1267</v>
+      </c>
+      <c r="E256" t="s">
         <v>1268</v>
-      </c>
-      <c r="E256" t="s">
-        <v>1269</v>
       </c>
       <c r="F256">
         <v>5</v>
       </c>
       <c r="G256" t="s">
+        <v>1288</v>
+      </c>
+      <c r="H256" t="s">
         <v>1289</v>
-      </c>
-      <c r="H256" t="s">
-        <v>1290</v>
       </c>
       <c r="I256">
         <v>14.819599999999999</v>
@@ -15443,13 +15443,13 @@
         <v>-88.204499999999996</v>
       </c>
       <c r="K256" t="s">
+        <v>1290</v>
+      </c>
+      <c r="L256" t="s">
         <v>1291</v>
       </c>
-      <c r="L256" t="s">
+      <c r="M256" t="s">
         <v>1292</v>
-      </c>
-      <c r="M256" t="s">
-        <v>1293</v>
       </c>
     </row>
     <row r="257" spans="1:13">
@@ -15463,19 +15463,19 @@
         <v>16</v>
       </c>
       <c r="D257" t="s">
+        <v>1267</v>
+      </c>
+      <c r="E257" t="s">
         <v>1268</v>
-      </c>
-      <c r="E257" t="s">
-        <v>1269</v>
       </c>
       <c r="F257">
         <v>6</v>
       </c>
       <c r="G257" t="s">
+        <v>1293</v>
+      </c>
+      <c r="H257" t="s">
         <v>1294</v>
-      </c>
-      <c r="H257" t="s">
-        <v>1295</v>
       </c>
       <c r="I257">
         <v>15.2006</v>
@@ -15484,13 +15484,13 @@
         <v>-88.143799999999999</v>
       </c>
       <c r="K257" t="s">
+        <v>1295</v>
+      </c>
+      <c r="L257" t="s">
         <v>1296</v>
       </c>
-      <c r="L257" t="s">
+      <c r="M257" t="s">
         <v>1297</v>
-      </c>
-      <c r="M257" t="s">
-        <v>1298</v>
       </c>
     </row>
     <row r="258" spans="1:13">
@@ -15504,19 +15504,19 @@
         <v>16</v>
       </c>
       <c r="D258" t="s">
+        <v>1267</v>
+      </c>
+      <c r="E258" t="s">
         <v>1268</v>
-      </c>
-      <c r="E258" t="s">
-        <v>1269</v>
       </c>
       <c r="F258">
         <v>7</v>
       </c>
       <c r="G258" t="s">
+        <v>1298</v>
+      </c>
+      <c r="H258" t="s">
         <v>1299</v>
-      </c>
-      <c r="H258" t="s">
-        <v>1300</v>
       </c>
       <c r="I258">
         <v>14.823</v>
@@ -15525,13 +15525,13 @@
         <v>-88.149000000000001</v>
       </c>
       <c r="K258" t="s">
+        <v>1300</v>
+      </c>
+      <c r="L258" t="s">
         <v>1301</v>
       </c>
-      <c r="L258" t="s">
+      <c r="M258" t="s">
         <v>1302</v>
-      </c>
-      <c r="M258" t="s">
-        <v>1303</v>
       </c>
     </row>
     <row r="259" spans="1:13">
@@ -15545,19 +15545,19 @@
         <v>16</v>
       </c>
       <c r="D259" t="s">
+        <v>1267</v>
+      </c>
+      <c r="E259" t="s">
         <v>1268</v>
-      </c>
-      <c r="E259" t="s">
-        <v>1269</v>
       </c>
       <c r="F259">
         <v>8</v>
       </c>
       <c r="G259" t="s">
+        <v>1303</v>
+      </c>
+      <c r="H259" t="s">
         <v>1304</v>
-      </c>
-      <c r="H259" t="s">
-        <v>1305</v>
       </c>
       <c r="I259">
         <v>15.115600000000001</v>
@@ -15566,13 +15566,13 @@
         <v>-88.161799999999999</v>
       </c>
       <c r="K259" t="s">
+        <v>1305</v>
+      </c>
+      <c r="L259" t="s">
         <v>1306</v>
       </c>
-      <c r="L259" t="s">
+      <c r="M259" t="s">
         <v>1307</v>
-      </c>
-      <c r="M259" t="s">
-        <v>1308</v>
       </c>
     </row>
     <row r="260" spans="1:13">
@@ -15586,19 +15586,19 @@
         <v>16</v>
       </c>
       <c r="D260" t="s">
+        <v>1267</v>
+      </c>
+      <c r="E260" t="s">
         <v>1268</v>
-      </c>
-      <c r="E260" t="s">
-        <v>1269</v>
       </c>
       <c r="F260">
         <v>9</v>
       </c>
       <c r="G260" t="s">
+        <v>1308</v>
+      </c>
+      <c r="H260" t="s">
         <v>1309</v>
-      </c>
-      <c r="H260" t="s">
-        <v>1310</v>
       </c>
       <c r="I260">
         <v>14.772399999999999</v>
@@ -15607,13 +15607,13 @@
         <v>-88.336200000000005</v>
       </c>
       <c r="K260" t="s">
+        <v>1310</v>
+      </c>
+      <c r="L260" t="s">
         <v>1311</v>
       </c>
-      <c r="L260" t="s">
+      <c r="M260" t="s">
         <v>1312</v>
-      </c>
-      <c r="M260" t="s">
-        <v>1313</v>
       </c>
     </row>
     <row r="261" spans="1:13">
@@ -15627,19 +15627,19 @@
         <v>16</v>
       </c>
       <c r="D261" t="s">
+        <v>1267</v>
+      </c>
+      <c r="E261" t="s">
         <v>1268</v>
-      </c>
-      <c r="E261" t="s">
-        <v>1269</v>
       </c>
       <c r="F261">
         <v>10</v>
       </c>
       <c r="G261" t="s">
+        <v>1313</v>
+      </c>
+      <c r="H261" t="s">
         <v>1314</v>
-      </c>
-      <c r="H261" t="s">
-        <v>1315</v>
       </c>
       <c r="I261">
         <v>15.0045</v>
@@ -15648,13 +15648,13 @@
         <v>-88.1845</v>
       </c>
       <c r="K261" t="s">
+        <v>1315</v>
+      </c>
+      <c r="L261" t="s">
         <v>1316</v>
       </c>
-      <c r="L261" t="s">
+      <c r="M261" t="s">
         <v>1317</v>
-      </c>
-      <c r="M261" t="s">
-        <v>1318</v>
       </c>
     </row>
     <row r="262" spans="1:13">
@@ -15668,19 +15668,19 @@
         <v>16</v>
       </c>
       <c r="D262" t="s">
+        <v>1267</v>
+      </c>
+      <c r="E262" t="s">
         <v>1268</v>
-      </c>
-      <c r="E262" t="s">
-        <v>1269</v>
       </c>
       <c r="F262">
         <v>11</v>
       </c>
       <c r="G262" t="s">
+        <v>1318</v>
+      </c>
+      <c r="H262" t="s">
         <v>1319</v>
-      </c>
-      <c r="H262" t="s">
-        <v>1320</v>
       </c>
       <c r="I262">
         <v>15.0519</v>
@@ -15689,13 +15689,13 @@
         <v>-88.126800000000003</v>
       </c>
       <c r="K262" t="s">
+        <v>1320</v>
+      </c>
+      <c r="L262" t="s">
         <v>1321</v>
       </c>
-      <c r="L262" t="s">
+      <c r="M262" t="s">
         <v>1322</v>
-      </c>
-      <c r="M262" t="s">
-        <v>1323</v>
       </c>
     </row>
     <row r="263" spans="1:13">
@@ -15709,19 +15709,19 @@
         <v>16</v>
       </c>
       <c r="D263" t="s">
+        <v>1267</v>
+      </c>
+      <c r="E263" t="s">
         <v>1268</v>
-      </c>
-      <c r="E263" t="s">
-        <v>1269</v>
       </c>
       <c r="F263">
         <v>12</v>
       </c>
       <c r="G263" t="s">
+        <v>1323</v>
+      </c>
+      <c r="H263" t="s">
         <v>1324</v>
-      </c>
-      <c r="H263" t="s">
-        <v>1325</v>
       </c>
       <c r="I263">
         <v>15.2325</v>
@@ -15730,13 +15730,13 @@
         <v>-88.573499999999996</v>
       </c>
       <c r="K263" t="s">
+        <v>1325</v>
+      </c>
+      <c r="L263" t="s">
         <v>1326</v>
       </c>
-      <c r="L263" t="s">
+      <c r="M263" t="s">
         <v>1327</v>
-      </c>
-      <c r="M263" t="s">
-        <v>1328</v>
       </c>
     </row>
     <row r="264" spans="1:13">
@@ -15750,19 +15750,19 @@
         <v>16</v>
       </c>
       <c r="D264" t="s">
+        <v>1267</v>
+      </c>
+      <c r="E264" t="s">
         <v>1268</v>
       </c>
-      <c r="E264" t="s">
-        <v>1269</v>
-      </c>
       <c r="F264">
         <v>13</v>
       </c>
       <c r="G264" t="s">
+        <v>1328</v>
+      </c>
+      <c r="H264" t="s">
         <v>1329</v>
-      </c>
-      <c r="H264" t="s">
-        <v>1330</v>
       </c>
       <c r="I264">
         <v>14.972300000000001</v>
@@ -15771,13 +15771,13 @@
         <v>-88.626099999999994</v>
       </c>
       <c r="K264" t="s">
+        <v>1330</v>
+      </c>
+      <c r="L264" t="s">
         <v>1331</v>
       </c>
-      <c r="L264" t="s">
+      <c r="M264" t="s">
         <v>1332</v>
-      </c>
-      <c r="M264" t="s">
-        <v>1333</v>
       </c>
     </row>
     <row r="265" spans="1:13">
@@ -15791,19 +15791,19 @@
         <v>16</v>
       </c>
       <c r="D265" t="s">
+        <v>1267</v>
+      </c>
+      <c r="E265" t="s">
         <v>1268</v>
       </c>
-      <c r="E265" t="s">
-        <v>1269</v>
-      </c>
       <c r="F265">
         <v>14</v>
       </c>
       <c r="G265" t="s">
+        <v>1333</v>
+      </c>
+      <c r="H265" t="s">
         <v>1334</v>
-      </c>
-      <c r="H265" t="s">
-        <v>1335</v>
       </c>
       <c r="I265">
         <v>14.978400000000001</v>
@@ -15812,13 +15812,13 @@
         <v>-88.374300000000005</v>
       </c>
       <c r="K265" t="s">
+        <v>1335</v>
+      </c>
+      <c r="L265" t="s">
         <v>1336</v>
       </c>
-      <c r="L265" t="s">
+      <c r="M265" t="s">
         <v>1337</v>
-      </c>
-      <c r="M265" t="s">
-        <v>1338</v>
       </c>
     </row>
     <row r="266" spans="1:13">
@@ -15832,19 +15832,19 @@
         <v>16</v>
       </c>
       <c r="D266" t="s">
+        <v>1267</v>
+      </c>
+      <c r="E266" t="s">
         <v>1268</v>
-      </c>
-      <c r="E266" t="s">
-        <v>1269</v>
       </c>
       <c r="F266">
         <v>15</v>
       </c>
       <c r="G266" t="s">
+        <v>1338</v>
+      </c>
+      <c r="H266" t="s">
         <v>1339</v>
-      </c>
-      <c r="H266" t="s">
-        <v>1340</v>
       </c>
       <c r="I266">
         <v>15.275</v>
@@ -15853,13 +15853,13 @@
         <v>-88.232900000000001</v>
       </c>
       <c r="K266" t="s">
+        <v>1340</v>
+      </c>
+      <c r="L266" t="s">
         <v>1341</v>
       </c>
-      <c r="L266" t="s">
+      <c r="M266" t="s">
         <v>1342</v>
-      </c>
-      <c r="M266" t="s">
-        <v>1343</v>
       </c>
     </row>
     <row r="267" spans="1:13">
@@ -15873,19 +15873,19 @@
         <v>16</v>
       </c>
       <c r="D267" t="s">
+        <v>1267</v>
+      </c>
+      <c r="E267" t="s">
         <v>1268</v>
-      </c>
-      <c r="E267" t="s">
-        <v>1269</v>
       </c>
       <c r="F267">
         <v>16</v>
       </c>
       <c r="G267" t="s">
+        <v>1343</v>
+      </c>
+      <c r="H267" t="s">
         <v>1344</v>
-      </c>
-      <c r="H267" t="s">
-        <v>1345</v>
       </c>
       <c r="I267">
         <v>15.078099999999999</v>
@@ -15894,13 +15894,13 @@
         <v>-88.617800000000003</v>
       </c>
       <c r="K267" t="s">
+        <v>1345</v>
+      </c>
+      <c r="L267" t="s">
         <v>1346</v>
       </c>
-      <c r="L267" t="s">
+      <c r="M267" t="s">
         <v>1347</v>
-      </c>
-      <c r="M267" t="s">
-        <v>1348</v>
       </c>
     </row>
     <row r="268" spans="1:13">
@@ -15914,19 +15914,19 @@
         <v>16</v>
       </c>
       <c r="D268" t="s">
+        <v>1267</v>
+      </c>
+      <c r="E268" t="s">
         <v>1268</v>
-      </c>
-      <c r="E268" t="s">
-        <v>1269</v>
       </c>
       <c r="F268">
         <v>17</v>
       </c>
       <c r="G268" t="s">
+        <v>1348</v>
+      </c>
+      <c r="H268" t="s">
         <v>1349</v>
-      </c>
-      <c r="H268" t="s">
-        <v>1350</v>
       </c>
       <c r="I268">
         <v>15.414099999999999</v>
@@ -15935,13 +15935,13 @@
         <v>-88.357200000000006</v>
       </c>
       <c r="K268" t="s">
+        <v>1350</v>
+      </c>
+      <c r="L268" t="s">
         <v>1351</v>
       </c>
-      <c r="L268" t="s">
+      <c r="M268" t="s">
         <v>1352</v>
-      </c>
-      <c r="M268" t="s">
-        <v>1353</v>
       </c>
     </row>
     <row r="269" spans="1:13">
@@ -15955,19 +15955,19 @@
         <v>16</v>
       </c>
       <c r="D269" t="s">
+        <v>1267</v>
+      </c>
+      <c r="E269" t="s">
         <v>1268</v>
-      </c>
-      <c r="E269" t="s">
-        <v>1269</v>
       </c>
       <c r="F269">
         <v>18</v>
       </c>
       <c r="G269" t="s">
+        <v>1353</v>
+      </c>
+      <c r="H269" t="s">
         <v>1354</v>
-      </c>
-      <c r="H269" t="s">
-        <v>1355</v>
       </c>
       <c r="I269">
         <v>14.712199999999999</v>
@@ -15976,13 +15976,13 @@
         <v>-88.200199999999995</v>
       </c>
       <c r="K269" t="s">
+        <v>1355</v>
+      </c>
+      <c r="L269" t="s">
         <v>1356</v>
       </c>
-      <c r="L269" t="s">
+      <c r="M269" t="s">
         <v>1357</v>
-      </c>
-      <c r="M269" t="s">
-        <v>1358</v>
       </c>
     </row>
     <row r="270" spans="1:13">
@@ -15996,19 +15996,19 @@
         <v>16</v>
       </c>
       <c r="D270" t="s">
+        <v>1267</v>
+      </c>
+      <c r="E270" t="s">
         <v>1268</v>
-      </c>
-      <c r="E270" t="s">
-        <v>1269</v>
       </c>
       <c r="F270">
         <v>19</v>
       </c>
       <c r="G270" t="s">
+        <v>1358</v>
+      </c>
+      <c r="H270" t="s">
         <v>1359</v>
-      </c>
-      <c r="H270" t="s">
-        <v>1360</v>
       </c>
       <c r="I270">
         <v>15.0709</v>
@@ -16017,13 +16017,13 @@
         <v>-88.328100000000006</v>
       </c>
       <c r="K270" t="s">
+        <v>1360</v>
+      </c>
+      <c r="L270" t="s">
         <v>1361</v>
       </c>
-      <c r="L270" t="s">
+      <c r="M270" t="s">
         <v>1362</v>
-      </c>
-      <c r="M270" t="s">
-        <v>1363</v>
       </c>
     </row>
     <row r="271" spans="1:13">
@@ -16037,16 +16037,16 @@
         <v>16</v>
       </c>
       <c r="D271" t="s">
+        <v>1267</v>
+      </c>
+      <c r="E271" t="s">
         <v>1268</v>
-      </c>
-      <c r="E271" t="s">
-        <v>1269</v>
       </c>
       <c r="F271">
         <v>20</v>
       </c>
       <c r="G271" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="H271" t="s">
         <v>186</v>
@@ -16058,13 +16058,13 @@
         <v>-88.477400000000003</v>
       </c>
       <c r="K271" t="s">
+        <v>1364</v>
+      </c>
+      <c r="L271" t="s">
         <v>1365</v>
       </c>
-      <c r="L271" t="s">
+      <c r="M271" t="s">
         <v>1366</v>
-      </c>
-      <c r="M271" t="s">
-        <v>1367</v>
       </c>
     </row>
     <row r="272" spans="1:13">
@@ -16078,19 +16078,19 @@
         <v>16</v>
       </c>
       <c r="D272" t="s">
+        <v>1267</v>
+      </c>
+      <c r="E272" t="s">
         <v>1268</v>
-      </c>
-      <c r="E272" t="s">
-        <v>1269</v>
       </c>
       <c r="F272">
         <v>21</v>
       </c>
       <c r="G272" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="H272" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="I272">
         <v>15.263</v>
@@ -16099,13 +16099,13 @@
         <v>-88.403199999999998</v>
       </c>
       <c r="K272" t="s">
+        <v>1368</v>
+      </c>
+      <c r="L272" t="s">
         <v>1369</v>
       </c>
-      <c r="L272" t="s">
+      <c r="M272" t="s">
         <v>1370</v>
-      </c>
-      <c r="M272" t="s">
-        <v>1371</v>
       </c>
     </row>
     <row r="273" spans="1:13">
@@ -16119,19 +16119,19 @@
         <v>16</v>
       </c>
       <c r="D273" t="s">
+        <v>1267</v>
+      </c>
+      <c r="E273" t="s">
         <v>1268</v>
-      </c>
-      <c r="E273" t="s">
-        <v>1269</v>
       </c>
       <c r="F273">
         <v>22</v>
       </c>
       <c r="G273" t="s">
+        <v>1371</v>
+      </c>
+      <c r="H273" t="s">
         <v>1372</v>
-      </c>
-      <c r="H273" t="s">
-        <v>308</v>
       </c>
       <c r="I273">
         <v>14.930300000000001</v>
@@ -16160,10 +16160,10 @@
         <v>16</v>
       </c>
       <c r="D274" t="s">
+        <v>1267</v>
+      </c>
+      <c r="E274" t="s">
         <v>1268</v>
-      </c>
-      <c r="E274" t="s">
-        <v>1269</v>
       </c>
       <c r="F274">
         <v>23</v>
@@ -16201,10 +16201,10 @@
         <v>16</v>
       </c>
       <c r="D275" t="s">
+        <v>1267</v>
+      </c>
+      <c r="E275" t="s">
         <v>1268</v>
-      </c>
-      <c r="E275" t="s">
-        <v>1269</v>
       </c>
       <c r="F275">
         <v>24</v>
@@ -16242,10 +16242,10 @@
         <v>16</v>
       </c>
       <c r="D276" t="s">
+        <v>1267</v>
+      </c>
+      <c r="E276" t="s">
         <v>1268</v>
-      </c>
-      <c r="E276" t="s">
-        <v>1269</v>
       </c>
       <c r="F276">
         <v>25</v>
@@ -16254,7 +16254,7 @@
         <v>1386</v>
       </c>
       <c r="H276" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="I276">
         <v>14.755000000000001</v>
@@ -16283,10 +16283,10 @@
         <v>16</v>
       </c>
       <c r="D277" t="s">
+        <v>1267</v>
+      </c>
+      <c r="E277" t="s">
         <v>1268</v>
-      </c>
-      <c r="E277" t="s">
-        <v>1269</v>
       </c>
       <c r="F277">
         <v>26</v>
@@ -16324,10 +16324,10 @@
         <v>16</v>
       </c>
       <c r="D278" t="s">
+        <v>1267</v>
+      </c>
+      <c r="E278" t="s">
         <v>1268</v>
-      </c>
-      <c r="E278" t="s">
-        <v>1269</v>
       </c>
       <c r="F278">
         <v>27</v>
@@ -16365,10 +16365,10 @@
         <v>16</v>
       </c>
       <c r="D279" t="s">
+        <v>1267</v>
+      </c>
+      <c r="E279" t="s">
         <v>1268</v>
-      </c>
-      <c r="E279" t="s">
-        <v>1269</v>
       </c>
       <c r="F279">
         <v>28</v>
@@ -17074,7 +17074,7 @@
         <v>1488</v>
       </c>
       <c r="H296" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="I296">
         <v>15.193099999999999</v>

--- a/datacovidhn/LOCALIZAHN.xlsx
+++ b/datacovidhn/LOCALIZAHN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\000 DRIVE\000 DATACOVID HN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="94" documentId="13_ncr:1_{23A5930A-7705-4873-9354-6671A8986A46}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F74796FC-B243-4FD1-A76A-6EDA25760783}"/>
+  <xr:revisionPtr revIDLastSave="95" documentId="13_ncr:1_{23A5930A-7705-4873-9354-6671A8986A46}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{014A3EE4-3DDA-4048-9ABA-7333DB8FEC70}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E12A4D3B-4BD9-444E-BCAD-8267569BA124}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2695" uniqueCount="1507">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2694" uniqueCount="1506">
   <si>
     <t>Pais_cod3</t>
   </si>
@@ -1503,9 +1503,6 @@
   </si>
   <si>
     <t>https://www.google.com/maps/place/Municipio de Danli + Departamento de El Paraiso + Honduras</t>
-  </si>
-  <si>
-    <t>0704</t>
   </si>
   <si>
     <t>HND-0704</t>
@@ -4940,8 +4937,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57166B67-A93A-452E-A5E0-8FB31F384F7A}">
   <dimension ref="A1:M299"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="H44" sqref="H44"/>
+    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
+      <selection activeCell="G95" sqref="G95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
@@ -8829,8 +8826,8 @@
       <c r="F95">
         <v>4</v>
       </c>
-      <c r="G95" t="s">
-        <v>490</v>
+      <c r="G95">
+        <v>704</v>
       </c>
       <c r="H95" t="s">
         <v>258</v>
@@ -8842,13 +8839,13 @@
         <v>-86.525899999999993</v>
       </c>
       <c r="K95" t="s">
+        <v>490</v>
+      </c>
+      <c r="L95" t="s">
         <v>491</v>
       </c>
-      <c r="L95" t="s">
+      <c r="M95" t="s">
         <v>492</v>
-      </c>
-      <c r="M95" t="s">
-        <v>493</v>
       </c>
     </row>
     <row r="96" spans="1:13">
@@ -8871,10 +8868,10 @@
         <v>5</v>
       </c>
       <c r="G96" t="s">
+        <v>493</v>
+      </c>
+      <c r="H96" t="s">
         <v>494</v>
-      </c>
-      <c r="H96" t="s">
-        <v>495</v>
       </c>
       <c r="I96">
         <v>13.8704</v>
@@ -8883,13 +8880,13 @@
         <v>-86.942999999999998</v>
       </c>
       <c r="K96" t="s">
+        <v>495</v>
+      </c>
+      <c r="L96" t="s">
         <v>496</v>
       </c>
-      <c r="L96" t="s">
+      <c r="M96" t="s">
         <v>497</v>
-      </c>
-      <c r="M96" t="s">
-        <v>498</v>
       </c>
     </row>
     <row r="97" spans="1:13">
@@ -8912,10 +8909,10 @@
         <v>6</v>
       </c>
       <c r="G97" t="s">
+        <v>498</v>
+      </c>
+      <c r="H97" t="s">
         <v>499</v>
-      </c>
-      <c r="H97" t="s">
-        <v>500</v>
       </c>
       <c r="I97">
         <v>14.0349</v>
@@ -8924,13 +8921,13 @@
         <v>-86.6768</v>
       </c>
       <c r="K97" t="s">
+        <v>500</v>
+      </c>
+      <c r="L97" t="s">
         <v>501</v>
       </c>
-      <c r="L97" t="s">
+      <c r="M97" t="s">
         <v>502</v>
-      </c>
-      <c r="M97" t="s">
-        <v>503</v>
       </c>
     </row>
     <row r="98" spans="1:13">
@@ -8953,10 +8950,10 @@
         <v>7</v>
       </c>
       <c r="G98" t="s">
+        <v>503</v>
+      </c>
+      <c r="H98" t="s">
         <v>504</v>
-      </c>
-      <c r="H98" t="s">
-        <v>505</v>
       </c>
       <c r="I98">
         <v>13.553699999999999</v>
@@ -8965,13 +8962,13 @@
         <v>-87.06</v>
       </c>
       <c r="K98" t="s">
+        <v>505</v>
+      </c>
+      <c r="L98" t="s">
         <v>506</v>
       </c>
-      <c r="L98" t="s">
+      <c r="M98" t="s">
         <v>507</v>
-      </c>
-      <c r="M98" t="s">
-        <v>508</v>
       </c>
     </row>
     <row r="99" spans="1:13">
@@ -8994,10 +8991,10 @@
         <v>8</v>
       </c>
       <c r="G99" t="s">
+        <v>508</v>
+      </c>
+      <c r="H99" t="s">
         <v>509</v>
-      </c>
-      <c r="H99" t="s">
-        <v>510</v>
       </c>
       <c r="I99">
         <v>14.148199999999999</v>
@@ -9006,13 +9003,13 @@
         <v>-86.853999999999999</v>
       </c>
       <c r="K99" t="s">
+        <v>510</v>
+      </c>
+      <c r="L99" t="s">
         <v>511</v>
       </c>
-      <c r="L99" t="s">
+      <c r="M99" t="s">
         <v>512</v>
-      </c>
-      <c r="M99" t="s">
-        <v>513</v>
       </c>
     </row>
     <row r="100" spans="1:13">
@@ -9035,10 +9032,10 @@
         <v>9</v>
       </c>
       <c r="G100" t="s">
+        <v>513</v>
+      </c>
+      <c r="H100" t="s">
         <v>514</v>
-      </c>
-      <c r="H100" t="s">
-        <v>515</v>
       </c>
       <c r="I100">
         <v>13.8195</v>
@@ -9047,13 +9044,13 @@
         <v>-86.833200000000005</v>
       </c>
       <c r="K100" t="s">
+        <v>515</v>
+      </c>
+      <c r="L100" t="s">
         <v>516</v>
       </c>
-      <c r="L100" t="s">
+      <c r="M100" t="s">
         <v>517</v>
-      </c>
-      <c r="M100" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="101" spans="1:13">
@@ -9076,7 +9073,7 @@
         <v>10</v>
       </c>
       <c r="G101" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H101" t="s">
         <v>354</v>
@@ -9088,13 +9085,13 @@
         <v>-86.756500000000003</v>
       </c>
       <c r="K101" t="s">
+        <v>519</v>
+      </c>
+      <c r="L101" t="s">
         <v>520</v>
       </c>
-      <c r="L101" t="s">
+      <c r="M101" t="s">
         <v>521</v>
-      </c>
-      <c r="M101" t="s">
-        <v>522</v>
       </c>
     </row>
     <row r="102" spans="1:13">
@@ -9117,7 +9114,7 @@
         <v>11</v>
       </c>
       <c r="G102" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="H102" t="s">
         <v>450</v>
@@ -9129,13 +9126,13 @@
         <v>-86.839399999999998</v>
       </c>
       <c r="K102" t="s">
+        <v>523</v>
+      </c>
+      <c r="L102" t="s">
         <v>524</v>
       </c>
-      <c r="L102" t="s">
+      <c r="M102" t="s">
         <v>525</v>
-      </c>
-      <c r="M102" t="s">
-        <v>526</v>
       </c>
     </row>
     <row r="103" spans="1:13">
@@ -9158,10 +9155,10 @@
         <v>12</v>
       </c>
       <c r="G103" t="s">
+        <v>526</v>
+      </c>
+      <c r="H103" t="s">
         <v>527</v>
-      </c>
-      <c r="H103" t="s">
-        <v>528</v>
       </c>
       <c r="I103">
         <v>13.7478</v>
@@ -9170,13 +9167,13 @@
         <v>-86.948599999999999</v>
       </c>
       <c r="K103" t="s">
+        <v>528</v>
+      </c>
+      <c r="L103" t="s">
         <v>529</v>
       </c>
-      <c r="L103" t="s">
+      <c r="M103" t="s">
         <v>530</v>
-      </c>
-      <c r="M103" t="s">
-        <v>531</v>
       </c>
     </row>
     <row r="104" spans="1:13">
@@ -9199,10 +9196,10 @@
         <v>13</v>
       </c>
       <c r="G104" t="s">
+        <v>531</v>
+      </c>
+      <c r="H104" t="s">
         <v>532</v>
-      </c>
-      <c r="H104" t="s">
-        <v>533</v>
       </c>
       <c r="I104">
         <v>13.958</v>
@@ -9211,13 +9208,13 @@
         <v>-86.647999999999996</v>
       </c>
       <c r="K104" t="s">
+        <v>533</v>
+      </c>
+      <c r="L104" t="s">
         <v>534</v>
       </c>
-      <c r="L104" t="s">
+      <c r="M104" t="s">
         <v>535</v>
-      </c>
-      <c r="M104" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="105" spans="1:13">
@@ -9240,10 +9237,10 @@
         <v>14</v>
       </c>
       <c r="G105" t="s">
+        <v>536</v>
+      </c>
+      <c r="H105" t="s">
         <v>537</v>
-      </c>
-      <c r="H105" t="s">
-        <v>538</v>
       </c>
       <c r="I105">
         <v>13.614699999999999</v>
@@ -9252,13 +9249,13 @@
         <v>-87.147099999999995</v>
       </c>
       <c r="K105" t="s">
+        <v>538</v>
+      </c>
+      <c r="L105" t="s">
         <v>539</v>
       </c>
-      <c r="L105" t="s">
+      <c r="M105" t="s">
         <v>540</v>
-      </c>
-      <c r="M105" t="s">
-        <v>541</v>
       </c>
     </row>
     <row r="106" spans="1:13">
@@ -9281,10 +9278,10 @@
         <v>15</v>
       </c>
       <c r="G106" t="s">
+        <v>541</v>
+      </c>
+      <c r="H106" t="s">
         <v>542</v>
-      </c>
-      <c r="H106" t="s">
-        <v>543</v>
       </c>
       <c r="I106">
         <v>14.295199999999999</v>
@@ -9293,13 +9290,13 @@
         <v>-86.679000000000002</v>
       </c>
       <c r="K106" t="s">
+        <v>543</v>
+      </c>
+      <c r="L106" t="s">
         <v>544</v>
       </c>
-      <c r="L106" t="s">
+      <c r="M106" t="s">
         <v>545</v>
-      </c>
-      <c r="M106" t="s">
-        <v>546</v>
       </c>
     </row>
     <row r="107" spans="1:13">
@@ -9322,10 +9319,10 @@
         <v>16</v>
       </c>
       <c r="G107" t="s">
+        <v>546</v>
+      </c>
+      <c r="H107" t="s">
         <v>547</v>
-      </c>
-      <c r="H107" t="s">
-        <v>548</v>
       </c>
       <c r="I107">
         <v>13.6693</v>
@@ -9334,13 +9331,13 @@
         <v>-87.038600000000002</v>
       </c>
       <c r="K107" t="s">
+        <v>548</v>
+      </c>
+      <c r="L107" t="s">
         <v>549</v>
       </c>
-      <c r="L107" t="s">
+      <c r="M107" t="s">
         <v>550</v>
-      </c>
-      <c r="M107" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="108" spans="1:13">
@@ -9363,10 +9360,10 @@
         <v>17</v>
       </c>
       <c r="G108" t="s">
+        <v>551</v>
+      </c>
+      <c r="H108" t="s">
         <v>552</v>
-      </c>
-      <c r="H108" t="s">
-        <v>553</v>
       </c>
       <c r="I108">
         <v>13.639699999999999</v>
@@ -9375,13 +9372,13 @@
         <v>-86.954499999999996</v>
       </c>
       <c r="K108" t="s">
+        <v>553</v>
+      </c>
+      <c r="L108" t="s">
         <v>554</v>
       </c>
-      <c r="L108" t="s">
+      <c r="M108" t="s">
         <v>555</v>
-      </c>
-      <c r="M108" t="s">
-        <v>556</v>
       </c>
     </row>
     <row r="109" spans="1:13">
@@ -9404,10 +9401,10 @@
         <v>18</v>
       </c>
       <c r="G109" t="s">
+        <v>556</v>
+      </c>
+      <c r="H109" t="s">
         <v>557</v>
-      </c>
-      <c r="H109" t="s">
-        <v>558</v>
       </c>
       <c r="I109">
         <v>13.751099999999999</v>
@@ -9416,13 +9413,13 @@
         <v>-87.079599999999999</v>
       </c>
       <c r="K109" t="s">
+        <v>558</v>
+      </c>
+      <c r="L109" t="s">
         <v>559</v>
       </c>
-      <c r="L109" t="s">
+      <c r="M109" t="s">
         <v>560</v>
-      </c>
-      <c r="M109" t="s">
-        <v>561</v>
       </c>
     </row>
     <row r="110" spans="1:13">
@@ -9445,10 +9442,10 @@
         <v>19</v>
       </c>
       <c r="G110" t="s">
+        <v>561</v>
+      </c>
+      <c r="H110" t="s">
         <v>562</v>
-      </c>
-      <c r="H110" t="s">
-        <v>563</v>
       </c>
       <c r="I110">
         <v>14.045299999999999</v>
@@ -9457,13 +9454,13 @@
         <v>-85.860699999999994</v>
       </c>
       <c r="K110" t="s">
+        <v>563</v>
+      </c>
+      <c r="L110" t="s">
         <v>564</v>
       </c>
-      <c r="L110" t="s">
+      <c r="M110" t="s">
         <v>565</v>
-      </c>
-      <c r="M110" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="111" spans="1:13">
@@ -9477,19 +9474,19 @@
         <v>8</v>
       </c>
       <c r="D111" t="s">
+        <v>566</v>
+      </c>
+      <c r="E111" t="s">
         <v>567</v>
-      </c>
-      <c r="E111" t="s">
-        <v>568</v>
       </c>
       <c r="F111">
         <v>1</v>
       </c>
       <c r="G111" t="s">
+        <v>568</v>
+      </c>
+      <c r="H111" t="s">
         <v>569</v>
-      </c>
-      <c r="H111" t="s">
-        <v>570</v>
       </c>
       <c r="I111">
         <v>14.175800000000001</v>
@@ -9498,13 +9495,13 @@
         <v>-87.251099999999994</v>
       </c>
       <c r="K111" t="s">
+        <v>570</v>
+      </c>
+      <c r="L111" t="s">
         <v>571</v>
       </c>
-      <c r="L111" t="s">
+      <c r="M111" t="s">
         <v>572</v>
-      </c>
-      <c r="M111" t="s">
-        <v>573</v>
       </c>
     </row>
     <row r="112" spans="1:13">
@@ -9518,19 +9515,19 @@
         <v>8</v>
       </c>
       <c r="D112" t="s">
+        <v>566</v>
+      </c>
+      <c r="E112" t="s">
         <v>567</v>
-      </c>
-      <c r="E112" t="s">
-        <v>568</v>
       </c>
       <c r="F112">
         <v>2</v>
       </c>
       <c r="G112" t="s">
+        <v>573</v>
+      </c>
+      <c r="H112" t="s">
         <v>574</v>
-      </c>
-      <c r="H112" t="s">
-        <v>575</v>
       </c>
       <c r="I112">
         <v>13.786300000000001</v>
@@ -9539,13 +9536,13 @@
         <v>-87.470699999999994</v>
       </c>
       <c r="K112" t="s">
+        <v>575</v>
+      </c>
+      <c r="L112" t="s">
         <v>576</v>
       </c>
-      <c r="L112" t="s">
+      <c r="M112" t="s">
         <v>577</v>
-      </c>
-      <c r="M112" t="s">
-        <v>578</v>
       </c>
     </row>
     <row r="113" spans="1:13">
@@ -9559,19 +9556,19 @@
         <v>8</v>
       </c>
       <c r="D113" t="s">
+        <v>566</v>
+      </c>
+      <c r="E113" t="s">
         <v>567</v>
-      </c>
-      <c r="E113" t="s">
-        <v>568</v>
       </c>
       <c r="F113">
         <v>3</v>
       </c>
       <c r="G113" t="s">
+        <v>578</v>
+      </c>
+      <c r="H113" t="s">
         <v>579</v>
-      </c>
-      <c r="H113" t="s">
-        <v>580</v>
       </c>
       <c r="I113">
         <v>14.57</v>
@@ -9580,13 +9577,13 @@
         <v>-87.121499999999997</v>
       </c>
       <c r="K113" t="s">
+        <v>580</v>
+      </c>
+      <c r="L113" t="s">
         <v>581</v>
       </c>
-      <c r="L113" t="s">
+      <c r="M113" t="s">
         <v>582</v>
-      </c>
-      <c r="M113" t="s">
-        <v>583</v>
       </c>
     </row>
     <row r="114" spans="1:13">
@@ -9600,19 +9597,19 @@
         <v>8</v>
       </c>
       <c r="D114" t="s">
+        <v>566</v>
+      </c>
+      <c r="E114" t="s">
         <v>567</v>
-      </c>
-      <c r="E114" t="s">
-        <v>568</v>
       </c>
       <c r="F114">
         <v>4</v>
       </c>
       <c r="G114" t="s">
+        <v>583</v>
+      </c>
+      <c r="H114" t="s">
         <v>584</v>
-      </c>
-      <c r="H114" t="s">
-        <v>585</v>
       </c>
       <c r="I114">
         <v>13.8278</v>
@@ -9621,13 +9618,13 @@
         <v>-87.568700000000007</v>
       </c>
       <c r="K114" t="s">
+        <v>585</v>
+      </c>
+      <c r="L114" t="s">
         <v>586</v>
       </c>
-      <c r="L114" t="s">
+      <c r="M114" t="s">
         <v>587</v>
-      </c>
-      <c r="M114" t="s">
-        <v>588</v>
       </c>
     </row>
     <row r="115" spans="1:13">
@@ -9641,16 +9638,16 @@
         <v>8</v>
       </c>
       <c r="D115" t="s">
+        <v>566</v>
+      </c>
+      <c r="E115" t="s">
         <v>567</v>
-      </c>
-      <c r="E115" t="s">
-        <v>568</v>
       </c>
       <c r="F115">
         <v>5</v>
       </c>
       <c r="G115" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="H115" t="s">
         <v>23</v>
@@ -9662,13 +9659,13 @@
         <v>-87.221999999999994</v>
       </c>
       <c r="K115" t="s">
+        <v>589</v>
+      </c>
+      <c r="L115" t="s">
         <v>590</v>
       </c>
-      <c r="L115" t="s">
+      <c r="M115" t="s">
         <v>591</v>
-      </c>
-      <c r="M115" t="s">
-        <v>592</v>
       </c>
     </row>
     <row r="116" spans="1:13">
@@ -9682,19 +9679,19 @@
         <v>8</v>
       </c>
       <c r="D116" t="s">
+        <v>566</v>
+      </c>
+      <c r="E116" t="s">
         <v>567</v>
-      </c>
-      <c r="E116" t="s">
-        <v>568</v>
       </c>
       <c r="F116">
         <v>6</v>
       </c>
       <c r="G116" t="s">
+        <v>592</v>
+      </c>
+      <c r="H116" t="s">
         <v>593</v>
-      </c>
-      <c r="H116" t="s">
-        <v>594</v>
       </c>
       <c r="I116">
         <v>14.513299999999999</v>
@@ -9703,13 +9700,13 @@
         <v>-86.867800000000003</v>
       </c>
       <c r="K116" t="s">
+        <v>594</v>
+      </c>
+      <c r="L116" t="s">
         <v>595</v>
       </c>
-      <c r="L116" t="s">
+      <c r="M116" t="s">
         <v>596</v>
-      </c>
-      <c r="M116" t="s">
-        <v>597</v>
       </c>
     </row>
     <row r="117" spans="1:13">
@@ -9723,16 +9720,16 @@
         <v>8</v>
       </c>
       <c r="D117" t="s">
+        <v>566</v>
+      </c>
+      <c r="E117" t="s">
         <v>567</v>
-      </c>
-      <c r="E117" t="s">
-        <v>568</v>
       </c>
       <c r="F117">
         <v>7</v>
       </c>
       <c r="G117" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="H117" t="s">
         <v>136</v>
@@ -9744,13 +9741,13 @@
         <v>-87.500500000000002</v>
       </c>
       <c r="K117" t="s">
+        <v>598</v>
+      </c>
+      <c r="L117" t="s">
         <v>599</v>
       </c>
-      <c r="L117" t="s">
+      <c r="M117" t="s">
         <v>600</v>
-      </c>
-      <c r="M117" t="s">
-        <v>601</v>
       </c>
     </row>
     <row r="118" spans="1:13">
@@ -9764,19 +9761,19 @@
         <v>8</v>
       </c>
       <c r="D118" t="s">
+        <v>566</v>
+      </c>
+      <c r="E118" t="s">
         <v>567</v>
-      </c>
-      <c r="E118" t="s">
-        <v>568</v>
       </c>
       <c r="F118">
         <v>8</v>
       </c>
       <c r="G118" t="s">
+        <v>601</v>
+      </c>
+      <c r="H118" t="s">
         <v>602</v>
-      </c>
-      <c r="H118" t="s">
-        <v>603</v>
       </c>
       <c r="I118">
         <v>13.732100000000001</v>
@@ -9785,13 +9782,13 @@
         <v>-87.327600000000004</v>
       </c>
       <c r="K118" t="s">
+        <v>603</v>
+      </c>
+      <c r="L118" t="s">
         <v>604</v>
       </c>
-      <c r="L118" t="s">
+      <c r="M118" t="s">
         <v>605</v>
-      </c>
-      <c r="M118" t="s">
-        <v>606</v>
       </c>
     </row>
     <row r="119" spans="1:13">
@@ -9805,19 +9802,19 @@
         <v>8</v>
       </c>
       <c r="D119" t="s">
+        <v>566</v>
+      </c>
+      <c r="E119" t="s">
         <v>567</v>
-      </c>
-      <c r="E119" t="s">
-        <v>568</v>
       </c>
       <c r="F119">
         <v>9</v>
       </c>
       <c r="G119" t="s">
+        <v>606</v>
+      </c>
+      <c r="H119" t="s">
         <v>607</v>
-      </c>
-      <c r="H119" t="s">
-        <v>608</v>
       </c>
       <c r="I119">
         <v>14.0482</v>
@@ -9826,13 +9823,13 @@
         <v>-87.495500000000007</v>
       </c>
       <c r="K119" t="s">
+        <v>608</v>
+      </c>
+      <c r="L119" t="s">
         <v>609</v>
       </c>
-      <c r="L119" t="s">
+      <c r="M119" t="s">
         <v>610</v>
-      </c>
-      <c r="M119" t="s">
-        <v>611</v>
       </c>
     </row>
     <row r="120" spans="1:13">
@@ -9846,19 +9843,19 @@
         <v>8</v>
       </c>
       <c r="D120" t="s">
+        <v>566</v>
+      </c>
+      <c r="E120" t="s">
         <v>567</v>
-      </c>
-      <c r="E120" t="s">
-        <v>568</v>
       </c>
       <c r="F120">
         <v>10</v>
       </c>
       <c r="G120" t="s">
+        <v>611</v>
+      </c>
+      <c r="H120" t="s">
         <v>612</v>
-      </c>
-      <c r="H120" t="s">
-        <v>613</v>
       </c>
       <c r="I120">
         <v>13.8675</v>
@@ -9867,13 +9864,13 @@
         <v>-87.056399999999996</v>
       </c>
       <c r="K120" t="s">
+        <v>613</v>
+      </c>
+      <c r="L120" t="s">
         <v>614</v>
       </c>
-      <c r="L120" t="s">
+      <c r="M120" t="s">
         <v>615</v>
-      </c>
-      <c r="M120" t="s">
-        <v>616</v>
       </c>
     </row>
     <row r="121" spans="1:13">
@@ -9887,19 +9884,19 @@
         <v>8</v>
       </c>
       <c r="D121" t="s">
+        <v>566</v>
+      </c>
+      <c r="E121" t="s">
         <v>567</v>
-      </c>
-      <c r="E121" t="s">
-        <v>568</v>
       </c>
       <c r="F121">
         <v>11</v>
       </c>
       <c r="G121" t="s">
+        <v>616</v>
+      </c>
+      <c r="H121" t="s">
         <v>617</v>
-      </c>
-      <c r="H121" t="s">
-        <v>618</v>
       </c>
       <c r="I121">
         <v>14.938000000000001</v>
@@ -9908,13 +9905,13 @@
         <v>-87.102400000000003</v>
       </c>
       <c r="K121" t="s">
+        <v>618</v>
+      </c>
+      <c r="L121" t="s">
         <v>619</v>
       </c>
-      <c r="L121" t="s">
+      <c r="M121" t="s">
         <v>620</v>
-      </c>
-      <c r="M121" t="s">
-        <v>621</v>
       </c>
     </row>
     <row r="122" spans="1:13">
@@ -9928,19 +9925,19 @@
         <v>8</v>
       </c>
       <c r="D122" t="s">
+        <v>566</v>
+      </c>
+      <c r="E122" t="s">
         <v>567</v>
-      </c>
-      <c r="E122" t="s">
-        <v>568</v>
       </c>
       <c r="F122">
         <v>12</v>
       </c>
       <c r="G122" t="s">
+        <v>621</v>
+      </c>
+      <c r="H122" t="s">
         <v>622</v>
-      </c>
-      <c r="H122" t="s">
-        <v>623</v>
       </c>
       <c r="I122">
         <v>13.7515</v>
@@ -9949,13 +9946,13 @@
         <v>-87.1614</v>
       </c>
       <c r="K122" t="s">
+        <v>623</v>
+      </c>
+      <c r="L122" t="s">
         <v>624</v>
       </c>
-      <c r="L122" t="s">
+      <c r="M122" t="s">
         <v>625</v>
-      </c>
-      <c r="M122" t="s">
-        <v>626</v>
       </c>
     </row>
     <row r="123" spans="1:13">
@@ -9969,19 +9966,19 @@
         <v>8</v>
       </c>
       <c r="D123" t="s">
+        <v>566</v>
+      </c>
+      <c r="E123" t="s">
         <v>567</v>
       </c>
-      <c r="E123" t="s">
-        <v>568</v>
-      </c>
       <c r="F123">
         <v>13</v>
       </c>
       <c r="G123" t="s">
+        <v>626</v>
+      </c>
+      <c r="H123" t="s">
         <v>627</v>
-      </c>
-      <c r="H123" t="s">
-        <v>628</v>
       </c>
       <c r="I123">
         <v>13.9277</v>
@@ -9990,13 +9987,13 @@
         <v>-87.340999999999994</v>
       </c>
       <c r="K123" t="s">
+        <v>628</v>
+      </c>
+      <c r="L123" t="s">
         <v>629</v>
       </c>
-      <c r="L123" t="s">
+      <c r="M123" t="s">
         <v>630</v>
-      </c>
-      <c r="M123" t="s">
-        <v>631</v>
       </c>
     </row>
     <row r="124" spans="1:13">
@@ -10010,19 +10007,19 @@
         <v>8</v>
       </c>
       <c r="D124" t="s">
+        <v>566</v>
+      </c>
+      <c r="E124" t="s">
         <v>567</v>
       </c>
-      <c r="E124" t="s">
-        <v>568</v>
-      </c>
       <c r="F124">
         <v>14</v>
       </c>
       <c r="G124" t="s">
+        <v>631</v>
+      </c>
+      <c r="H124" t="s">
         <v>632</v>
-      </c>
-      <c r="H124" t="s">
-        <v>633</v>
       </c>
       <c r="I124">
         <v>14.797800000000001</v>
@@ -10031,13 +10028,13 @@
         <v>-86.945400000000006</v>
       </c>
       <c r="K124" t="s">
+        <v>633</v>
+      </c>
+      <c r="L124" t="s">
         <v>634</v>
       </c>
-      <c r="L124" t="s">
+      <c r="M124" t="s">
         <v>635</v>
-      </c>
-      <c r="M124" t="s">
-        <v>636</v>
       </c>
     </row>
     <row r="125" spans="1:13">
@@ -10051,19 +10048,19 @@
         <v>8</v>
       </c>
       <c r="D125" t="s">
+        <v>566</v>
+      </c>
+      <c r="E125" t="s">
         <v>567</v>
-      </c>
-      <c r="E125" t="s">
-        <v>568</v>
       </c>
       <c r="F125">
         <v>15</v>
       </c>
       <c r="G125" t="s">
+        <v>636</v>
+      </c>
+      <c r="H125" t="s">
         <v>637</v>
-      </c>
-      <c r="H125" t="s">
-        <v>638</v>
       </c>
       <c r="I125">
         <v>13.8515</v>
@@ -10072,13 +10069,13 @@
         <v>-87.429100000000005</v>
       </c>
       <c r="K125" t="s">
+        <v>638</v>
+      </c>
+      <c r="L125" t="s">
         <v>639</v>
       </c>
-      <c r="L125" t="s">
+      <c r="M125" t="s">
         <v>640</v>
-      </c>
-      <c r="M125" t="s">
-        <v>641</v>
       </c>
     </row>
     <row r="126" spans="1:13">
@@ -10092,19 +10089,19 @@
         <v>8</v>
       </c>
       <c r="D126" t="s">
+        <v>566</v>
+      </c>
+      <c r="E126" t="s">
         <v>567</v>
-      </c>
-      <c r="E126" t="s">
-        <v>568</v>
       </c>
       <c r="F126">
         <v>16</v>
       </c>
       <c r="G126" t="s">
+        <v>641</v>
+      </c>
+      <c r="H126" t="s">
         <v>642</v>
-      </c>
-      <c r="H126" t="s">
-        <v>643</v>
       </c>
       <c r="I126">
         <v>13.799799999999999</v>
@@ -10113,13 +10110,13 @@
         <v>-87.259600000000006</v>
       </c>
       <c r="K126" t="s">
+        <v>643</v>
+      </c>
+      <c r="L126" t="s">
         <v>644</v>
       </c>
-      <c r="L126" t="s">
+      <c r="M126" t="s">
         <v>645</v>
-      </c>
-      <c r="M126" t="s">
-        <v>646</v>
       </c>
     </row>
     <row r="127" spans="1:13">
@@ -10133,19 +10130,19 @@
         <v>8</v>
       </c>
       <c r="D127" t="s">
+        <v>566</v>
+      </c>
+      <c r="E127" t="s">
         <v>567</v>
-      </c>
-      <c r="E127" t="s">
-        <v>568</v>
       </c>
       <c r="F127">
         <v>17</v>
       </c>
       <c r="G127" t="s">
+        <v>646</v>
+      </c>
+      <c r="H127" t="s">
         <v>647</v>
-      </c>
-      <c r="H127" t="s">
-        <v>648</v>
       </c>
       <c r="I127">
         <v>14.0344</v>
@@ -10154,13 +10151,13 @@
         <v>-86.990099999999998</v>
       </c>
       <c r="K127" t="s">
+        <v>648</v>
+      </c>
+      <c r="L127" t="s">
         <v>649</v>
       </c>
-      <c r="L127" t="s">
+      <c r="M127" t="s">
         <v>650</v>
-      </c>
-      <c r="M127" t="s">
-        <v>651</v>
       </c>
     </row>
     <row r="128" spans="1:13">
@@ -10174,19 +10171,19 @@
         <v>8</v>
       </c>
       <c r="D128" t="s">
+        <v>566</v>
+      </c>
+      <c r="E128" t="s">
         <v>567</v>
-      </c>
-      <c r="E128" t="s">
-        <v>568</v>
       </c>
       <c r="F128">
         <v>18</v>
       </c>
       <c r="G128" t="s">
+        <v>651</v>
+      </c>
+      <c r="H128" t="s">
         <v>652</v>
-      </c>
-      <c r="H128" t="s">
-        <v>653</v>
       </c>
       <c r="I128">
         <v>13.8986</v>
@@ -10195,13 +10192,13 @@
         <v>-87.183899999999994</v>
       </c>
       <c r="K128" t="s">
+        <v>653</v>
+      </c>
+      <c r="L128" t="s">
         <v>654</v>
       </c>
-      <c r="L128" t="s">
+      <c r="M128" t="s">
         <v>655</v>
-      </c>
-      <c r="M128" t="s">
-        <v>656</v>
       </c>
     </row>
     <row r="129" spans="1:13">
@@ -10215,19 +10212,19 @@
         <v>8</v>
       </c>
       <c r="D129" t="s">
+        <v>566</v>
+      </c>
+      <c r="E129" t="s">
         <v>567</v>
-      </c>
-      <c r="E129" t="s">
-        <v>568</v>
       </c>
       <c r="F129">
         <v>19</v>
       </c>
       <c r="G129" t="s">
+        <v>656</v>
+      </c>
+      <c r="H129" t="s">
         <v>657</v>
-      </c>
-      <c r="H129" t="s">
-        <v>658</v>
       </c>
       <c r="I129">
         <v>14.744</v>
@@ -10236,13 +10233,13 @@
         <v>-87.055899999999994</v>
       </c>
       <c r="K129" t="s">
+        <v>658</v>
+      </c>
+      <c r="L129" t="s">
         <v>659</v>
       </c>
-      <c r="L129" t="s">
+      <c r="M129" t="s">
         <v>660</v>
-      </c>
-      <c r="M129" t="s">
-        <v>661</v>
       </c>
     </row>
     <row r="130" spans="1:13">
@@ -10256,19 +10253,19 @@
         <v>8</v>
       </c>
       <c r="D130" t="s">
+        <v>566</v>
+      </c>
+      <c r="E130" t="s">
         <v>567</v>
-      </c>
-      <c r="E130" t="s">
-        <v>568</v>
       </c>
       <c r="F130">
         <v>20</v>
       </c>
       <c r="G130" t="s">
+        <v>661</v>
+      </c>
+      <c r="H130" t="s">
         <v>662</v>
-      </c>
-      <c r="H130" t="s">
-        <v>663</v>
       </c>
       <c r="I130">
         <v>14.301500000000001</v>
@@ -10277,13 +10274,13 @@
         <v>-86.965699999999998</v>
       </c>
       <c r="K130" t="s">
+        <v>663</v>
+      </c>
+      <c r="L130" t="s">
         <v>664</v>
       </c>
-      <c r="L130" t="s">
+      <c r="M130" t="s">
         <v>665</v>
-      </c>
-      <c r="M130" t="s">
-        <v>666</v>
       </c>
     </row>
     <row r="131" spans="1:13">
@@ -10297,19 +10294,19 @@
         <v>8</v>
       </c>
       <c r="D131" t="s">
+        <v>566</v>
+      </c>
+      <c r="E131" t="s">
         <v>567</v>
-      </c>
-      <c r="E131" t="s">
-        <v>568</v>
       </c>
       <c r="F131">
         <v>21</v>
       </c>
       <c r="G131" t="s">
+        <v>666</v>
+      </c>
+      <c r="H131" t="s">
         <v>667</v>
-      </c>
-      <c r="H131" t="s">
-        <v>668</v>
       </c>
       <c r="I131">
         <v>13.749499999999999</v>
@@ -10318,13 +10315,13 @@
         <v>-87.491200000000006</v>
       </c>
       <c r="K131" t="s">
+        <v>668</v>
+      </c>
+      <c r="L131" t="s">
         <v>669</v>
       </c>
-      <c r="L131" t="s">
+      <c r="M131" t="s">
         <v>670</v>
-      </c>
-      <c r="M131" t="s">
-        <v>671</v>
       </c>
     </row>
     <row r="132" spans="1:13">
@@ -10338,19 +10335,19 @@
         <v>8</v>
       </c>
       <c r="D132" t="s">
+        <v>566</v>
+      </c>
+      <c r="E132" t="s">
         <v>567</v>
-      </c>
-      <c r="E132" t="s">
-        <v>568</v>
       </c>
       <c r="F132">
         <v>22</v>
       </c>
       <c r="G132" t="s">
+        <v>671</v>
+      </c>
+      <c r="H132" t="s">
         <v>672</v>
-      </c>
-      <c r="H132" t="s">
-        <v>673</v>
       </c>
       <c r="I132">
         <v>13.9329</v>
@@ -10359,13 +10356,13 @@
         <v>-87.242199999999997</v>
       </c>
       <c r="K132" t="s">
+        <v>673</v>
+      </c>
+      <c r="L132" t="s">
         <v>674</v>
       </c>
-      <c r="L132" t="s">
+      <c r="M132" t="s">
         <v>675</v>
-      </c>
-      <c r="M132" t="s">
-        <v>676</v>
       </c>
     </row>
     <row r="133" spans="1:13">
@@ -10379,19 +10376,19 @@
         <v>8</v>
       </c>
       <c r="D133" t="s">
+        <v>566</v>
+      </c>
+      <c r="E133" t="s">
         <v>567</v>
-      </c>
-      <c r="E133" t="s">
-        <v>568</v>
       </c>
       <c r="F133">
         <v>23</v>
       </c>
       <c r="G133" t="s">
+        <v>676</v>
+      </c>
+      <c r="H133" t="s">
         <v>677</v>
-      </c>
-      <c r="H133" t="s">
-        <v>678</v>
       </c>
       <c r="I133">
         <v>14.127800000000001</v>
@@ -10400,13 +10397,13 @@
         <v>-87.095399999999998</v>
       </c>
       <c r="K133" t="s">
+        <v>678</v>
+      </c>
+      <c r="L133" t="s">
         <v>679</v>
       </c>
-      <c r="L133" t="s">
+      <c r="M133" t="s">
         <v>680</v>
-      </c>
-      <c r="M133" t="s">
-        <v>681</v>
       </c>
     </row>
     <row r="134" spans="1:13">
@@ -10420,19 +10417,19 @@
         <v>8</v>
       </c>
       <c r="D134" t="s">
+        <v>566</v>
+      </c>
+      <c r="E134" t="s">
         <v>567</v>
-      </c>
-      <c r="E134" t="s">
-        <v>568</v>
       </c>
       <c r="F134">
         <v>24</v>
       </c>
       <c r="G134" t="s">
+        <v>681</v>
+      </c>
+      <c r="H134" t="s">
         <v>682</v>
-      </c>
-      <c r="H134" t="s">
-        <v>683</v>
       </c>
       <c r="I134">
         <v>14.4094</v>
@@ -10441,13 +10438,13 @@
         <v>-87.067800000000005</v>
       </c>
       <c r="K134" t="s">
+        <v>683</v>
+      </c>
+      <c r="L134" t="s">
         <v>684</v>
       </c>
-      <c r="L134" t="s">
+      <c r="M134" t="s">
         <v>685</v>
-      </c>
-      <c r="M134" t="s">
-        <v>686</v>
       </c>
     </row>
     <row r="135" spans="1:13">
@@ -10461,19 +10458,19 @@
         <v>8</v>
       </c>
       <c r="D135" t="s">
+        <v>566</v>
+      </c>
+      <c r="E135" t="s">
         <v>567</v>
-      </c>
-      <c r="E135" t="s">
-        <v>568</v>
       </c>
       <c r="F135">
         <v>25</v>
       </c>
       <c r="G135" t="s">
+        <v>686</v>
+      </c>
+      <c r="H135" t="s">
         <v>687</v>
-      </c>
-      <c r="H135" t="s">
-        <v>688</v>
       </c>
       <c r="I135">
         <v>13.9855</v>
@@ -10482,13 +10479,13 @@
         <v>-87.071399999999997</v>
       </c>
       <c r="K135" t="s">
+        <v>688</v>
+      </c>
+      <c r="L135" t="s">
         <v>689</v>
       </c>
-      <c r="L135" t="s">
+      <c r="M135" t="s">
         <v>690</v>
-      </c>
-      <c r="M135" t="s">
-        <v>691</v>
       </c>
     </row>
     <row r="136" spans="1:13">
@@ -10502,19 +10499,19 @@
         <v>8</v>
       </c>
       <c r="D136" t="s">
+        <v>566</v>
+      </c>
+      <c r="E136" t="s">
         <v>567</v>
-      </c>
-      <c r="E136" t="s">
-        <v>568</v>
       </c>
       <c r="F136">
         <v>26</v>
       </c>
       <c r="G136" t="s">
+        <v>691</v>
+      </c>
+      <c r="H136" t="s">
         <v>692</v>
-      </c>
-      <c r="H136" t="s">
-        <v>693</v>
       </c>
       <c r="I136">
         <v>14.1557</v>
@@ -10523,13 +10520,13 @@
         <v>-87.028199999999998</v>
       </c>
       <c r="K136" t="s">
+        <v>693</v>
+      </c>
+      <c r="L136" t="s">
         <v>694</v>
       </c>
-      <c r="L136" t="s">
+      <c r="M136" t="s">
         <v>695</v>
-      </c>
-      <c r="M136" t="s">
-        <v>696</v>
       </c>
     </row>
     <row r="137" spans="1:13">
@@ -10543,19 +10540,19 @@
         <v>8</v>
       </c>
       <c r="D137" t="s">
+        <v>566</v>
+      </c>
+      <c r="E137" t="s">
         <v>567</v>
-      </c>
-      <c r="E137" t="s">
-        <v>568</v>
       </c>
       <c r="F137">
         <v>27</v>
       </c>
       <c r="G137" t="s">
+        <v>696</v>
+      </c>
+      <c r="H137" t="s">
         <v>697</v>
-      </c>
-      <c r="H137" t="s">
-        <v>698</v>
       </c>
       <c r="I137">
         <v>14.197699999999999</v>
@@ -10564,13 +10561,13 @@
         <v>-86.9512</v>
       </c>
       <c r="K137" t="s">
+        <v>698</v>
+      </c>
+      <c r="L137" t="s">
         <v>699</v>
       </c>
-      <c r="L137" t="s">
+      <c r="M137" t="s">
         <v>700</v>
-      </c>
-      <c r="M137" t="s">
-        <v>701</v>
       </c>
     </row>
     <row r="138" spans="1:13">
@@ -10584,19 +10581,19 @@
         <v>8</v>
       </c>
       <c r="D138" t="s">
+        <v>566</v>
+      </c>
+      <c r="E138" t="s">
         <v>567</v>
-      </c>
-      <c r="E138" t="s">
-        <v>568</v>
       </c>
       <c r="F138">
         <v>28</v>
       </c>
       <c r="G138" t="s">
+        <v>701</v>
+      </c>
+      <c r="H138" t="s">
         <v>702</v>
-      </c>
-      <c r="H138" t="s">
-        <v>703</v>
       </c>
       <c r="I138">
         <v>14.524900000000001</v>
@@ -10605,13 +10602,13 @@
         <v>-87.381799999999998</v>
       </c>
       <c r="K138" t="s">
+        <v>703</v>
+      </c>
+      <c r="L138" t="s">
         <v>704</v>
       </c>
-      <c r="L138" t="s">
+      <c r="M138" t="s">
         <v>705</v>
-      </c>
-      <c r="M138" t="s">
-        <v>706</v>
       </c>
     </row>
     <row r="139" spans="1:13">
@@ -10625,19 +10622,19 @@
         <v>9</v>
       </c>
       <c r="D139" t="s">
+        <v>706</v>
+      </c>
+      <c r="E139" t="s">
         <v>707</v>
-      </c>
-      <c r="E139" t="s">
-        <v>708</v>
       </c>
       <c r="F139">
         <v>1</v>
       </c>
       <c r="G139" t="s">
+        <v>708</v>
+      </c>
+      <c r="H139" t="s">
         <v>709</v>
-      </c>
-      <c r="H139" t="s">
-        <v>710</v>
       </c>
       <c r="I139">
         <v>14.9999</v>
@@ -10646,13 +10643,13 @@
         <v>-84.110399999999998</v>
       </c>
       <c r="K139" t="s">
+        <v>710</v>
+      </c>
+      <c r="L139" t="s">
         <v>711</v>
       </c>
-      <c r="L139" t="s">
+      <c r="M139" t="s">
         <v>712</v>
-      </c>
-      <c r="M139" t="s">
-        <v>713</v>
       </c>
     </row>
     <row r="140" spans="1:13">
@@ -10666,19 +10663,19 @@
         <v>9</v>
       </c>
       <c r="D140" t="s">
+        <v>706</v>
+      </c>
+      <c r="E140" t="s">
         <v>707</v>
-      </c>
-      <c r="E140" t="s">
-        <v>708</v>
       </c>
       <c r="F140">
         <v>2</v>
       </c>
       <c r="G140" t="s">
+        <v>713</v>
+      </c>
+      <c r="H140" t="s">
         <v>714</v>
-      </c>
-      <c r="H140" t="s">
-        <v>715</v>
       </c>
       <c r="I140">
         <v>15.467499999999999</v>
@@ -10687,13 +10684,13 @@
         <v>-84.711399999999998</v>
       </c>
       <c r="K140" t="s">
+        <v>715</v>
+      </c>
+      <c r="L140" t="s">
         <v>716</v>
       </c>
-      <c r="L140" t="s">
+      <c r="M140" t="s">
         <v>717</v>
-      </c>
-      <c r="M140" t="s">
-        <v>718</v>
       </c>
     </row>
     <row r="141" spans="1:13">
@@ -10707,19 +10704,19 @@
         <v>9</v>
       </c>
       <c r="D141" t="s">
+        <v>706</v>
+      </c>
+      <c r="E141" t="s">
         <v>707</v>
-      </c>
-      <c r="E141" t="s">
-        <v>708</v>
       </c>
       <c r="F141">
         <v>3</v>
       </c>
       <c r="G141" t="s">
+        <v>718</v>
+      </c>
+      <c r="H141" t="s">
         <v>719</v>
-      </c>
-      <c r="H141" t="s">
-        <v>720</v>
       </c>
       <c r="I141">
         <v>15.4719</v>
@@ -10728,13 +10725,13 @@
         <v>-84.308000000000007</v>
       </c>
       <c r="K141" t="s">
+        <v>720</v>
+      </c>
+      <c r="L141" t="s">
         <v>721</v>
       </c>
-      <c r="L141" t="s">
+      <c r="M141" t="s">
         <v>722</v>
-      </c>
-      <c r="M141" t="s">
-        <v>723</v>
       </c>
     </row>
     <row r="142" spans="1:13">
@@ -10748,19 +10745,19 @@
         <v>9</v>
       </c>
       <c r="D142" t="s">
+        <v>706</v>
+      </c>
+      <c r="E142" t="s">
         <v>707</v>
-      </c>
-      <c r="E142" t="s">
-        <v>708</v>
       </c>
       <c r="F142">
         <v>4</v>
       </c>
       <c r="G142" t="s">
+        <v>723</v>
+      </c>
+      <c r="H142" t="s">
         <v>724</v>
-      </c>
-      <c r="H142" t="s">
-        <v>725</v>
       </c>
       <c r="I142">
         <v>15.769299999999999</v>
@@ -10769,13 +10766,13 @@
         <v>-84.925799999999995</v>
       </c>
       <c r="K142" t="s">
+        <v>725</v>
+      </c>
+      <c r="L142" t="s">
         <v>726</v>
       </c>
-      <c r="L142" t="s">
+      <c r="M142" t="s">
         <v>727</v>
-      </c>
-      <c r="M142" t="s">
-        <v>728</v>
       </c>
     </row>
     <row r="143" spans="1:13">
@@ -10789,19 +10786,19 @@
         <v>9</v>
       </c>
       <c r="D143" t="s">
+        <v>706</v>
+      </c>
+      <c r="E143" t="s">
         <v>707</v>
-      </c>
-      <c r="E143" t="s">
-        <v>708</v>
       </c>
       <c r="F143">
         <v>5</v>
       </c>
       <c r="G143" t="s">
+        <v>728</v>
+      </c>
+      <c r="H143" t="s">
         <v>729</v>
-      </c>
-      <c r="H143" t="s">
-        <v>730</v>
       </c>
       <c r="I143">
         <v>15.0846</v>
@@ -10810,13 +10807,13 @@
         <v>-83.409499999999994</v>
       </c>
       <c r="K143" t="s">
+        <v>730</v>
+      </c>
+      <c r="L143" t="s">
         <v>731</v>
       </c>
-      <c r="L143" t="s">
+      <c r="M143" t="s">
         <v>732</v>
-      </c>
-      <c r="M143" t="s">
-        <v>733</v>
       </c>
     </row>
     <row r="144" spans="1:13">
@@ -10830,19 +10827,19 @@
         <v>9</v>
       </c>
       <c r="D144" t="s">
+        <v>706</v>
+      </c>
+      <c r="E144" t="s">
         <v>707</v>
-      </c>
-      <c r="E144" t="s">
-        <v>708</v>
       </c>
       <c r="F144">
         <v>6</v>
       </c>
       <c r="G144" t="s">
+        <v>733</v>
+      </c>
+      <c r="H144" t="s">
         <v>734</v>
-      </c>
-      <c r="H144" t="s">
-        <v>735</v>
       </c>
       <c r="I144">
         <v>15.049300000000001</v>
@@ -10851,13 +10848,13 @@
         <v>-84.682400000000001</v>
       </c>
       <c r="K144" t="s">
+        <v>735</v>
+      </c>
+      <c r="L144" t="s">
         <v>736</v>
       </c>
-      <c r="L144" t="s">
+      <c r="M144" t="s">
         <v>737</v>
-      </c>
-      <c r="M144" t="s">
-        <v>738</v>
       </c>
     </row>
     <row r="145" spans="1:13">
@@ -10871,19 +10868,19 @@
         <v>10</v>
       </c>
       <c r="D145" t="s">
+        <v>738</v>
+      </c>
+      <c r="E145" t="s">
         <v>739</v>
-      </c>
-      <c r="E145" t="s">
-        <v>740</v>
       </c>
       <c r="F145">
         <v>1</v>
       </c>
       <c r="G145" t="s">
+        <v>740</v>
+      </c>
+      <c r="H145" t="s">
         <v>741</v>
-      </c>
-      <c r="H145" t="s">
-        <v>742</v>
       </c>
       <c r="I145">
         <v>14.2502</v>
@@ -10892,13 +10889,13 @@
         <v>-88.133399999999995</v>
       </c>
       <c r="K145" t="s">
+        <v>742</v>
+      </c>
+      <c r="L145" t="s">
         <v>743</v>
       </c>
-      <c r="L145" t="s">
+      <c r="M145" t="s">
         <v>744</v>
-      </c>
-      <c r="M145" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="146" spans="1:13">
@@ -10912,19 +10909,19 @@
         <v>10</v>
       </c>
       <c r="D146" t="s">
+        <v>738</v>
+      </c>
+      <c r="E146" t="s">
         <v>739</v>
-      </c>
-      <c r="E146" t="s">
-        <v>740</v>
       </c>
       <c r="F146">
         <v>2</v>
       </c>
       <c r="G146" t="s">
+        <v>745</v>
+      </c>
+      <c r="H146" t="s">
         <v>746</v>
-      </c>
-      <c r="H146" t="s">
-        <v>747</v>
       </c>
       <c r="I146">
         <v>13.997</v>
@@ -10933,13 +10930,13 @@
         <v>-88.388900000000007</v>
       </c>
       <c r="K146" t="s">
+        <v>747</v>
+      </c>
+      <c r="L146" t="s">
         <v>748</v>
       </c>
-      <c r="L146" t="s">
+      <c r="M146" t="s">
         <v>749</v>
-      </c>
-      <c r="M146" t="s">
-        <v>750</v>
       </c>
     </row>
     <row r="147" spans="1:13">
@@ -10953,19 +10950,19 @@
         <v>10</v>
       </c>
       <c r="D147" t="s">
+        <v>738</v>
+      </c>
+      <c r="E147" t="s">
         <v>739</v>
-      </c>
-      <c r="E147" t="s">
-        <v>740</v>
       </c>
       <c r="F147">
         <v>3</v>
       </c>
       <c r="G147" t="s">
+        <v>750</v>
+      </c>
+      <c r="H147" t="s">
         <v>751</v>
-      </c>
-      <c r="H147" t="s">
-        <v>752</v>
       </c>
       <c r="I147">
         <v>13.9803</v>
@@ -10974,13 +10971,13 @@
         <v>-88.279600000000002</v>
       </c>
       <c r="K147" t="s">
+        <v>752</v>
+      </c>
+      <c r="L147" t="s">
         <v>753</v>
       </c>
-      <c r="L147" t="s">
+      <c r="M147" t="s">
         <v>754</v>
-      </c>
-      <c r="M147" t="s">
-        <v>755</v>
       </c>
     </row>
     <row r="148" spans="1:13">
@@ -10994,16 +10991,16 @@
         <v>10</v>
       </c>
       <c r="D148" t="s">
+        <v>738</v>
+      </c>
+      <c r="E148" t="s">
         <v>739</v>
-      </c>
-      <c r="E148" t="s">
-        <v>740</v>
       </c>
       <c r="F148">
         <v>4</v>
       </c>
       <c r="G148" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="H148" t="s">
         <v>228</v>
@@ -11015,13 +11012,13 @@
         <v>-88.318799999999996</v>
       </c>
       <c r="K148" t="s">
+        <v>756</v>
+      </c>
+      <c r="L148" t="s">
         <v>757</v>
       </c>
-      <c r="L148" t="s">
+      <c r="M148" t="s">
         <v>758</v>
-      </c>
-      <c r="M148" t="s">
-        <v>759</v>
       </c>
     </row>
     <row r="149" spans="1:13">
@@ -11035,16 +11032,16 @@
         <v>10</v>
       </c>
       <c r="D149" t="s">
+        <v>738</v>
+      </c>
+      <c r="E149" t="s">
         <v>739</v>
-      </c>
-      <c r="E149" t="s">
-        <v>740</v>
       </c>
       <c r="F149">
         <v>5</v>
       </c>
       <c r="G149" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="H149" t="s">
         <v>248</v>
@@ -11056,13 +11053,13 @@
         <v>-88.357900000000001</v>
       </c>
       <c r="K149" t="s">
+        <v>760</v>
+      </c>
+      <c r="L149" t="s">
         <v>761</v>
       </c>
-      <c r="L149" t="s">
+      <c r="M149" t="s">
         <v>762</v>
-      </c>
-      <c r="M149" t="s">
-        <v>763</v>
       </c>
     </row>
     <row r="150" spans="1:13">
@@ -11076,19 +11073,19 @@
         <v>10</v>
       </c>
       <c r="D150" t="s">
+        <v>738</v>
+      </c>
+      <c r="E150" t="s">
         <v>739</v>
-      </c>
-      <c r="E150" t="s">
-        <v>740</v>
       </c>
       <c r="F150">
         <v>6</v>
       </c>
       <c r="G150" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="H150" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="I150">
         <v>14.4335</v>
@@ -11097,13 +11094,13 @@
         <v>-88.153999999999996</v>
       </c>
       <c r="K150" t="s">
+        <v>764</v>
+      </c>
+      <c r="L150" t="s">
         <v>765</v>
       </c>
-      <c r="L150" t="s">
+      <c r="M150" t="s">
         <v>766</v>
-      </c>
-      <c r="M150" t="s">
-        <v>767</v>
       </c>
     </row>
     <row r="151" spans="1:13">
@@ -11117,19 +11114,19 @@
         <v>10</v>
       </c>
       <c r="D151" t="s">
+        <v>738</v>
+      </c>
+      <c r="E151" t="s">
         <v>739</v>
-      </c>
-      <c r="E151" t="s">
-        <v>740</v>
       </c>
       <c r="F151">
         <v>7</v>
       </c>
       <c r="G151" t="s">
+        <v>767</v>
+      </c>
+      <c r="H151" t="s">
         <v>768</v>
-      </c>
-      <c r="H151" t="s">
-        <v>769</v>
       </c>
       <c r="I151">
         <v>14.528700000000001</v>
@@ -11138,13 +11135,13 @@
         <v>-88.023799999999994</v>
       </c>
       <c r="K151" t="s">
+        <v>769</v>
+      </c>
+      <c r="L151" t="s">
         <v>770</v>
       </c>
-      <c r="L151" t="s">
+      <c r="M151" t="s">
         <v>771</v>
-      </c>
-      <c r="M151" t="s">
-        <v>772</v>
       </c>
     </row>
     <row r="152" spans="1:13">
@@ -11158,19 +11155,19 @@
         <v>10</v>
       </c>
       <c r="D152" t="s">
+        <v>738</v>
+      </c>
+      <c r="E152" t="s">
         <v>739</v>
-      </c>
-      <c r="E152" t="s">
-        <v>740</v>
       </c>
       <c r="F152">
         <v>8</v>
       </c>
       <c r="G152" t="s">
+        <v>772</v>
+      </c>
+      <c r="H152" t="s">
         <v>773</v>
-      </c>
-      <c r="H152" t="s">
-        <v>774</v>
       </c>
       <c r="I152">
         <v>13.9239</v>
@@ -11179,13 +11176,13 @@
         <v>-88.372</v>
       </c>
       <c r="K152" t="s">
+        <v>774</v>
+      </c>
+      <c r="L152" t="s">
         <v>775</v>
       </c>
-      <c r="L152" t="s">
+      <c r="M152" t="s">
         <v>776</v>
-      </c>
-      <c r="M152" t="s">
-        <v>777</v>
       </c>
     </row>
     <row r="153" spans="1:13">
@@ -11199,19 +11196,19 @@
         <v>10</v>
       </c>
       <c r="D153" t="s">
+        <v>738</v>
+      </c>
+      <c r="E153" t="s">
         <v>739</v>
-      </c>
-      <c r="E153" t="s">
-        <v>740</v>
       </c>
       <c r="F153">
         <v>9</v>
       </c>
       <c r="G153" t="s">
+        <v>777</v>
+      </c>
+      <c r="H153" t="s">
         <v>778</v>
-      </c>
-      <c r="H153" t="s">
-        <v>779</v>
       </c>
       <c r="I153">
         <v>14.353999999999999</v>
@@ -11220,13 +11217,13 @@
         <v>-88.013900000000007</v>
       </c>
       <c r="K153" t="s">
+        <v>779</v>
+      </c>
+      <c r="L153" t="s">
         <v>780</v>
       </c>
-      <c r="L153" t="s">
+      <c r="M153" t="s">
         <v>781</v>
-      </c>
-      <c r="M153" t="s">
-        <v>782</v>
       </c>
     </row>
     <row r="154" spans="1:13">
@@ -11240,16 +11237,16 @@
         <v>10</v>
       </c>
       <c r="D154" t="s">
+        <v>738</v>
+      </c>
+      <c r="E154" t="s">
         <v>739</v>
-      </c>
-      <c r="E154" t="s">
-        <v>740</v>
       </c>
       <c r="F154">
         <v>10</v>
       </c>
       <c r="G154" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="H154" t="s">
         <v>288</v>
@@ -11261,13 +11258,13 @@
         <v>-88.466300000000004</v>
       </c>
       <c r="K154" t="s">
+        <v>783</v>
+      </c>
+      <c r="L154" t="s">
         <v>784</v>
       </c>
-      <c r="L154" t="s">
+      <c r="M154" t="s">
         <v>785</v>
-      </c>
-      <c r="M154" t="s">
-        <v>786</v>
       </c>
     </row>
     <row r="155" spans="1:13">
@@ -11281,16 +11278,16 @@
         <v>10</v>
       </c>
       <c r="D155" t="s">
+        <v>738</v>
+      </c>
+      <c r="E155" t="s">
         <v>739</v>
-      </c>
-      <c r="E155" t="s">
-        <v>740</v>
       </c>
       <c r="F155">
         <v>11</v>
       </c>
       <c r="G155" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="H155" t="s">
         <v>455</v>
@@ -11302,13 +11299,13 @@
         <v>-88.120900000000006</v>
       </c>
       <c r="K155" t="s">
+        <v>787</v>
+      </c>
+      <c r="L155" t="s">
         <v>788</v>
       </c>
-      <c r="L155" t="s">
+      <c r="M155" t="s">
         <v>789</v>
-      </c>
-      <c r="M155" t="s">
-        <v>790</v>
       </c>
     </row>
     <row r="156" spans="1:13">
@@ -11322,19 +11319,19 @@
         <v>10</v>
       </c>
       <c r="D156" t="s">
+        <v>738</v>
+      </c>
+      <c r="E156" t="s">
         <v>739</v>
-      </c>
-      <c r="E156" t="s">
-        <v>740</v>
       </c>
       <c r="F156">
         <v>12</v>
       </c>
       <c r="G156" t="s">
+        <v>790</v>
+      </c>
+      <c r="H156" t="s">
         <v>791</v>
-      </c>
-      <c r="H156" t="s">
-        <v>792</v>
       </c>
       <c r="I156">
         <v>14.4208</v>
@@ -11343,13 +11340,13 @@
         <v>-88.423100000000005</v>
       </c>
       <c r="K156" t="s">
+        <v>792</v>
+      </c>
+      <c r="L156" t="s">
         <v>793</v>
       </c>
-      <c r="L156" t="s">
+      <c r="M156" t="s">
         <v>794</v>
-      </c>
-      <c r="M156" t="s">
-        <v>795</v>
       </c>
     </row>
     <row r="157" spans="1:13">
@@ -11363,19 +11360,19 @@
         <v>10</v>
       </c>
       <c r="D157" t="s">
+        <v>738</v>
+      </c>
+      <c r="E157" t="s">
         <v>739</v>
       </c>
-      <c r="E157" t="s">
-        <v>740</v>
-      </c>
       <c r="F157">
         <v>13</v>
       </c>
       <c r="G157" t="s">
+        <v>795</v>
+      </c>
+      <c r="H157" t="s">
         <v>796</v>
-      </c>
-      <c r="H157" t="s">
-        <v>797</v>
       </c>
       <c r="I157">
         <v>14.135999999999999</v>
@@ -11384,13 +11381,13 @@
         <v>-88.248400000000004</v>
       </c>
       <c r="K157" t="s">
+        <v>797</v>
+      </c>
+      <c r="L157" t="s">
         <v>798</v>
       </c>
-      <c r="L157" t="s">
+      <c r="M157" t="s">
         <v>799</v>
-      </c>
-      <c r="M157" t="s">
-        <v>800</v>
       </c>
     </row>
     <row r="158" spans="1:13">
@@ -11404,19 +11401,19 @@
         <v>10</v>
       </c>
       <c r="D158" t="s">
+        <v>738</v>
+      </c>
+      <c r="E158" t="s">
         <v>739</v>
       </c>
-      <c r="E158" t="s">
-        <v>740</v>
-      </c>
       <c r="F158">
         <v>14</v>
       </c>
       <c r="G158" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="H158" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="I158">
         <v>14.36</v>
@@ -11425,13 +11422,13 @@
         <v>-88.343800000000002</v>
       </c>
       <c r="K158" t="s">
+        <v>801</v>
+      </c>
+      <c r="L158" t="s">
         <v>802</v>
       </c>
-      <c r="L158" t="s">
+      <c r="M158" t="s">
         <v>803</v>
-      </c>
-      <c r="M158" t="s">
-        <v>804</v>
       </c>
     </row>
     <row r="159" spans="1:13">
@@ -11445,19 +11442,19 @@
         <v>10</v>
       </c>
       <c r="D159" t="s">
+        <v>738</v>
+      </c>
+      <c r="E159" t="s">
         <v>739</v>
-      </c>
-      <c r="E159" t="s">
-        <v>740</v>
       </c>
       <c r="F159">
         <v>15</v>
       </c>
       <c r="G159" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="H159" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="I159">
         <v>13.905200000000001</v>
@@ -11466,13 +11463,13 @@
         <v>-88.426199999999994</v>
       </c>
       <c r="K159" t="s">
+        <v>805</v>
+      </c>
+      <c r="L159" t="s">
         <v>806</v>
       </c>
-      <c r="L159" t="s">
+      <c r="M159" t="s">
         <v>807</v>
-      </c>
-      <c r="M159" t="s">
-        <v>808</v>
       </c>
     </row>
     <row r="160" spans="1:13">
@@ -11486,19 +11483,19 @@
         <v>10</v>
       </c>
       <c r="D160" t="s">
+        <v>738</v>
+      </c>
+      <c r="E160" t="s">
         <v>739</v>
-      </c>
-      <c r="E160" t="s">
-        <v>740</v>
       </c>
       <c r="F160">
         <v>16</v>
       </c>
       <c r="G160" t="s">
+        <v>808</v>
+      </c>
+      <c r="H160" t="s">
         <v>809</v>
-      </c>
-      <c r="H160" t="s">
-        <v>810</v>
       </c>
       <c r="I160">
         <v>14.2638</v>
@@ -11507,13 +11504,13 @@
         <v>-88.248900000000006</v>
       </c>
       <c r="K160" t="s">
+        <v>810</v>
+      </c>
+      <c r="L160" t="s">
         <v>811</v>
       </c>
-      <c r="L160" t="s">
+      <c r="M160" t="s">
         <v>812</v>
-      </c>
-      <c r="M160" t="s">
-        <v>813</v>
       </c>
     </row>
     <row r="161" spans="1:13">
@@ -11527,19 +11524,19 @@
         <v>10</v>
       </c>
       <c r="D161" t="s">
+        <v>738</v>
+      </c>
+      <c r="E161" t="s">
         <v>739</v>
-      </c>
-      <c r="E161" t="s">
-        <v>740</v>
       </c>
       <c r="F161">
         <v>17</v>
       </c>
       <c r="G161" t="s">
+        <v>813</v>
+      </c>
+      <c r="H161" t="s">
         <v>814</v>
-      </c>
-      <c r="H161" t="s">
-        <v>815</v>
       </c>
       <c r="I161">
         <v>14.5341</v>
@@ -11548,13 +11545,13 @@
         <v>-88.284499999999994</v>
       </c>
       <c r="K161" t="s">
+        <v>815</v>
+      </c>
+      <c r="L161" t="s">
         <v>816</v>
       </c>
-      <c r="L161" t="s">
+      <c r="M161" t="s">
         <v>817</v>
-      </c>
-      <c r="M161" t="s">
-        <v>818</v>
       </c>
     </row>
     <row r="162" spans="1:13">
@@ -11568,19 +11565,19 @@
         <v>11</v>
       </c>
       <c r="D162" t="s">
+        <v>818</v>
+      </c>
+      <c r="E162" t="s">
         <v>819</v>
-      </c>
-      <c r="E162" t="s">
-        <v>820</v>
       </c>
       <c r="F162">
         <v>1</v>
       </c>
       <c r="G162" t="s">
+        <v>820</v>
+      </c>
+      <c r="H162" t="s">
         <v>821</v>
-      </c>
-      <c r="H162" t="s">
-        <v>822</v>
       </c>
       <c r="I162">
         <v>16.3338</v>
@@ -11589,13 +11586,13 @@
         <v>-86.520399999999995</v>
       </c>
       <c r="K162" t="s">
+        <v>822</v>
+      </c>
+      <c r="L162" t="s">
         <v>823</v>
       </c>
-      <c r="L162" t="s">
+      <c r="M162" t="s">
         <v>824</v>
-      </c>
-      <c r="M162" t="s">
-        <v>825</v>
       </c>
     </row>
     <row r="163" spans="1:13">
@@ -11609,19 +11606,19 @@
         <v>11</v>
       </c>
       <c r="D163" t="s">
+        <v>818</v>
+      </c>
+      <c r="E163" t="s">
         <v>819</v>
-      </c>
-      <c r="E163" t="s">
-        <v>820</v>
       </c>
       <c r="F163">
         <v>2</v>
       </c>
       <c r="G163" t="s">
+        <v>825</v>
+      </c>
+      <c r="H163" t="s">
         <v>826</v>
-      </c>
-      <c r="H163" t="s">
-        <v>827</v>
       </c>
       <c r="I163">
         <v>16.468699999999998</v>
@@ -11630,13 +11627,13 @@
         <v>-85.884299999999996</v>
       </c>
       <c r="K163" t="s">
+        <v>827</v>
+      </c>
+      <c r="L163" t="s">
         <v>828</v>
       </c>
-      <c r="L163" t="s">
+      <c r="M163" t="s">
         <v>829</v>
-      </c>
-      <c r="M163" t="s">
-        <v>830</v>
       </c>
     </row>
     <row r="164" spans="1:13">
@@ -11650,19 +11647,19 @@
         <v>11</v>
       </c>
       <c r="D164" t="s">
+        <v>818</v>
+      </c>
+      <c r="E164" t="s">
         <v>819</v>
-      </c>
-      <c r="E164" t="s">
-        <v>820</v>
       </c>
       <c r="F164">
         <v>3</v>
       </c>
       <c r="G164" t="s">
+        <v>830</v>
+      </c>
+      <c r="H164" t="s">
         <v>831</v>
-      </c>
-      <c r="H164" t="s">
-        <v>832</v>
       </c>
       <c r="I164">
         <v>16.408300000000001</v>
@@ -11671,13 +11668,13 @@
         <v>-86.3292</v>
       </c>
       <c r="K164" t="s">
+        <v>832</v>
+      </c>
+      <c r="L164" t="s">
         <v>833</v>
       </c>
-      <c r="L164" t="s">
+      <c r="M164" t="s">
         <v>834</v>
-      </c>
-      <c r="M164" t="s">
-        <v>835</v>
       </c>
     </row>
     <row r="165" spans="1:13">
@@ -11691,19 +11688,19 @@
         <v>11</v>
       </c>
       <c r="D165" t="s">
+        <v>818</v>
+      </c>
+      <c r="E165" t="s">
         <v>819</v>
-      </c>
-      <c r="E165" t="s">
-        <v>820</v>
       </c>
       <c r="F165">
         <v>4</v>
       </c>
       <c r="G165" t="s">
+        <v>835</v>
+      </c>
+      <c r="H165" t="s">
         <v>836</v>
-      </c>
-      <c r="H165" t="s">
-        <v>837</v>
       </c>
       <c r="I165">
         <v>16.097899999999999</v>
@@ -11712,13 +11709,13 @@
         <v>-86.932199999999995</v>
       </c>
       <c r="K165" t="s">
+        <v>837</v>
+      </c>
+      <c r="L165" t="s">
         <v>838</v>
       </c>
-      <c r="L165" t="s">
+      <c r="M165" t="s">
         <v>839</v>
-      </c>
-      <c r="M165" t="s">
-        <v>840</v>
       </c>
     </row>
     <row r="166" spans="1:13">
@@ -11732,19 +11729,19 @@
         <v>12</v>
       </c>
       <c r="D166" t="s">
+        <v>840</v>
+      </c>
+      <c r="E166" t="s">
         <v>841</v>
-      </c>
-      <c r="E166" t="s">
-        <v>842</v>
       </c>
       <c r="F166">
         <v>1</v>
       </c>
       <c r="G166" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="H166" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="I166">
         <v>14.3101</v>
@@ -11753,13 +11750,13 @@
         <v>-87.754199999999997</v>
       </c>
       <c r="K166" t="s">
+        <v>843</v>
+      </c>
+      <c r="L166" t="s">
         <v>844</v>
       </c>
-      <c r="L166" t="s">
+      <c r="M166" t="s">
         <v>845</v>
-      </c>
-      <c r="M166" t="s">
-        <v>846</v>
       </c>
     </row>
     <row r="167" spans="1:13">
@@ -11773,19 +11770,19 @@
         <v>12</v>
       </c>
       <c r="D167" t="s">
+        <v>840</v>
+      </c>
+      <c r="E167" t="s">
         <v>841</v>
-      </c>
-      <c r="E167" t="s">
-        <v>842</v>
       </c>
       <c r="F167">
         <v>2</v>
       </c>
       <c r="G167" t="s">
+        <v>846</v>
+      </c>
+      <c r="H167" t="s">
         <v>847</v>
-      </c>
-      <c r="H167" t="s">
-        <v>848</v>
       </c>
       <c r="I167">
         <v>13.9834</v>
@@ -11794,13 +11791,13 @@
         <v>-87.643000000000001</v>
       </c>
       <c r="K167" t="s">
+        <v>848</v>
+      </c>
+      <c r="L167" t="s">
         <v>849</v>
       </c>
-      <c r="L167" t="s">
+      <c r="M167" t="s">
         <v>850</v>
-      </c>
-      <c r="M167" t="s">
-        <v>851</v>
       </c>
     </row>
     <row r="168" spans="1:13">
@@ -11814,19 +11811,19 @@
         <v>12</v>
       </c>
       <c r="D168" t="s">
+        <v>840</v>
+      </c>
+      <c r="E168" t="s">
         <v>841</v>
-      </c>
-      <c r="E168" t="s">
-        <v>842</v>
       </c>
       <c r="F168">
         <v>3</v>
       </c>
       <c r="G168" t="s">
+        <v>851</v>
+      </c>
+      <c r="H168" t="s">
         <v>852</v>
-      </c>
-      <c r="H168" t="s">
-        <v>853</v>
       </c>
       <c r="I168">
         <v>13.9909</v>
@@ -11835,13 +11832,13 @@
         <v>-88.018299999999996</v>
       </c>
       <c r="K168" t="s">
+        <v>853</v>
+      </c>
+      <c r="L168" t="s">
         <v>854</v>
       </c>
-      <c r="L168" t="s">
+      <c r="M168" t="s">
         <v>855</v>
-      </c>
-      <c r="M168" t="s">
-        <v>856</v>
       </c>
     </row>
     <row r="169" spans="1:13">
@@ -11855,19 +11852,19 @@
         <v>12</v>
       </c>
       <c r="D169" t="s">
+        <v>840</v>
+      </c>
+      <c r="E169" t="s">
         <v>841</v>
-      </c>
-      <c r="E169" t="s">
-        <v>842</v>
       </c>
       <c r="F169">
         <v>4</v>
       </c>
       <c r="G169" t="s">
+        <v>856</v>
+      </c>
+      <c r="H169" t="s">
         <v>857</v>
-      </c>
-      <c r="H169" t="s">
-        <v>858</v>
       </c>
       <c r="I169">
         <v>14.2827</v>
@@ -11876,13 +11873,13 @@
         <v>-87.681600000000003</v>
       </c>
       <c r="K169" t="s">
+        <v>858</v>
+      </c>
+      <c r="L169" t="s">
         <v>859</v>
       </c>
-      <c r="L169" t="s">
+      <c r="M169" t="s">
         <v>860</v>
-      </c>
-      <c r="M169" t="s">
-        <v>861</v>
       </c>
     </row>
     <row r="170" spans="1:13">
@@ -11896,19 +11893,19 @@
         <v>12</v>
       </c>
       <c r="D170" t="s">
+        <v>840</v>
+      </c>
+      <c r="E170" t="s">
         <v>841</v>
-      </c>
-      <c r="E170" t="s">
-        <v>842</v>
       </c>
       <c r="F170">
         <v>5</v>
       </c>
       <c r="G170" t="s">
+        <v>861</v>
+      </c>
+      <c r="H170" t="s">
         <v>862</v>
-      </c>
-      <c r="H170" t="s">
-        <v>863</v>
       </c>
       <c r="I170">
         <v>14.1854</v>
@@ -11917,13 +11914,13 @@
         <v>-87.958299999999994</v>
       </c>
       <c r="K170" t="s">
+        <v>863</v>
+      </c>
+      <c r="L170" t="s">
         <v>864</v>
       </c>
-      <c r="L170" t="s">
+      <c r="M170" t="s">
         <v>865</v>
-      </c>
-      <c r="M170" t="s">
-        <v>866</v>
       </c>
     </row>
     <row r="171" spans="1:13">
@@ -11937,19 +11934,19 @@
         <v>12</v>
       </c>
       <c r="D171" t="s">
+        <v>840</v>
+      </c>
+      <c r="E171" t="s">
         <v>841</v>
-      </c>
-      <c r="E171" t="s">
-        <v>842</v>
       </c>
       <c r="F171">
         <v>6</v>
       </c>
       <c r="G171" t="s">
+        <v>866</v>
+      </c>
+      <c r="H171" t="s">
         <v>867</v>
-      </c>
-      <c r="H171" t="s">
-        <v>868</v>
       </c>
       <c r="I171">
         <v>14.080399999999999</v>
@@ -11958,13 +11955,13 @@
         <v>-87.786100000000005</v>
       </c>
       <c r="K171" t="s">
+        <v>868</v>
+      </c>
+      <c r="L171" t="s">
         <v>869</v>
       </c>
-      <c r="L171" t="s">
+      <c r="M171" t="s">
         <v>870</v>
-      </c>
-      <c r="M171" t="s">
-        <v>871</v>
       </c>
     </row>
     <row r="172" spans="1:13">
@@ -11978,19 +11975,19 @@
         <v>12</v>
       </c>
       <c r="D172" t="s">
+        <v>840</v>
+      </c>
+      <c r="E172" t="s">
         <v>841</v>
-      </c>
-      <c r="E172" t="s">
-        <v>842</v>
       </c>
       <c r="F172">
         <v>7</v>
       </c>
       <c r="G172" t="s">
+        <v>871</v>
+      </c>
+      <c r="H172" t="s">
         <v>872</v>
-      </c>
-      <c r="H172" t="s">
-        <v>873</v>
       </c>
       <c r="I172">
         <v>13.8627</v>
@@ -11999,13 +11996,13 @@
         <v>-87.655100000000004</v>
       </c>
       <c r="K172" t="s">
+        <v>873</v>
+      </c>
+      <c r="L172" t="s">
         <v>874</v>
       </c>
-      <c r="L172" t="s">
+      <c r="M172" t="s">
         <v>875</v>
-      </c>
-      <c r="M172" t="s">
-        <v>876</v>
       </c>
     </row>
     <row r="173" spans="1:13">
@@ -12019,19 +12016,19 @@
         <v>12</v>
       </c>
       <c r="D173" t="s">
+        <v>840</v>
+      </c>
+      <c r="E173" t="s">
         <v>841</v>
-      </c>
-      <c r="E173" t="s">
-        <v>842</v>
       </c>
       <c r="F173">
         <v>8</v>
       </c>
       <c r="G173" t="s">
+        <v>876</v>
+      </c>
+      <c r="H173" t="s">
         <v>877</v>
-      </c>
-      <c r="H173" t="s">
-        <v>878</v>
       </c>
       <c r="I173">
         <v>14.146000000000001</v>
@@ -12040,13 +12037,13 @@
         <v>-88.037300000000002</v>
       </c>
       <c r="K173" t="s">
+        <v>878</v>
+      </c>
+      <c r="L173" t="s">
         <v>879</v>
       </c>
-      <c r="L173" t="s">
+      <c r="M173" t="s">
         <v>880</v>
-      </c>
-      <c r="M173" t="s">
-        <v>881</v>
       </c>
     </row>
     <row r="174" spans="1:13">
@@ -12060,19 +12057,19 @@
         <v>12</v>
       </c>
       <c r="D174" t="s">
+        <v>840</v>
+      </c>
+      <c r="E174" t="s">
         <v>841</v>
-      </c>
-      <c r="E174" t="s">
-        <v>842</v>
       </c>
       <c r="F174">
         <v>9</v>
       </c>
       <c r="G174" t="s">
+        <v>881</v>
+      </c>
+      <c r="H174" t="s">
         <v>882</v>
-      </c>
-      <c r="H174" t="s">
-        <v>883</v>
       </c>
       <c r="I174">
         <v>13.918799999999999</v>
@@ -12081,13 +12078,13 @@
         <v>-87.779700000000005</v>
       </c>
       <c r="K174" t="s">
+        <v>883</v>
+      </c>
+      <c r="L174" t="s">
         <v>884</v>
       </c>
-      <c r="L174" t="s">
+      <c r="M174" t="s">
         <v>885</v>
-      </c>
-      <c r="M174" t="s">
-        <v>886</v>
       </c>
     </row>
     <row r="175" spans="1:13">
@@ -12101,19 +12098,19 @@
         <v>12</v>
       </c>
       <c r="D175" t="s">
+        <v>840</v>
+      </c>
+      <c r="E175" t="s">
         <v>841</v>
-      </c>
-      <c r="E175" t="s">
-        <v>842</v>
       </c>
       <c r="F175">
         <v>10</v>
       </c>
       <c r="G175" t="s">
+        <v>886</v>
+      </c>
+      <c r="H175" t="s">
         <v>887</v>
-      </c>
-      <c r="H175" t="s">
-        <v>888</v>
       </c>
       <c r="I175">
         <v>14.013199999999999</v>
@@ -12122,13 +12119,13 @@
         <v>-87.873000000000005</v>
       </c>
       <c r="K175" t="s">
+        <v>888</v>
+      </c>
+      <c r="L175" t="s">
         <v>889</v>
       </c>
-      <c r="L175" t="s">
+      <c r="M175" t="s">
         <v>890</v>
-      </c>
-      <c r="M175" t="s">
-        <v>891</v>
       </c>
     </row>
     <row r="176" spans="1:13">
@@ -12142,19 +12139,19 @@
         <v>12</v>
       </c>
       <c r="D176" t="s">
+        <v>840</v>
+      </c>
+      <c r="E176" t="s">
         <v>841</v>
-      </c>
-      <c r="E176" t="s">
-        <v>842</v>
       </c>
       <c r="F176">
         <v>11</v>
       </c>
       <c r="G176" t="s">
+        <v>891</v>
+      </c>
+      <c r="H176" t="s">
         <v>892</v>
-      </c>
-      <c r="H176" t="s">
-        <v>893</v>
       </c>
       <c r="I176">
         <v>13.8932</v>
@@ -12163,13 +12160,13 @@
         <v>-87.716999999999999</v>
       </c>
       <c r="K176" t="s">
+        <v>893</v>
+      </c>
+      <c r="L176" t="s">
         <v>894</v>
       </c>
-      <c r="L176" t="s">
+      <c r="M176" t="s">
         <v>895</v>
-      </c>
-      <c r="M176" t="s">
-        <v>896</v>
       </c>
     </row>
     <row r="177" spans="1:13">
@@ -12183,16 +12180,16 @@
         <v>12</v>
       </c>
       <c r="D177" t="s">
+        <v>840</v>
+      </c>
+      <c r="E177" t="s">
         <v>841</v>
-      </c>
-      <c r="E177" t="s">
-        <v>842</v>
       </c>
       <c r="F177">
         <v>12</v>
       </c>
       <c r="G177" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="H177" t="s">
         <v>297</v>
@@ -12204,13 +12201,13 @@
         <v>-87.955299999999994</v>
       </c>
       <c r="K177" t="s">
+        <v>897</v>
+      </c>
+      <c r="L177" t="s">
         <v>898</v>
       </c>
-      <c r="L177" t="s">
+      <c r="M177" t="s">
         <v>899</v>
-      </c>
-      <c r="M177" t="s">
-        <v>900</v>
       </c>
     </row>
     <row r="178" spans="1:13">
@@ -12224,19 +12221,19 @@
         <v>12</v>
       </c>
       <c r="D178" t="s">
+        <v>840</v>
+      </c>
+      <c r="E178" t="s">
         <v>841</v>
       </c>
-      <c r="E178" t="s">
-        <v>842</v>
-      </c>
       <c r="F178">
         <v>13</v>
       </c>
       <c r="G178" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="H178" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="I178">
         <v>13.955500000000001</v>
@@ -12245,13 +12242,13 @@
         <v>-87.732399999999998</v>
       </c>
       <c r="K178" t="s">
+        <v>901</v>
+      </c>
+      <c r="L178" t="s">
         <v>902</v>
       </c>
-      <c r="L178" t="s">
+      <c r="M178" t="s">
         <v>903</v>
-      </c>
-      <c r="M178" t="s">
-        <v>904</v>
       </c>
     </row>
     <row r="179" spans="1:13">
@@ -12265,19 +12262,19 @@
         <v>12</v>
       </c>
       <c r="D179" t="s">
+        <v>840</v>
+      </c>
+      <c r="E179" t="s">
         <v>841</v>
       </c>
-      <c r="E179" t="s">
-        <v>842</v>
-      </c>
       <c r="F179">
         <v>14</v>
       </c>
       <c r="G179" t="s">
+        <v>904</v>
+      </c>
+      <c r="H179" t="s">
         <v>905</v>
-      </c>
-      <c r="H179" t="s">
-        <v>906</v>
       </c>
       <c r="I179">
         <v>14.2483</v>
@@ -12286,13 +12283,13 @@
         <v>-87.8506</v>
       </c>
       <c r="K179" t="s">
+        <v>906</v>
+      </c>
+      <c r="L179" t="s">
         <v>907</v>
       </c>
-      <c r="L179" t="s">
+      <c r="M179" t="s">
         <v>908</v>
-      </c>
-      <c r="M179" t="s">
-        <v>909</v>
       </c>
     </row>
     <row r="180" spans="1:13">
@@ -12306,19 +12303,19 @@
         <v>12</v>
       </c>
       <c r="D180" t="s">
+        <v>840</v>
+      </c>
+      <c r="E180" t="s">
         <v>841</v>
-      </c>
-      <c r="E180" t="s">
-        <v>842</v>
       </c>
       <c r="F180">
         <v>15</v>
       </c>
       <c r="G180" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="H180" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="I180">
         <v>13.9245</v>
@@ -12327,13 +12324,13 @@
         <v>-87.950299999999999</v>
       </c>
       <c r="K180" t="s">
+        <v>910</v>
+      </c>
+      <c r="L180" t="s">
         <v>911</v>
       </c>
-      <c r="L180" t="s">
+      <c r="M180" t="s">
         <v>912</v>
-      </c>
-      <c r="M180" t="s">
-        <v>913</v>
       </c>
     </row>
     <row r="181" spans="1:13">
@@ -12347,19 +12344,19 @@
         <v>12</v>
       </c>
       <c r="D181" t="s">
+        <v>840</v>
+      </c>
+      <c r="E181" t="s">
         <v>841</v>
-      </c>
-      <c r="E181" t="s">
-        <v>842</v>
       </c>
       <c r="F181">
         <v>16</v>
       </c>
       <c r="G181" t="s">
+        <v>913</v>
+      </c>
+      <c r="H181" t="s">
         <v>914</v>
-      </c>
-      <c r="H181" t="s">
-        <v>915</v>
       </c>
       <c r="I181">
         <v>14.065899999999999</v>
@@ -12368,13 +12365,13 @@
         <v>-88.159599999999998</v>
       </c>
       <c r="K181" t="s">
+        <v>915</v>
+      </c>
+      <c r="L181" t="s">
         <v>916</v>
       </c>
-      <c r="L181" t="s">
+      <c r="M181" t="s">
         <v>917</v>
-      </c>
-      <c r="M181" t="s">
-        <v>918</v>
       </c>
     </row>
     <row r="182" spans="1:13">
@@ -12388,19 +12385,19 @@
         <v>12</v>
       </c>
       <c r="D182" t="s">
+        <v>840</v>
+      </c>
+      <c r="E182" t="s">
         <v>841</v>
-      </c>
-      <c r="E182" t="s">
-        <v>842</v>
       </c>
       <c r="F182">
         <v>17</v>
       </c>
       <c r="G182" t="s">
+        <v>918</v>
+      </c>
+      <c r="H182" t="s">
         <v>919</v>
-      </c>
-      <c r="H182" t="s">
-        <v>920</v>
       </c>
       <c r="I182">
         <v>14.271599999999999</v>
@@ -12409,13 +12406,13 @@
         <v>-87.920900000000003</v>
       </c>
       <c r="K182" t="s">
+        <v>920</v>
+      </c>
+      <c r="L182" t="s">
         <v>921</v>
       </c>
-      <c r="L182" t="s">
+      <c r="M182" t="s">
         <v>922</v>
-      </c>
-      <c r="M182" t="s">
-        <v>923</v>
       </c>
     </row>
     <row r="183" spans="1:13">
@@ -12429,19 +12426,19 @@
         <v>12</v>
       </c>
       <c r="D183" t="s">
+        <v>840</v>
+      </c>
+      <c r="E183" t="s">
         <v>841</v>
-      </c>
-      <c r="E183" t="s">
-        <v>842</v>
       </c>
       <c r="F183">
         <v>18</v>
       </c>
       <c r="G183" t="s">
+        <v>923</v>
+      </c>
+      <c r="H183" t="s">
         <v>924</v>
-      </c>
-      <c r="H183" t="s">
-        <v>925</v>
       </c>
       <c r="I183">
         <v>14.3584</v>
@@ -12450,13 +12447,13 @@
         <v>-87.879400000000004</v>
       </c>
       <c r="K183" t="s">
+        <v>925</v>
+      </c>
+      <c r="L183" t="s">
         <v>926</v>
       </c>
-      <c r="L183" t="s">
+      <c r="M183" t="s">
         <v>927</v>
-      </c>
-      <c r="M183" t="s">
-        <v>928</v>
       </c>
     </row>
     <row r="184" spans="1:13">
@@ -12470,19 +12467,19 @@
         <v>12</v>
       </c>
       <c r="D184" t="s">
+        <v>840</v>
+      </c>
+      <c r="E184" t="s">
         <v>841</v>
-      </c>
-      <c r="E184" t="s">
-        <v>842</v>
       </c>
       <c r="F184">
         <v>19</v>
       </c>
       <c r="G184" t="s">
+        <v>928</v>
+      </c>
+      <c r="H184" t="s">
         <v>929</v>
-      </c>
-      <c r="H184" t="s">
-        <v>930</v>
       </c>
       <c r="I184">
         <v>14.1503</v>
@@ -12491,13 +12488,13 @@
         <v>-88.126900000000006</v>
       </c>
       <c r="K184" t="s">
+        <v>930</v>
+      </c>
+      <c r="L184" t="s">
         <v>931</v>
       </c>
-      <c r="L184" t="s">
+      <c r="M184" t="s">
         <v>932</v>
-      </c>
-      <c r="M184" t="s">
-        <v>933</v>
       </c>
     </row>
     <row r="185" spans="1:13">
@@ -12511,19 +12508,19 @@
         <v>13</v>
       </c>
       <c r="D185" t="s">
+        <v>933</v>
+      </c>
+      <c r="E185" t="s">
         <v>934</v>
-      </c>
-      <c r="E185" t="s">
-        <v>935</v>
       </c>
       <c r="F185">
         <v>1</v>
       </c>
       <c r="G185" t="s">
+        <v>935</v>
+      </c>
+      <c r="H185" t="s">
         <v>936</v>
-      </c>
-      <c r="H185" t="s">
-        <v>937</v>
       </c>
       <c r="I185">
         <v>14.586499999999999</v>
@@ -12532,13 +12529,13 @@
         <v>-88.636200000000002</v>
       </c>
       <c r="K185" t="s">
+        <v>937</v>
+      </c>
+      <c r="L185" t="s">
         <v>938</v>
       </c>
-      <c r="L185" t="s">
+      <c r="M185" t="s">
         <v>939</v>
-      </c>
-      <c r="M185" t="s">
-        <v>940</v>
       </c>
     </row>
     <row r="186" spans="1:13">
@@ -12552,19 +12549,19 @@
         <v>13</v>
       </c>
       <c r="D186" t="s">
+        <v>933</v>
+      </c>
+      <c r="E186" t="s">
         <v>934</v>
-      </c>
-      <c r="E186" t="s">
-        <v>935</v>
       </c>
       <c r="F186">
         <v>2</v>
       </c>
       <c r="G186" t="s">
+        <v>940</v>
+      </c>
+      <c r="H186" t="s">
         <v>941</v>
-      </c>
-      <c r="H186" t="s">
-        <v>942</v>
       </c>
       <c r="I186">
         <v>14.507300000000001</v>
@@ -12573,13 +12570,13 @@
         <v>-88.434299999999993</v>
       </c>
       <c r="K186" t="s">
+        <v>942</v>
+      </c>
+      <c r="L186" t="s">
         <v>943</v>
       </c>
-      <c r="L186" t="s">
+      <c r="M186" t="s">
         <v>944</v>
-      </c>
-      <c r="M186" t="s">
-        <v>945</v>
       </c>
     </row>
     <row r="187" spans="1:13">
@@ -12593,19 +12590,19 @@
         <v>13</v>
       </c>
       <c r="D187" t="s">
+        <v>933</v>
+      </c>
+      <c r="E187" t="s">
         <v>934</v>
-      </c>
-      <c r="E187" t="s">
-        <v>935</v>
       </c>
       <c r="F187">
         <v>3</v>
       </c>
       <c r="G187" t="s">
+        <v>945</v>
+      </c>
+      <c r="H187" t="s">
         <v>946</v>
-      </c>
-      <c r="H187" t="s">
-        <v>947</v>
       </c>
       <c r="I187">
         <v>14.056800000000001</v>
@@ -12614,13 +12611,13 @@
         <v>-88.557699999999997</v>
       </c>
       <c r="K187" t="s">
+        <v>947</v>
+      </c>
+      <c r="L187" t="s">
         <v>948</v>
       </c>
-      <c r="L187" t="s">
+      <c r="M187" t="s">
         <v>949</v>
-      </c>
-      <c r="M187" t="s">
-        <v>950</v>
       </c>
     </row>
     <row r="188" spans="1:13">
@@ -12634,19 +12631,19 @@
         <v>13</v>
       </c>
       <c r="D188" t="s">
+        <v>933</v>
+      </c>
+      <c r="E188" t="s">
         <v>934</v>
-      </c>
-      <c r="E188" t="s">
-        <v>935</v>
       </c>
       <c r="F188">
         <v>4</v>
       </c>
       <c r="G188" t="s">
+        <v>950</v>
+      </c>
+      <c r="H188" t="s">
         <v>951</v>
-      </c>
-      <c r="H188" t="s">
-        <v>952</v>
       </c>
       <c r="I188">
         <v>14.310700000000001</v>
@@ -12655,13 +12652,13 @@
         <v>-88.884500000000003</v>
       </c>
       <c r="K188" t="s">
+        <v>952</v>
+      </c>
+      <c r="L188" t="s">
         <v>953</v>
       </c>
-      <c r="L188" t="s">
+      <c r="M188" t="s">
         <v>954</v>
-      </c>
-      <c r="M188" t="s">
-        <v>955</v>
       </c>
     </row>
     <row r="189" spans="1:13">
@@ -12675,19 +12672,19 @@
         <v>13</v>
       </c>
       <c r="D189" t="s">
+        <v>933</v>
+      </c>
+      <c r="E189" t="s">
         <v>934</v>
-      </c>
-      <c r="E189" t="s">
-        <v>935</v>
       </c>
       <c r="F189">
         <v>5</v>
       </c>
       <c r="G189" t="s">
+        <v>955</v>
+      </c>
+      <c r="H189" t="s">
         <v>956</v>
-      </c>
-      <c r="H189" t="s">
-        <v>957</v>
       </c>
       <c r="I189">
         <v>14.2386</v>
@@ -12696,13 +12693,13 @@
         <v>-88.456299999999999</v>
       </c>
       <c r="K189" t="s">
+        <v>957</v>
+      </c>
+      <c r="L189" t="s">
         <v>958</v>
       </c>
-      <c r="L189" t="s">
+      <c r="M189" t="s">
         <v>959</v>
-      </c>
-      <c r="M189" t="s">
-        <v>960</v>
       </c>
     </row>
     <row r="190" spans="1:13">
@@ -12716,19 +12713,19 @@
         <v>13</v>
       </c>
       <c r="D190" t="s">
+        <v>933</v>
+      </c>
+      <c r="E190" t="s">
         <v>934</v>
-      </c>
-      <c r="E190" t="s">
-        <v>935</v>
       </c>
       <c r="F190">
         <v>6</v>
       </c>
       <c r="G190" t="s">
+        <v>960</v>
+      </c>
+      <c r="H190" t="s">
         <v>961</v>
-      </c>
-      <c r="H190" t="s">
-        <v>962</v>
       </c>
       <c r="I190">
         <v>14.1274</v>
@@ -12737,13 +12734,13 @@
         <v>-88.570499999999996</v>
       </c>
       <c r="K190" t="s">
+        <v>962</v>
+      </c>
+      <c r="L190" t="s">
         <v>963</v>
       </c>
-      <c r="L190" t="s">
+      <c r="M190" t="s">
         <v>964</v>
-      </c>
-      <c r="M190" t="s">
-        <v>965</v>
       </c>
     </row>
     <row r="191" spans="1:13">
@@ -12757,19 +12754,19 @@
         <v>13</v>
       </c>
       <c r="D191" t="s">
+        <v>933</v>
+      </c>
+      <c r="E191" t="s">
         <v>934</v>
-      </c>
-      <c r="E191" t="s">
-        <v>935</v>
       </c>
       <c r="F191">
         <v>7</v>
       </c>
       <c r="G191" t="s">
+        <v>965</v>
+      </c>
+      <c r="H191" t="s">
         <v>966</v>
-      </c>
-      <c r="H191" t="s">
-        <v>967</v>
       </c>
       <c r="I191">
         <v>14.2079</v>
@@ -12778,13 +12775,13 @@
         <v>-88.842100000000002</v>
       </c>
       <c r="K191" t="s">
+        <v>967</v>
+      </c>
+      <c r="L191" t="s">
         <v>968</v>
       </c>
-      <c r="L191" t="s">
+      <c r="M191" t="s">
         <v>969</v>
-      </c>
-      <c r="M191" t="s">
-        <v>970</v>
       </c>
     </row>
     <row r="192" spans="1:13">
@@ -12798,19 +12795,19 @@
         <v>13</v>
       </c>
       <c r="D192" t="s">
+        <v>933</v>
+      </c>
+      <c r="E192" t="s">
         <v>934</v>
-      </c>
-      <c r="E192" t="s">
-        <v>935</v>
       </c>
       <c r="F192">
         <v>8</v>
       </c>
       <c r="G192" t="s">
+        <v>970</v>
+      </c>
+      <c r="H192" t="s">
         <v>971</v>
-      </c>
-      <c r="H192" t="s">
-        <v>972</v>
       </c>
       <c r="I192">
         <v>14.472799999999999</v>
@@ -12819,13 +12816,13 @@
         <v>-88.560699999999997</v>
       </c>
       <c r="K192" t="s">
+        <v>972</v>
+      </c>
+      <c r="L192" t="s">
         <v>973</v>
       </c>
-      <c r="L192" t="s">
+      <c r="M192" t="s">
         <v>974</v>
-      </c>
-      <c r="M192" t="s">
-        <v>975</v>
       </c>
     </row>
     <row r="193" spans="1:13">
@@ -12839,19 +12836,19 @@
         <v>13</v>
       </c>
       <c r="D193" t="s">
+        <v>933</v>
+      </c>
+      <c r="E193" t="s">
         <v>934</v>
-      </c>
-      <c r="E193" t="s">
-        <v>935</v>
       </c>
       <c r="F193">
         <v>9</v>
       </c>
       <c r="G193" t="s">
+        <v>975</v>
+      </c>
+      <c r="H193" t="s">
         <v>976</v>
-      </c>
-      <c r="H193" t="s">
-        <v>977</v>
       </c>
       <c r="I193">
         <v>14.665100000000001</v>
@@ -12860,13 +12857,13 @@
         <v>-88.461500000000001</v>
       </c>
       <c r="K193" t="s">
+        <v>977</v>
+      </c>
+      <c r="L193" t="s">
         <v>978</v>
       </c>
-      <c r="L193" t="s">
+      <c r="M193" t="s">
         <v>979</v>
-      </c>
-      <c r="M193" t="s">
-        <v>980</v>
       </c>
     </row>
     <row r="194" spans="1:13">
@@ -12880,19 +12877,19 @@
         <v>13</v>
       </c>
       <c r="D194" t="s">
+        <v>933</v>
+      </c>
+      <c r="E194" t="s">
         <v>934</v>
-      </c>
-      <c r="E194" t="s">
-        <v>935</v>
       </c>
       <c r="F194">
         <v>10</v>
       </c>
       <c r="G194" t="s">
+        <v>980</v>
+      </c>
+      <c r="H194" t="s">
         <v>981</v>
-      </c>
-      <c r="H194" t="s">
-        <v>982</v>
       </c>
       <c r="I194">
         <v>14.6808</v>
@@ -12901,13 +12898,13 @@
         <v>-88.658799999999999</v>
       </c>
       <c r="K194" t="s">
+        <v>982</v>
+      </c>
+      <c r="L194" t="s">
         <v>983</v>
       </c>
-      <c r="L194" t="s">
+      <c r="M194" t="s">
         <v>984</v>
-      </c>
-      <c r="M194" t="s">
-        <v>985</v>
       </c>
     </row>
     <row r="195" spans="1:13" ht="15">
@@ -12921,16 +12918,16 @@
         <v>13</v>
       </c>
       <c r="D195" t="s">
+        <v>933</v>
+      </c>
+      <c r="E195" t="s">
         <v>934</v>
-      </c>
-      <c r="E195" t="s">
-        <v>935</v>
       </c>
       <c r="F195">
         <v>11</v>
       </c>
       <c r="G195" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="H195" t="s">
         <v>273</v>
@@ -12942,13 +12939,13 @@
         <v>-88.422399999999996</v>
       </c>
       <c r="K195" t="s">
+        <v>986</v>
+      </c>
+      <c r="L195" t="s">
         <v>987</v>
       </c>
-      <c r="L195" t="s">
+      <c r="M195" s="1" t="s">
         <v>988</v>
-      </c>
-      <c r="M195" s="1" t="s">
-        <v>989</v>
       </c>
     </row>
     <row r="196" spans="1:13">
@@ -12962,19 +12959,19 @@
         <v>13</v>
       </c>
       <c r="D196" t="s">
+        <v>933</v>
+      </c>
+      <c r="E196" t="s">
         <v>934</v>
-      </c>
-      <c r="E196" t="s">
-        <v>935</v>
       </c>
       <c r="F196">
         <v>12</v>
       </c>
       <c r="G196" t="s">
+        <v>989</v>
+      </c>
+      <c r="H196" t="s">
         <v>990</v>
-      </c>
-      <c r="H196" t="s">
-        <v>991</v>
       </c>
       <c r="I196">
         <v>14.071300000000001</v>
@@ -12983,13 +12980,13 @@
         <v>-88.686300000000003</v>
       </c>
       <c r="K196" t="s">
+        <v>991</v>
+      </c>
+      <c r="L196" t="s">
         <v>992</v>
       </c>
-      <c r="L196" t="s">
+      <c r="M196" t="s">
         <v>993</v>
-      </c>
-      <c r="M196" t="s">
-        <v>994</v>
       </c>
     </row>
     <row r="197" spans="1:13">
@@ -13003,19 +13000,19 @@
         <v>13</v>
       </c>
       <c r="D197" t="s">
+        <v>933</v>
+      </c>
+      <c r="E197" t="s">
         <v>934</v>
       </c>
-      <c r="E197" t="s">
-        <v>935</v>
-      </c>
       <c r="F197">
         <v>13</v>
       </c>
       <c r="G197" t="s">
+        <v>994</v>
+      </c>
+      <c r="H197" t="s">
         <v>995</v>
-      </c>
-      <c r="H197" t="s">
-        <v>996</v>
       </c>
       <c r="I197">
         <v>14.826599999999999</v>
@@ -13024,13 +13021,13 @@
         <v>-88.595100000000002</v>
       </c>
       <c r="K197" t="s">
+        <v>996</v>
+      </c>
+      <c r="L197" t="s">
         <v>997</v>
       </c>
-      <c r="L197" t="s">
+      <c r="M197" t="s">
         <v>998</v>
-      </c>
-      <c r="M197" t="s">
-        <v>999</v>
       </c>
     </row>
     <row r="198" spans="1:13">
@@ -13044,19 +13041,19 @@
         <v>13</v>
       </c>
       <c r="D198" t="s">
+        <v>933</v>
+      </c>
+      <c r="E198" t="s">
         <v>934</v>
       </c>
-      <c r="E198" t="s">
-        <v>935</v>
-      </c>
       <c r="F198">
         <v>14</v>
       </c>
       <c r="G198" t="s">
+        <v>999</v>
+      </c>
+      <c r="H198" t="s">
         <v>1000</v>
-      </c>
-      <c r="H198" t="s">
-        <v>1001</v>
       </c>
       <c r="I198">
         <v>14.0487</v>
@@ -13065,13 +13062,13 @@
         <v>-88.621499999999997</v>
       </c>
       <c r="K198" t="s">
+        <v>1001</v>
+      </c>
+      <c r="L198" t="s">
         <v>1002</v>
       </c>
-      <c r="L198" t="s">
+      <c r="M198" t="s">
         <v>1003</v>
-      </c>
-      <c r="M198" t="s">
-        <v>1004</v>
       </c>
     </row>
     <row r="199" spans="1:13">
@@ -13085,19 +13082,19 @@
         <v>13</v>
       </c>
       <c r="D199" t="s">
+        <v>933</v>
+      </c>
+      <c r="E199" t="s">
         <v>934</v>
-      </c>
-      <c r="E199" t="s">
-        <v>935</v>
       </c>
       <c r="F199">
         <v>15</v>
       </c>
       <c r="G199" t="s">
+        <v>1004</v>
+      </c>
+      <c r="H199" t="s">
         <v>1005</v>
-      </c>
-      <c r="H199" t="s">
-        <v>1006</v>
       </c>
       <c r="I199">
         <v>14.056900000000001</v>
@@ -13106,13 +13103,13 @@
         <v>-88.464299999999994</v>
       </c>
       <c r="K199" t="s">
+        <v>1006</v>
+      </c>
+      <c r="L199" t="s">
         <v>1007</v>
       </c>
-      <c r="L199" t="s">
+      <c r="M199" t="s">
         <v>1008</v>
-      </c>
-      <c r="M199" t="s">
-        <v>1009</v>
       </c>
     </row>
     <row r="200" spans="1:13">
@@ -13126,19 +13123,19 @@
         <v>13</v>
       </c>
       <c r="D200" t="s">
+        <v>933</v>
+      </c>
+      <c r="E200" t="s">
         <v>934</v>
-      </c>
-      <c r="E200" t="s">
-        <v>935</v>
       </c>
       <c r="F200">
         <v>16</v>
       </c>
       <c r="G200" t="s">
+        <v>1009</v>
+      </c>
+      <c r="H200" t="s">
         <v>1010</v>
-      </c>
-      <c r="H200" t="s">
-        <v>1011</v>
       </c>
       <c r="I200">
         <v>14.2311</v>
@@ -13147,13 +13144,13 @@
         <v>-88.613500000000002</v>
       </c>
       <c r="K200" t="s">
+        <v>1011</v>
+      </c>
+      <c r="L200" t="s">
         <v>1012</v>
       </c>
-      <c r="L200" t="s">
+      <c r="M200" t="s">
         <v>1013</v>
-      </c>
-      <c r="M200" t="s">
-        <v>1014</v>
       </c>
     </row>
     <row r="201" spans="1:13">
@@ -13167,16 +13164,16 @@
         <v>13</v>
       </c>
       <c r="D201" t="s">
+        <v>933</v>
+      </c>
+      <c r="E201" t="s">
         <v>934</v>
-      </c>
-      <c r="E201" t="s">
-        <v>935</v>
       </c>
       <c r="F201">
         <v>17</v>
       </c>
       <c r="G201" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="H201" t="s">
         <v>43</v>
@@ -13188,13 +13185,13 @@
         <v>-88.369399999999999</v>
       </c>
       <c r="K201" t="s">
+        <v>1015</v>
+      </c>
+      <c r="L201" t="s">
         <v>1016</v>
       </c>
-      <c r="L201" t="s">
+      <c r="M201" t="s">
         <v>1017</v>
-      </c>
-      <c r="M201" t="s">
-        <v>1018</v>
       </c>
     </row>
     <row r="202" spans="1:13">
@@ -13208,19 +13205,19 @@
         <v>13</v>
       </c>
       <c r="D202" t="s">
+        <v>933</v>
+      </c>
+      <c r="E202" t="s">
         <v>934</v>
-      </c>
-      <c r="E202" t="s">
-        <v>935</v>
       </c>
       <c r="F202">
         <v>18</v>
       </c>
       <c r="G202" t="s">
+        <v>1018</v>
+      </c>
+      <c r="H202" t="s">
         <v>1019</v>
-      </c>
-      <c r="H202" t="s">
-        <v>1020</v>
       </c>
       <c r="I202">
         <v>14.1416</v>
@@ -13229,13 +13226,13 @@
         <v>-88.772900000000007</v>
       </c>
       <c r="K202" t="s">
+        <v>1020</v>
+      </c>
+      <c r="L202" t="s">
         <v>1021</v>
       </c>
-      <c r="L202" t="s">
+      <c r="M202" t="s">
         <v>1022</v>
-      </c>
-      <c r="M202" t="s">
-        <v>1023</v>
       </c>
     </row>
     <row r="203" spans="1:13">
@@ -13249,19 +13246,19 @@
         <v>13</v>
       </c>
       <c r="D203" t="s">
+        <v>933</v>
+      </c>
+      <c r="E203" t="s">
         <v>934</v>
-      </c>
-      <c r="E203" t="s">
-        <v>935</v>
       </c>
       <c r="F203">
         <v>19</v>
       </c>
       <c r="G203" t="s">
+        <v>1023</v>
+      </c>
+      <c r="H203" t="s">
         <v>1024</v>
-      </c>
-      <c r="H203" t="s">
-        <v>1025</v>
       </c>
       <c r="I203">
         <v>14.4512</v>
@@ -13270,13 +13267,13 @@
         <v>-88.67</v>
       </c>
       <c r="K203" t="s">
+        <v>1025</v>
+      </c>
+      <c r="L203" t="s">
         <v>1026</v>
       </c>
-      <c r="L203" t="s">
+      <c r="M203" t="s">
         <v>1027</v>
-      </c>
-      <c r="M203" t="s">
-        <v>1028</v>
       </c>
     </row>
     <row r="204" spans="1:13">
@@ -13290,19 +13287,19 @@
         <v>13</v>
       </c>
       <c r="D204" t="s">
+        <v>933</v>
+      </c>
+      <c r="E204" t="s">
         <v>934</v>
-      </c>
-      <c r="E204" t="s">
-        <v>935</v>
       </c>
       <c r="F204">
         <v>20</v>
       </c>
       <c r="G204" t="s">
+        <v>1028</v>
+      </c>
+      <c r="H204" t="s">
         <v>1029</v>
-      </c>
-      <c r="H204" t="s">
-        <v>1030</v>
       </c>
       <c r="I204">
         <v>14.7095</v>
@@ -13311,13 +13308,13 @@
         <v>-88.379900000000006</v>
       </c>
       <c r="K204" t="s">
+        <v>1030</v>
+      </c>
+      <c r="L204" t="s">
         <v>1031</v>
       </c>
-      <c r="L204" t="s">
+      <c r="M204" t="s">
         <v>1032</v>
-      </c>
-      <c r="M204" t="s">
-        <v>1033</v>
       </c>
     </row>
     <row r="205" spans="1:13">
@@ -13331,16 +13328,16 @@
         <v>13</v>
       </c>
       <c r="D205" t="s">
+        <v>933</v>
+      </c>
+      <c r="E205" t="s">
         <v>934</v>
-      </c>
-      <c r="E205" t="s">
-        <v>935</v>
       </c>
       <c r="F205">
         <v>21</v>
       </c>
       <c r="G205" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="H205" t="s">
         <v>191</v>
@@ -13352,13 +13349,13 @@
         <v>-88.7316</v>
       </c>
       <c r="K205" t="s">
+        <v>1034</v>
+      </c>
+      <c r="L205" t="s">
         <v>1035</v>
       </c>
-      <c r="L205" t="s">
+      <c r="M205" t="s">
         <v>1036</v>
-      </c>
-      <c r="M205" t="s">
-        <v>1037</v>
       </c>
     </row>
     <row r="206" spans="1:13">
@@ -13372,19 +13369,19 @@
         <v>13</v>
       </c>
       <c r="D206" t="s">
+        <v>933</v>
+      </c>
+      <c r="E206" t="s">
         <v>934</v>
-      </c>
-      <c r="E206" t="s">
-        <v>935</v>
       </c>
       <c r="F206">
         <v>22</v>
       </c>
       <c r="G206" t="s">
+        <v>1037</v>
+      </c>
+      <c r="H206" t="s">
         <v>1038</v>
-      </c>
-      <c r="H206" t="s">
-        <v>1039</v>
       </c>
       <c r="I206">
         <v>14.3474</v>
@@ -13393,13 +13390,13 @@
         <v>-88.535899999999998</v>
       </c>
       <c r="K206" t="s">
+        <v>1039</v>
+      </c>
+      <c r="L206" t="s">
         <v>1040</v>
       </c>
-      <c r="L206" t="s">
+      <c r="M206" t="s">
         <v>1041</v>
-      </c>
-      <c r="M206" t="s">
-        <v>1042</v>
       </c>
     </row>
     <row r="207" spans="1:13">
@@ -13413,19 +13410,19 @@
         <v>13</v>
       </c>
       <c r="D207" t="s">
+        <v>933</v>
+      </c>
+      <c r="E207" t="s">
         <v>934</v>
-      </c>
-      <c r="E207" t="s">
-        <v>935</v>
       </c>
       <c r="F207">
         <v>23</v>
       </c>
       <c r="G207" t="s">
+        <v>1042</v>
+      </c>
+      <c r="H207" t="s">
         <v>1043</v>
-      </c>
-      <c r="H207" t="s">
-        <v>1044</v>
       </c>
       <c r="I207">
         <v>14.6843</v>
@@ -13434,13 +13431,13 @@
         <v>-88.733800000000002</v>
       </c>
       <c r="K207" t="s">
+        <v>1044</v>
+      </c>
+      <c r="L207" t="s">
         <v>1045</v>
       </c>
-      <c r="L207" t="s">
+      <c r="M207" t="s">
         <v>1046</v>
-      </c>
-      <c r="M207" t="s">
-        <v>1047</v>
       </c>
     </row>
     <row r="208" spans="1:13">
@@ -13454,19 +13451,19 @@
         <v>13</v>
       </c>
       <c r="D208" t="s">
+        <v>933</v>
+      </c>
+      <c r="E208" t="s">
         <v>934</v>
-      </c>
-      <c r="E208" t="s">
-        <v>935</v>
       </c>
       <c r="F208">
         <v>24</v>
       </c>
       <c r="G208" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H208" t="s">
         <v>1048</v>
-      </c>
-      <c r="H208" t="s">
-        <v>1049</v>
       </c>
       <c r="I208">
         <v>14.2082</v>
@@ -13475,13 +13472,13 @@
         <v>-88.755200000000002</v>
       </c>
       <c r="K208" t="s">
+        <v>1049</v>
+      </c>
+      <c r="L208" t="s">
         <v>1050</v>
       </c>
-      <c r="L208" t="s">
+      <c r="M208" t="s">
         <v>1051</v>
-      </c>
-      <c r="M208" t="s">
-        <v>1052</v>
       </c>
     </row>
     <row r="209" spans="1:13">
@@ -13495,19 +13492,19 @@
         <v>13</v>
       </c>
       <c r="D209" t="s">
+        <v>933</v>
+      </c>
+      <c r="E209" t="s">
         <v>934</v>
-      </c>
-      <c r="E209" t="s">
-        <v>935</v>
       </c>
       <c r="F209">
         <v>25</v>
       </c>
       <c r="G209" t="s">
+        <v>1052</v>
+      </c>
+      <c r="H209" t="s">
         <v>1053</v>
-      </c>
-      <c r="H209" t="s">
-        <v>1054</v>
       </c>
       <c r="I209">
         <v>14.2499</v>
@@ -13516,13 +13513,13 @@
         <v>-88.739900000000006</v>
       </c>
       <c r="K209" t="s">
+        <v>1054</v>
+      </c>
+      <c r="L209" t="s">
         <v>1055</v>
       </c>
-      <c r="L209" t="s">
+      <c r="M209" t="s">
         <v>1056</v>
-      </c>
-      <c r="M209" t="s">
-        <v>1057</v>
       </c>
     </row>
     <row r="210" spans="1:13">
@@ -13536,19 +13533,19 @@
         <v>13</v>
       </c>
       <c r="D210" t="s">
+        <v>933</v>
+      </c>
+      <c r="E210" t="s">
         <v>934</v>
-      </c>
-      <c r="E210" t="s">
-        <v>935</v>
       </c>
       <c r="F210">
         <v>26</v>
       </c>
       <c r="G210" t="s">
+        <v>1057</v>
+      </c>
+      <c r="H210" t="s">
         <v>1058</v>
-      </c>
-      <c r="H210" t="s">
-        <v>1059</v>
       </c>
       <c r="I210">
         <v>14.1531</v>
@@ -13557,13 +13554,13 @@
         <v>-88.711799999999997</v>
       </c>
       <c r="K210" t="s">
+        <v>1059</v>
+      </c>
+      <c r="L210" t="s">
         <v>1060</v>
       </c>
-      <c r="L210" t="s">
+      <c r="M210" t="s">
         <v>1061</v>
-      </c>
-      <c r="M210" t="s">
-        <v>1062</v>
       </c>
     </row>
     <row r="211" spans="1:13">
@@ -13577,19 +13574,19 @@
         <v>13</v>
       </c>
       <c r="D211" t="s">
+        <v>933</v>
+      </c>
+      <c r="E211" t="s">
         <v>934</v>
-      </c>
-      <c r="E211" t="s">
-        <v>935</v>
       </c>
       <c r="F211">
         <v>27</v>
       </c>
       <c r="G211" t="s">
+        <v>1062</v>
+      </c>
+      <c r="H211" t="s">
         <v>1063</v>
-      </c>
-      <c r="H211" t="s">
-        <v>1064</v>
       </c>
       <c r="I211">
         <v>14.008800000000001</v>
@@ -13598,13 +13595,13 @@
         <v>-88.5642</v>
       </c>
       <c r="K211" t="s">
+        <v>1064</v>
+      </c>
+      <c r="L211" t="s">
         <v>1065</v>
       </c>
-      <c r="L211" t="s">
+      <c r="M211" t="s">
         <v>1066</v>
-      </c>
-      <c r="M211" t="s">
-        <v>1067</v>
       </c>
     </row>
     <row r="212" spans="1:13">
@@ -13618,19 +13615,19 @@
         <v>13</v>
       </c>
       <c r="D212" t="s">
+        <v>933</v>
+      </c>
+      <c r="E212" t="s">
         <v>934</v>
-      </c>
-      <c r="E212" t="s">
-        <v>935</v>
       </c>
       <c r="F212">
         <v>28</v>
       </c>
       <c r="G212" t="s">
+        <v>1067</v>
+      </c>
+      <c r="H212" t="s">
         <v>1068</v>
-      </c>
-      <c r="H212" t="s">
-        <v>1069</v>
       </c>
       <c r="I212">
         <v>14.387600000000001</v>
@@ -13639,13 +13636,13 @@
         <v>-88.600499999999997</v>
       </c>
       <c r="K212" t="s">
+        <v>1069</v>
+      </c>
+      <c r="L212" t="s">
         <v>1070</v>
       </c>
-      <c r="L212" t="s">
+      <c r="M212" t="s">
         <v>1071</v>
-      </c>
-      <c r="M212" t="s">
-        <v>1072</v>
       </c>
     </row>
     <row r="213" spans="1:13">
@@ -13659,19 +13656,19 @@
         <v>14</v>
       </c>
       <c r="D213" t="s">
+        <v>1072</v>
+      </c>
+      <c r="E213" t="s">
         <v>1073</v>
-      </c>
-      <c r="E213" t="s">
-        <v>1074</v>
       </c>
       <c r="F213">
         <v>1</v>
       </c>
       <c r="G213" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="H213" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="I213">
         <v>14.403700000000001</v>
@@ -13680,13 +13677,13 @@
         <v>-89.165400000000005</v>
       </c>
       <c r="K213" t="s">
+        <v>1075</v>
+      </c>
+      <c r="L213" t="s">
         <v>1076</v>
       </c>
-      <c r="L213" t="s">
+      <c r="M213" t="s">
         <v>1077</v>
-      </c>
-      <c r="M213" t="s">
-        <v>1078</v>
       </c>
     </row>
     <row r="214" spans="1:13">
@@ -13700,19 +13697,19 @@
         <v>14</v>
       </c>
       <c r="D214" t="s">
+        <v>1072</v>
+      </c>
+      <c r="E214" t="s">
         <v>1073</v>
-      </c>
-      <c r="E214" t="s">
-        <v>1074</v>
       </c>
       <c r="F214">
         <v>2</v>
       </c>
       <c r="G214" t="s">
+        <v>1078</v>
+      </c>
+      <c r="H214" t="s">
         <v>1079</v>
-      </c>
-      <c r="H214" t="s">
-        <v>1080</v>
       </c>
       <c r="I214">
         <v>14.484999999999999</v>
@@ -13721,13 +13718,13 @@
         <v>-88.783100000000005</v>
       </c>
       <c r="K214" t="s">
+        <v>1080</v>
+      </c>
+      <c r="L214" t="s">
         <v>1081</v>
       </c>
-      <c r="L214" t="s">
+      <c r="M214" t="s">
         <v>1082</v>
-      </c>
-      <c r="M214" t="s">
-        <v>1083</v>
       </c>
     </row>
     <row r="215" spans="1:13">
@@ -13741,16 +13738,16 @@
         <v>14</v>
       </c>
       <c r="D215" t="s">
+        <v>1072</v>
+      </c>
+      <c r="E215" t="s">
         <v>1073</v>
-      </c>
-      <c r="E215" t="s">
-        <v>1074</v>
       </c>
       <c r="F215">
         <v>3</v>
       </c>
       <c r="G215" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="H215" t="s">
         <v>228</v>
@@ -13762,13 +13759,13 @@
         <v>-89.197100000000006</v>
       </c>
       <c r="K215" t="s">
+        <v>1084</v>
+      </c>
+      <c r="L215" t="s">
         <v>1085</v>
       </c>
-      <c r="L215" t="s">
+      <c r="M215" t="s">
         <v>1086</v>
-      </c>
-      <c r="M215" t="s">
-        <v>1087</v>
       </c>
     </row>
     <row r="216" spans="1:13">
@@ -13782,19 +13779,19 @@
         <v>14</v>
       </c>
       <c r="D216" t="s">
+        <v>1072</v>
+      </c>
+      <c r="E216" t="s">
         <v>1073</v>
-      </c>
-      <c r="E216" t="s">
-        <v>1074</v>
       </c>
       <c r="F216">
         <v>4</v>
       </c>
       <c r="G216" t="s">
+        <v>1087</v>
+      </c>
+      <c r="H216" t="s">
         <v>1088</v>
-      </c>
-      <c r="H216" t="s">
-        <v>1089</v>
       </c>
       <c r="I216">
         <v>14.5573</v>
@@ -13803,13 +13800,13 @@
         <v>-89.132999999999996</v>
       </c>
       <c r="K216" t="s">
+        <v>1089</v>
+      </c>
+      <c r="L216" t="s">
         <v>1090</v>
       </c>
-      <c r="L216" t="s">
+      <c r="M216" t="s">
         <v>1091</v>
-      </c>
-      <c r="M216" t="s">
-        <v>1092</v>
       </c>
     </row>
     <row r="217" spans="1:13">
@@ -13823,19 +13820,19 @@
         <v>14</v>
       </c>
       <c r="D217" t="s">
+        <v>1072</v>
+      </c>
+      <c r="E217" t="s">
         <v>1073</v>
-      </c>
-      <c r="E217" t="s">
-        <v>1074</v>
       </c>
       <c r="F217">
         <v>5</v>
       </c>
       <c r="G217" t="s">
+        <v>1092</v>
+      </c>
+      <c r="H217" t="s">
         <v>1093</v>
-      </c>
-      <c r="H217" t="s">
-        <v>1094</v>
       </c>
       <c r="I217">
         <v>14.5847</v>
@@ -13844,13 +13841,13 @@
         <v>-89.072599999999994</v>
       </c>
       <c r="K217" t="s">
+        <v>1094</v>
+      </c>
+      <c r="L217" t="s">
         <v>1095</v>
       </c>
-      <c r="L217" t="s">
+      <c r="M217" t="s">
         <v>1096</v>
-      </c>
-      <c r="M217" t="s">
-        <v>1097</v>
       </c>
     </row>
     <row r="218" spans="1:13">
@@ -13864,19 +13861,19 @@
         <v>14</v>
       </c>
       <c r="D218" t="s">
+        <v>1072</v>
+      </c>
+      <c r="E218" t="s">
         <v>1073</v>
-      </c>
-      <c r="E218" t="s">
-        <v>1074</v>
       </c>
       <c r="F218">
         <v>6</v>
       </c>
       <c r="G218" t="s">
+        <v>1097</v>
+      </c>
+      <c r="H218" t="s">
         <v>1098</v>
-      </c>
-      <c r="H218" t="s">
-        <v>1099</v>
       </c>
       <c r="I218">
         <v>14.667</v>
@@ -13885,13 +13882,13 @@
         <v>-89.047399999999996</v>
       </c>
       <c r="K218" t="s">
+        <v>1099</v>
+      </c>
+      <c r="L218" t="s">
         <v>1100</v>
       </c>
-      <c r="L218" t="s">
+      <c r="M218" t="s">
         <v>1101</v>
-      </c>
-      <c r="M218" t="s">
-        <v>1102</v>
       </c>
     </row>
     <row r="219" spans="1:13">
@@ -13905,19 +13902,19 @@
         <v>14</v>
       </c>
       <c r="D219" t="s">
+        <v>1072</v>
+      </c>
+      <c r="E219" t="s">
         <v>1073</v>
-      </c>
-      <c r="E219" t="s">
-        <v>1074</v>
       </c>
       <c r="F219">
         <v>7</v>
       </c>
       <c r="G219" t="s">
+        <v>1102</v>
+      </c>
+      <c r="H219" t="s">
         <v>1103</v>
-      </c>
-      <c r="H219" t="s">
-        <v>1104</v>
       </c>
       <c r="I219">
         <v>14.4953</v>
@@ -13926,13 +13923,13 @@
         <v>-89.0334</v>
       </c>
       <c r="K219" t="s">
+        <v>1104</v>
+      </c>
+      <c r="L219" t="s">
         <v>1105</v>
       </c>
-      <c r="L219" t="s">
+      <c r="M219" t="s">
         <v>1106</v>
-      </c>
-      <c r="M219" t="s">
-        <v>1107</v>
       </c>
     </row>
     <row r="220" spans="1:13">
@@ -13946,19 +13943,19 @@
         <v>14</v>
       </c>
       <c r="D220" t="s">
+        <v>1072</v>
+      </c>
+      <c r="E220" t="s">
         <v>1073</v>
-      </c>
-      <c r="E220" t="s">
-        <v>1074</v>
       </c>
       <c r="F220">
         <v>8</v>
       </c>
       <c r="G220" t="s">
+        <v>1107</v>
+      </c>
+      <c r="H220" t="s">
         <v>1108</v>
-      </c>
-      <c r="H220" t="s">
-        <v>1109</v>
       </c>
       <c r="I220">
         <v>14.581</v>
@@ -13967,13 +13964,13 @@
         <v>-88.944999999999993</v>
       </c>
       <c r="K220" t="s">
+        <v>1109</v>
+      </c>
+      <c r="L220" t="s">
         <v>1110</v>
       </c>
-      <c r="L220" t="s">
+      <c r="M220" t="s">
         <v>1111</v>
-      </c>
-      <c r="M220" t="s">
-        <v>1112</v>
       </c>
     </row>
     <row r="221" spans="1:13">
@@ -13987,19 +13984,19 @@
         <v>14</v>
       </c>
       <c r="D221" t="s">
+        <v>1072</v>
+      </c>
+      <c r="E221" t="s">
         <v>1073</v>
-      </c>
-      <c r="E221" t="s">
-        <v>1074</v>
       </c>
       <c r="F221">
         <v>9</v>
       </c>
       <c r="G221" t="s">
+        <v>1112</v>
+      </c>
+      <c r="H221" t="s">
         <v>1113</v>
-      </c>
-      <c r="H221" t="s">
-        <v>1114</v>
       </c>
       <c r="I221">
         <v>14.3195</v>
@@ -14008,13 +14005,13 @@
         <v>-89.011700000000005</v>
       </c>
       <c r="K221" t="s">
+        <v>1114</v>
+      </c>
+      <c r="L221" t="s">
         <v>1115</v>
       </c>
-      <c r="L221" t="s">
+      <c r="M221" t="s">
         <v>1116</v>
-      </c>
-      <c r="M221" t="s">
-        <v>1117</v>
       </c>
     </row>
     <row r="222" spans="1:13">
@@ -14028,19 +14025,19 @@
         <v>14</v>
       </c>
       <c r="D222" t="s">
+        <v>1072</v>
+      </c>
+      <c r="E222" t="s">
         <v>1073</v>
-      </c>
-      <c r="E222" t="s">
-        <v>1074</v>
       </c>
       <c r="F222">
         <v>10</v>
       </c>
       <c r="G222" t="s">
+        <v>1117</v>
+      </c>
+      <c r="H222" t="s">
         <v>1118</v>
-      </c>
-      <c r="H222" t="s">
-        <v>1119</v>
       </c>
       <c r="I222">
         <v>14.6911</v>
@@ -14049,13 +14046,13 @@
         <v>-89.098799999999997</v>
       </c>
       <c r="K222" t="s">
+        <v>1119</v>
+      </c>
+      <c r="L222" t="s">
         <v>1120</v>
       </c>
-      <c r="L222" t="s">
+      <c r="M222" t="s">
         <v>1121</v>
-      </c>
-      <c r="M222" t="s">
-        <v>1122</v>
       </c>
     </row>
     <row r="223" spans="1:13">
@@ -14069,19 +14066,19 @@
         <v>14</v>
       </c>
       <c r="D223" t="s">
+        <v>1072</v>
+      </c>
+      <c r="E223" t="s">
         <v>1073</v>
-      </c>
-      <c r="E223" t="s">
-        <v>1074</v>
       </c>
       <c r="F223">
         <v>11</v>
       </c>
       <c r="G223" t="s">
+        <v>1122</v>
+      </c>
+      <c r="H223" t="s">
         <v>1123</v>
-      </c>
-      <c r="H223" t="s">
-        <v>1124</v>
       </c>
       <c r="I223">
         <v>14.4284</v>
@@ -14090,13 +14087,13 @@
         <v>-88.9923</v>
       </c>
       <c r="K223" t="s">
+        <v>1124</v>
+      </c>
+      <c r="L223" t="s">
         <v>1125</v>
       </c>
-      <c r="L223" t="s">
+      <c r="M223" t="s">
         <v>1126</v>
-      </c>
-      <c r="M223" t="s">
-        <v>1127</v>
       </c>
     </row>
     <row r="224" spans="1:13">
@@ -14110,19 +14107,19 @@
         <v>14</v>
       </c>
       <c r="D224" t="s">
+        <v>1072</v>
+      </c>
+      <c r="E224" t="s">
         <v>1073</v>
-      </c>
-      <c r="E224" t="s">
-        <v>1074</v>
       </c>
       <c r="F224">
         <v>12</v>
       </c>
       <c r="G224" t="s">
+        <v>1127</v>
+      </c>
+      <c r="H224" t="s">
         <v>1128</v>
-      </c>
-      <c r="H224" t="s">
-        <v>1129</v>
       </c>
       <c r="I224">
         <v>14.632400000000001</v>
@@ -14131,13 +14128,13 @@
         <v>-89.124799999999993</v>
       </c>
       <c r="K224" t="s">
+        <v>1129</v>
+      </c>
+      <c r="L224" t="s">
         <v>1130</v>
       </c>
-      <c r="L224" t="s">
+      <c r="M224" t="s">
         <v>1131</v>
-      </c>
-      <c r="M224" t="s">
-        <v>1132</v>
       </c>
     </row>
     <row r="225" spans="1:13">
@@ -14151,19 +14148,19 @@
         <v>14</v>
       </c>
       <c r="D225" t="s">
+        <v>1072</v>
+      </c>
+      <c r="E225" t="s">
         <v>1073</v>
       </c>
-      <c r="E225" t="s">
-        <v>1074</v>
-      </c>
       <c r="F225">
         <v>13</v>
       </c>
       <c r="G225" t="s">
+        <v>1132</v>
+      </c>
+      <c r="H225" t="s">
         <v>1133</v>
-      </c>
-      <c r="H225" t="s">
-        <v>1134</v>
       </c>
       <c r="I225">
         <v>14.394500000000001</v>
@@ -14172,13 +14169,13 @@
         <v>-88.924999999999997</v>
       </c>
       <c r="K225" t="s">
+        <v>1134</v>
+      </c>
+      <c r="L225" t="s">
         <v>1135</v>
       </c>
-      <c r="L225" t="s">
+      <c r="M225" t="s">
         <v>1136</v>
-      </c>
-      <c r="M225" t="s">
-        <v>1137</v>
       </c>
     </row>
     <row r="226" spans="1:13">
@@ -14192,16 +14189,16 @@
         <v>14</v>
       </c>
       <c r="D226" t="s">
+        <v>1072</v>
+      </c>
+      <c r="E226" t="s">
         <v>1073</v>
       </c>
-      <c r="E226" t="s">
-        <v>1074</v>
-      </c>
       <c r="F226">
         <v>14</v>
       </c>
       <c r="G226" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="H226" t="s">
         <v>85</v>
@@ -14213,13 +14210,13 @@
         <v>-89.284300000000002</v>
       </c>
       <c r="K226" t="s">
+        <v>1138</v>
+      </c>
+      <c r="L226" t="s">
         <v>1139</v>
       </c>
-      <c r="L226" t="s">
+      <c r="M226" t="s">
         <v>1140</v>
-      </c>
-      <c r="M226" t="s">
-        <v>1141</v>
       </c>
     </row>
     <row r="227" spans="1:13">
@@ -14233,19 +14230,19 @@
         <v>14</v>
       </c>
       <c r="D227" t="s">
+        <v>1072</v>
+      </c>
+      <c r="E227" t="s">
         <v>1073</v>
-      </c>
-      <c r="E227" t="s">
-        <v>1074</v>
       </c>
       <c r="F227">
         <v>15</v>
       </c>
       <c r="G227" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H227" t="s">
         <v>1142</v>
-      </c>
-      <c r="H227" t="s">
-        <v>1143</v>
       </c>
       <c r="I227">
         <v>14.504899999999999</v>
@@ -14254,13 +14251,13 @@
         <v>-88.927599999999998</v>
       </c>
       <c r="K227" t="s">
+        <v>1143</v>
+      </c>
+      <c r="L227" t="s">
         <v>1144</v>
       </c>
-      <c r="L227" t="s">
+      <c r="M227" t="s">
         <v>1145</v>
-      </c>
-      <c r="M227" t="s">
-        <v>1146</v>
       </c>
     </row>
     <row r="228" spans="1:13">
@@ -14274,19 +14271,19 @@
         <v>14</v>
       </c>
       <c r="D228" t="s">
+        <v>1072</v>
+      </c>
+      <c r="E228" t="s">
         <v>1073</v>
-      </c>
-      <c r="E228" t="s">
-        <v>1074</v>
       </c>
       <c r="F228">
         <v>16</v>
       </c>
       <c r="G228" t="s">
+        <v>1146</v>
+      </c>
+      <c r="H228" t="s">
         <v>1147</v>
-      </c>
-      <c r="H228" t="s">
-        <v>1148</v>
       </c>
       <c r="I228">
         <v>14.4612</v>
@@ -14295,13 +14292,13 @@
         <v>-89.122600000000006</v>
       </c>
       <c r="K228" t="s">
+        <v>1148</v>
+      </c>
+      <c r="L228" t="s">
         <v>1149</v>
       </c>
-      <c r="L228" t="s">
+      <c r="M228" t="s">
         <v>1150</v>
-      </c>
-      <c r="M228" t="s">
-        <v>1151</v>
       </c>
     </row>
     <row r="229" spans="1:13">
@@ -14315,19 +14312,19 @@
         <v>15</v>
       </c>
       <c r="D229" t="s">
+        <v>1151</v>
+      </c>
+      <c r="E229" t="s">
         <v>1152</v>
-      </c>
-      <c r="E229" t="s">
-        <v>1153</v>
       </c>
       <c r="F229">
         <v>1</v>
       </c>
       <c r="G229" t="s">
+        <v>1153</v>
+      </c>
+      <c r="H229" t="s">
         <v>1154</v>
-      </c>
-      <c r="H229" t="s">
-        <v>1155</v>
       </c>
       <c r="I229">
         <v>14.542</v>
@@ -14336,13 +14333,13 @@
         <v>-86.315200000000004</v>
       </c>
       <c r="K229" t="s">
+        <v>1155</v>
+      </c>
+      <c r="L229" t="s">
         <v>1156</v>
       </c>
-      <c r="L229" t="s">
+      <c r="M229" t="s">
         <v>1157</v>
-      </c>
-      <c r="M229" t="s">
-        <v>1158</v>
       </c>
     </row>
     <row r="230" spans="1:13">
@@ -14356,19 +14353,19 @@
         <v>15</v>
       </c>
       <c r="D230" t="s">
+        <v>1151</v>
+      </c>
+      <c r="E230" t="s">
         <v>1152</v>
-      </c>
-      <c r="E230" t="s">
-        <v>1153</v>
       </c>
       <c r="F230">
         <v>2</v>
       </c>
       <c r="G230" t="s">
+        <v>1158</v>
+      </c>
+      <c r="H230" t="s">
         <v>1159</v>
-      </c>
-      <c r="H230" t="s">
-        <v>1160</v>
       </c>
       <c r="I230">
         <v>14.492100000000001</v>
@@ -14377,13 +14374,13 @@
         <v>-86.641400000000004</v>
       </c>
       <c r="K230" t="s">
+        <v>1160</v>
+      </c>
+      <c r="L230" t="s">
         <v>1161</v>
       </c>
-      <c r="L230" t="s">
+      <c r="M230" t="s">
         <v>1162</v>
-      </c>
-      <c r="M230" t="s">
-        <v>1163</v>
       </c>
     </row>
     <row r="231" spans="1:13">
@@ -14397,19 +14394,19 @@
         <v>15</v>
       </c>
       <c r="D231" t="s">
+        <v>1151</v>
+      </c>
+      <c r="E231" t="s">
         <v>1152</v>
-      </c>
-      <c r="E231" t="s">
-        <v>1153</v>
       </c>
       <c r="F231">
         <v>3</v>
       </c>
       <c r="G231" t="s">
+        <v>1163</v>
+      </c>
+      <c r="H231" t="s">
         <v>1164</v>
-      </c>
-      <c r="H231" t="s">
-        <v>1165</v>
       </c>
       <c r="I231">
         <v>14.581200000000001</v>
@@ -14418,13 +14415,13 @@
         <v>-85.555000000000007</v>
       </c>
       <c r="K231" t="s">
+        <v>1165</v>
+      </c>
+      <c r="L231" t="s">
         <v>1166</v>
       </c>
-      <c r="L231" t="s">
+      <c r="M231" t="s">
         <v>1167</v>
-      </c>
-      <c r="M231" t="s">
-        <v>1168</v>
       </c>
     </row>
     <row r="232" spans="1:13">
@@ -14438,19 +14435,19 @@
         <v>15</v>
       </c>
       <c r="D232" t="s">
+        <v>1151</v>
+      </c>
+      <c r="E232" t="s">
         <v>1152</v>
-      </c>
-      <c r="E232" t="s">
-        <v>1153</v>
       </c>
       <c r="F232">
         <v>4</v>
       </c>
       <c r="G232" t="s">
+        <v>1168</v>
+      </c>
+      <c r="H232" t="s">
         <v>1169</v>
-      </c>
-      <c r="H232" t="s">
-        <v>1170</v>
       </c>
       <c r="I232">
         <v>14.647600000000001</v>
@@ -14459,13 +14456,13 @@
         <v>-86.711100000000002</v>
       </c>
       <c r="K232" t="s">
+        <v>1170</v>
+      </c>
+      <c r="L232" t="s">
         <v>1171</v>
       </c>
-      <c r="L232" t="s">
+      <c r="M232" t="s">
         <v>1172</v>
-      </c>
-      <c r="M232" t="s">
-        <v>1173</v>
       </c>
     </row>
     <row r="233" spans="1:13">
@@ -14479,19 +14476,19 @@
         <v>15</v>
       </c>
       <c r="D233" t="s">
+        <v>1151</v>
+      </c>
+      <c r="E233" t="s">
         <v>1152</v>
-      </c>
-      <c r="E233" t="s">
-        <v>1153</v>
       </c>
       <c r="F233">
         <v>5</v>
       </c>
       <c r="G233" t="s">
+        <v>1173</v>
+      </c>
+      <c r="H233" t="s">
         <v>1174</v>
-      </c>
-      <c r="H233" t="s">
-        <v>1175</v>
       </c>
       <c r="I233">
         <v>15.058</v>
@@ -14500,13 +14497,13 @@
         <v>-85.306899999999999</v>
       </c>
       <c r="K233" t="s">
+        <v>1175</v>
+      </c>
+      <c r="L233" t="s">
         <v>1176</v>
       </c>
-      <c r="L233" t="s">
+      <c r="M233" t="s">
         <v>1177</v>
-      </c>
-      <c r="M233" t="s">
-        <v>1178</v>
       </c>
     </row>
     <row r="234" spans="1:13">
@@ -14520,16 +14517,16 @@
         <v>15</v>
       </c>
       <c r="D234" t="s">
+        <v>1151</v>
+      </c>
+      <c r="E234" t="s">
         <v>1152</v>
-      </c>
-      <c r="E234" t="s">
-        <v>1153</v>
       </c>
       <c r="F234">
         <v>6</v>
       </c>
       <c r="G234" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="H234" t="s">
         <v>121</v>
@@ -14541,13 +14538,13 @@
         <v>-86.692400000000006</v>
       </c>
       <c r="K234" t="s">
+        <v>1179</v>
+      </c>
+      <c r="L234" t="s">
         <v>1180</v>
       </c>
-      <c r="L234" t="s">
+      <c r="M234" t="s">
         <v>1181</v>
-      </c>
-      <c r="M234" t="s">
-        <v>1182</v>
       </c>
     </row>
     <row r="235" spans="1:13">
@@ -14561,19 +14558,19 @@
         <v>15</v>
       </c>
       <c r="D235" t="s">
+        <v>1151</v>
+      </c>
+      <c r="E235" t="s">
         <v>1152</v>
-      </c>
-      <c r="E235" t="s">
-        <v>1153</v>
       </c>
       <c r="F235">
         <v>7</v>
       </c>
       <c r="G235" t="s">
+        <v>1182</v>
+      </c>
+      <c r="H235" t="s">
         <v>1183</v>
-      </c>
-      <c r="H235" t="s">
-        <v>1184</v>
       </c>
       <c r="I235">
         <v>15.280900000000001</v>
@@ -14582,13 +14579,13 @@
         <v>-86.547300000000007</v>
       </c>
       <c r="K235" t="s">
+        <v>1184</v>
+      </c>
+      <c r="L235" t="s">
         <v>1185</v>
       </c>
-      <c r="L235" t="s">
+      <c r="M235" t="s">
         <v>1186</v>
-      </c>
-      <c r="M235" t="s">
-        <v>1187</v>
       </c>
     </row>
     <row r="236" spans="1:13">
@@ -14602,19 +14599,19 @@
         <v>15</v>
       </c>
       <c r="D236" t="s">
+        <v>1151</v>
+      </c>
+      <c r="E236" t="s">
         <v>1152</v>
-      </c>
-      <c r="E236" t="s">
-        <v>1153</v>
       </c>
       <c r="F236">
         <v>8</v>
       </c>
       <c r="G236" t="s">
+        <v>1187</v>
+      </c>
+      <c r="H236" t="s">
         <v>1188</v>
-      </c>
-      <c r="H236" t="s">
-        <v>1189</v>
       </c>
       <c r="I236">
         <v>15.1937</v>
@@ -14623,13 +14620,13 @@
         <v>-86.078599999999994</v>
       </c>
       <c r="K236" t="s">
+        <v>1189</v>
+      </c>
+      <c r="L236" t="s">
         <v>1190</v>
       </c>
-      <c r="L236" t="s">
+      <c r="M236" t="s">
         <v>1191</v>
-      </c>
-      <c r="M236" t="s">
-        <v>1192</v>
       </c>
     </row>
     <row r="237" spans="1:13">
@@ -14643,19 +14640,19 @@
         <v>15</v>
       </c>
       <c r="D237" t="s">
+        <v>1151</v>
+      </c>
+      <c r="E237" t="s">
         <v>1152</v>
-      </c>
-      <c r="E237" t="s">
-        <v>1153</v>
       </c>
       <c r="F237">
         <v>9</v>
       </c>
       <c r="G237" t="s">
+        <v>1192</v>
+      </c>
+      <c r="H237" t="s">
         <v>1193</v>
-      </c>
-      <c r="H237" t="s">
-        <v>1194</v>
       </c>
       <c r="I237">
         <v>14.9048</v>
@@ -14664,13 +14661,13 @@
         <v>-86.289199999999994</v>
       </c>
       <c r="K237" t="s">
+        <v>1194</v>
+      </c>
+      <c r="L237" t="s">
         <v>1195</v>
       </c>
-      <c r="L237" t="s">
+      <c r="M237" t="s">
         <v>1196</v>
-      </c>
-      <c r="M237" t="s">
-        <v>1197</v>
       </c>
     </row>
     <row r="238" spans="1:13">
@@ -14684,19 +14681,19 @@
         <v>15</v>
       </c>
       <c r="D238" t="s">
+        <v>1151</v>
+      </c>
+      <c r="E238" t="s">
         <v>1152</v>
-      </c>
-      <c r="E238" t="s">
-        <v>1153</v>
       </c>
       <c r="F238">
         <v>10</v>
       </c>
       <c r="G238" t="s">
+        <v>1197</v>
+      </c>
+      <c r="H238" t="s">
         <v>1198</v>
-      </c>
-      <c r="H238" t="s">
-        <v>1199</v>
       </c>
       <c r="I238">
         <v>15.162100000000001</v>
@@ -14705,13 +14702,13 @@
         <v>-86.374300000000005</v>
       </c>
       <c r="K238" t="s">
+        <v>1199</v>
+      </c>
+      <c r="L238" t="s">
         <v>1200</v>
       </c>
-      <c r="L238" t="s">
+      <c r="M238" t="s">
         <v>1201</v>
-      </c>
-      <c r="M238" t="s">
-        <v>1202</v>
       </c>
     </row>
     <row r="239" spans="1:13">
@@ -14725,19 +14722,19 @@
         <v>15</v>
       </c>
       <c r="D239" t="s">
+        <v>1151</v>
+      </c>
+      <c r="E239" t="s">
         <v>1152</v>
-      </c>
-      <c r="E239" t="s">
-        <v>1153</v>
       </c>
       <c r="F239">
         <v>11</v>
       </c>
       <c r="G239" t="s">
+        <v>1202</v>
+      </c>
+      <c r="H239" t="s">
         <v>1203</v>
-      </c>
-      <c r="H239" t="s">
-        <v>1204</v>
       </c>
       <c r="I239">
         <v>14.801399999999999</v>
@@ -14746,13 +14743,13 @@
         <v>-86.831400000000002</v>
       </c>
       <c r="K239" t="s">
+        <v>1204</v>
+      </c>
+      <c r="L239" t="s">
         <v>1205</v>
       </c>
-      <c r="L239" t="s">
+      <c r="M239" t="s">
         <v>1206</v>
-      </c>
-      <c r="M239" t="s">
-        <v>1207</v>
       </c>
     </row>
     <row r="240" spans="1:13">
@@ -14766,19 +14763,19 @@
         <v>15</v>
       </c>
       <c r="D240" t="s">
+        <v>1151</v>
+      </c>
+      <c r="E240" t="s">
         <v>1152</v>
-      </c>
-      <c r="E240" t="s">
-        <v>1153</v>
       </c>
       <c r="F240">
         <v>12</v>
       </c>
       <c r="G240" t="s">
+        <v>1207</v>
+      </c>
+      <c r="H240" t="s">
         <v>1208</v>
-      </c>
-      <c r="H240" t="s">
-        <v>1209</v>
       </c>
       <c r="I240">
         <v>15.071999999999999</v>
@@ -14787,13 +14784,13 @@
         <v>-86.518799999999999</v>
       </c>
       <c r="K240" t="s">
+        <v>1209</v>
+      </c>
+      <c r="L240" t="s">
         <v>1210</v>
       </c>
-      <c r="L240" t="s">
+      <c r="M240" t="s">
         <v>1211</v>
-      </c>
-      <c r="M240" t="s">
-        <v>1212</v>
       </c>
     </row>
     <row r="241" spans="1:13">
@@ -14807,16 +14804,16 @@
         <v>15</v>
       </c>
       <c r="D241" t="s">
+        <v>1151</v>
+      </c>
+      <c r="E241" t="s">
         <v>1152</v>
       </c>
-      <c r="E241" t="s">
-        <v>1153</v>
-      </c>
       <c r="F241">
         <v>13</v>
       </c>
       <c r="G241" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="H241" t="s">
         <v>273</v>
@@ -14828,13 +14825,13 @@
         <v>-86.683300000000003</v>
       </c>
       <c r="K241" t="s">
+        <v>1213</v>
+      </c>
+      <c r="L241" t="s">
         <v>1214</v>
       </c>
-      <c r="L241" t="s">
+      <c r="M241" t="s">
         <v>1215</v>
-      </c>
-      <c r="M241" t="s">
-        <v>1216</v>
       </c>
     </row>
     <row r="242" spans="1:13">
@@ -14848,19 +14845,19 @@
         <v>15</v>
       </c>
       <c r="D242" t="s">
+        <v>1151</v>
+      </c>
+      <c r="E242" t="s">
         <v>1152</v>
       </c>
-      <c r="E242" t="s">
-        <v>1153</v>
-      </c>
       <c r="F242">
         <v>14</v>
       </c>
       <c r="G242" t="s">
+        <v>1216</v>
+      </c>
+      <c r="H242" t="s">
         <v>1217</v>
-      </c>
-      <c r="H242" t="s">
-        <v>1218</v>
       </c>
       <c r="I242">
         <v>15.106999999999999</v>
@@ -14869,13 +14866,13 @@
         <v>-86.847399999999993</v>
       </c>
       <c r="K242" t="s">
+        <v>1218</v>
+      </c>
+      <c r="L242" t="s">
         <v>1219</v>
       </c>
-      <c r="L242" t="s">
+      <c r="M242" t="s">
         <v>1220</v>
-      </c>
-      <c r="M242" t="s">
-        <v>1221</v>
       </c>
     </row>
     <row r="243" spans="1:13">
@@ -14889,19 +14886,19 @@
         <v>15</v>
       </c>
       <c r="D243" t="s">
+        <v>1151</v>
+      </c>
+      <c r="E243" t="s">
         <v>1152</v>
-      </c>
-      <c r="E243" t="s">
-        <v>1153</v>
       </c>
       <c r="F243">
         <v>15</v>
       </c>
       <c r="G243" t="s">
+        <v>1221</v>
+      </c>
+      <c r="H243" t="s">
         <v>1222</v>
-      </c>
-      <c r="H243" t="s">
-        <v>1223</v>
       </c>
       <c r="I243">
         <v>14.905200000000001</v>
@@ -14910,13 +14907,13 @@
         <v>-86.463399999999993</v>
       </c>
       <c r="K243" t="s">
+        <v>1223</v>
+      </c>
+      <c r="L243" t="s">
         <v>1224</v>
       </c>
-      <c r="L243" t="s">
+      <c r="M243" t="s">
         <v>1225</v>
-      </c>
-      <c r="M243" t="s">
-        <v>1226</v>
       </c>
     </row>
     <row r="244" spans="1:13">
@@ -14930,19 +14927,19 @@
         <v>15</v>
       </c>
       <c r="D244" t="s">
+        <v>1151</v>
+      </c>
+      <c r="E244" t="s">
         <v>1152</v>
-      </c>
-      <c r="E244" t="s">
-        <v>1153</v>
       </c>
       <c r="F244">
         <v>16</v>
       </c>
       <c r="G244" t="s">
+        <v>1226</v>
+      </c>
+      <c r="H244" t="s">
         <v>1227</v>
-      </c>
-      <c r="H244" t="s">
-        <v>1228</v>
       </c>
       <c r="I244">
         <v>14.7963</v>
@@ -14951,13 +14948,13 @@
         <v>-86.644900000000007</v>
       </c>
       <c r="K244" t="s">
+        <v>1228</v>
+      </c>
+      <c r="L244" t="s">
         <v>1229</v>
       </c>
-      <c r="L244" t="s">
+      <c r="M244" t="s">
         <v>1230</v>
-      </c>
-      <c r="M244" t="s">
-        <v>1231</v>
       </c>
     </row>
     <row r="245" spans="1:13">
@@ -14971,19 +14968,19 @@
         <v>15</v>
       </c>
       <c r="D245" t="s">
+        <v>1151</v>
+      </c>
+      <c r="E245" t="s">
         <v>1152</v>
-      </c>
-      <c r="E245" t="s">
-        <v>1153</v>
       </c>
       <c r="F245">
         <v>17</v>
       </c>
       <c r="G245" t="s">
+        <v>1231</v>
+      </c>
+      <c r="H245" t="s">
         <v>1232</v>
-      </c>
-      <c r="H245" t="s">
-        <v>1233</v>
       </c>
       <c r="I245">
         <v>15.3162</v>
@@ -14992,13 +14989,13 @@
         <v>-85.719700000000003</v>
       </c>
       <c r="K245" t="s">
+        <v>1233</v>
+      </c>
+      <c r="L245" t="s">
         <v>1234</v>
       </c>
-      <c r="L245" t="s">
+      <c r="M245" t="s">
         <v>1235</v>
-      </c>
-      <c r="M245" t="s">
-        <v>1236</v>
       </c>
     </row>
     <row r="246" spans="1:13">
@@ -15012,19 +15009,19 @@
         <v>15</v>
       </c>
       <c r="D246" t="s">
+        <v>1151</v>
+      </c>
+      <c r="E246" t="s">
         <v>1152</v>
-      </c>
-      <c r="E246" t="s">
-        <v>1153</v>
       </c>
       <c r="F246">
         <v>18</v>
       </c>
       <c r="G246" t="s">
+        <v>1236</v>
+      </c>
+      <c r="H246" t="s">
         <v>1237</v>
-      </c>
-      <c r="H246" t="s">
-        <v>1238</v>
       </c>
       <c r="I246">
         <v>14.613899999999999</v>
@@ -15033,13 +15030,13 @@
         <v>-86.043199999999999</v>
       </c>
       <c r="K246" t="s">
+        <v>1238</v>
+      </c>
+      <c r="L246" t="s">
         <v>1239</v>
       </c>
-      <c r="L246" t="s">
+      <c r="M246" t="s">
         <v>1240</v>
-      </c>
-      <c r="M246" t="s">
-        <v>1241</v>
       </c>
     </row>
     <row r="247" spans="1:13">
@@ -15053,19 +15050,19 @@
         <v>15</v>
       </c>
       <c r="D247" t="s">
+        <v>1151</v>
+      </c>
+      <c r="E247" t="s">
         <v>1152</v>
-      </c>
-      <c r="E247" t="s">
-        <v>1153</v>
       </c>
       <c r="F247">
         <v>19</v>
       </c>
       <c r="G247" t="s">
+        <v>1241</v>
+      </c>
+      <c r="H247" t="s">
         <v>1242</v>
-      </c>
-      <c r="H247" t="s">
-        <v>1243</v>
       </c>
       <c r="I247">
         <v>14.8399</v>
@@ -15074,13 +15071,13 @@
         <v>-86.138400000000004</v>
       </c>
       <c r="K247" t="s">
+        <v>1243</v>
+      </c>
+      <c r="L247" t="s">
         <v>1244</v>
       </c>
-      <c r="L247" t="s">
+      <c r="M247" t="s">
         <v>1245</v>
-      </c>
-      <c r="M247" t="s">
-        <v>1246</v>
       </c>
     </row>
     <row r="248" spans="1:13">
@@ -15094,19 +15091,19 @@
         <v>15</v>
       </c>
       <c r="D248" t="s">
+        <v>1151</v>
+      </c>
+      <c r="E248" t="s">
         <v>1152</v>
-      </c>
-      <c r="E248" t="s">
-        <v>1153</v>
       </c>
       <c r="F248">
         <v>20</v>
       </c>
       <c r="G248" t="s">
+        <v>1246</v>
+      </c>
+      <c r="H248" t="s">
         <v>1247</v>
-      </c>
-      <c r="H248" t="s">
-        <v>1248</v>
       </c>
       <c r="I248">
         <v>14.8185</v>
@@ -15115,13 +15112,13 @@
         <v>-85.962199999999996</v>
       </c>
       <c r="K248" t="s">
+        <v>1248</v>
+      </c>
+      <c r="L248" t="s">
         <v>1249</v>
       </c>
-      <c r="L248" t="s">
+      <c r="M248" t="s">
         <v>1250</v>
-      </c>
-      <c r="M248" t="s">
-        <v>1251</v>
       </c>
     </row>
     <row r="249" spans="1:13">
@@ -15135,19 +15132,19 @@
         <v>15</v>
       </c>
       <c r="D249" t="s">
+        <v>1151</v>
+      </c>
+      <c r="E249" t="s">
         <v>1152</v>
-      </c>
-      <c r="E249" t="s">
-        <v>1153</v>
       </c>
       <c r="F249">
         <v>21</v>
       </c>
       <c r="G249" t="s">
+        <v>1251</v>
+      </c>
+      <c r="H249" t="s">
         <v>1252</v>
-      </c>
-      <c r="H249" t="s">
-        <v>1253</v>
       </c>
       <c r="I249">
         <v>14.763</v>
@@ -15156,13 +15153,13 @@
         <v>-86.5274</v>
       </c>
       <c r="K249" t="s">
+        <v>1253</v>
+      </c>
+      <c r="L249" t="s">
         <v>1254</v>
       </c>
-      <c r="L249" t="s">
+      <c r="M249" t="s">
         <v>1255</v>
-      </c>
-      <c r="M249" t="s">
-        <v>1256</v>
       </c>
     </row>
     <row r="250" spans="1:13">
@@ -15176,19 +15173,19 @@
         <v>15</v>
       </c>
       <c r="D250" t="s">
+        <v>1151</v>
+      </c>
+      <c r="E250" t="s">
         <v>1152</v>
-      </c>
-      <c r="E250" t="s">
-        <v>1153</v>
       </c>
       <c r="F250">
         <v>22</v>
       </c>
       <c r="G250" t="s">
+        <v>1256</v>
+      </c>
+      <c r="H250" t="s">
         <v>1257</v>
-      </c>
-      <c r="H250" t="s">
-        <v>1258</v>
       </c>
       <c r="I250">
         <v>14.959899999999999</v>
@@ -15197,13 +15194,13 @@
         <v>-86.811599999999999</v>
       </c>
       <c r="K250" t="s">
+        <v>1258</v>
+      </c>
+      <c r="L250" t="s">
         <v>1259</v>
       </c>
-      <c r="L250" t="s">
+      <c r="M250" t="s">
         <v>1260</v>
-      </c>
-      <c r="M250" t="s">
-        <v>1261</v>
       </c>
     </row>
     <row r="251" spans="1:13">
@@ -15217,19 +15214,19 @@
         <v>15</v>
       </c>
       <c r="D251" t="s">
+        <v>1151</v>
+      </c>
+      <c r="E251" t="s">
         <v>1152</v>
-      </c>
-      <c r="E251" t="s">
-        <v>1153</v>
       </c>
       <c r="F251">
         <v>23</v>
       </c>
       <c r="G251" t="s">
+        <v>1261</v>
+      </c>
+      <c r="H251" t="s">
         <v>1262</v>
-      </c>
-      <c r="H251" t="s">
-        <v>1263</v>
       </c>
       <c r="I251">
         <v>14.313700000000001</v>
@@ -15238,13 +15235,13 @@
         <v>-85.962999999999994</v>
       </c>
       <c r="K251" t="s">
+        <v>1263</v>
+      </c>
+      <c r="L251" t="s">
         <v>1264</v>
       </c>
-      <c r="L251" t="s">
+      <c r="M251" t="s">
         <v>1265</v>
-      </c>
-      <c r="M251" t="s">
-        <v>1266</v>
       </c>
     </row>
     <row r="252" spans="1:13">
@@ -15258,19 +15255,19 @@
         <v>16</v>
       </c>
       <c r="D252" t="s">
+        <v>1266</v>
+      </c>
+      <c r="E252" t="s">
         <v>1267</v>
-      </c>
-      <c r="E252" t="s">
-        <v>1268</v>
       </c>
       <c r="F252">
         <v>1</v>
       </c>
       <c r="G252" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="H252" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="I252">
         <v>14.9224</v>
@@ -15279,13 +15276,13 @@
         <v>-88.181899999999999</v>
       </c>
       <c r="K252" t="s">
+        <v>1269</v>
+      </c>
+      <c r="L252" t="s">
         <v>1270</v>
       </c>
-      <c r="L252" t="s">
+      <c r="M252" t="s">
         <v>1271</v>
-      </c>
-      <c r="M252" t="s">
-        <v>1272</v>
       </c>
     </row>
     <row r="253" spans="1:13">
@@ -15299,19 +15296,19 @@
         <v>16</v>
       </c>
       <c r="D253" t="s">
+        <v>1266</v>
+      </c>
+      <c r="E253" t="s">
         <v>1267</v>
-      </c>
-      <c r="E253" t="s">
-        <v>1268</v>
       </c>
       <c r="F253">
         <v>2</v>
       </c>
       <c r="G253" t="s">
+        <v>1272</v>
+      </c>
+      <c r="H253" t="s">
         <v>1273</v>
-      </c>
-      <c r="H253" t="s">
-        <v>1274</v>
       </c>
       <c r="I253">
         <v>14.8605</v>
@@ -15320,13 +15317,13 @@
         <v>-88.361999999999995</v>
       </c>
       <c r="K253" t="s">
+        <v>1274</v>
+      </c>
+      <c r="L253" t="s">
         <v>1275</v>
       </c>
-      <c r="L253" t="s">
+      <c r="M253" t="s">
         <v>1276</v>
-      </c>
-      <c r="M253" t="s">
-        <v>1277</v>
       </c>
     </row>
     <row r="254" spans="1:13">
@@ -15340,19 +15337,19 @@
         <v>16</v>
       </c>
       <c r="D254" t="s">
+        <v>1266</v>
+      </c>
+      <c r="E254" t="s">
         <v>1267</v>
-      </c>
-      <c r="E254" t="s">
-        <v>1268</v>
       </c>
       <c r="F254">
         <v>3</v>
       </c>
       <c r="G254" t="s">
+        <v>1277</v>
+      </c>
+      <c r="H254" t="s">
         <v>1278</v>
-      </c>
-      <c r="H254" t="s">
-        <v>1279</v>
       </c>
       <c r="I254">
         <v>14.919</v>
@@ -15361,13 +15358,13 @@
         <v>-88.498599999999996</v>
       </c>
       <c r="K254" t="s">
+        <v>1279</v>
+      </c>
+      <c r="L254" t="s">
         <v>1280</v>
       </c>
-      <c r="L254" t="s">
+      <c r="M254" t="s">
         <v>1281</v>
-      </c>
-      <c r="M254" t="s">
-        <v>1282</v>
       </c>
     </row>
     <row r="255" spans="1:13">
@@ -15381,19 +15378,19 @@
         <v>16</v>
       </c>
       <c r="D255" t="s">
+        <v>1266</v>
+      </c>
+      <c r="E255" t="s">
         <v>1267</v>
-      </c>
-      <c r="E255" t="s">
-        <v>1268</v>
       </c>
       <c r="F255">
         <v>4</v>
       </c>
       <c r="G255" t="s">
+        <v>1282</v>
+      </c>
+      <c r="H255" t="s">
         <v>1283</v>
-      </c>
-      <c r="H255" t="s">
-        <v>1284</v>
       </c>
       <c r="I255">
         <v>15.366</v>
@@ -15402,13 +15399,13 @@
         <v>-88.575299999999999</v>
       </c>
       <c r="K255" t="s">
+        <v>1284</v>
+      </c>
+      <c r="L255" t="s">
         <v>1285</v>
       </c>
-      <c r="L255" t="s">
+      <c r="M255" t="s">
         <v>1286</v>
-      </c>
-      <c r="M255" t="s">
-        <v>1287</v>
       </c>
     </row>
     <row r="256" spans="1:13">
@@ -15422,19 +15419,19 @@
         <v>16</v>
       </c>
       <c r="D256" t="s">
+        <v>1266</v>
+      </c>
+      <c r="E256" t="s">
         <v>1267</v>
-      </c>
-      <c r="E256" t="s">
-        <v>1268</v>
       </c>
       <c r="F256">
         <v>5</v>
       </c>
       <c r="G256" t="s">
+        <v>1287</v>
+      </c>
+      <c r="H256" t="s">
         <v>1288</v>
-      </c>
-      <c r="H256" t="s">
-        <v>1289</v>
       </c>
       <c r="I256">
         <v>14.819599999999999</v>
@@ -15443,13 +15440,13 @@
         <v>-88.204499999999996</v>
       </c>
       <c r="K256" t="s">
+        <v>1289</v>
+      </c>
+      <c r="L256" t="s">
         <v>1290</v>
       </c>
-      <c r="L256" t="s">
+      <c r="M256" t="s">
         <v>1291</v>
-      </c>
-      <c r="M256" t="s">
-        <v>1292</v>
       </c>
     </row>
     <row r="257" spans="1:13">
@@ -15463,19 +15460,19 @@
         <v>16</v>
       </c>
       <c r="D257" t="s">
+        <v>1266</v>
+      </c>
+      <c r="E257" t="s">
         <v>1267</v>
-      </c>
-      <c r="E257" t="s">
-        <v>1268</v>
       </c>
       <c r="F257">
         <v>6</v>
       </c>
       <c r="G257" t="s">
+        <v>1292</v>
+      </c>
+      <c r="H257" t="s">
         <v>1293</v>
-      </c>
-      <c r="H257" t="s">
-        <v>1294</v>
       </c>
       <c r="I257">
         <v>15.2006</v>
@@ -15484,13 +15481,13 @@
         <v>-88.143799999999999</v>
       </c>
       <c r="K257" t="s">
+        <v>1294</v>
+      </c>
+      <c r="L257" t="s">
         <v>1295</v>
       </c>
-      <c r="L257" t="s">
+      <c r="M257" t="s">
         <v>1296</v>
-      </c>
-      <c r="M257" t="s">
-        <v>1297</v>
       </c>
     </row>
     <row r="258" spans="1:13">
@@ -15504,19 +15501,19 @@
         <v>16</v>
       </c>
       <c r="D258" t="s">
+        <v>1266</v>
+      </c>
+      <c r="E258" t="s">
         <v>1267</v>
-      </c>
-      <c r="E258" t="s">
-        <v>1268</v>
       </c>
       <c r="F258">
         <v>7</v>
       </c>
       <c r="G258" t="s">
+        <v>1297</v>
+      </c>
+      <c r="H258" t="s">
         <v>1298</v>
-      </c>
-      <c r="H258" t="s">
-        <v>1299</v>
       </c>
       <c r="I258">
         <v>14.823</v>
@@ -15525,13 +15522,13 @@
         <v>-88.149000000000001</v>
       </c>
       <c r="K258" t="s">
+        <v>1299</v>
+      </c>
+      <c r="L258" t="s">
         <v>1300</v>
       </c>
-      <c r="L258" t="s">
+      <c r="M258" t="s">
         <v>1301</v>
-      </c>
-      <c r="M258" t="s">
-        <v>1302</v>
       </c>
     </row>
     <row r="259" spans="1:13">
@@ -15545,19 +15542,19 @@
         <v>16</v>
       </c>
       <c r="D259" t="s">
+        <v>1266</v>
+      </c>
+      <c r="E259" t="s">
         <v>1267</v>
-      </c>
-      <c r="E259" t="s">
-        <v>1268</v>
       </c>
       <c r="F259">
         <v>8</v>
       </c>
       <c r="G259" t="s">
+        <v>1302</v>
+      </c>
+      <c r="H259" t="s">
         <v>1303</v>
-      </c>
-      <c r="H259" t="s">
-        <v>1304</v>
       </c>
       <c r="I259">
         <v>15.115600000000001</v>
@@ -15566,13 +15563,13 @@
         <v>-88.161799999999999</v>
       </c>
       <c r="K259" t="s">
+        <v>1304</v>
+      </c>
+      <c r="L259" t="s">
         <v>1305</v>
       </c>
-      <c r="L259" t="s">
+      <c r="M259" t="s">
         <v>1306</v>
-      </c>
-      <c r="M259" t="s">
-        <v>1307</v>
       </c>
     </row>
     <row r="260" spans="1:13">
@@ -15586,19 +15583,19 @@
         <v>16</v>
       </c>
       <c r="D260" t="s">
+        <v>1266</v>
+      </c>
+      <c r="E260" t="s">
         <v>1267</v>
-      </c>
-      <c r="E260" t="s">
-        <v>1268</v>
       </c>
       <c r="F260">
         <v>9</v>
       </c>
       <c r="G260" t="s">
+        <v>1307</v>
+      </c>
+      <c r="H260" t="s">
         <v>1308</v>
-      </c>
-      <c r="H260" t="s">
-        <v>1309</v>
       </c>
       <c r="I260">
         <v>14.772399999999999</v>
@@ -15607,13 +15604,13 @@
         <v>-88.336200000000005</v>
       </c>
       <c r="K260" t="s">
+        <v>1309</v>
+      </c>
+      <c r="L260" t="s">
         <v>1310</v>
       </c>
-      <c r="L260" t="s">
+      <c r="M260" t="s">
         <v>1311</v>
-      </c>
-      <c r="M260" t="s">
-        <v>1312</v>
       </c>
     </row>
     <row r="261" spans="1:13">
@@ -15627,19 +15624,19 @@
         <v>16</v>
       </c>
       <c r="D261" t="s">
+        <v>1266</v>
+      </c>
+      <c r="E261" t="s">
         <v>1267</v>
-      </c>
-      <c r="E261" t="s">
-        <v>1268</v>
       </c>
       <c r="F261">
         <v>10</v>
       </c>
       <c r="G261" t="s">
+        <v>1312</v>
+      </c>
+      <c r="H261" t="s">
         <v>1313</v>
-      </c>
-      <c r="H261" t="s">
-        <v>1314</v>
       </c>
       <c r="I261">
         <v>15.0045</v>
@@ -15648,13 +15645,13 @@
         <v>-88.1845</v>
       </c>
       <c r="K261" t="s">
+        <v>1314</v>
+      </c>
+      <c r="L261" t="s">
         <v>1315</v>
       </c>
-      <c r="L261" t="s">
+      <c r="M261" t="s">
         <v>1316</v>
-      </c>
-      <c r="M261" t="s">
-        <v>1317</v>
       </c>
     </row>
     <row r="262" spans="1:13">
@@ -15668,19 +15665,19 @@
         <v>16</v>
       </c>
       <c r="D262" t="s">
+        <v>1266</v>
+      </c>
+      <c r="E262" t="s">
         <v>1267</v>
-      </c>
-      <c r="E262" t="s">
-        <v>1268</v>
       </c>
       <c r="F262">
         <v>11</v>
       </c>
       <c r="G262" t="s">
+        <v>1317</v>
+      </c>
+      <c r="H262" t="s">
         <v>1318</v>
-      </c>
-      <c r="H262" t="s">
-        <v>1319</v>
       </c>
       <c r="I262">
         <v>15.0519</v>
@@ -15689,13 +15686,13 @@
         <v>-88.126800000000003</v>
       </c>
       <c r="K262" t="s">
+        <v>1319</v>
+      </c>
+      <c r="L262" t="s">
         <v>1320</v>
       </c>
-      <c r="L262" t="s">
+      <c r="M262" t="s">
         <v>1321</v>
-      </c>
-      <c r="M262" t="s">
-        <v>1322</v>
       </c>
     </row>
     <row r="263" spans="1:13">
@@ -15709,19 +15706,19 @@
         <v>16</v>
       </c>
       <c r="D263" t="s">
+        <v>1266</v>
+      </c>
+      <c r="E263" t="s">
         <v>1267</v>
-      </c>
-      <c r="E263" t="s">
-        <v>1268</v>
       </c>
       <c r="F263">
         <v>12</v>
       </c>
       <c r="G263" t="s">
+        <v>1322</v>
+      </c>
+      <c r="H263" t="s">
         <v>1323</v>
-      </c>
-      <c r="H263" t="s">
-        <v>1324</v>
       </c>
       <c r="I263">
         <v>15.2325</v>
@@ -15730,13 +15727,13 @@
         <v>-88.573499999999996</v>
       </c>
       <c r="K263" t="s">
+        <v>1324</v>
+      </c>
+      <c r="L263" t="s">
         <v>1325</v>
       </c>
-      <c r="L263" t="s">
+      <c r="M263" t="s">
         <v>1326</v>
-      </c>
-      <c r="M263" t="s">
-        <v>1327</v>
       </c>
     </row>
     <row r="264" spans="1:13">
@@ -15750,19 +15747,19 @@
         <v>16</v>
       </c>
       <c r="D264" t="s">
+        <v>1266</v>
+      </c>
+      <c r="E264" t="s">
         <v>1267</v>
       </c>
-      <c r="E264" t="s">
-        <v>1268</v>
-      </c>
       <c r="F264">
         <v>13</v>
       </c>
       <c r="G264" t="s">
+        <v>1327</v>
+      </c>
+      <c r="H264" t="s">
         <v>1328</v>
-      </c>
-      <c r="H264" t="s">
-        <v>1329</v>
       </c>
       <c r="I264">
         <v>14.972300000000001</v>
@@ -15771,13 +15768,13 @@
         <v>-88.626099999999994</v>
       </c>
       <c r="K264" t="s">
+        <v>1329</v>
+      </c>
+      <c r="L264" t="s">
         <v>1330</v>
       </c>
-      <c r="L264" t="s">
+      <c r="M264" t="s">
         <v>1331</v>
-      </c>
-      <c r="M264" t="s">
-        <v>1332</v>
       </c>
     </row>
     <row r="265" spans="1:13">
@@ -15791,19 +15788,19 @@
         <v>16</v>
       </c>
       <c r="D265" t="s">
+        <v>1266</v>
+      </c>
+      <c r="E265" t="s">
         <v>1267</v>
       </c>
-      <c r="E265" t="s">
-        <v>1268</v>
-      </c>
       <c r="F265">
         <v>14</v>
       </c>
       <c r="G265" t="s">
+        <v>1332</v>
+      </c>
+      <c r="H265" t="s">
         <v>1333</v>
-      </c>
-      <c r="H265" t="s">
-        <v>1334</v>
       </c>
       <c r="I265">
         <v>14.978400000000001</v>
@@ -15812,13 +15809,13 @@
         <v>-88.374300000000005</v>
       </c>
       <c r="K265" t="s">
+        <v>1334</v>
+      </c>
+      <c r="L265" t="s">
         <v>1335</v>
       </c>
-      <c r="L265" t="s">
+      <c r="M265" t="s">
         <v>1336</v>
-      </c>
-      <c r="M265" t="s">
-        <v>1337</v>
       </c>
     </row>
     <row r="266" spans="1:13">
@@ -15832,19 +15829,19 @@
         <v>16</v>
       </c>
       <c r="D266" t="s">
+        <v>1266</v>
+      </c>
+      <c r="E266" t="s">
         <v>1267</v>
-      </c>
-      <c r="E266" t="s">
-        <v>1268</v>
       </c>
       <c r="F266">
         <v>15</v>
       </c>
       <c r="G266" t="s">
+        <v>1337</v>
+      </c>
+      <c r="H266" t="s">
         <v>1338</v>
-      </c>
-      <c r="H266" t="s">
-        <v>1339</v>
       </c>
       <c r="I266">
         <v>15.275</v>
@@ -15853,13 +15850,13 @@
         <v>-88.232900000000001</v>
       </c>
       <c r="K266" t="s">
+        <v>1339</v>
+      </c>
+      <c r="L266" t="s">
         <v>1340</v>
       </c>
-      <c r="L266" t="s">
+      <c r="M266" t="s">
         <v>1341</v>
-      </c>
-      <c r="M266" t="s">
-        <v>1342</v>
       </c>
     </row>
     <row r="267" spans="1:13">
@@ -15873,19 +15870,19 @@
         <v>16</v>
       </c>
       <c r="D267" t="s">
+        <v>1266</v>
+      </c>
+      <c r="E267" t="s">
         <v>1267</v>
-      </c>
-      <c r="E267" t="s">
-        <v>1268</v>
       </c>
       <c r="F267">
         <v>16</v>
       </c>
       <c r="G267" t="s">
+        <v>1342</v>
+      </c>
+      <c r="H267" t="s">
         <v>1343</v>
-      </c>
-      <c r="H267" t="s">
-        <v>1344</v>
       </c>
       <c r="I267">
         <v>15.078099999999999</v>
@@ -15894,13 +15891,13 @@
         <v>-88.617800000000003</v>
       </c>
       <c r="K267" t="s">
+        <v>1344</v>
+      </c>
+      <c r="L267" t="s">
         <v>1345</v>
       </c>
-      <c r="L267" t="s">
+      <c r="M267" t="s">
         <v>1346</v>
-      </c>
-      <c r="M267" t="s">
-        <v>1347</v>
       </c>
     </row>
     <row r="268" spans="1:13">
@@ -15914,19 +15911,19 @@
         <v>16</v>
       </c>
       <c r="D268" t="s">
+        <v>1266</v>
+      </c>
+      <c r="E268" t="s">
         <v>1267</v>
-      </c>
-      <c r="E268" t="s">
-        <v>1268</v>
       </c>
       <c r="F268">
         <v>17</v>
       </c>
       <c r="G268" t="s">
+        <v>1347</v>
+      </c>
+      <c r="H268" t="s">
         <v>1348</v>
-      </c>
-      <c r="H268" t="s">
-        <v>1349</v>
       </c>
       <c r="I268">
         <v>15.414099999999999</v>
@@ -15935,13 +15932,13 @@
         <v>-88.357200000000006</v>
       </c>
       <c r="K268" t="s">
+        <v>1349</v>
+      </c>
+      <c r="L268" t="s">
         <v>1350</v>
       </c>
-      <c r="L268" t="s">
+      <c r="M268" t="s">
         <v>1351</v>
-      </c>
-      <c r="M268" t="s">
-        <v>1352</v>
       </c>
     </row>
     <row r="269" spans="1:13">
@@ -15955,19 +15952,19 @@
         <v>16</v>
       </c>
       <c r="D269" t="s">
+        <v>1266</v>
+      </c>
+      <c r="E269" t="s">
         <v>1267</v>
-      </c>
-      <c r="E269" t="s">
-        <v>1268</v>
       </c>
       <c r="F269">
         <v>18</v>
       </c>
       <c r="G269" t="s">
+        <v>1352</v>
+      </c>
+      <c r="H269" t="s">
         <v>1353</v>
-      </c>
-      <c r="H269" t="s">
-        <v>1354</v>
       </c>
       <c r="I269">
         <v>14.712199999999999</v>
@@ -15976,13 +15973,13 @@
         <v>-88.200199999999995</v>
       </c>
       <c r="K269" t="s">
+        <v>1354</v>
+      </c>
+      <c r="L269" t="s">
         <v>1355</v>
       </c>
-      <c r="L269" t="s">
+      <c r="M269" t="s">
         <v>1356</v>
-      </c>
-      <c r="M269" t="s">
-        <v>1357</v>
       </c>
     </row>
     <row r="270" spans="1:13">
@@ -15996,19 +15993,19 @@
         <v>16</v>
       </c>
       <c r="D270" t="s">
+        <v>1266</v>
+      </c>
+      <c r="E270" t="s">
         <v>1267</v>
-      </c>
-      <c r="E270" t="s">
-        <v>1268</v>
       </c>
       <c r="F270">
         <v>19</v>
       </c>
       <c r="G270" t="s">
+        <v>1357</v>
+      </c>
+      <c r="H270" t="s">
         <v>1358</v>
-      </c>
-      <c r="H270" t="s">
-        <v>1359</v>
       </c>
       <c r="I270">
         <v>15.0709</v>
@@ -16017,13 +16014,13 @@
         <v>-88.328100000000006</v>
       </c>
       <c r="K270" t="s">
+        <v>1359</v>
+      </c>
+      <c r="L270" t="s">
         <v>1360</v>
       </c>
-      <c r="L270" t="s">
+      <c r="M270" t="s">
         <v>1361</v>
-      </c>
-      <c r="M270" t="s">
-        <v>1362</v>
       </c>
     </row>
     <row r="271" spans="1:13">
@@ -16037,16 +16034,16 @@
         <v>16</v>
       </c>
       <c r="D271" t="s">
+        <v>1266</v>
+      </c>
+      <c r="E271" t="s">
         <v>1267</v>
-      </c>
-      <c r="E271" t="s">
-        <v>1268</v>
       </c>
       <c r="F271">
         <v>20</v>
       </c>
       <c r="G271" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="H271" t="s">
         <v>186</v>
@@ -16058,13 +16055,13 @@
         <v>-88.477400000000003</v>
       </c>
       <c r="K271" t="s">
+        <v>1363</v>
+      </c>
+      <c r="L271" t="s">
         <v>1364</v>
       </c>
-      <c r="L271" t="s">
+      <c r="M271" t="s">
         <v>1365</v>
-      </c>
-      <c r="M271" t="s">
-        <v>1366</v>
       </c>
     </row>
     <row r="272" spans="1:13">
@@ -16078,19 +16075,19 @@
         <v>16</v>
       </c>
       <c r="D272" t="s">
+        <v>1266</v>
+      </c>
+      <c r="E272" t="s">
         <v>1267</v>
-      </c>
-      <c r="E272" t="s">
-        <v>1268</v>
       </c>
       <c r="F272">
         <v>21</v>
       </c>
       <c r="G272" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="H272" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="I272">
         <v>15.263</v>
@@ -16099,13 +16096,13 @@
         <v>-88.403199999999998</v>
       </c>
       <c r="K272" t="s">
+        <v>1367</v>
+      </c>
+      <c r="L272" t="s">
         <v>1368</v>
       </c>
-      <c r="L272" t="s">
+      <c r="M272" t="s">
         <v>1369</v>
-      </c>
-      <c r="M272" t="s">
-        <v>1370</v>
       </c>
     </row>
     <row r="273" spans="1:13">
@@ -16119,19 +16116,19 @@
         <v>16</v>
       </c>
       <c r="D273" t="s">
+        <v>1266</v>
+      </c>
+      <c r="E273" t="s">
         <v>1267</v>
-      </c>
-      <c r="E273" t="s">
-        <v>1268</v>
       </c>
       <c r="F273">
         <v>22</v>
       </c>
       <c r="G273" t="s">
+        <v>1370</v>
+      </c>
+      <c r="H273" t="s">
         <v>1371</v>
-      </c>
-      <c r="H273" t="s">
-        <v>1372</v>
       </c>
       <c r="I273">
         <v>14.930300000000001</v>
@@ -16140,13 +16137,13 @@
         <v>-88.359700000000004</v>
       </c>
       <c r="K273" t="s">
+        <v>1372</v>
+      </c>
+      <c r="L273" t="s">
         <v>1373</v>
       </c>
-      <c r="L273" t="s">
+      <c r="M273" t="s">
         <v>1374</v>
-      </c>
-      <c r="M273" t="s">
-        <v>1375</v>
       </c>
     </row>
     <row r="274" spans="1:13">
@@ -16160,19 +16157,19 @@
         <v>16</v>
       </c>
       <c r="D274" t="s">
+        <v>1266</v>
+      </c>
+      <c r="E274" t="s">
         <v>1267</v>
-      </c>
-      <c r="E274" t="s">
-        <v>1268</v>
       </c>
       <c r="F274">
         <v>23</v>
       </c>
       <c r="G274" t="s">
+        <v>1375</v>
+      </c>
+      <c r="H274" t="s">
         <v>1376</v>
-      </c>
-      <c r="H274" t="s">
-        <v>1377</v>
       </c>
       <c r="I274">
         <v>14.733700000000001</v>
@@ -16181,13 +16178,13 @@
         <v>-88.123000000000005</v>
       </c>
       <c r="K274" t="s">
+        <v>1377</v>
+      </c>
+      <c r="L274" t="s">
         <v>1378</v>
       </c>
-      <c r="L274" t="s">
+      <c r="M274" t="s">
         <v>1379</v>
-      </c>
-      <c r="M274" t="s">
-        <v>1380</v>
       </c>
     </row>
     <row r="275" spans="1:13">
@@ -16201,19 +16198,19 @@
         <v>16</v>
       </c>
       <c r="D275" t="s">
+        <v>1266</v>
+      </c>
+      <c r="E275" t="s">
         <v>1267</v>
-      </c>
-      <c r="E275" t="s">
-        <v>1268</v>
       </c>
       <c r="F275">
         <v>24</v>
       </c>
       <c r="G275" t="s">
+        <v>1380</v>
+      </c>
+      <c r="H275" t="s">
         <v>1381</v>
-      </c>
-      <c r="H275" t="s">
-        <v>1382</v>
       </c>
       <c r="I275">
         <v>14.886200000000001</v>
@@ -16222,13 +16219,13 @@
         <v>-88.302599999999998</v>
       </c>
       <c r="K275" t="s">
+        <v>1382</v>
+      </c>
+      <c r="L275" t="s">
         <v>1383</v>
       </c>
-      <c r="L275" t="s">
+      <c r="M275" t="s">
         <v>1384</v>
-      </c>
-      <c r="M275" t="s">
-        <v>1385</v>
       </c>
     </row>
     <row r="276" spans="1:13">
@@ -16242,16 +16239,16 @@
         <v>16</v>
       </c>
       <c r="D276" t="s">
+        <v>1266</v>
+      </c>
+      <c r="E276" t="s">
         <v>1267</v>
-      </c>
-      <c r="E276" t="s">
-        <v>1268</v>
       </c>
       <c r="F276">
         <v>25</v>
       </c>
       <c r="G276" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="H276" t="s">
         <v>317</v>
@@ -16263,13 +16260,13 @@
         <v>-88.270600000000002</v>
       </c>
       <c r="K276" t="s">
+        <v>1386</v>
+      </c>
+      <c r="L276" t="s">
         <v>1387</v>
       </c>
-      <c r="L276" t="s">
+      <c r="M276" t="s">
         <v>1388</v>
-      </c>
-      <c r="M276" t="s">
-        <v>1389</v>
       </c>
     </row>
     <row r="277" spans="1:13">
@@ -16283,19 +16280,19 @@
         <v>16</v>
       </c>
       <c r="D277" t="s">
+        <v>1266</v>
+      </c>
+      <c r="E277" t="s">
         <v>1267</v>
-      </c>
-      <c r="E277" t="s">
-        <v>1268</v>
       </c>
       <c r="F277">
         <v>26</v>
       </c>
       <c r="G277" t="s">
+        <v>1389</v>
+      </c>
+      <c r="H277" t="s">
         <v>1390</v>
-      </c>
-      <c r="H277" t="s">
-        <v>1391</v>
       </c>
       <c r="I277">
         <v>15.160500000000001</v>
@@ -16304,13 +16301,13 @@
         <v>-88.2607</v>
       </c>
       <c r="K277" t="s">
+        <v>1391</v>
+      </c>
+      <c r="L277" t="s">
         <v>1392</v>
       </c>
-      <c r="L277" t="s">
+      <c r="M277" t="s">
         <v>1393</v>
-      </c>
-      <c r="M277" t="s">
-        <v>1394</v>
       </c>
     </row>
     <row r="278" spans="1:13">
@@ -16324,19 +16321,19 @@
         <v>16</v>
       </c>
       <c r="D278" t="s">
+        <v>1266</v>
+      </c>
+      <c r="E278" t="s">
         <v>1267</v>
-      </c>
-      <c r="E278" t="s">
-        <v>1268</v>
       </c>
       <c r="F278">
         <v>27</v>
       </c>
       <c r="G278" t="s">
+        <v>1394</v>
+      </c>
+      <c r="H278" t="s">
         <v>1395</v>
-      </c>
-      <c r="H278" t="s">
-        <v>1396</v>
       </c>
       <c r="I278">
         <v>14.8681</v>
@@ -16345,13 +16342,13 @@
         <v>-88.061999999999998</v>
       </c>
       <c r="K278" t="s">
+        <v>1396</v>
+      </c>
+      <c r="L278" t="s">
         <v>1397</v>
       </c>
-      <c r="L278" t="s">
+      <c r="M278" t="s">
         <v>1398</v>
-      </c>
-      <c r="M278" t="s">
-        <v>1399</v>
       </c>
     </row>
     <row r="279" spans="1:13">
@@ -16365,19 +16362,19 @@
         <v>16</v>
       </c>
       <c r="D279" t="s">
+        <v>1266</v>
+      </c>
+      <c r="E279" t="s">
         <v>1267</v>
-      </c>
-      <c r="E279" t="s">
-        <v>1268</v>
       </c>
       <c r="F279">
         <v>28</v>
       </c>
       <c r="G279" t="s">
+        <v>1399</v>
+      </c>
+      <c r="H279" t="s">
         <v>1400</v>
-      </c>
-      <c r="H279" t="s">
-        <v>1401</v>
       </c>
       <c r="I279">
         <v>15.2729</v>
@@ -16386,13 +16383,13 @@
         <v>-88.669899999999998</v>
       </c>
       <c r="K279" t="s">
+        <v>1401</v>
+      </c>
+      <c r="L279" t="s">
         <v>1402</v>
       </c>
-      <c r="L279" t="s">
+      <c r="M279" t="s">
         <v>1403</v>
-      </c>
-      <c r="M279" t="s">
-        <v>1404</v>
       </c>
     </row>
     <row r="280" spans="1:13">
@@ -16406,19 +16403,19 @@
         <v>17</v>
       </c>
       <c r="D280" t="s">
+        <v>1404</v>
+      </c>
+      <c r="E280" t="s">
         <v>1405</v>
-      </c>
-      <c r="E280" t="s">
-        <v>1406</v>
       </c>
       <c r="F280">
         <v>1</v>
       </c>
       <c r="G280" t="s">
+        <v>1406</v>
+      </c>
+      <c r="H280" t="s">
         <v>1407</v>
-      </c>
-      <c r="H280" t="s">
-        <v>1408</v>
       </c>
       <c r="I280">
         <v>13.5185</v>
@@ -16427,13 +16424,13 @@
         <v>-87.5261</v>
       </c>
       <c r="K280" t="s">
+        <v>1408</v>
+      </c>
+      <c r="L280" t="s">
         <v>1409</v>
       </c>
-      <c r="L280" t="s">
+      <c r="M280" t="s">
         <v>1410</v>
-      </c>
-      <c r="M280" t="s">
-        <v>1411</v>
       </c>
     </row>
     <row r="281" spans="1:13">
@@ -16447,19 +16444,19 @@
         <v>17</v>
       </c>
       <c r="D281" t="s">
+        <v>1404</v>
+      </c>
+      <c r="E281" t="s">
         <v>1405</v>
-      </c>
-      <c r="E281" t="s">
-        <v>1406</v>
       </c>
       <c r="F281">
         <v>2</v>
       </c>
       <c r="G281" t="s">
+        <v>1411</v>
+      </c>
+      <c r="H281" t="s">
         <v>1412</v>
-      </c>
-      <c r="H281" t="s">
-        <v>1413</v>
       </c>
       <c r="I281">
         <v>13.4009</v>
@@ -16468,13 +16465,13 @@
         <v>-87.727999999999994</v>
       </c>
       <c r="K281" t="s">
+        <v>1413</v>
+      </c>
+      <c r="L281" t="s">
         <v>1414</v>
       </c>
-      <c r="L281" t="s">
+      <c r="M281" t="s">
         <v>1415</v>
-      </c>
-      <c r="M281" t="s">
-        <v>1416</v>
       </c>
     </row>
     <row r="282" spans="1:13">
@@ -16488,19 +16485,19 @@
         <v>17</v>
       </c>
       <c r="D282" t="s">
+        <v>1404</v>
+      </c>
+      <c r="E282" t="s">
         <v>1405</v>
-      </c>
-      <c r="E282" t="s">
-        <v>1406</v>
       </c>
       <c r="F282">
         <v>3</v>
       </c>
       <c r="G282" t="s">
+        <v>1416</v>
+      </c>
+      <c r="H282" t="s">
         <v>1417</v>
-      </c>
-      <c r="H282" t="s">
-        <v>1418</v>
       </c>
       <c r="I282">
         <v>13.3409</v>
@@ -16509,13 +16506,13 @@
         <v>-87.615899999999996</v>
       </c>
       <c r="K282" t="s">
+        <v>1418</v>
+      </c>
+      <c r="L282" t="s">
         <v>1419</v>
       </c>
-      <c r="L282" t="s">
+      <c r="M282" t="s">
         <v>1420</v>
-      </c>
-      <c r="M282" t="s">
-        <v>1421</v>
       </c>
     </row>
     <row r="283" spans="1:13" ht="15">
@@ -16529,19 +16526,19 @@
         <v>17</v>
       </c>
       <c r="D283" t="s">
+        <v>1404</v>
+      </c>
+      <c r="E283" t="s">
         <v>1405</v>
-      </c>
-      <c r="E283" t="s">
-        <v>1406</v>
       </c>
       <c r="F283">
         <v>4</v>
       </c>
       <c r="G283" t="s">
+        <v>1421</v>
+      </c>
+      <c r="H283" t="s">
         <v>1422</v>
-      </c>
-      <c r="H283" t="s">
-        <v>1423</v>
       </c>
       <c r="I283">
         <v>13.733000000000001</v>
@@ -16550,13 +16547,13 @@
         <v>-87.690399999999997</v>
       </c>
       <c r="K283" t="s">
+        <v>1423</v>
+      </c>
+      <c r="L283" t="s">
         <v>1424</v>
       </c>
-      <c r="L283" t="s">
+      <c r="M283" s="1" t="s">
         <v>1425</v>
-      </c>
-      <c r="M283" s="1" t="s">
-        <v>1426</v>
       </c>
     </row>
     <row r="284" spans="1:13">
@@ -16570,19 +16567,19 @@
         <v>17</v>
       </c>
       <c r="D284" t="s">
+        <v>1404</v>
+      </c>
+      <c r="E284" t="s">
         <v>1405</v>
-      </c>
-      <c r="E284" t="s">
-        <v>1406</v>
       </c>
       <c r="F284">
         <v>5</v>
       </c>
       <c r="G284" t="s">
+        <v>1426</v>
+      </c>
+      <c r="H284" t="s">
         <v>1427</v>
-      </c>
-      <c r="H284" t="s">
-        <v>1428</v>
       </c>
       <c r="I284">
         <v>13.819100000000001</v>
@@ -16591,13 +16588,13 @@
         <v>-87.687700000000007</v>
       </c>
       <c r="K284" t="s">
+        <v>1428</v>
+      </c>
+      <c r="L284" t="s">
         <v>1429</v>
       </c>
-      <c r="L284" t="s">
+      <c r="M284" t="s">
         <v>1430</v>
-      </c>
-      <c r="M284" t="s">
-        <v>1431</v>
       </c>
     </row>
     <row r="285" spans="1:13">
@@ -16611,19 +16608,19 @@
         <v>17</v>
       </c>
       <c r="D285" t="s">
+        <v>1404</v>
+      </c>
+      <c r="E285" t="s">
         <v>1405</v>
-      </c>
-      <c r="E285" t="s">
-        <v>1406</v>
       </c>
       <c r="F285">
         <v>6</v>
       </c>
       <c r="G285" t="s">
+        <v>1431</v>
+      </c>
+      <c r="H285" t="s">
         <v>1432</v>
-      </c>
-      <c r="H285" t="s">
-        <v>1433</v>
       </c>
       <c r="I285">
         <v>13.5938</v>
@@ -16632,13 +16629,13 @@
         <v>-87.712599999999995</v>
       </c>
       <c r="K285" t="s">
+        <v>1433</v>
+      </c>
+      <c r="L285" t="s">
         <v>1434</v>
       </c>
-      <c r="L285" t="s">
+      <c r="M285" t="s">
         <v>1435</v>
-      </c>
-      <c r="M285" t="s">
-        <v>1436</v>
       </c>
     </row>
     <row r="286" spans="1:13">
@@ -16652,19 +16649,19 @@
         <v>17</v>
       </c>
       <c r="D286" t="s">
+        <v>1404</v>
+      </c>
+      <c r="E286" t="s">
         <v>1405</v>
-      </c>
-      <c r="E286" t="s">
-        <v>1406</v>
       </c>
       <c r="F286">
         <v>7</v>
       </c>
       <c r="G286" t="s">
+        <v>1436</v>
+      </c>
+      <c r="H286" t="s">
         <v>1437</v>
-      </c>
-      <c r="H286" t="s">
-        <v>1438</v>
       </c>
       <c r="I286">
         <v>13.6571</v>
@@ -16673,13 +16670,13 @@
         <v>-87.629099999999994</v>
       </c>
       <c r="K286" t="s">
+        <v>1438</v>
+      </c>
+      <c r="L286" t="s">
         <v>1439</v>
       </c>
-      <c r="L286" t="s">
+      <c r="M286" t="s">
         <v>1440</v>
-      </c>
-      <c r="M286" t="s">
-        <v>1441</v>
       </c>
     </row>
     <row r="287" spans="1:13">
@@ -16693,19 +16690,19 @@
         <v>17</v>
       </c>
       <c r="D287" t="s">
+        <v>1404</v>
+      </c>
+      <c r="E287" t="s">
         <v>1405</v>
-      </c>
-      <c r="E287" t="s">
-        <v>1406</v>
       </c>
       <c r="F287">
         <v>8</v>
       </c>
       <c r="G287" t="s">
+        <v>1441</v>
+      </c>
+      <c r="H287" t="s">
         <v>1442</v>
-      </c>
-      <c r="H287" t="s">
-        <v>1443</v>
       </c>
       <c r="I287">
         <v>13.669600000000001</v>
@@ -16714,13 +16711,13 @@
         <v>-87.545699999999997</v>
       </c>
       <c r="K287" t="s">
+        <v>1443</v>
+      </c>
+      <c r="L287" t="s">
         <v>1444</v>
       </c>
-      <c r="L287" t="s">
+      <c r="M287" t="s">
         <v>1445</v>
-      </c>
-      <c r="M287" t="s">
-        <v>1446</v>
       </c>
     </row>
     <row r="288" spans="1:13">
@@ -16734,19 +16731,19 @@
         <v>17</v>
       </c>
       <c r="D288" t="s">
+        <v>1404</v>
+      </c>
+      <c r="E288" t="s">
         <v>1405</v>
-      </c>
-      <c r="E288" t="s">
-        <v>1406</v>
       </c>
       <c r="F288">
         <v>9</v>
       </c>
       <c r="G288" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H288" t="s">
         <v>1447</v>
-      </c>
-      <c r="H288" t="s">
-        <v>1448</v>
       </c>
       <c r="I288">
         <v>13.455500000000001</v>
@@ -16755,13 +16752,13 @@
         <v>-87.4101</v>
       </c>
       <c r="K288" t="s">
+        <v>1448</v>
+      </c>
+      <c r="L288" t="s">
         <v>1449</v>
       </c>
-      <c r="L288" t="s">
+      <c r="M288" t="s">
         <v>1450</v>
-      </c>
-      <c r="M288" t="s">
-        <v>1451</v>
       </c>
     </row>
     <row r="289" spans="1:13">
@@ -16775,19 +16772,19 @@
         <v>18</v>
       </c>
       <c r="D289" t="s">
+        <v>1451</v>
+      </c>
+      <c r="E289" t="s">
         <v>1452</v>
-      </c>
-      <c r="E289" t="s">
-        <v>1453</v>
       </c>
       <c r="F289">
         <v>1</v>
       </c>
       <c r="G289" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="H289" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="I289">
         <v>15.2433</v>
@@ -16796,13 +16793,13 @@
         <v>-87.227500000000006</v>
       </c>
       <c r="K289" t="s">
+        <v>1454</v>
+      </c>
+      <c r="L289" t="s">
         <v>1455</v>
       </c>
-      <c r="L289" t="s">
+      <c r="M289" t="s">
         <v>1456</v>
-      </c>
-      <c r="M289" t="s">
-        <v>1457</v>
       </c>
     </row>
     <row r="290" spans="1:13">
@@ -16816,19 +16813,19 @@
         <v>18</v>
       </c>
       <c r="D290" t="s">
+        <v>1451</v>
+      </c>
+      <c r="E290" t="s">
         <v>1452</v>
-      </c>
-      <c r="E290" t="s">
-        <v>1453</v>
       </c>
       <c r="F290">
         <v>2</v>
       </c>
       <c r="G290" t="s">
+        <v>1457</v>
+      </c>
+      <c r="H290" t="s">
         <v>1458</v>
-      </c>
-      <c r="H290" t="s">
-        <v>1459</v>
       </c>
       <c r="I290">
         <v>15.3565</v>
@@ -16837,13 +16834,13 @@
         <v>-86.821799999999996</v>
       </c>
       <c r="K290" t="s">
+        <v>1459</v>
+      </c>
+      <c r="L290" t="s">
         <v>1460</v>
       </c>
-      <c r="L290" t="s">
+      <c r="M290" t="s">
         <v>1461</v>
-      </c>
-      <c r="M290" t="s">
-        <v>1462</v>
       </c>
     </row>
     <row r="291" spans="1:13">
@@ -16857,19 +16854,19 @@
         <v>18</v>
       </c>
       <c r="D291" t="s">
+        <v>1451</v>
+      </c>
+      <c r="E291" t="s">
         <v>1452</v>
-      </c>
-      <c r="E291" t="s">
-        <v>1453</v>
       </c>
       <c r="F291">
         <v>3</v>
       </c>
       <c r="G291" t="s">
+        <v>1462</v>
+      </c>
+      <c r="H291" t="s">
         <v>1463</v>
-      </c>
-      <c r="H291" t="s">
-        <v>1464</v>
       </c>
       <c r="I291">
         <v>15.3383</v>
@@ -16878,13 +16875,13 @@
         <v>-87.701999999999998</v>
       </c>
       <c r="K291" t="s">
+        <v>1464</v>
+      </c>
+      <c r="L291" t="s">
         <v>1465</v>
       </c>
-      <c r="L291" t="s">
+      <c r="M291" t="s">
         <v>1466</v>
-      </c>
-      <c r="M291" t="s">
-        <v>1467</v>
       </c>
     </row>
     <row r="292" spans="1:13">
@@ -16898,19 +16895,19 @@
         <v>18</v>
       </c>
       <c r="D292" t="s">
+        <v>1451</v>
+      </c>
+      <c r="E292" t="s">
         <v>1452</v>
-      </c>
-      <c r="E292" t="s">
-        <v>1453</v>
       </c>
       <c r="F292">
         <v>4</v>
       </c>
       <c r="G292" t="s">
+        <v>1467</v>
+      </c>
+      <c r="H292" t="s">
         <v>1468</v>
-      </c>
-      <c r="H292" t="s">
-        <v>1469</v>
       </c>
       <c r="I292">
         <v>15.3446</v>
@@ -16919,13 +16916,13 @@
         <v>-87.812100000000001</v>
       </c>
       <c r="K292" t="s">
+        <v>1469</v>
+      </c>
+      <c r="L292" t="s">
         <v>1470</v>
       </c>
-      <c r="L292" t="s">
+      <c r="M292" t="s">
         <v>1471</v>
-      </c>
-      <c r="M292" t="s">
-        <v>1472</v>
       </c>
     </row>
     <row r="293" spans="1:13">
@@ -16939,19 +16936,19 @@
         <v>18</v>
       </c>
       <c r="D293" t="s">
+        <v>1451</v>
+      </c>
+      <c r="E293" t="s">
         <v>1452</v>
-      </c>
-      <c r="E293" t="s">
-        <v>1453</v>
       </c>
       <c r="F293">
         <v>5</v>
       </c>
       <c r="G293" t="s">
+        <v>1472</v>
+      </c>
+      <c r="H293" t="s">
         <v>1473</v>
-      </c>
-      <c r="H293" t="s">
-        <v>1474</v>
       </c>
       <c r="I293">
         <v>15.3</v>
@@ -16960,13 +16957,13 @@
         <v>-86.956900000000005</v>
       </c>
       <c r="K293" t="s">
+        <v>1474</v>
+      </c>
+      <c r="L293" t="s">
         <v>1475</v>
       </c>
-      <c r="L293" t="s">
+      <c r="M293" t="s">
         <v>1476</v>
-      </c>
-      <c r="M293" t="s">
-        <v>1477</v>
       </c>
     </row>
     <row r="294" spans="1:13">
@@ -16980,19 +16977,19 @@
         <v>18</v>
       </c>
       <c r="D294" t="s">
+        <v>1451</v>
+      </c>
+      <c r="E294" t="s">
         <v>1452</v>
-      </c>
-      <c r="E294" t="s">
-        <v>1453</v>
       </c>
       <c r="F294">
         <v>6</v>
       </c>
       <c r="G294" t="s">
+        <v>1477</v>
+      </c>
+      <c r="H294" t="s">
         <v>1478</v>
-      </c>
-      <c r="H294" t="s">
-        <v>1479</v>
       </c>
       <c r="I294">
         <v>15.3363</v>
@@ -17001,13 +16998,13 @@
         <v>-87.561300000000003</v>
       </c>
       <c r="K294" t="s">
+        <v>1479</v>
+      </c>
+      <c r="L294" t="s">
         <v>1480</v>
       </c>
-      <c r="L294" t="s">
+      <c r="M294" t="s">
         <v>1481</v>
-      </c>
-      <c r="M294" t="s">
-        <v>1482</v>
       </c>
     </row>
     <row r="295" spans="1:13">
@@ -17021,19 +17018,19 @@
         <v>18</v>
       </c>
       <c r="D295" t="s">
+        <v>1451</v>
+      </c>
+      <c r="E295" t="s">
         <v>1452</v>
-      </c>
-      <c r="E295" t="s">
-        <v>1453</v>
       </c>
       <c r="F295">
         <v>7</v>
       </c>
       <c r="G295" t="s">
+        <v>1482</v>
+      </c>
+      <c r="H295" t="s">
         <v>1483</v>
-      </c>
-      <c r="H295" t="s">
-        <v>1484</v>
       </c>
       <c r="I295">
         <v>15.499700000000001</v>
@@ -17042,13 +17039,13 @@
         <v>-86.461399999999998</v>
       </c>
       <c r="K295" t="s">
+        <v>1484</v>
+      </c>
+      <c r="L295" t="s">
         <v>1485</v>
       </c>
-      <c r="L295" t="s">
+      <c r="M295" t="s">
         <v>1486</v>
-      </c>
-      <c r="M295" t="s">
-        <v>1487</v>
       </c>
     </row>
     <row r="296" spans="1:13">
@@ -17062,16 +17059,16 @@
         <v>18</v>
       </c>
       <c r="D296" t="s">
+        <v>1451</v>
+      </c>
+      <c r="E296" t="s">
         <v>1452</v>
-      </c>
-      <c r="E296" t="s">
-        <v>1453</v>
       </c>
       <c r="F296">
         <v>8</v>
       </c>
       <c r="G296" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="H296" t="s">
         <v>317</v>
@@ -17083,13 +17080,13 @@
         <v>-87.812799999999996</v>
       </c>
       <c r="K296" t="s">
+        <v>1488</v>
+      </c>
+      <c r="L296" t="s">
         <v>1489</v>
       </c>
-      <c r="L296" t="s">
+      <c r="M296" t="s">
         <v>1490</v>
-      </c>
-      <c r="M296" t="s">
-        <v>1491</v>
       </c>
     </row>
     <row r="297" spans="1:13">
@@ -17103,19 +17100,19 @@
         <v>18</v>
       </c>
       <c r="D297" t="s">
+        <v>1451</v>
+      </c>
+      <c r="E297" t="s">
         <v>1452</v>
-      </c>
-      <c r="E297" t="s">
-        <v>1453</v>
       </c>
       <c r="F297">
         <v>9</v>
       </c>
       <c r="G297" t="s">
+        <v>1491</v>
+      </c>
+      <c r="H297" t="s">
         <v>1492</v>
-      </c>
-      <c r="H297" t="s">
-        <v>1493</v>
       </c>
       <c r="I297">
         <v>14.9725</v>
@@ -17124,13 +17121,13 @@
         <v>-87.278599999999997</v>
       </c>
       <c r="K297" t="s">
+        <v>1493</v>
+      </c>
+      <c r="L297" t="s">
         <v>1494</v>
       </c>
-      <c r="L297" t="s">
+      <c r="M297" t="s">
         <v>1495</v>
-      </c>
-      <c r="M297" t="s">
-        <v>1496</v>
       </c>
     </row>
     <row r="298" spans="1:13">
@@ -17144,19 +17141,19 @@
         <v>18</v>
       </c>
       <c r="D298" t="s">
+        <v>1451</v>
+      </c>
+      <c r="E298" t="s">
         <v>1452</v>
-      </c>
-      <c r="E298" t="s">
-        <v>1453</v>
       </c>
       <c r="F298">
         <v>10</v>
       </c>
       <c r="G298" t="s">
+        <v>1496</v>
+      </c>
+      <c r="H298" t="s">
         <v>1497</v>
-      </c>
-      <c r="H298" t="s">
-        <v>1498</v>
       </c>
       <c r="I298">
         <v>15.1127</v>
@@ -17165,13 +17162,13 @@
         <v>-87.558300000000003</v>
       </c>
       <c r="K298" t="s">
+        <v>1498</v>
+      </c>
+      <c r="L298" t="s">
         <v>1499</v>
       </c>
-      <c r="L298" t="s">
+      <c r="M298" t="s">
         <v>1500</v>
-      </c>
-      <c r="M298" t="s">
-        <v>1501</v>
       </c>
     </row>
     <row r="299" spans="1:13">
@@ -17185,19 +17182,19 @@
         <v>18</v>
       </c>
       <c r="D299" t="s">
+        <v>1451</v>
+      </c>
+      <c r="E299" t="s">
         <v>1452</v>
-      </c>
-      <c r="E299" t="s">
-        <v>1453</v>
       </c>
       <c r="F299">
         <v>11</v>
       </c>
       <c r="G299" t="s">
+        <v>1501</v>
+      </c>
+      <c r="H299" t="s">
         <v>1502</v>
-      </c>
-      <c r="H299" t="s">
-        <v>1503</v>
       </c>
       <c r="I299">
         <v>15.074299999999999</v>
@@ -17206,13 +17203,13 @@
         <v>-87.3048</v>
       </c>
       <c r="K299" t="s">
+        <v>1503</v>
+      </c>
+      <c r="L299" t="s">
         <v>1504</v>
       </c>
-      <c r="L299" t="s">
+      <c r="M299" t="s">
         <v>1505</v>
-      </c>
-      <c r="M299" t="s">
-        <v>1506</v>
       </c>
     </row>
   </sheetData>

--- a/datacovidhn/LOCALIZAHN.xlsx
+++ b/datacovidhn/LOCALIZAHN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\000 DRIVE\000 DATACOVID HN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="95" documentId="13_ncr:1_{23A5930A-7705-4873-9354-6671A8986A46}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{014A3EE4-3DDA-4048-9ABA-7333DB8FEC70}"/>
+  <xr:revisionPtr revIDLastSave="97" documentId="13_ncr:1_{23A5930A-7705-4873-9354-6671A8986A46}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B55EEB91-B0A5-4413-85B0-55724699CB64}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E12A4D3B-4BD9-444E-BCAD-8267569BA124}"/>
   </bookViews>
@@ -1505,6 +1505,9 @@
     <t>https://www.google.com/maps/place/Municipio de Danli + Departamento de El Paraiso + Honduras</t>
   </si>
   <si>
+    <t>0704</t>
+  </si>
+  <si>
     <t>HND-0704</t>
   </si>
   <si>
@@ -1941,9 +1944,6 @@
   </si>
   <si>
     <t>https://www.google.com/maps/place/Municipio de Orica + Departamento de Francisco Morazan + Honduras</t>
-  </si>
-  <si>
-    <t>0815</t>
   </si>
   <si>
     <t>Reitoca</t>
@@ -4937,8 +4937,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57166B67-A93A-452E-A5E0-8FB31F384F7A}">
   <dimension ref="A1:M299"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
-      <selection activeCell="G95" sqref="G95"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="F71" sqref="F71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
@@ -8826,8 +8826,8 @@
       <c r="F95">
         <v>4</v>
       </c>
-      <c r="G95">
-        <v>704</v>
+      <c r="G95" t="s">
+        <v>490</v>
       </c>
       <c r="H95" t="s">
         <v>258</v>
@@ -8839,13 +8839,13 @@
         <v>-86.525899999999993</v>
       </c>
       <c r="K95" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="L95" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="M95" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="96" spans="1:13">
@@ -8868,10 +8868,10 @@
         <v>5</v>
       </c>
       <c r="G96" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H96" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="I96">
         <v>13.8704</v>
@@ -8880,13 +8880,13 @@
         <v>-86.942999999999998</v>
       </c>
       <c r="K96" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="L96" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="M96" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="97" spans="1:13">
@@ -8909,10 +8909,10 @@
         <v>6</v>
       </c>
       <c r="G97" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="H97" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="I97">
         <v>14.0349</v>
@@ -8921,13 +8921,13 @@
         <v>-86.6768</v>
       </c>
       <c r="K97" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="L97" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="M97" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="98" spans="1:13">
@@ -8950,10 +8950,10 @@
         <v>7</v>
       </c>
       <c r="G98" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="H98" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="I98">
         <v>13.553699999999999</v>
@@ -8962,13 +8962,13 @@
         <v>-87.06</v>
       </c>
       <c r="K98" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="L98" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="M98" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="99" spans="1:13">
@@ -8991,10 +8991,10 @@
         <v>8</v>
       </c>
       <c r="G99" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="H99" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="I99">
         <v>14.148199999999999</v>
@@ -9003,13 +9003,13 @@
         <v>-86.853999999999999</v>
       </c>
       <c r="K99" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="L99" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="M99" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="100" spans="1:13">
@@ -9032,10 +9032,10 @@
         <v>9</v>
       </c>
       <c r="G100" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="H100" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="I100">
         <v>13.8195</v>
@@ -9044,13 +9044,13 @@
         <v>-86.833200000000005</v>
       </c>
       <c r="K100" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="L100" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="M100" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="101" spans="1:13">
@@ -9073,7 +9073,7 @@
         <v>10</v>
       </c>
       <c r="G101" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="H101" t="s">
         <v>354</v>
@@ -9085,13 +9085,13 @@
         <v>-86.756500000000003</v>
       </c>
       <c r="K101" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="L101" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="M101" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="102" spans="1:13">
@@ -9114,7 +9114,7 @@
         <v>11</v>
       </c>
       <c r="G102" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="H102" t="s">
         <v>450</v>
@@ -9126,13 +9126,13 @@
         <v>-86.839399999999998</v>
       </c>
       <c r="K102" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="L102" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="M102" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="103" spans="1:13">
@@ -9155,10 +9155,10 @@
         <v>12</v>
       </c>
       <c r="G103" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="H103" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="I103">
         <v>13.7478</v>
@@ -9167,13 +9167,13 @@
         <v>-86.948599999999999</v>
       </c>
       <c r="K103" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="L103" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="M103" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="104" spans="1:13">
@@ -9196,10 +9196,10 @@
         <v>13</v>
       </c>
       <c r="G104" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="H104" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="I104">
         <v>13.958</v>
@@ -9208,13 +9208,13 @@
         <v>-86.647999999999996</v>
       </c>
       <c r="K104" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="L104" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="M104" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="105" spans="1:13">
@@ -9237,10 +9237,10 @@
         <v>14</v>
       </c>
       <c r="G105" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="H105" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="I105">
         <v>13.614699999999999</v>
@@ -9249,13 +9249,13 @@
         <v>-87.147099999999995</v>
       </c>
       <c r="K105" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="L105" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="M105" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="106" spans="1:13">
@@ -9278,10 +9278,10 @@
         <v>15</v>
       </c>
       <c r="G106" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="H106" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="I106">
         <v>14.295199999999999</v>
@@ -9290,13 +9290,13 @@
         <v>-86.679000000000002</v>
       </c>
       <c r="K106" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="L106" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="M106" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="107" spans="1:13">
@@ -9319,10 +9319,10 @@
         <v>16</v>
       </c>
       <c r="G107" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="H107" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="I107">
         <v>13.6693</v>
@@ -9331,13 +9331,13 @@
         <v>-87.038600000000002</v>
       </c>
       <c r="K107" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="L107" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="M107" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="108" spans="1:13">
@@ -9360,10 +9360,10 @@
         <v>17</v>
       </c>
       <c r="G108" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="H108" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="I108">
         <v>13.639699999999999</v>
@@ -9372,13 +9372,13 @@
         <v>-86.954499999999996</v>
       </c>
       <c r="K108" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="L108" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="M108" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="109" spans="1:13">
@@ -9401,10 +9401,10 @@
         <v>18</v>
       </c>
       <c r="G109" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="H109" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="I109">
         <v>13.751099999999999</v>
@@ -9413,13 +9413,13 @@
         <v>-87.079599999999999</v>
       </c>
       <c r="K109" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="L109" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="M109" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="110" spans="1:13">
@@ -9442,10 +9442,10 @@
         <v>19</v>
       </c>
       <c r="G110" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="H110" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="I110">
         <v>14.045299999999999</v>
@@ -9454,13 +9454,13 @@
         <v>-85.860699999999994</v>
       </c>
       <c r="K110" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="L110" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="M110" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="111" spans="1:13">
@@ -9474,19 +9474,19 @@
         <v>8</v>
       </c>
       <c r="D111" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="E111" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="F111">
         <v>1</v>
       </c>
       <c r="G111" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="H111" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="I111">
         <v>14.175800000000001</v>
@@ -9495,13 +9495,13 @@
         <v>-87.251099999999994</v>
       </c>
       <c r="K111" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="L111" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="M111" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="112" spans="1:13">
@@ -9515,19 +9515,19 @@
         <v>8</v>
       </c>
       <c r="D112" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="E112" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="F112">
         <v>2</v>
       </c>
       <c r="G112" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="H112" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="I112">
         <v>13.786300000000001</v>
@@ -9536,13 +9536,13 @@
         <v>-87.470699999999994</v>
       </c>
       <c r="K112" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="L112" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="M112" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="113" spans="1:13">
@@ -9556,19 +9556,19 @@
         <v>8</v>
       </c>
       <c r="D113" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="E113" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="F113">
         <v>3</v>
       </c>
       <c r="G113" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="H113" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="I113">
         <v>14.57</v>
@@ -9577,13 +9577,13 @@
         <v>-87.121499999999997</v>
       </c>
       <c r="K113" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="L113" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="M113" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="114" spans="1:13">
@@ -9597,19 +9597,19 @@
         <v>8</v>
       </c>
       <c r="D114" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="E114" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="F114">
         <v>4</v>
       </c>
       <c r="G114" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="H114" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="I114">
         <v>13.8278</v>
@@ -9618,13 +9618,13 @@
         <v>-87.568700000000007</v>
       </c>
       <c r="K114" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="L114" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="M114" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="115" spans="1:13">
@@ -9638,16 +9638,16 @@
         <v>8</v>
       </c>
       <c r="D115" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="E115" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="F115">
         <v>5</v>
       </c>
       <c r="G115" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="H115" t="s">
         <v>23</v>
@@ -9659,13 +9659,13 @@
         <v>-87.221999999999994</v>
       </c>
       <c r="K115" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="L115" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="M115" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="116" spans="1:13">
@@ -9679,19 +9679,19 @@
         <v>8</v>
       </c>
       <c r="D116" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="E116" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="F116">
         <v>6</v>
       </c>
       <c r="G116" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="H116" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="I116">
         <v>14.513299999999999</v>
@@ -9700,13 +9700,13 @@
         <v>-86.867800000000003</v>
       </c>
       <c r="K116" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="L116" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="M116" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="117" spans="1:13">
@@ -9720,16 +9720,16 @@
         <v>8</v>
       </c>
       <c r="D117" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="E117" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="F117">
         <v>7</v>
       </c>
       <c r="G117" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="H117" t="s">
         <v>136</v>
@@ -9741,13 +9741,13 @@
         <v>-87.500500000000002</v>
       </c>
       <c r="K117" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="L117" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="M117" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="118" spans="1:13">
@@ -9761,19 +9761,19 @@
         <v>8</v>
       </c>
       <c r="D118" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="E118" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="F118">
         <v>8</v>
       </c>
       <c r="G118" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="H118" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="I118">
         <v>13.732100000000001</v>
@@ -9782,13 +9782,13 @@
         <v>-87.327600000000004</v>
       </c>
       <c r="K118" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="L118" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="M118" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="119" spans="1:13">
@@ -9802,19 +9802,19 @@
         <v>8</v>
       </c>
       <c r="D119" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="E119" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="F119">
         <v>9</v>
       </c>
       <c r="G119" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="H119" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="I119">
         <v>14.0482</v>
@@ -9823,13 +9823,13 @@
         <v>-87.495500000000007</v>
       </c>
       <c r="K119" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="L119" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="M119" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="120" spans="1:13">
@@ -9843,19 +9843,19 @@
         <v>8</v>
       </c>
       <c r="D120" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="E120" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="F120">
         <v>10</v>
       </c>
       <c r="G120" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="H120" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="I120">
         <v>13.8675</v>
@@ -9864,13 +9864,13 @@
         <v>-87.056399999999996</v>
       </c>
       <c r="K120" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="L120" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="M120" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="121" spans="1:13">
@@ -9884,19 +9884,19 @@
         <v>8</v>
       </c>
       <c r="D121" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="E121" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="F121">
         <v>11</v>
       </c>
       <c r="G121" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="H121" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="I121">
         <v>14.938000000000001</v>
@@ -9905,13 +9905,13 @@
         <v>-87.102400000000003</v>
       </c>
       <c r="K121" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="L121" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="M121" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="122" spans="1:13">
@@ -9925,19 +9925,19 @@
         <v>8</v>
       </c>
       <c r="D122" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="E122" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="F122">
         <v>12</v>
       </c>
       <c r="G122" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="H122" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="I122">
         <v>13.7515</v>
@@ -9946,13 +9946,13 @@
         <v>-87.1614</v>
       </c>
       <c r="K122" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="L122" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="M122" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="123" spans="1:13">
@@ -9966,19 +9966,19 @@
         <v>8</v>
       </c>
       <c r="D123" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="E123" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="F123">
         <v>13</v>
       </c>
       <c r="G123" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="H123" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="I123">
         <v>13.9277</v>
@@ -9987,13 +9987,13 @@
         <v>-87.340999999999994</v>
       </c>
       <c r="K123" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="L123" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="M123" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="124" spans="1:13">
@@ -10007,19 +10007,19 @@
         <v>8</v>
       </c>
       <c r="D124" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="E124" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="F124">
         <v>14</v>
       </c>
       <c r="G124" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="H124" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="I124">
         <v>14.797800000000001</v>
@@ -10028,13 +10028,13 @@
         <v>-86.945400000000006</v>
       </c>
       <c r="K124" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="L124" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="M124" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
     </row>
     <row r="125" spans="1:13">
@@ -10048,16 +10048,16 @@
         <v>8</v>
       </c>
       <c r="D125" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="E125" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="F125">
         <v>15</v>
       </c>
-      <c r="G125" t="s">
-        <v>636</v>
+      <c r="G125">
+        <v>815</v>
       </c>
       <c r="H125" t="s">
         <v>637</v>
@@ -10089,10 +10089,10 @@
         <v>8</v>
       </c>
       <c r="D126" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="E126" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="F126">
         <v>16</v>
@@ -10130,10 +10130,10 @@
         <v>8</v>
       </c>
       <c r="D127" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="E127" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="F127">
         <v>17</v>
@@ -10171,10 +10171,10 @@
         <v>8</v>
       </c>
       <c r="D128" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="E128" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="F128">
         <v>18</v>
@@ -10212,10 +10212,10 @@
         <v>8</v>
       </c>
       <c r="D129" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="E129" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="F129">
         <v>19</v>
@@ -10253,10 +10253,10 @@
         <v>8</v>
       </c>
       <c r="D130" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="E130" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="F130">
         <v>20</v>
@@ -10294,10 +10294,10 @@
         <v>8</v>
       </c>
       <c r="D131" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="E131" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="F131">
         <v>21</v>
@@ -10335,10 +10335,10 @@
         <v>8</v>
       </c>
       <c r="D132" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="E132" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="F132">
         <v>22</v>
@@ -10376,10 +10376,10 @@
         <v>8</v>
       </c>
       <c r="D133" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="E133" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="F133">
         <v>23</v>
@@ -10417,10 +10417,10 @@
         <v>8</v>
       </c>
       <c r="D134" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="E134" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="F134">
         <v>24</v>
@@ -10458,10 +10458,10 @@
         <v>8</v>
       </c>
       <c r="D135" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="E135" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="F135">
         <v>25</v>
@@ -10499,10 +10499,10 @@
         <v>8</v>
       </c>
       <c r="D136" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="E136" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="F136">
         <v>26</v>
@@ -10540,10 +10540,10 @@
         <v>8</v>
       </c>
       <c r="D137" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="E137" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="F137">
         <v>27</v>
@@ -10581,10 +10581,10 @@
         <v>8</v>
       </c>
       <c r="D138" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="E138" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="F138">
         <v>28</v>

--- a/datacovidhn/LOCALIZAHN.xlsx
+++ b/datacovidhn/LOCALIZAHN.xlsx
@@ -4937,8 +4937,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57166B67-A93A-452E-A5E0-8FB31F384F7A}">
   <dimension ref="A1:M299"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="F71" sqref="F71"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>

--- a/datacovidhn/LOCALIZAHN.xlsx
+++ b/datacovidhn/LOCALIZAHN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\000 DRIVE\000 DATACOVID HN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="97" documentId="13_ncr:1_{23A5930A-7705-4873-9354-6671A8986A46}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B55EEB91-B0A5-4413-85B0-55724699CB64}"/>
+  <xr:revisionPtr revIDLastSave="98" documentId="13_ncr:1_{23A5930A-7705-4873-9354-6671A8986A46}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D3BDC38E-FFAB-46A3-A142-FC4BA000E58A}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E12A4D3B-4BD9-444E-BCAD-8267569BA124}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2694" uniqueCount="1506">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2693" uniqueCount="1505">
   <si>
     <t>Pais_cod3</t>
   </si>
@@ -2706,9 +2706,6 @@
   </si>
   <si>
     <t>https://www.google.com/maps/place/Municipio de Opatoro + Departamento de La Paz + Honduras</t>
-  </si>
-  <si>
-    <t>1211</t>
   </si>
   <si>
     <t>San Antonio del Norte</t>
@@ -4938,7 +4935,7 @@
   <dimension ref="A1:M299"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
@@ -12147,11 +12144,11 @@
       <c r="F176">
         <v>11</v>
       </c>
-      <c r="G176" t="s">
+      <c r="G176">
+        <v>1211</v>
+      </c>
+      <c r="H176" t="s">
         <v>891</v>
-      </c>
-      <c r="H176" t="s">
-        <v>892</v>
       </c>
       <c r="I176">
         <v>13.8932</v>
@@ -12160,13 +12157,13 @@
         <v>-87.716999999999999</v>
       </c>
       <c r="K176" t="s">
+        <v>892</v>
+      </c>
+      <c r="L176" t="s">
         <v>893</v>
       </c>
-      <c r="L176" t="s">
+      <c r="M176" t="s">
         <v>894</v>
-      </c>
-      <c r="M176" t="s">
-        <v>895</v>
       </c>
     </row>
     <row r="177" spans="1:13">
@@ -12189,7 +12186,7 @@
         <v>12</v>
       </c>
       <c r="G177" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="H177" t="s">
         <v>297</v>
@@ -12201,13 +12198,13 @@
         <v>-87.955299999999994</v>
       </c>
       <c r="K177" t="s">
+        <v>896</v>
+      </c>
+      <c r="L177" t="s">
         <v>897</v>
       </c>
-      <c r="L177" t="s">
+      <c r="M177" t="s">
         <v>898</v>
-      </c>
-      <c r="M177" t="s">
-        <v>899</v>
       </c>
     </row>
     <row r="178" spans="1:13">
@@ -12230,7 +12227,7 @@
         <v>13</v>
       </c>
       <c r="G178" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="H178" t="s">
         <v>791</v>
@@ -12242,13 +12239,13 @@
         <v>-87.732399999999998</v>
       </c>
       <c r="K178" t="s">
+        <v>900</v>
+      </c>
+      <c r="L178" t="s">
         <v>901</v>
       </c>
-      <c r="L178" t="s">
+      <c r="M178" t="s">
         <v>902</v>
-      </c>
-      <c r="M178" t="s">
-        <v>903</v>
       </c>
     </row>
     <row r="179" spans="1:13">
@@ -12271,10 +12268,10 @@
         <v>14</v>
       </c>
       <c r="G179" t="s">
+        <v>903</v>
+      </c>
+      <c r="H179" t="s">
         <v>904</v>
-      </c>
-      <c r="H179" t="s">
-        <v>905</v>
       </c>
       <c r="I179">
         <v>14.2483</v>
@@ -12283,13 +12280,13 @@
         <v>-87.8506</v>
       </c>
       <c r="K179" t="s">
+        <v>905</v>
+      </c>
+      <c r="L179" t="s">
         <v>906</v>
       </c>
-      <c r="L179" t="s">
+      <c r="M179" t="s">
         <v>907</v>
-      </c>
-      <c r="M179" t="s">
-        <v>908</v>
       </c>
     </row>
     <row r="180" spans="1:13">
@@ -12312,7 +12309,7 @@
         <v>15</v>
       </c>
       <c r="G180" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="H180" t="s">
         <v>672</v>
@@ -12324,13 +12321,13 @@
         <v>-87.950299999999999</v>
       </c>
       <c r="K180" t="s">
+        <v>909</v>
+      </c>
+      <c r="L180" t="s">
         <v>910</v>
       </c>
-      <c r="L180" t="s">
+      <c r="M180" t="s">
         <v>911</v>
-      </c>
-      <c r="M180" t="s">
-        <v>912</v>
       </c>
     </row>
     <row r="181" spans="1:13">
@@ -12353,10 +12350,10 @@
         <v>16</v>
       </c>
       <c r="G181" t="s">
+        <v>912</v>
+      </c>
+      <c r="H181" t="s">
         <v>913</v>
-      </c>
-      <c r="H181" t="s">
-        <v>914</v>
       </c>
       <c r="I181">
         <v>14.065899999999999</v>
@@ -12365,13 +12362,13 @@
         <v>-88.159599999999998</v>
       </c>
       <c r="K181" t="s">
+        <v>914</v>
+      </c>
+      <c r="L181" t="s">
         <v>915</v>
       </c>
-      <c r="L181" t="s">
+      <c r="M181" t="s">
         <v>916</v>
-      </c>
-      <c r="M181" t="s">
-        <v>917</v>
       </c>
     </row>
     <row r="182" spans="1:13">
@@ -12394,10 +12391,10 @@
         <v>17</v>
       </c>
       <c r="G182" t="s">
+        <v>917</v>
+      </c>
+      <c r="H182" t="s">
         <v>918</v>
-      </c>
-      <c r="H182" t="s">
-        <v>919</v>
       </c>
       <c r="I182">
         <v>14.271599999999999</v>
@@ -12406,13 +12403,13 @@
         <v>-87.920900000000003</v>
       </c>
       <c r="K182" t="s">
+        <v>919</v>
+      </c>
+      <c r="L182" t="s">
         <v>920</v>
       </c>
-      <c r="L182" t="s">
+      <c r="M182" t="s">
         <v>921</v>
-      </c>
-      <c r="M182" t="s">
-        <v>922</v>
       </c>
     </row>
     <row r="183" spans="1:13">
@@ -12435,10 +12432,10 @@
         <v>18</v>
       </c>
       <c r="G183" t="s">
+        <v>922</v>
+      </c>
+      <c r="H183" t="s">
         <v>923</v>
-      </c>
-      <c r="H183" t="s">
-        <v>924</v>
       </c>
       <c r="I183">
         <v>14.3584</v>
@@ -12447,13 +12444,13 @@
         <v>-87.879400000000004</v>
       </c>
       <c r="K183" t="s">
+        <v>924</v>
+      </c>
+      <c r="L183" t="s">
         <v>925</v>
       </c>
-      <c r="L183" t="s">
+      <c r="M183" t="s">
         <v>926</v>
-      </c>
-      <c r="M183" t="s">
-        <v>927</v>
       </c>
     </row>
     <row r="184" spans="1:13">
@@ -12476,10 +12473,10 @@
         <v>19</v>
       </c>
       <c r="G184" t="s">
+        <v>927</v>
+      </c>
+      <c r="H184" t="s">
         <v>928</v>
-      </c>
-      <c r="H184" t="s">
-        <v>929</v>
       </c>
       <c r="I184">
         <v>14.1503</v>
@@ -12488,13 +12485,13 @@
         <v>-88.126900000000006</v>
       </c>
       <c r="K184" t="s">
+        <v>929</v>
+      </c>
+      <c r="L184" t="s">
         <v>930</v>
       </c>
-      <c r="L184" t="s">
+      <c r="M184" t="s">
         <v>931</v>
-      </c>
-      <c r="M184" t="s">
-        <v>932</v>
       </c>
     </row>
     <row r="185" spans="1:13">
@@ -12508,19 +12505,19 @@
         <v>13</v>
       </c>
       <c r="D185" t="s">
+        <v>932</v>
+      </c>
+      <c r="E185" t="s">
         <v>933</v>
-      </c>
-      <c r="E185" t="s">
-        <v>934</v>
       </c>
       <c r="F185">
         <v>1</v>
       </c>
       <c r="G185" t="s">
+        <v>934</v>
+      </c>
+      <c r="H185" t="s">
         <v>935</v>
-      </c>
-      <c r="H185" t="s">
-        <v>936</v>
       </c>
       <c r="I185">
         <v>14.586499999999999</v>
@@ -12529,13 +12526,13 @@
         <v>-88.636200000000002</v>
       </c>
       <c r="K185" t="s">
+        <v>936</v>
+      </c>
+      <c r="L185" t="s">
         <v>937</v>
       </c>
-      <c r="L185" t="s">
+      <c r="M185" t="s">
         <v>938</v>
-      </c>
-      <c r="M185" t="s">
-        <v>939</v>
       </c>
     </row>
     <row r="186" spans="1:13">
@@ -12549,19 +12546,19 @@
         <v>13</v>
       </c>
       <c r="D186" t="s">
+        <v>932</v>
+      </c>
+      <c r="E186" t="s">
         <v>933</v>
-      </c>
-      <c r="E186" t="s">
-        <v>934</v>
       </c>
       <c r="F186">
         <v>2</v>
       </c>
       <c r="G186" t="s">
+        <v>939</v>
+      </c>
+      <c r="H186" t="s">
         <v>940</v>
-      </c>
-      <c r="H186" t="s">
-        <v>941</v>
       </c>
       <c r="I186">
         <v>14.507300000000001</v>
@@ -12570,13 +12567,13 @@
         <v>-88.434299999999993</v>
       </c>
       <c r="K186" t="s">
+        <v>941</v>
+      </c>
+      <c r="L186" t="s">
         <v>942</v>
       </c>
-      <c r="L186" t="s">
+      <c r="M186" t="s">
         <v>943</v>
-      </c>
-      <c r="M186" t="s">
-        <v>944</v>
       </c>
     </row>
     <row r="187" spans="1:13">
@@ -12590,19 +12587,19 @@
         <v>13</v>
       </c>
       <c r="D187" t="s">
+        <v>932</v>
+      </c>
+      <c r="E187" t="s">
         <v>933</v>
-      </c>
-      <c r="E187" t="s">
-        <v>934</v>
       </c>
       <c r="F187">
         <v>3</v>
       </c>
       <c r="G187" t="s">
+        <v>944</v>
+      </c>
+      <c r="H187" t="s">
         <v>945</v>
-      </c>
-      <c r="H187" t="s">
-        <v>946</v>
       </c>
       <c r="I187">
         <v>14.056800000000001</v>
@@ -12611,13 +12608,13 @@
         <v>-88.557699999999997</v>
       </c>
       <c r="K187" t="s">
+        <v>946</v>
+      </c>
+      <c r="L187" t="s">
         <v>947</v>
       </c>
-      <c r="L187" t="s">
+      <c r="M187" t="s">
         <v>948</v>
-      </c>
-      <c r="M187" t="s">
-        <v>949</v>
       </c>
     </row>
     <row r="188" spans="1:13">
@@ -12631,19 +12628,19 @@
         <v>13</v>
       </c>
       <c r="D188" t="s">
+        <v>932</v>
+      </c>
+      <c r="E188" t="s">
         <v>933</v>
-      </c>
-      <c r="E188" t="s">
-        <v>934</v>
       </c>
       <c r="F188">
         <v>4</v>
       </c>
       <c r="G188" t="s">
+        <v>949</v>
+      </c>
+      <c r="H188" t="s">
         <v>950</v>
-      </c>
-      <c r="H188" t="s">
-        <v>951</v>
       </c>
       <c r="I188">
         <v>14.310700000000001</v>
@@ -12652,13 +12649,13 @@
         <v>-88.884500000000003</v>
       </c>
       <c r="K188" t="s">
+        <v>951</v>
+      </c>
+      <c r="L188" t="s">
         <v>952</v>
       </c>
-      <c r="L188" t="s">
+      <c r="M188" t="s">
         <v>953</v>
-      </c>
-      <c r="M188" t="s">
-        <v>954</v>
       </c>
     </row>
     <row r="189" spans="1:13">
@@ -12672,19 +12669,19 @@
         <v>13</v>
       </c>
       <c r="D189" t="s">
+        <v>932</v>
+      </c>
+      <c r="E189" t="s">
         <v>933</v>
-      </c>
-      <c r="E189" t="s">
-        <v>934</v>
       </c>
       <c r="F189">
         <v>5</v>
       </c>
       <c r="G189" t="s">
+        <v>954</v>
+      </c>
+      <c r="H189" t="s">
         <v>955</v>
-      </c>
-      <c r="H189" t="s">
-        <v>956</v>
       </c>
       <c r="I189">
         <v>14.2386</v>
@@ -12693,13 +12690,13 @@
         <v>-88.456299999999999</v>
       </c>
       <c r="K189" t="s">
+        <v>956</v>
+      </c>
+      <c r="L189" t="s">
         <v>957</v>
       </c>
-      <c r="L189" t="s">
+      <c r="M189" t="s">
         <v>958</v>
-      </c>
-      <c r="M189" t="s">
-        <v>959</v>
       </c>
     </row>
     <row r="190" spans="1:13">
@@ -12713,19 +12710,19 @@
         <v>13</v>
       </c>
       <c r="D190" t="s">
+        <v>932</v>
+      </c>
+      <c r="E190" t="s">
         <v>933</v>
-      </c>
-      <c r="E190" t="s">
-        <v>934</v>
       </c>
       <c r="F190">
         <v>6</v>
       </c>
       <c r="G190" t="s">
+        <v>959</v>
+      </c>
+      <c r="H190" t="s">
         <v>960</v>
-      </c>
-      <c r="H190" t="s">
-        <v>961</v>
       </c>
       <c r="I190">
         <v>14.1274</v>
@@ -12734,13 +12731,13 @@
         <v>-88.570499999999996</v>
       </c>
       <c r="K190" t="s">
+        <v>961</v>
+      </c>
+      <c r="L190" t="s">
         <v>962</v>
       </c>
-      <c r="L190" t="s">
+      <c r="M190" t="s">
         <v>963</v>
-      </c>
-      <c r="M190" t="s">
-        <v>964</v>
       </c>
     </row>
     <row r="191" spans="1:13">
@@ -12754,19 +12751,19 @@
         <v>13</v>
       </c>
       <c r="D191" t="s">
+        <v>932</v>
+      </c>
+      <c r="E191" t="s">
         <v>933</v>
-      </c>
-      <c r="E191" t="s">
-        <v>934</v>
       </c>
       <c r="F191">
         <v>7</v>
       </c>
       <c r="G191" t="s">
+        <v>964</v>
+      </c>
+      <c r="H191" t="s">
         <v>965</v>
-      </c>
-      <c r="H191" t="s">
-        <v>966</v>
       </c>
       <c r="I191">
         <v>14.2079</v>
@@ -12775,13 +12772,13 @@
         <v>-88.842100000000002</v>
       </c>
       <c r="K191" t="s">
+        <v>966</v>
+      </c>
+      <c r="L191" t="s">
         <v>967</v>
       </c>
-      <c r="L191" t="s">
+      <c r="M191" t="s">
         <v>968</v>
-      </c>
-      <c r="M191" t="s">
-        <v>969</v>
       </c>
     </row>
     <row r="192" spans="1:13">
@@ -12795,19 +12792,19 @@
         <v>13</v>
       </c>
       <c r="D192" t="s">
+        <v>932</v>
+      </c>
+      <c r="E192" t="s">
         <v>933</v>
-      </c>
-      <c r="E192" t="s">
-        <v>934</v>
       </c>
       <c r="F192">
         <v>8</v>
       </c>
       <c r="G192" t="s">
+        <v>969</v>
+      </c>
+      <c r="H192" t="s">
         <v>970</v>
-      </c>
-      <c r="H192" t="s">
-        <v>971</v>
       </c>
       <c r="I192">
         <v>14.472799999999999</v>
@@ -12816,13 +12813,13 @@
         <v>-88.560699999999997</v>
       </c>
       <c r="K192" t="s">
+        <v>971</v>
+      </c>
+      <c r="L192" t="s">
         <v>972</v>
       </c>
-      <c r="L192" t="s">
+      <c r="M192" t="s">
         <v>973</v>
-      </c>
-      <c r="M192" t="s">
-        <v>974</v>
       </c>
     </row>
     <row r="193" spans="1:13">
@@ -12836,19 +12833,19 @@
         <v>13</v>
       </c>
       <c r="D193" t="s">
+        <v>932</v>
+      </c>
+      <c r="E193" t="s">
         <v>933</v>
-      </c>
-      <c r="E193" t="s">
-        <v>934</v>
       </c>
       <c r="F193">
         <v>9</v>
       </c>
       <c r="G193" t="s">
+        <v>974</v>
+      </c>
+      <c r="H193" t="s">
         <v>975</v>
-      </c>
-      <c r="H193" t="s">
-        <v>976</v>
       </c>
       <c r="I193">
         <v>14.665100000000001</v>
@@ -12857,13 +12854,13 @@
         <v>-88.461500000000001</v>
       </c>
       <c r="K193" t="s">
+        <v>976</v>
+      </c>
+      <c r="L193" t="s">
         <v>977</v>
       </c>
-      <c r="L193" t="s">
+      <c r="M193" t="s">
         <v>978</v>
-      </c>
-      <c r="M193" t="s">
-        <v>979</v>
       </c>
     </row>
     <row r="194" spans="1:13">
@@ -12877,19 +12874,19 @@
         <v>13</v>
       </c>
       <c r="D194" t="s">
+        <v>932</v>
+      </c>
+      <c r="E194" t="s">
         <v>933</v>
-      </c>
-      <c r="E194" t="s">
-        <v>934</v>
       </c>
       <c r="F194">
         <v>10</v>
       </c>
       <c r="G194" t="s">
+        <v>979</v>
+      </c>
+      <c r="H194" t="s">
         <v>980</v>
-      </c>
-      <c r="H194" t="s">
-        <v>981</v>
       </c>
       <c r="I194">
         <v>14.6808</v>
@@ -12898,13 +12895,13 @@
         <v>-88.658799999999999</v>
       </c>
       <c r="K194" t="s">
+        <v>981</v>
+      </c>
+      <c r="L194" t="s">
         <v>982</v>
       </c>
-      <c r="L194" t="s">
+      <c r="M194" t="s">
         <v>983</v>
-      </c>
-      <c r="M194" t="s">
-        <v>984</v>
       </c>
     </row>
     <row r="195" spans="1:13" ht="15">
@@ -12918,16 +12915,16 @@
         <v>13</v>
       </c>
       <c r="D195" t="s">
+        <v>932</v>
+      </c>
+      <c r="E195" t="s">
         <v>933</v>
-      </c>
-      <c r="E195" t="s">
-        <v>934</v>
       </c>
       <c r="F195">
         <v>11</v>
       </c>
       <c r="G195" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="H195" t="s">
         <v>273</v>
@@ -12939,13 +12936,13 @@
         <v>-88.422399999999996</v>
       </c>
       <c r="K195" t="s">
+        <v>985</v>
+      </c>
+      <c r="L195" t="s">
         <v>986</v>
       </c>
-      <c r="L195" t="s">
+      <c r="M195" s="1" t="s">
         <v>987</v>
-      </c>
-      <c r="M195" s="1" t="s">
-        <v>988</v>
       </c>
     </row>
     <row r="196" spans="1:13">
@@ -12959,19 +12956,19 @@
         <v>13</v>
       </c>
       <c r="D196" t="s">
+        <v>932</v>
+      </c>
+      <c r="E196" t="s">
         <v>933</v>
-      </c>
-      <c r="E196" t="s">
-        <v>934</v>
       </c>
       <c r="F196">
         <v>12</v>
       </c>
       <c r="G196" t="s">
+        <v>988</v>
+      </c>
+      <c r="H196" t="s">
         <v>989</v>
-      </c>
-      <c r="H196" t="s">
-        <v>990</v>
       </c>
       <c r="I196">
         <v>14.071300000000001</v>
@@ -12980,13 +12977,13 @@
         <v>-88.686300000000003</v>
       </c>
       <c r="K196" t="s">
+        <v>990</v>
+      </c>
+      <c r="L196" t="s">
         <v>991</v>
       </c>
-      <c r="L196" t="s">
+      <c r="M196" t="s">
         <v>992</v>
-      </c>
-      <c r="M196" t="s">
-        <v>993</v>
       </c>
     </row>
     <row r="197" spans="1:13">
@@ -13000,19 +12997,19 @@
         <v>13</v>
       </c>
       <c r="D197" t="s">
+        <v>932</v>
+      </c>
+      <c r="E197" t="s">
         <v>933</v>
       </c>
-      <c r="E197" t="s">
-        <v>934</v>
-      </c>
       <c r="F197">
         <v>13</v>
       </c>
       <c r="G197" t="s">
+        <v>993</v>
+      </c>
+      <c r="H197" t="s">
         <v>994</v>
-      </c>
-      <c r="H197" t="s">
-        <v>995</v>
       </c>
       <c r="I197">
         <v>14.826599999999999</v>
@@ -13021,13 +13018,13 @@
         <v>-88.595100000000002</v>
       </c>
       <c r="K197" t="s">
+        <v>995</v>
+      </c>
+      <c r="L197" t="s">
         <v>996</v>
       </c>
-      <c r="L197" t="s">
+      <c r="M197" t="s">
         <v>997</v>
-      </c>
-      <c r="M197" t="s">
-        <v>998</v>
       </c>
     </row>
     <row r="198" spans="1:13">
@@ -13041,19 +13038,19 @@
         <v>13</v>
       </c>
       <c r="D198" t="s">
+        <v>932</v>
+      </c>
+      <c r="E198" t="s">
         <v>933</v>
       </c>
-      <c r="E198" t="s">
-        <v>934</v>
-      </c>
       <c r="F198">
         <v>14</v>
       </c>
       <c r="G198" t="s">
+        <v>998</v>
+      </c>
+      <c r="H198" t="s">
         <v>999</v>
-      </c>
-      <c r="H198" t="s">
-        <v>1000</v>
       </c>
       <c r="I198">
         <v>14.0487</v>
@@ -13062,13 +13059,13 @@
         <v>-88.621499999999997</v>
       </c>
       <c r="K198" t="s">
+        <v>1000</v>
+      </c>
+      <c r="L198" t="s">
         <v>1001</v>
       </c>
-      <c r="L198" t="s">
+      <c r="M198" t="s">
         <v>1002</v>
-      </c>
-      <c r="M198" t="s">
-        <v>1003</v>
       </c>
     </row>
     <row r="199" spans="1:13">
@@ -13082,19 +13079,19 @@
         <v>13</v>
       </c>
       <c r="D199" t="s">
+        <v>932</v>
+      </c>
+      <c r="E199" t="s">
         <v>933</v>
-      </c>
-      <c r="E199" t="s">
-        <v>934</v>
       </c>
       <c r="F199">
         <v>15</v>
       </c>
       <c r="G199" t="s">
+        <v>1003</v>
+      </c>
+      <c r="H199" t="s">
         <v>1004</v>
-      </c>
-      <c r="H199" t="s">
-        <v>1005</v>
       </c>
       <c r="I199">
         <v>14.056900000000001</v>
@@ -13103,13 +13100,13 @@
         <v>-88.464299999999994</v>
       </c>
       <c r="K199" t="s">
+        <v>1005</v>
+      </c>
+      <c r="L199" t="s">
         <v>1006</v>
       </c>
-      <c r="L199" t="s">
+      <c r="M199" t="s">
         <v>1007</v>
-      </c>
-      <c r="M199" t="s">
-        <v>1008</v>
       </c>
     </row>
     <row r="200" spans="1:13">
@@ -13123,19 +13120,19 @@
         <v>13</v>
       </c>
       <c r="D200" t="s">
+        <v>932</v>
+      </c>
+      <c r="E200" t="s">
         <v>933</v>
-      </c>
-      <c r="E200" t="s">
-        <v>934</v>
       </c>
       <c r="F200">
         <v>16</v>
       </c>
       <c r="G200" t="s">
+        <v>1008</v>
+      </c>
+      <c r="H200" t="s">
         <v>1009</v>
-      </c>
-      <c r="H200" t="s">
-        <v>1010</v>
       </c>
       <c r="I200">
         <v>14.2311</v>
@@ -13144,13 +13141,13 @@
         <v>-88.613500000000002</v>
       </c>
       <c r="K200" t="s">
+        <v>1010</v>
+      </c>
+      <c r="L200" t="s">
         <v>1011</v>
       </c>
-      <c r="L200" t="s">
+      <c r="M200" t="s">
         <v>1012</v>
-      </c>
-      <c r="M200" t="s">
-        <v>1013</v>
       </c>
     </row>
     <row r="201" spans="1:13">
@@ -13164,16 +13161,16 @@
         <v>13</v>
       </c>
       <c r="D201" t="s">
+        <v>932</v>
+      </c>
+      <c r="E201" t="s">
         <v>933</v>
-      </c>
-      <c r="E201" t="s">
-        <v>934</v>
       </c>
       <c r="F201">
         <v>17</v>
       </c>
       <c r="G201" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="H201" t="s">
         <v>43</v>
@@ -13185,13 +13182,13 @@
         <v>-88.369399999999999</v>
       </c>
       <c r="K201" t="s">
+        <v>1014</v>
+      </c>
+      <c r="L201" t="s">
         <v>1015</v>
       </c>
-      <c r="L201" t="s">
+      <c r="M201" t="s">
         <v>1016</v>
-      </c>
-      <c r="M201" t="s">
-        <v>1017</v>
       </c>
     </row>
     <row r="202" spans="1:13">
@@ -13205,19 +13202,19 @@
         <v>13</v>
       </c>
       <c r="D202" t="s">
+        <v>932</v>
+      </c>
+      <c r="E202" t="s">
         <v>933</v>
-      </c>
-      <c r="E202" t="s">
-        <v>934</v>
       </c>
       <c r="F202">
         <v>18</v>
       </c>
       <c r="G202" t="s">
+        <v>1017</v>
+      </c>
+      <c r="H202" t="s">
         <v>1018</v>
-      </c>
-      <c r="H202" t="s">
-        <v>1019</v>
       </c>
       <c r="I202">
         <v>14.1416</v>
@@ -13226,13 +13223,13 @@
         <v>-88.772900000000007</v>
       </c>
       <c r="K202" t="s">
+        <v>1019</v>
+      </c>
+      <c r="L202" t="s">
         <v>1020</v>
       </c>
-      <c r="L202" t="s">
+      <c r="M202" t="s">
         <v>1021</v>
-      </c>
-      <c r="M202" t="s">
-        <v>1022</v>
       </c>
     </row>
     <row r="203" spans="1:13">
@@ -13246,19 +13243,19 @@
         <v>13</v>
       </c>
       <c r="D203" t="s">
+        <v>932</v>
+      </c>
+      <c r="E203" t="s">
         <v>933</v>
-      </c>
-      <c r="E203" t="s">
-        <v>934</v>
       </c>
       <c r="F203">
         <v>19</v>
       </c>
       <c r="G203" t="s">
+        <v>1022</v>
+      </c>
+      <c r="H203" t="s">
         <v>1023</v>
-      </c>
-      <c r="H203" t="s">
-        <v>1024</v>
       </c>
       <c r="I203">
         <v>14.4512</v>
@@ -13267,13 +13264,13 @@
         <v>-88.67</v>
       </c>
       <c r="K203" t="s">
+        <v>1024</v>
+      </c>
+      <c r="L203" t="s">
         <v>1025</v>
       </c>
-      <c r="L203" t="s">
+      <c r="M203" t="s">
         <v>1026</v>
-      </c>
-      <c r="M203" t="s">
-        <v>1027</v>
       </c>
     </row>
     <row r="204" spans="1:13">
@@ -13287,19 +13284,19 @@
         <v>13</v>
       </c>
       <c r="D204" t="s">
+        <v>932</v>
+      </c>
+      <c r="E204" t="s">
         <v>933</v>
-      </c>
-      <c r="E204" t="s">
-        <v>934</v>
       </c>
       <c r="F204">
         <v>20</v>
       </c>
       <c r="G204" t="s">
+        <v>1027</v>
+      </c>
+      <c r="H204" t="s">
         <v>1028</v>
-      </c>
-      <c r="H204" t="s">
-        <v>1029</v>
       </c>
       <c r="I204">
         <v>14.7095</v>
@@ -13308,13 +13305,13 @@
         <v>-88.379900000000006</v>
       </c>
       <c r="K204" t="s">
+        <v>1029</v>
+      </c>
+      <c r="L204" t="s">
         <v>1030</v>
       </c>
-      <c r="L204" t="s">
+      <c r="M204" t="s">
         <v>1031</v>
-      </c>
-      <c r="M204" t="s">
-        <v>1032</v>
       </c>
     </row>
     <row r="205" spans="1:13">
@@ -13328,16 +13325,16 @@
         <v>13</v>
       </c>
       <c r="D205" t="s">
+        <v>932</v>
+      </c>
+      <c r="E205" t="s">
         <v>933</v>
-      </c>
-      <c r="E205" t="s">
-        <v>934</v>
       </c>
       <c r="F205">
         <v>21</v>
       </c>
       <c r="G205" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="H205" t="s">
         <v>191</v>
@@ -13349,13 +13346,13 @@
         <v>-88.7316</v>
       </c>
       <c r="K205" t="s">
+        <v>1033</v>
+      </c>
+      <c r="L205" t="s">
         <v>1034</v>
       </c>
-      <c r="L205" t="s">
+      <c r="M205" t="s">
         <v>1035</v>
-      </c>
-      <c r="M205" t="s">
-        <v>1036</v>
       </c>
     </row>
     <row r="206" spans="1:13">
@@ -13369,19 +13366,19 @@
         <v>13</v>
       </c>
       <c r="D206" t="s">
+        <v>932</v>
+      </c>
+      <c r="E206" t="s">
         <v>933</v>
-      </c>
-      <c r="E206" t="s">
-        <v>934</v>
       </c>
       <c r="F206">
         <v>22</v>
       </c>
       <c r="G206" t="s">
+        <v>1036</v>
+      </c>
+      <c r="H206" t="s">
         <v>1037</v>
-      </c>
-      <c r="H206" t="s">
-        <v>1038</v>
       </c>
       <c r="I206">
         <v>14.3474</v>
@@ -13390,13 +13387,13 @@
         <v>-88.535899999999998</v>
       </c>
       <c r="K206" t="s">
+        <v>1038</v>
+      </c>
+      <c r="L206" t="s">
         <v>1039</v>
       </c>
-      <c r="L206" t="s">
+      <c r="M206" t="s">
         <v>1040</v>
-      </c>
-      <c r="M206" t="s">
-        <v>1041</v>
       </c>
     </row>
     <row r="207" spans="1:13">
@@ -13410,19 +13407,19 @@
         <v>13</v>
       </c>
       <c r="D207" t="s">
+        <v>932</v>
+      </c>
+      <c r="E207" t="s">
         <v>933</v>
-      </c>
-      <c r="E207" t="s">
-        <v>934</v>
       </c>
       <c r="F207">
         <v>23</v>
       </c>
       <c r="G207" t="s">
+        <v>1041</v>
+      </c>
+      <c r="H207" t="s">
         <v>1042</v>
-      </c>
-      <c r="H207" t="s">
-        <v>1043</v>
       </c>
       <c r="I207">
         <v>14.6843</v>
@@ -13431,13 +13428,13 @@
         <v>-88.733800000000002</v>
       </c>
       <c r="K207" t="s">
+        <v>1043</v>
+      </c>
+      <c r="L207" t="s">
         <v>1044</v>
       </c>
-      <c r="L207" t="s">
+      <c r="M207" t="s">
         <v>1045</v>
-      </c>
-      <c r="M207" t="s">
-        <v>1046</v>
       </c>
     </row>
     <row r="208" spans="1:13">
@@ -13451,19 +13448,19 @@
         <v>13</v>
       </c>
       <c r="D208" t="s">
+        <v>932</v>
+      </c>
+      <c r="E208" t="s">
         <v>933</v>
-      </c>
-      <c r="E208" t="s">
-        <v>934</v>
       </c>
       <c r="F208">
         <v>24</v>
       </c>
       <c r="G208" t="s">
+        <v>1046</v>
+      </c>
+      <c r="H208" t="s">
         <v>1047</v>
-      </c>
-      <c r="H208" t="s">
-        <v>1048</v>
       </c>
       <c r="I208">
         <v>14.2082</v>
@@ -13472,13 +13469,13 @@
         <v>-88.755200000000002</v>
       </c>
       <c r="K208" t="s">
+        <v>1048</v>
+      </c>
+      <c r="L208" t="s">
         <v>1049</v>
       </c>
-      <c r="L208" t="s">
+      <c r="M208" t="s">
         <v>1050</v>
-      </c>
-      <c r="M208" t="s">
-        <v>1051</v>
       </c>
     </row>
     <row r="209" spans="1:13">
@@ -13492,19 +13489,19 @@
         <v>13</v>
       </c>
       <c r="D209" t="s">
+        <v>932</v>
+      </c>
+      <c r="E209" t="s">
         <v>933</v>
-      </c>
-      <c r="E209" t="s">
-        <v>934</v>
       </c>
       <c r="F209">
         <v>25</v>
       </c>
       <c r="G209" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H209" t="s">
         <v>1052</v>
-      </c>
-      <c r="H209" t="s">
-        <v>1053</v>
       </c>
       <c r="I209">
         <v>14.2499</v>
@@ -13513,13 +13510,13 @@
         <v>-88.739900000000006</v>
       </c>
       <c r="K209" t="s">
+        <v>1053</v>
+      </c>
+      <c r="L209" t="s">
         <v>1054</v>
       </c>
-      <c r="L209" t="s">
+      <c r="M209" t="s">
         <v>1055</v>
-      </c>
-      <c r="M209" t="s">
-        <v>1056</v>
       </c>
     </row>
     <row r="210" spans="1:13">
@@ -13533,19 +13530,19 @@
         <v>13</v>
       </c>
       <c r="D210" t="s">
+        <v>932</v>
+      </c>
+      <c r="E210" t="s">
         <v>933</v>
-      </c>
-      <c r="E210" t="s">
-        <v>934</v>
       </c>
       <c r="F210">
         <v>26</v>
       </c>
       <c r="G210" t="s">
+        <v>1056</v>
+      </c>
+      <c r="H210" t="s">
         <v>1057</v>
-      </c>
-      <c r="H210" t="s">
-        <v>1058</v>
       </c>
       <c r="I210">
         <v>14.1531</v>
@@ -13554,13 +13551,13 @@
         <v>-88.711799999999997</v>
       </c>
       <c r="K210" t="s">
+        <v>1058</v>
+      </c>
+      <c r="L210" t="s">
         <v>1059</v>
       </c>
-      <c r="L210" t="s">
+      <c r="M210" t="s">
         <v>1060</v>
-      </c>
-      <c r="M210" t="s">
-        <v>1061</v>
       </c>
     </row>
     <row r="211" spans="1:13">
@@ -13574,19 +13571,19 @@
         <v>13</v>
       </c>
       <c r="D211" t="s">
+        <v>932</v>
+      </c>
+      <c r="E211" t="s">
         <v>933</v>
-      </c>
-      <c r="E211" t="s">
-        <v>934</v>
       </c>
       <c r="F211">
         <v>27</v>
       </c>
       <c r="G211" t="s">
+        <v>1061</v>
+      </c>
+      <c r="H211" t="s">
         <v>1062</v>
-      </c>
-      <c r="H211" t="s">
-        <v>1063</v>
       </c>
       <c r="I211">
         <v>14.008800000000001</v>
@@ -13595,13 +13592,13 @@
         <v>-88.5642</v>
       </c>
       <c r="K211" t="s">
+        <v>1063</v>
+      </c>
+      <c r="L211" t="s">
         <v>1064</v>
       </c>
-      <c r="L211" t="s">
+      <c r="M211" t="s">
         <v>1065</v>
-      </c>
-      <c r="M211" t="s">
-        <v>1066</v>
       </c>
     </row>
     <row r="212" spans="1:13">
@@ -13615,19 +13612,19 @@
         <v>13</v>
       </c>
       <c r="D212" t="s">
+        <v>932</v>
+      </c>
+      <c r="E212" t="s">
         <v>933</v>
-      </c>
-      <c r="E212" t="s">
-        <v>934</v>
       </c>
       <c r="F212">
         <v>28</v>
       </c>
       <c r="G212" t="s">
+        <v>1066</v>
+      </c>
+      <c r="H212" t="s">
         <v>1067</v>
-      </c>
-      <c r="H212" t="s">
-        <v>1068</v>
       </c>
       <c r="I212">
         <v>14.387600000000001</v>
@@ -13636,13 +13633,13 @@
         <v>-88.600499999999997</v>
       </c>
       <c r="K212" t="s">
+        <v>1068</v>
+      </c>
+      <c r="L212" t="s">
         <v>1069</v>
       </c>
-      <c r="L212" t="s">
+      <c r="M212" t="s">
         <v>1070</v>
-      </c>
-      <c r="M212" t="s">
-        <v>1071</v>
       </c>
     </row>
     <row r="213" spans="1:13">
@@ -13656,19 +13653,19 @@
         <v>14</v>
       </c>
       <c r="D213" t="s">
+        <v>1071</v>
+      </c>
+      <c r="E213" t="s">
         <v>1072</v>
-      </c>
-      <c r="E213" t="s">
-        <v>1073</v>
       </c>
       <c r="F213">
         <v>1</v>
       </c>
       <c r="G213" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="H213" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="I213">
         <v>14.403700000000001</v>
@@ -13677,13 +13674,13 @@
         <v>-89.165400000000005</v>
       </c>
       <c r="K213" t="s">
+        <v>1074</v>
+      </c>
+      <c r="L213" t="s">
         <v>1075</v>
       </c>
-      <c r="L213" t="s">
+      <c r="M213" t="s">
         <v>1076</v>
-      </c>
-      <c r="M213" t="s">
-        <v>1077</v>
       </c>
     </row>
     <row r="214" spans="1:13">
@@ -13697,19 +13694,19 @@
         <v>14</v>
       </c>
       <c r="D214" t="s">
+        <v>1071</v>
+      </c>
+      <c r="E214" t="s">
         <v>1072</v>
-      </c>
-      <c r="E214" t="s">
-        <v>1073</v>
       </c>
       <c r="F214">
         <v>2</v>
       </c>
       <c r="G214" t="s">
+        <v>1077</v>
+      </c>
+      <c r="H214" t="s">
         <v>1078</v>
-      </c>
-      <c r="H214" t="s">
-        <v>1079</v>
       </c>
       <c r="I214">
         <v>14.484999999999999</v>
@@ -13718,13 +13715,13 @@
         <v>-88.783100000000005</v>
       </c>
       <c r="K214" t="s">
+        <v>1079</v>
+      </c>
+      <c r="L214" t="s">
         <v>1080</v>
       </c>
-      <c r="L214" t="s">
+      <c r="M214" t="s">
         <v>1081</v>
-      </c>
-      <c r="M214" t="s">
-        <v>1082</v>
       </c>
     </row>
     <row r="215" spans="1:13">
@@ -13738,16 +13735,16 @@
         <v>14</v>
       </c>
       <c r="D215" t="s">
+        <v>1071</v>
+      </c>
+      <c r="E215" t="s">
         <v>1072</v>
-      </c>
-      <c r="E215" t="s">
-        <v>1073</v>
       </c>
       <c r="F215">
         <v>3</v>
       </c>
       <c r="G215" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="H215" t="s">
         <v>228</v>
@@ -13759,13 +13756,13 @@
         <v>-89.197100000000006</v>
       </c>
       <c r="K215" t="s">
+        <v>1083</v>
+      </c>
+      <c r="L215" t="s">
         <v>1084</v>
       </c>
-      <c r="L215" t="s">
+      <c r="M215" t="s">
         <v>1085</v>
-      </c>
-      <c r="M215" t="s">
-        <v>1086</v>
       </c>
     </row>
     <row r="216" spans="1:13">
@@ -13779,19 +13776,19 @@
         <v>14</v>
       </c>
       <c r="D216" t="s">
+        <v>1071</v>
+      </c>
+      <c r="E216" t="s">
         <v>1072</v>
-      </c>
-      <c r="E216" t="s">
-        <v>1073</v>
       </c>
       <c r="F216">
         <v>4</v>
       </c>
       <c r="G216" t="s">
+        <v>1086</v>
+      </c>
+      <c r="H216" t="s">
         <v>1087</v>
-      </c>
-      <c r="H216" t="s">
-        <v>1088</v>
       </c>
       <c r="I216">
         <v>14.5573</v>
@@ -13800,13 +13797,13 @@
         <v>-89.132999999999996</v>
       </c>
       <c r="K216" t="s">
+        <v>1088</v>
+      </c>
+      <c r="L216" t="s">
         <v>1089</v>
       </c>
-      <c r="L216" t="s">
+      <c r="M216" t="s">
         <v>1090</v>
-      </c>
-      <c r="M216" t="s">
-        <v>1091</v>
       </c>
     </row>
     <row r="217" spans="1:13">
@@ -13820,19 +13817,19 @@
         <v>14</v>
       </c>
       <c r="D217" t="s">
+        <v>1071</v>
+      </c>
+      <c r="E217" t="s">
         <v>1072</v>
-      </c>
-      <c r="E217" t="s">
-        <v>1073</v>
       </c>
       <c r="F217">
         <v>5</v>
       </c>
       <c r="G217" t="s">
+        <v>1091</v>
+      </c>
+      <c r="H217" t="s">
         <v>1092</v>
-      </c>
-      <c r="H217" t="s">
-        <v>1093</v>
       </c>
       <c r="I217">
         <v>14.5847</v>
@@ -13841,13 +13838,13 @@
         <v>-89.072599999999994</v>
       </c>
       <c r="K217" t="s">
+        <v>1093</v>
+      </c>
+      <c r="L217" t="s">
         <v>1094</v>
       </c>
-      <c r="L217" t="s">
+      <c r="M217" t="s">
         <v>1095</v>
-      </c>
-      <c r="M217" t="s">
-        <v>1096</v>
       </c>
     </row>
     <row r="218" spans="1:13">
@@ -13861,19 +13858,19 @@
         <v>14</v>
       </c>
       <c r="D218" t="s">
+        <v>1071</v>
+      </c>
+      <c r="E218" t="s">
         <v>1072</v>
-      </c>
-      <c r="E218" t="s">
-        <v>1073</v>
       </c>
       <c r="F218">
         <v>6</v>
       </c>
       <c r="G218" t="s">
+        <v>1096</v>
+      </c>
+      <c r="H218" t="s">
         <v>1097</v>
-      </c>
-      <c r="H218" t="s">
-        <v>1098</v>
       </c>
       <c r="I218">
         <v>14.667</v>
@@ -13882,13 +13879,13 @@
         <v>-89.047399999999996</v>
       </c>
       <c r="K218" t="s">
+        <v>1098</v>
+      </c>
+      <c r="L218" t="s">
         <v>1099</v>
       </c>
-      <c r="L218" t="s">
+      <c r="M218" t="s">
         <v>1100</v>
-      </c>
-      <c r="M218" t="s">
-        <v>1101</v>
       </c>
     </row>
     <row r="219" spans="1:13">
@@ -13902,19 +13899,19 @@
         <v>14</v>
       </c>
       <c r="D219" t="s">
+        <v>1071</v>
+      </c>
+      <c r="E219" t="s">
         <v>1072</v>
-      </c>
-      <c r="E219" t="s">
-        <v>1073</v>
       </c>
       <c r="F219">
         <v>7</v>
       </c>
       <c r="G219" t="s">
+        <v>1101</v>
+      </c>
+      <c r="H219" t="s">
         <v>1102</v>
-      </c>
-      <c r="H219" t="s">
-        <v>1103</v>
       </c>
       <c r="I219">
         <v>14.4953</v>
@@ -13923,13 +13920,13 @@
         <v>-89.0334</v>
       </c>
       <c r="K219" t="s">
+        <v>1103</v>
+      </c>
+      <c r="L219" t="s">
         <v>1104</v>
       </c>
-      <c r="L219" t="s">
+      <c r="M219" t="s">
         <v>1105</v>
-      </c>
-      <c r="M219" t="s">
-        <v>1106</v>
       </c>
     </row>
     <row r="220" spans="1:13">
@@ -13943,19 +13940,19 @@
         <v>14</v>
       </c>
       <c r="D220" t="s">
+        <v>1071</v>
+      </c>
+      <c r="E220" t="s">
         <v>1072</v>
-      </c>
-      <c r="E220" t="s">
-        <v>1073</v>
       </c>
       <c r="F220">
         <v>8</v>
       </c>
       <c r="G220" t="s">
+        <v>1106</v>
+      </c>
+      <c r="H220" t="s">
         <v>1107</v>
-      </c>
-      <c r="H220" t="s">
-        <v>1108</v>
       </c>
       <c r="I220">
         <v>14.581</v>
@@ -13964,13 +13961,13 @@
         <v>-88.944999999999993</v>
       </c>
       <c r="K220" t="s">
+        <v>1108</v>
+      </c>
+      <c r="L220" t="s">
         <v>1109</v>
       </c>
-      <c r="L220" t="s">
+      <c r="M220" t="s">
         <v>1110</v>
-      </c>
-      <c r="M220" t="s">
-        <v>1111</v>
       </c>
     </row>
     <row r="221" spans="1:13">
@@ -13984,19 +13981,19 @@
         <v>14</v>
       </c>
       <c r="D221" t="s">
+        <v>1071</v>
+      </c>
+      <c r="E221" t="s">
         <v>1072</v>
-      </c>
-      <c r="E221" t="s">
-        <v>1073</v>
       </c>
       <c r="F221">
         <v>9</v>
       </c>
       <c r="G221" t="s">
+        <v>1111</v>
+      </c>
+      <c r="H221" t="s">
         <v>1112</v>
-      </c>
-      <c r="H221" t="s">
-        <v>1113</v>
       </c>
       <c r="I221">
         <v>14.3195</v>
@@ -14005,13 +14002,13 @@
         <v>-89.011700000000005</v>
       </c>
       <c r="K221" t="s">
+        <v>1113</v>
+      </c>
+      <c r="L221" t="s">
         <v>1114</v>
       </c>
-      <c r="L221" t="s">
+      <c r="M221" t="s">
         <v>1115</v>
-      </c>
-      <c r="M221" t="s">
-        <v>1116</v>
       </c>
     </row>
     <row r="222" spans="1:13">
@@ -14025,19 +14022,19 @@
         <v>14</v>
       </c>
       <c r="D222" t="s">
+        <v>1071</v>
+      </c>
+      <c r="E222" t="s">
         <v>1072</v>
-      </c>
-      <c r="E222" t="s">
-        <v>1073</v>
       </c>
       <c r="F222">
         <v>10</v>
       </c>
       <c r="G222" t="s">
+        <v>1116</v>
+      </c>
+      <c r="H222" t="s">
         <v>1117</v>
-      </c>
-      <c r="H222" t="s">
-        <v>1118</v>
       </c>
       <c r="I222">
         <v>14.6911</v>
@@ -14046,13 +14043,13 @@
         <v>-89.098799999999997</v>
       </c>
       <c r="K222" t="s">
+        <v>1118</v>
+      </c>
+      <c r="L222" t="s">
         <v>1119</v>
       </c>
-      <c r="L222" t="s">
+      <c r="M222" t="s">
         <v>1120</v>
-      </c>
-      <c r="M222" t="s">
-        <v>1121</v>
       </c>
     </row>
     <row r="223" spans="1:13">
@@ -14066,19 +14063,19 @@
         <v>14</v>
       </c>
       <c r="D223" t="s">
+        <v>1071</v>
+      </c>
+      <c r="E223" t="s">
         <v>1072</v>
-      </c>
-      <c r="E223" t="s">
-        <v>1073</v>
       </c>
       <c r="F223">
         <v>11</v>
       </c>
       <c r="G223" t="s">
+        <v>1121</v>
+      </c>
+      <c r="H223" t="s">
         <v>1122</v>
-      </c>
-      <c r="H223" t="s">
-        <v>1123</v>
       </c>
       <c r="I223">
         <v>14.4284</v>
@@ -14087,13 +14084,13 @@
         <v>-88.9923</v>
       </c>
       <c r="K223" t="s">
+        <v>1123</v>
+      </c>
+      <c r="L223" t="s">
         <v>1124</v>
       </c>
-      <c r="L223" t="s">
+      <c r="M223" t="s">
         <v>1125</v>
-      </c>
-      <c r="M223" t="s">
-        <v>1126</v>
       </c>
     </row>
     <row r="224" spans="1:13">
@@ -14107,19 +14104,19 @@
         <v>14</v>
       </c>
       <c r="D224" t="s">
+        <v>1071</v>
+      </c>
+      <c r="E224" t="s">
         <v>1072</v>
-      </c>
-      <c r="E224" t="s">
-        <v>1073</v>
       </c>
       <c r="F224">
         <v>12</v>
       </c>
       <c r="G224" t="s">
+        <v>1126</v>
+      </c>
+      <c r="H224" t="s">
         <v>1127</v>
-      </c>
-      <c r="H224" t="s">
-        <v>1128</v>
       </c>
       <c r="I224">
         <v>14.632400000000001</v>
@@ -14128,13 +14125,13 @@
         <v>-89.124799999999993</v>
       </c>
       <c r="K224" t="s">
+        <v>1128</v>
+      </c>
+      <c r="L224" t="s">
         <v>1129</v>
       </c>
-      <c r="L224" t="s">
+      <c r="M224" t="s">
         <v>1130</v>
-      </c>
-      <c r="M224" t="s">
-        <v>1131</v>
       </c>
     </row>
     <row r="225" spans="1:13">
@@ -14148,19 +14145,19 @@
         <v>14</v>
       </c>
       <c r="D225" t="s">
+        <v>1071</v>
+      </c>
+      <c r="E225" t="s">
         <v>1072</v>
       </c>
-      <c r="E225" t="s">
-        <v>1073</v>
-      </c>
       <c r="F225">
         <v>13</v>
       </c>
       <c r="G225" t="s">
+        <v>1131</v>
+      </c>
+      <c r="H225" t="s">
         <v>1132</v>
-      </c>
-      <c r="H225" t="s">
-        <v>1133</v>
       </c>
       <c r="I225">
         <v>14.394500000000001</v>
@@ -14169,13 +14166,13 @@
         <v>-88.924999999999997</v>
       </c>
       <c r="K225" t="s">
+        <v>1133</v>
+      </c>
+      <c r="L225" t="s">
         <v>1134</v>
       </c>
-      <c r="L225" t="s">
+      <c r="M225" t="s">
         <v>1135</v>
-      </c>
-      <c r="M225" t="s">
-        <v>1136</v>
       </c>
     </row>
     <row r="226" spans="1:13">
@@ -14189,16 +14186,16 @@
         <v>14</v>
       </c>
       <c r="D226" t="s">
+        <v>1071</v>
+      </c>
+      <c r="E226" t="s">
         <v>1072</v>
       </c>
-      <c r="E226" t="s">
-        <v>1073</v>
-      </c>
       <c r="F226">
         <v>14</v>
       </c>
       <c r="G226" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="H226" t="s">
         <v>85</v>
@@ -14210,13 +14207,13 @@
         <v>-89.284300000000002</v>
       </c>
       <c r="K226" t="s">
+        <v>1137</v>
+      </c>
+      <c r="L226" t="s">
         <v>1138</v>
       </c>
-      <c r="L226" t="s">
+      <c r="M226" t="s">
         <v>1139</v>
-      </c>
-      <c r="M226" t="s">
-        <v>1140</v>
       </c>
     </row>
     <row r="227" spans="1:13">
@@ -14230,19 +14227,19 @@
         <v>14</v>
       </c>
       <c r="D227" t="s">
+        <v>1071</v>
+      </c>
+      <c r="E227" t="s">
         <v>1072</v>
-      </c>
-      <c r="E227" t="s">
-        <v>1073</v>
       </c>
       <c r="F227">
         <v>15</v>
       </c>
       <c r="G227" t="s">
+        <v>1140</v>
+      </c>
+      <c r="H227" t="s">
         <v>1141</v>
-      </c>
-      <c r="H227" t="s">
-        <v>1142</v>
       </c>
       <c r="I227">
         <v>14.504899999999999</v>
@@ -14251,13 +14248,13 @@
         <v>-88.927599999999998</v>
       </c>
       <c r="K227" t="s">
+        <v>1142</v>
+      </c>
+      <c r="L227" t="s">
         <v>1143</v>
       </c>
-      <c r="L227" t="s">
+      <c r="M227" t="s">
         <v>1144</v>
-      </c>
-      <c r="M227" t="s">
-        <v>1145</v>
       </c>
     </row>
     <row r="228" spans="1:13">
@@ -14271,19 +14268,19 @@
         <v>14</v>
       </c>
       <c r="D228" t="s">
+        <v>1071</v>
+      </c>
+      <c r="E228" t="s">
         <v>1072</v>
-      </c>
-      <c r="E228" t="s">
-        <v>1073</v>
       </c>
       <c r="F228">
         <v>16</v>
       </c>
       <c r="G228" t="s">
+        <v>1145</v>
+      </c>
+      <c r="H228" t="s">
         <v>1146</v>
-      </c>
-      <c r="H228" t="s">
-        <v>1147</v>
       </c>
       <c r="I228">
         <v>14.4612</v>
@@ -14292,13 +14289,13 @@
         <v>-89.122600000000006</v>
       </c>
       <c r="K228" t="s">
+        <v>1147</v>
+      </c>
+      <c r="L228" t="s">
         <v>1148</v>
       </c>
-      <c r="L228" t="s">
+      <c r="M228" t="s">
         <v>1149</v>
-      </c>
-      <c r="M228" t="s">
-        <v>1150</v>
       </c>
     </row>
     <row r="229" spans="1:13">
@@ -14312,19 +14309,19 @@
         <v>15</v>
       </c>
       <c r="D229" t="s">
+        <v>1150</v>
+      </c>
+      <c r="E229" t="s">
         <v>1151</v>
-      </c>
-      <c r="E229" t="s">
-        <v>1152</v>
       </c>
       <c r="F229">
         <v>1</v>
       </c>
       <c r="G229" t="s">
+        <v>1152</v>
+      </c>
+      <c r="H229" t="s">
         <v>1153</v>
-      </c>
-      <c r="H229" t="s">
-        <v>1154</v>
       </c>
       <c r="I229">
         <v>14.542</v>
@@ -14333,13 +14330,13 @@
         <v>-86.315200000000004</v>
       </c>
       <c r="K229" t="s">
+        <v>1154</v>
+      </c>
+      <c r="L229" t="s">
         <v>1155</v>
       </c>
-      <c r="L229" t="s">
+      <c r="M229" t="s">
         <v>1156</v>
-      </c>
-      <c r="M229" t="s">
-        <v>1157</v>
       </c>
     </row>
     <row r="230" spans="1:13">
@@ -14353,19 +14350,19 @@
         <v>15</v>
       </c>
       <c r="D230" t="s">
+        <v>1150</v>
+      </c>
+      <c r="E230" t="s">
         <v>1151</v>
-      </c>
-      <c r="E230" t="s">
-        <v>1152</v>
       </c>
       <c r="F230">
         <v>2</v>
       </c>
       <c r="G230" t="s">
+        <v>1157</v>
+      </c>
+      <c r="H230" t="s">
         <v>1158</v>
-      </c>
-      <c r="H230" t="s">
-        <v>1159</v>
       </c>
       <c r="I230">
         <v>14.492100000000001</v>
@@ -14374,13 +14371,13 @@
         <v>-86.641400000000004</v>
       </c>
       <c r="K230" t="s">
+        <v>1159</v>
+      </c>
+      <c r="L230" t="s">
         <v>1160</v>
       </c>
-      <c r="L230" t="s">
+      <c r="M230" t="s">
         <v>1161</v>
-      </c>
-      <c r="M230" t="s">
-        <v>1162</v>
       </c>
     </row>
     <row r="231" spans="1:13">
@@ -14394,19 +14391,19 @@
         <v>15</v>
       </c>
       <c r="D231" t="s">
+        <v>1150</v>
+      </c>
+      <c r="E231" t="s">
         <v>1151</v>
-      </c>
-      <c r="E231" t="s">
-        <v>1152</v>
       </c>
       <c r="F231">
         <v>3</v>
       </c>
       <c r="G231" t="s">
+        <v>1162</v>
+      </c>
+      <c r="H231" t="s">
         <v>1163</v>
-      </c>
-      <c r="H231" t="s">
-        <v>1164</v>
       </c>
       <c r="I231">
         <v>14.581200000000001</v>
@@ -14415,13 +14412,13 @@
         <v>-85.555000000000007</v>
       </c>
       <c r="K231" t="s">
+        <v>1164</v>
+      </c>
+      <c r="L231" t="s">
         <v>1165</v>
       </c>
-      <c r="L231" t="s">
+      <c r="M231" t="s">
         <v>1166</v>
-      </c>
-      <c r="M231" t="s">
-        <v>1167</v>
       </c>
     </row>
     <row r="232" spans="1:13">
@@ -14435,19 +14432,19 @@
         <v>15</v>
       </c>
       <c r="D232" t="s">
+        <v>1150</v>
+      </c>
+      <c r="E232" t="s">
         <v>1151</v>
-      </c>
-      <c r="E232" t="s">
-        <v>1152</v>
       </c>
       <c r="F232">
         <v>4</v>
       </c>
       <c r="G232" t="s">
+        <v>1167</v>
+      </c>
+      <c r="H232" t="s">
         <v>1168</v>
-      </c>
-      <c r="H232" t="s">
-        <v>1169</v>
       </c>
       <c r="I232">
         <v>14.647600000000001</v>
@@ -14456,13 +14453,13 @@
         <v>-86.711100000000002</v>
       </c>
       <c r="K232" t="s">
+        <v>1169</v>
+      </c>
+      <c r="L232" t="s">
         <v>1170</v>
       </c>
-      <c r="L232" t="s">
+      <c r="M232" t="s">
         <v>1171</v>
-      </c>
-      <c r="M232" t="s">
-        <v>1172</v>
       </c>
     </row>
     <row r="233" spans="1:13">
@@ -14476,19 +14473,19 @@
         <v>15</v>
       </c>
       <c r="D233" t="s">
+        <v>1150</v>
+      </c>
+      <c r="E233" t="s">
         <v>1151</v>
-      </c>
-      <c r="E233" t="s">
-        <v>1152</v>
       </c>
       <c r="F233">
         <v>5</v>
       </c>
       <c r="G233" t="s">
+        <v>1172</v>
+      </c>
+      <c r="H233" t="s">
         <v>1173</v>
-      </c>
-      <c r="H233" t="s">
-        <v>1174</v>
       </c>
       <c r="I233">
         <v>15.058</v>
@@ -14497,13 +14494,13 @@
         <v>-85.306899999999999</v>
       </c>
       <c r="K233" t="s">
+        <v>1174</v>
+      </c>
+      <c r="L233" t="s">
         <v>1175</v>
       </c>
-      <c r="L233" t="s">
+      <c r="M233" t="s">
         <v>1176</v>
-      </c>
-      <c r="M233" t="s">
-        <v>1177</v>
       </c>
     </row>
     <row r="234" spans="1:13">
@@ -14517,16 +14514,16 @@
         <v>15</v>
       </c>
       <c r="D234" t="s">
+        <v>1150</v>
+      </c>
+      <c r="E234" t="s">
         <v>1151</v>
-      </c>
-      <c r="E234" t="s">
-        <v>1152</v>
       </c>
       <c r="F234">
         <v>6</v>
       </c>
       <c r="G234" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="H234" t="s">
         <v>121</v>
@@ -14538,13 +14535,13 @@
         <v>-86.692400000000006</v>
       </c>
       <c r="K234" t="s">
+        <v>1178</v>
+      </c>
+      <c r="L234" t="s">
         <v>1179</v>
       </c>
-      <c r="L234" t="s">
+      <c r="M234" t="s">
         <v>1180</v>
-      </c>
-      <c r="M234" t="s">
-        <v>1181</v>
       </c>
     </row>
     <row r="235" spans="1:13">
@@ -14558,19 +14555,19 @@
         <v>15</v>
       </c>
       <c r="D235" t="s">
+        <v>1150</v>
+      </c>
+      <c r="E235" t="s">
         <v>1151</v>
-      </c>
-      <c r="E235" t="s">
-        <v>1152</v>
       </c>
       <c r="F235">
         <v>7</v>
       </c>
       <c r="G235" t="s">
+        <v>1181</v>
+      </c>
+      <c r="H235" t="s">
         <v>1182</v>
-      </c>
-      <c r="H235" t="s">
-        <v>1183</v>
       </c>
       <c r="I235">
         <v>15.280900000000001</v>
@@ -14579,13 +14576,13 @@
         <v>-86.547300000000007</v>
       </c>
       <c r="K235" t="s">
+        <v>1183</v>
+      </c>
+      <c r="L235" t="s">
         <v>1184</v>
       </c>
-      <c r="L235" t="s">
+      <c r="M235" t="s">
         <v>1185</v>
-      </c>
-      <c r="M235" t="s">
-        <v>1186</v>
       </c>
     </row>
     <row r="236" spans="1:13">
@@ -14599,19 +14596,19 @@
         <v>15</v>
       </c>
       <c r="D236" t="s">
+        <v>1150</v>
+      </c>
+      <c r="E236" t="s">
         <v>1151</v>
-      </c>
-      <c r="E236" t="s">
-        <v>1152</v>
       </c>
       <c r="F236">
         <v>8</v>
       </c>
       <c r="G236" t="s">
+        <v>1186</v>
+      </c>
+      <c r="H236" t="s">
         <v>1187</v>
-      </c>
-      <c r="H236" t="s">
-        <v>1188</v>
       </c>
       <c r="I236">
         <v>15.1937</v>
@@ -14620,13 +14617,13 @@
         <v>-86.078599999999994</v>
       </c>
       <c r="K236" t="s">
+        <v>1188</v>
+      </c>
+      <c r="L236" t="s">
         <v>1189</v>
       </c>
-      <c r="L236" t="s">
+      <c r="M236" t="s">
         <v>1190</v>
-      </c>
-      <c r="M236" t="s">
-        <v>1191</v>
       </c>
     </row>
     <row r="237" spans="1:13">
@@ -14640,19 +14637,19 @@
         <v>15</v>
       </c>
       <c r="D237" t="s">
+        <v>1150</v>
+      </c>
+      <c r="E237" t="s">
         <v>1151</v>
-      </c>
-      <c r="E237" t="s">
-        <v>1152</v>
       </c>
       <c r="F237">
         <v>9</v>
       </c>
       <c r="G237" t="s">
+        <v>1191</v>
+      </c>
+      <c r="H237" t="s">
         <v>1192</v>
-      </c>
-      <c r="H237" t="s">
-        <v>1193</v>
       </c>
       <c r="I237">
         <v>14.9048</v>
@@ -14661,13 +14658,13 @@
         <v>-86.289199999999994</v>
       </c>
       <c r="K237" t="s">
+        <v>1193</v>
+      </c>
+      <c r="L237" t="s">
         <v>1194</v>
       </c>
-      <c r="L237" t="s">
+      <c r="M237" t="s">
         <v>1195</v>
-      </c>
-      <c r="M237" t="s">
-        <v>1196</v>
       </c>
     </row>
     <row r="238" spans="1:13">
@@ -14681,19 +14678,19 @@
         <v>15</v>
       </c>
       <c r="D238" t="s">
+        <v>1150</v>
+      </c>
+      <c r="E238" t="s">
         <v>1151</v>
-      </c>
-      <c r="E238" t="s">
-        <v>1152</v>
       </c>
       <c r="F238">
         <v>10</v>
       </c>
       <c r="G238" t="s">
+        <v>1196</v>
+      </c>
+      <c r="H238" t="s">
         <v>1197</v>
-      </c>
-      <c r="H238" t="s">
-        <v>1198</v>
       </c>
       <c r="I238">
         <v>15.162100000000001</v>
@@ -14702,13 +14699,13 @@
         <v>-86.374300000000005</v>
       </c>
       <c r="K238" t="s">
+        <v>1198</v>
+      </c>
+      <c r="L238" t="s">
         <v>1199</v>
       </c>
-      <c r="L238" t="s">
+      <c r="M238" t="s">
         <v>1200</v>
-      </c>
-      <c r="M238" t="s">
-        <v>1201</v>
       </c>
     </row>
     <row r="239" spans="1:13">
@@ -14722,19 +14719,19 @@
         <v>15</v>
       </c>
       <c r="D239" t="s">
+        <v>1150</v>
+      </c>
+      <c r="E239" t="s">
         <v>1151</v>
-      </c>
-      <c r="E239" t="s">
-        <v>1152</v>
       </c>
       <c r="F239">
         <v>11</v>
       </c>
       <c r="G239" t="s">
+        <v>1201</v>
+      </c>
+      <c r="H239" t="s">
         <v>1202</v>
-      </c>
-      <c r="H239" t="s">
-        <v>1203</v>
       </c>
       <c r="I239">
         <v>14.801399999999999</v>
@@ -14743,13 +14740,13 @@
         <v>-86.831400000000002</v>
       </c>
       <c r="K239" t="s">
+        <v>1203</v>
+      </c>
+      <c r="L239" t="s">
         <v>1204</v>
       </c>
-      <c r="L239" t="s">
+      <c r="M239" t="s">
         <v>1205</v>
-      </c>
-      <c r="M239" t="s">
-        <v>1206</v>
       </c>
     </row>
     <row r="240" spans="1:13">
@@ -14763,19 +14760,19 @@
         <v>15</v>
       </c>
       <c r="D240" t="s">
+        <v>1150</v>
+      </c>
+      <c r="E240" t="s">
         <v>1151</v>
-      </c>
-      <c r="E240" t="s">
-        <v>1152</v>
       </c>
       <c r="F240">
         <v>12</v>
       </c>
       <c r="G240" t="s">
+        <v>1206</v>
+      </c>
+      <c r="H240" t="s">
         <v>1207</v>
-      </c>
-      <c r="H240" t="s">
-        <v>1208</v>
       </c>
       <c r="I240">
         <v>15.071999999999999</v>
@@ -14784,13 +14781,13 @@
         <v>-86.518799999999999</v>
       </c>
       <c r="K240" t="s">
+        <v>1208</v>
+      </c>
+      <c r="L240" t="s">
         <v>1209</v>
       </c>
-      <c r="L240" t="s">
+      <c r="M240" t="s">
         <v>1210</v>
-      </c>
-      <c r="M240" t="s">
-        <v>1211</v>
       </c>
     </row>
     <row r="241" spans="1:13">
@@ -14804,16 +14801,16 @@
         <v>15</v>
       </c>
       <c r="D241" t="s">
+        <v>1150</v>
+      </c>
+      <c r="E241" t="s">
         <v>1151</v>
       </c>
-      <c r="E241" t="s">
-        <v>1152</v>
-      </c>
       <c r="F241">
         <v>13</v>
       </c>
       <c r="G241" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="H241" t="s">
         <v>273</v>
@@ -14825,13 +14822,13 @@
         <v>-86.683300000000003</v>
       </c>
       <c r="K241" t="s">
+        <v>1212</v>
+      </c>
+      <c r="L241" t="s">
         <v>1213</v>
       </c>
-      <c r="L241" t="s">
+      <c r="M241" t="s">
         <v>1214</v>
-      </c>
-      <c r="M241" t="s">
-        <v>1215</v>
       </c>
     </row>
     <row r="242" spans="1:13">
@@ -14845,19 +14842,19 @@
         <v>15</v>
       </c>
       <c r="D242" t="s">
+        <v>1150</v>
+      </c>
+      <c r="E242" t="s">
         <v>1151</v>
       </c>
-      <c r="E242" t="s">
-        <v>1152</v>
-      </c>
       <c r="F242">
         <v>14</v>
       </c>
       <c r="G242" t="s">
+        <v>1215</v>
+      </c>
+      <c r="H242" t="s">
         <v>1216</v>
-      </c>
-      <c r="H242" t="s">
-        <v>1217</v>
       </c>
       <c r="I242">
         <v>15.106999999999999</v>
@@ -14866,13 +14863,13 @@
         <v>-86.847399999999993</v>
       </c>
       <c r="K242" t="s">
+        <v>1217</v>
+      </c>
+      <c r="L242" t="s">
         <v>1218</v>
       </c>
-      <c r="L242" t="s">
+      <c r="M242" t="s">
         <v>1219</v>
-      </c>
-      <c r="M242" t="s">
-        <v>1220</v>
       </c>
     </row>
     <row r="243" spans="1:13">
@@ -14886,19 +14883,19 @@
         <v>15</v>
       </c>
       <c r="D243" t="s">
+        <v>1150</v>
+      </c>
+      <c r="E243" t="s">
         <v>1151</v>
-      </c>
-      <c r="E243" t="s">
-        <v>1152</v>
       </c>
       <c r="F243">
         <v>15</v>
       </c>
       <c r="G243" t="s">
+        <v>1220</v>
+      </c>
+      <c r="H243" t="s">
         <v>1221</v>
-      </c>
-      <c r="H243" t="s">
-        <v>1222</v>
       </c>
       <c r="I243">
         <v>14.905200000000001</v>
@@ -14907,13 +14904,13 @@
         <v>-86.463399999999993</v>
       </c>
       <c r="K243" t="s">
+        <v>1222</v>
+      </c>
+      <c r="L243" t="s">
         <v>1223</v>
       </c>
-      <c r="L243" t="s">
+      <c r="M243" t="s">
         <v>1224</v>
-      </c>
-      <c r="M243" t="s">
-        <v>1225</v>
       </c>
     </row>
     <row r="244" spans="1:13">
@@ -14927,19 +14924,19 @@
         <v>15</v>
       </c>
       <c r="D244" t="s">
+        <v>1150</v>
+      </c>
+      <c r="E244" t="s">
         <v>1151</v>
-      </c>
-      <c r="E244" t="s">
-        <v>1152</v>
       </c>
       <c r="F244">
         <v>16</v>
       </c>
       <c r="G244" t="s">
+        <v>1225</v>
+      </c>
+      <c r="H244" t="s">
         <v>1226</v>
-      </c>
-      <c r="H244" t="s">
-        <v>1227</v>
       </c>
       <c r="I244">
         <v>14.7963</v>
@@ -14948,13 +14945,13 @@
         <v>-86.644900000000007</v>
       </c>
       <c r="K244" t="s">
+        <v>1227</v>
+      </c>
+      <c r="L244" t="s">
         <v>1228</v>
       </c>
-      <c r="L244" t="s">
+      <c r="M244" t="s">
         <v>1229</v>
-      </c>
-      <c r="M244" t="s">
-        <v>1230</v>
       </c>
     </row>
     <row r="245" spans="1:13">
@@ -14968,19 +14965,19 @@
         <v>15</v>
       </c>
       <c r="D245" t="s">
+        <v>1150</v>
+      </c>
+      <c r="E245" t="s">
         <v>1151</v>
-      </c>
-      <c r="E245" t="s">
-        <v>1152</v>
       </c>
       <c r="F245">
         <v>17</v>
       </c>
       <c r="G245" t="s">
+        <v>1230</v>
+      </c>
+      <c r="H245" t="s">
         <v>1231</v>
-      </c>
-      <c r="H245" t="s">
-        <v>1232</v>
       </c>
       <c r="I245">
         <v>15.3162</v>
@@ -14989,13 +14986,13 @@
         <v>-85.719700000000003</v>
       </c>
       <c r="K245" t="s">
+        <v>1232</v>
+      </c>
+      <c r="L245" t="s">
         <v>1233</v>
       </c>
-      <c r="L245" t="s">
+      <c r="M245" t="s">
         <v>1234</v>
-      </c>
-      <c r="M245" t="s">
-        <v>1235</v>
       </c>
     </row>
     <row r="246" spans="1:13">
@@ -15009,19 +15006,19 @@
         <v>15</v>
       </c>
       <c r="D246" t="s">
+        <v>1150</v>
+      </c>
+      <c r="E246" t="s">
         <v>1151</v>
-      </c>
-      <c r="E246" t="s">
-        <v>1152</v>
       </c>
       <c r="F246">
         <v>18</v>
       </c>
       <c r="G246" t="s">
+        <v>1235</v>
+      </c>
+      <c r="H246" t="s">
         <v>1236</v>
-      </c>
-      <c r="H246" t="s">
-        <v>1237</v>
       </c>
       <c r="I246">
         <v>14.613899999999999</v>
@@ -15030,13 +15027,13 @@
         <v>-86.043199999999999</v>
       </c>
       <c r="K246" t="s">
+        <v>1237</v>
+      </c>
+      <c r="L246" t="s">
         <v>1238</v>
       </c>
-      <c r="L246" t="s">
+      <c r="M246" t="s">
         <v>1239</v>
-      </c>
-      <c r="M246" t="s">
-        <v>1240</v>
       </c>
     </row>
     <row r="247" spans="1:13">
@@ -15050,19 +15047,19 @@
         <v>15</v>
       </c>
       <c r="D247" t="s">
+        <v>1150</v>
+      </c>
+      <c r="E247" t="s">
         <v>1151</v>
-      </c>
-      <c r="E247" t="s">
-        <v>1152</v>
       </c>
       <c r="F247">
         <v>19</v>
       </c>
       <c r="G247" t="s">
+        <v>1240</v>
+      </c>
+      <c r="H247" t="s">
         <v>1241</v>
-      </c>
-      <c r="H247" t="s">
-        <v>1242</v>
       </c>
       <c r="I247">
         <v>14.8399</v>
@@ -15071,13 +15068,13 @@
         <v>-86.138400000000004</v>
       </c>
       <c r="K247" t="s">
+        <v>1242</v>
+      </c>
+      <c r="L247" t="s">
         <v>1243</v>
       </c>
-      <c r="L247" t="s">
+      <c r="M247" t="s">
         <v>1244</v>
-      </c>
-      <c r="M247" t="s">
-        <v>1245</v>
       </c>
     </row>
     <row r="248" spans="1:13">
@@ -15091,19 +15088,19 @@
         <v>15</v>
       </c>
       <c r="D248" t="s">
+        <v>1150</v>
+      </c>
+      <c r="E248" t="s">
         <v>1151</v>
-      </c>
-      <c r="E248" t="s">
-        <v>1152</v>
       </c>
       <c r="F248">
         <v>20</v>
       </c>
       <c r="G248" t="s">
+        <v>1245</v>
+      </c>
+      <c r="H248" t="s">
         <v>1246</v>
-      </c>
-      <c r="H248" t="s">
-        <v>1247</v>
       </c>
       <c r="I248">
         <v>14.8185</v>
@@ -15112,13 +15109,13 @@
         <v>-85.962199999999996</v>
       </c>
       <c r="K248" t="s">
+        <v>1247</v>
+      </c>
+      <c r="L248" t="s">
         <v>1248</v>
       </c>
-      <c r="L248" t="s">
+      <c r="M248" t="s">
         <v>1249</v>
-      </c>
-      <c r="M248" t="s">
-        <v>1250</v>
       </c>
     </row>
     <row r="249" spans="1:13">
@@ -15132,19 +15129,19 @@
         <v>15</v>
       </c>
       <c r="D249" t="s">
+        <v>1150</v>
+      </c>
+      <c r="E249" t="s">
         <v>1151</v>
-      </c>
-      <c r="E249" t="s">
-        <v>1152</v>
       </c>
       <c r="F249">
         <v>21</v>
       </c>
       <c r="G249" t="s">
+        <v>1250</v>
+      </c>
+      <c r="H249" t="s">
         <v>1251</v>
-      </c>
-      <c r="H249" t="s">
-        <v>1252</v>
       </c>
       <c r="I249">
         <v>14.763</v>
@@ -15153,13 +15150,13 @@
         <v>-86.5274</v>
       </c>
       <c r="K249" t="s">
+        <v>1252</v>
+      </c>
+      <c r="L249" t="s">
         <v>1253</v>
       </c>
-      <c r="L249" t="s">
+      <c r="M249" t="s">
         <v>1254</v>
-      </c>
-      <c r="M249" t="s">
-        <v>1255</v>
       </c>
     </row>
     <row r="250" spans="1:13">
@@ -15173,19 +15170,19 @@
         <v>15</v>
       </c>
       <c r="D250" t="s">
+        <v>1150</v>
+      </c>
+      <c r="E250" t="s">
         <v>1151</v>
-      </c>
-      <c r="E250" t="s">
-        <v>1152</v>
       </c>
       <c r="F250">
         <v>22</v>
       </c>
       <c r="G250" t="s">
+        <v>1255</v>
+      </c>
+      <c r="H250" t="s">
         <v>1256</v>
-      </c>
-      <c r="H250" t="s">
-        <v>1257</v>
       </c>
       <c r="I250">
         <v>14.959899999999999</v>
@@ -15194,13 +15191,13 @@
         <v>-86.811599999999999</v>
       </c>
       <c r="K250" t="s">
+        <v>1257</v>
+      </c>
+      <c r="L250" t="s">
         <v>1258</v>
       </c>
-      <c r="L250" t="s">
+      <c r="M250" t="s">
         <v>1259</v>
-      </c>
-      <c r="M250" t="s">
-        <v>1260</v>
       </c>
     </row>
     <row r="251" spans="1:13">
@@ -15214,19 +15211,19 @@
         <v>15</v>
       </c>
       <c r="D251" t="s">
+        <v>1150</v>
+      </c>
+      <c r="E251" t="s">
         <v>1151</v>
-      </c>
-      <c r="E251" t="s">
-        <v>1152</v>
       </c>
       <c r="F251">
         <v>23</v>
       </c>
       <c r="G251" t="s">
+        <v>1260</v>
+      </c>
+      <c r="H251" t="s">
         <v>1261</v>
-      </c>
-      <c r="H251" t="s">
-        <v>1262</v>
       </c>
       <c r="I251">
         <v>14.313700000000001</v>
@@ -15235,13 +15232,13 @@
         <v>-85.962999999999994</v>
       </c>
       <c r="K251" t="s">
+        <v>1262</v>
+      </c>
+      <c r="L251" t="s">
         <v>1263</v>
       </c>
-      <c r="L251" t="s">
+      <c r="M251" t="s">
         <v>1264</v>
-      </c>
-      <c r="M251" t="s">
-        <v>1265</v>
       </c>
     </row>
     <row r="252" spans="1:13">
@@ -15255,19 +15252,19 @@
         <v>16</v>
       </c>
       <c r="D252" t="s">
+        <v>1265</v>
+      </c>
+      <c r="E252" t="s">
         <v>1266</v>
-      </c>
-      <c r="E252" t="s">
-        <v>1267</v>
       </c>
       <c r="F252">
         <v>1</v>
       </c>
       <c r="G252" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="H252" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="I252">
         <v>14.9224</v>
@@ -15276,13 +15273,13 @@
         <v>-88.181899999999999</v>
       </c>
       <c r="K252" t="s">
+        <v>1268</v>
+      </c>
+      <c r="L252" t="s">
         <v>1269</v>
       </c>
-      <c r="L252" t="s">
+      <c r="M252" t="s">
         <v>1270</v>
-      </c>
-      <c r="M252" t="s">
-        <v>1271</v>
       </c>
     </row>
     <row r="253" spans="1:13">
@@ -15296,19 +15293,19 @@
         <v>16</v>
       </c>
       <c r="D253" t="s">
+        <v>1265</v>
+      </c>
+      <c r="E253" t="s">
         <v>1266</v>
-      </c>
-      <c r="E253" t="s">
-        <v>1267</v>
       </c>
       <c r="F253">
         <v>2</v>
       </c>
       <c r="G253" t="s">
+        <v>1271</v>
+      </c>
+      <c r="H253" t="s">
         <v>1272</v>
-      </c>
-      <c r="H253" t="s">
-        <v>1273</v>
       </c>
       <c r="I253">
         <v>14.8605</v>
@@ -15317,13 +15314,13 @@
         <v>-88.361999999999995</v>
       </c>
       <c r="K253" t="s">
+        <v>1273</v>
+      </c>
+      <c r="L253" t="s">
         <v>1274</v>
       </c>
-      <c r="L253" t="s">
+      <c r="M253" t="s">
         <v>1275</v>
-      </c>
-      <c r="M253" t="s">
-        <v>1276</v>
       </c>
     </row>
     <row r="254" spans="1:13">
@@ -15337,19 +15334,19 @@
         <v>16</v>
       </c>
       <c r="D254" t="s">
+        <v>1265</v>
+      </c>
+      <c r="E254" t="s">
         <v>1266</v>
-      </c>
-      <c r="E254" t="s">
-        <v>1267</v>
       </c>
       <c r="F254">
         <v>3</v>
       </c>
       <c r="G254" t="s">
+        <v>1276</v>
+      </c>
+      <c r="H254" t="s">
         <v>1277</v>
-      </c>
-      <c r="H254" t="s">
-        <v>1278</v>
       </c>
       <c r="I254">
         <v>14.919</v>
@@ -15358,13 +15355,13 @@
         <v>-88.498599999999996</v>
       </c>
       <c r="K254" t="s">
+        <v>1278</v>
+      </c>
+      <c r="L254" t="s">
         <v>1279</v>
       </c>
-      <c r="L254" t="s">
+      <c r="M254" t="s">
         <v>1280</v>
-      </c>
-      <c r="M254" t="s">
-        <v>1281</v>
       </c>
     </row>
     <row r="255" spans="1:13">
@@ -15378,19 +15375,19 @@
         <v>16</v>
       </c>
       <c r="D255" t="s">
+        <v>1265</v>
+      </c>
+      <c r="E255" t="s">
         <v>1266</v>
-      </c>
-      <c r="E255" t="s">
-        <v>1267</v>
       </c>
       <c r="F255">
         <v>4</v>
       </c>
       <c r="G255" t="s">
+        <v>1281</v>
+      </c>
+      <c r="H255" t="s">
         <v>1282</v>
-      </c>
-      <c r="H255" t="s">
-        <v>1283</v>
       </c>
       <c r="I255">
         <v>15.366</v>
@@ -15399,13 +15396,13 @@
         <v>-88.575299999999999</v>
       </c>
       <c r="K255" t="s">
+        <v>1283</v>
+      </c>
+      <c r="L255" t="s">
         <v>1284</v>
       </c>
-      <c r="L255" t="s">
+      <c r="M255" t="s">
         <v>1285</v>
-      </c>
-      <c r="M255" t="s">
-        <v>1286</v>
       </c>
     </row>
     <row r="256" spans="1:13">
@@ -15419,19 +15416,19 @@
         <v>16</v>
       </c>
       <c r="D256" t="s">
+        <v>1265</v>
+      </c>
+      <c r="E256" t="s">
         <v>1266</v>
-      </c>
-      <c r="E256" t="s">
-        <v>1267</v>
       </c>
       <c r="F256">
         <v>5</v>
       </c>
       <c r="G256" t="s">
+        <v>1286</v>
+      </c>
+      <c r="H256" t="s">
         <v>1287</v>
-      </c>
-      <c r="H256" t="s">
-        <v>1288</v>
       </c>
       <c r="I256">
         <v>14.819599999999999</v>
@@ -15440,13 +15437,13 @@
         <v>-88.204499999999996</v>
       </c>
       <c r="K256" t="s">
+        <v>1288</v>
+      </c>
+      <c r="L256" t="s">
         <v>1289</v>
       </c>
-      <c r="L256" t="s">
+      <c r="M256" t="s">
         <v>1290</v>
-      </c>
-      <c r="M256" t="s">
-        <v>1291</v>
       </c>
     </row>
     <row r="257" spans="1:13">
@@ -15460,19 +15457,19 @@
         <v>16</v>
       </c>
       <c r="D257" t="s">
+        <v>1265</v>
+      </c>
+      <c r="E257" t="s">
         <v>1266</v>
-      </c>
-      <c r="E257" t="s">
-        <v>1267</v>
       </c>
       <c r="F257">
         <v>6</v>
       </c>
       <c r="G257" t="s">
+        <v>1291</v>
+      </c>
+      <c r="H257" t="s">
         <v>1292</v>
-      </c>
-      <c r="H257" t="s">
-        <v>1293</v>
       </c>
       <c r="I257">
         <v>15.2006</v>
@@ -15481,13 +15478,13 @@
         <v>-88.143799999999999</v>
       </c>
       <c r="K257" t="s">
+        <v>1293</v>
+      </c>
+      <c r="L257" t="s">
         <v>1294</v>
       </c>
-      <c r="L257" t="s">
+      <c r="M257" t="s">
         <v>1295</v>
-      </c>
-      <c r="M257" t="s">
-        <v>1296</v>
       </c>
     </row>
     <row r="258" spans="1:13">
@@ -15501,19 +15498,19 @@
         <v>16</v>
       </c>
       <c r="D258" t="s">
+        <v>1265</v>
+      </c>
+      <c r="E258" t="s">
         <v>1266</v>
-      </c>
-      <c r="E258" t="s">
-        <v>1267</v>
       </c>
       <c r="F258">
         <v>7</v>
       </c>
       <c r="G258" t="s">
+        <v>1296</v>
+      </c>
+      <c r="H258" t="s">
         <v>1297</v>
-      </c>
-      <c r="H258" t="s">
-        <v>1298</v>
       </c>
       <c r="I258">
         <v>14.823</v>
@@ -15522,13 +15519,13 @@
         <v>-88.149000000000001</v>
       </c>
       <c r="K258" t="s">
+        <v>1298</v>
+      </c>
+      <c r="L258" t="s">
         <v>1299</v>
       </c>
-      <c r="L258" t="s">
+      <c r="M258" t="s">
         <v>1300</v>
-      </c>
-      <c r="M258" t="s">
-        <v>1301</v>
       </c>
     </row>
     <row r="259" spans="1:13">
@@ -15542,19 +15539,19 @@
         <v>16</v>
       </c>
       <c r="D259" t="s">
+        <v>1265</v>
+      </c>
+      <c r="E259" t="s">
         <v>1266</v>
-      </c>
-      <c r="E259" t="s">
-        <v>1267</v>
       </c>
       <c r="F259">
         <v>8</v>
       </c>
       <c r="G259" t="s">
+        <v>1301</v>
+      </c>
+      <c r="H259" t="s">
         <v>1302</v>
-      </c>
-      <c r="H259" t="s">
-        <v>1303</v>
       </c>
       <c r="I259">
         <v>15.115600000000001</v>
@@ -15563,13 +15560,13 @@
         <v>-88.161799999999999</v>
       </c>
       <c r="K259" t="s">
+        <v>1303</v>
+      </c>
+      <c r="L259" t="s">
         <v>1304</v>
       </c>
-      <c r="L259" t="s">
+      <c r="M259" t="s">
         <v>1305</v>
-      </c>
-      <c r="M259" t="s">
-        <v>1306</v>
       </c>
     </row>
     <row r="260" spans="1:13">
@@ -15583,19 +15580,19 @@
         <v>16</v>
       </c>
       <c r="D260" t="s">
+        <v>1265</v>
+      </c>
+      <c r="E260" t="s">
         <v>1266</v>
-      </c>
-      <c r="E260" t="s">
-        <v>1267</v>
       </c>
       <c r="F260">
         <v>9</v>
       </c>
       <c r="G260" t="s">
+        <v>1306</v>
+      </c>
+      <c r="H260" t="s">
         <v>1307</v>
-      </c>
-      <c r="H260" t="s">
-        <v>1308</v>
       </c>
       <c r="I260">
         <v>14.772399999999999</v>
@@ -15604,13 +15601,13 @@
         <v>-88.336200000000005</v>
       </c>
       <c r="K260" t="s">
+        <v>1308</v>
+      </c>
+      <c r="L260" t="s">
         <v>1309</v>
       </c>
-      <c r="L260" t="s">
+      <c r="M260" t="s">
         <v>1310</v>
-      </c>
-      <c r="M260" t="s">
-        <v>1311</v>
       </c>
     </row>
     <row r="261" spans="1:13">
@@ -15624,19 +15621,19 @@
         <v>16</v>
       </c>
       <c r="D261" t="s">
+        <v>1265</v>
+      </c>
+      <c r="E261" t="s">
         <v>1266</v>
-      </c>
-      <c r="E261" t="s">
-        <v>1267</v>
       </c>
       <c r="F261">
         <v>10</v>
       </c>
       <c r="G261" t="s">
+        <v>1311</v>
+      </c>
+      <c r="H261" t="s">
         <v>1312</v>
-      </c>
-      <c r="H261" t="s">
-        <v>1313</v>
       </c>
       <c r="I261">
         <v>15.0045</v>
@@ -15645,13 +15642,13 @@
         <v>-88.1845</v>
       </c>
       <c r="K261" t="s">
+        <v>1313</v>
+      </c>
+      <c r="L261" t="s">
         <v>1314</v>
       </c>
-      <c r="L261" t="s">
+      <c r="M261" t="s">
         <v>1315</v>
-      </c>
-      <c r="M261" t="s">
-        <v>1316</v>
       </c>
     </row>
     <row r="262" spans="1:13">
@@ -15665,19 +15662,19 @@
         <v>16</v>
       </c>
       <c r="D262" t="s">
+        <v>1265</v>
+      </c>
+      <c r="E262" t="s">
         <v>1266</v>
-      </c>
-      <c r="E262" t="s">
-        <v>1267</v>
       </c>
       <c r="F262">
         <v>11</v>
       </c>
       <c r="G262" t="s">
+        <v>1316</v>
+      </c>
+      <c r="H262" t="s">
         <v>1317</v>
-      </c>
-      <c r="H262" t="s">
-        <v>1318</v>
       </c>
       <c r="I262">
         <v>15.0519</v>
@@ -15686,13 +15683,13 @@
         <v>-88.126800000000003</v>
       </c>
       <c r="K262" t="s">
+        <v>1318</v>
+      </c>
+      <c r="L262" t="s">
         <v>1319</v>
       </c>
-      <c r="L262" t="s">
+      <c r="M262" t="s">
         <v>1320</v>
-      </c>
-      <c r="M262" t="s">
-        <v>1321</v>
       </c>
     </row>
     <row r="263" spans="1:13">
@@ -15706,19 +15703,19 @@
         <v>16</v>
       </c>
       <c r="D263" t="s">
+        <v>1265</v>
+      </c>
+      <c r="E263" t="s">
         <v>1266</v>
-      </c>
-      <c r="E263" t="s">
-        <v>1267</v>
       </c>
       <c r="F263">
         <v>12</v>
       </c>
       <c r="G263" t="s">
+        <v>1321</v>
+      </c>
+      <c r="H263" t="s">
         <v>1322</v>
-      </c>
-      <c r="H263" t="s">
-        <v>1323</v>
       </c>
       <c r="I263">
         <v>15.2325</v>
@@ -15727,13 +15724,13 @@
         <v>-88.573499999999996</v>
       </c>
       <c r="K263" t="s">
+        <v>1323</v>
+      </c>
+      <c r="L263" t="s">
         <v>1324</v>
       </c>
-      <c r="L263" t="s">
+      <c r="M263" t="s">
         <v>1325</v>
-      </c>
-      <c r="M263" t="s">
-        <v>1326</v>
       </c>
     </row>
     <row r="264" spans="1:13">
@@ -15747,19 +15744,19 @@
         <v>16</v>
       </c>
       <c r="D264" t="s">
+        <v>1265</v>
+      </c>
+      <c r="E264" t="s">
         <v>1266</v>
       </c>
-      <c r="E264" t="s">
-        <v>1267</v>
-      </c>
       <c r="F264">
         <v>13</v>
       </c>
       <c r="G264" t="s">
+        <v>1326</v>
+      </c>
+      <c r="H264" t="s">
         <v>1327</v>
-      </c>
-      <c r="H264" t="s">
-        <v>1328</v>
       </c>
       <c r="I264">
         <v>14.972300000000001</v>
@@ -15768,13 +15765,13 @@
         <v>-88.626099999999994</v>
       </c>
       <c r="K264" t="s">
+        <v>1328</v>
+      </c>
+      <c r="L264" t="s">
         <v>1329</v>
       </c>
-      <c r="L264" t="s">
+      <c r="M264" t="s">
         <v>1330</v>
-      </c>
-      <c r="M264" t="s">
-        <v>1331</v>
       </c>
     </row>
     <row r="265" spans="1:13">
@@ -15788,19 +15785,19 @@
         <v>16</v>
       </c>
       <c r="D265" t="s">
+        <v>1265</v>
+      </c>
+      <c r="E265" t="s">
         <v>1266</v>
       </c>
-      <c r="E265" t="s">
-        <v>1267</v>
-      </c>
       <c r="F265">
         <v>14</v>
       </c>
       <c r="G265" t="s">
+        <v>1331</v>
+      </c>
+      <c r="H265" t="s">
         <v>1332</v>
-      </c>
-      <c r="H265" t="s">
-        <v>1333</v>
       </c>
       <c r="I265">
         <v>14.978400000000001</v>
@@ -15809,13 +15806,13 @@
         <v>-88.374300000000005</v>
       </c>
       <c r="K265" t="s">
+        <v>1333</v>
+      </c>
+      <c r="L265" t="s">
         <v>1334</v>
       </c>
-      <c r="L265" t="s">
+      <c r="M265" t="s">
         <v>1335</v>
-      </c>
-      <c r="M265" t="s">
-        <v>1336</v>
       </c>
     </row>
     <row r="266" spans="1:13">
@@ -15829,19 +15826,19 @@
         <v>16</v>
       </c>
       <c r="D266" t="s">
+        <v>1265</v>
+      </c>
+      <c r="E266" t="s">
         <v>1266</v>
-      </c>
-      <c r="E266" t="s">
-        <v>1267</v>
       </c>
       <c r="F266">
         <v>15</v>
       </c>
       <c r="G266" t="s">
+        <v>1336</v>
+      </c>
+      <c r="H266" t="s">
         <v>1337</v>
-      </c>
-      <c r="H266" t="s">
-        <v>1338</v>
       </c>
       <c r="I266">
         <v>15.275</v>
@@ -15850,13 +15847,13 @@
         <v>-88.232900000000001</v>
       </c>
       <c r="K266" t="s">
+        <v>1338</v>
+      </c>
+      <c r="L266" t="s">
         <v>1339</v>
       </c>
-      <c r="L266" t="s">
+      <c r="M266" t="s">
         <v>1340</v>
-      </c>
-      <c r="M266" t="s">
-        <v>1341</v>
       </c>
     </row>
     <row r="267" spans="1:13">
@@ -15870,19 +15867,19 @@
         <v>16</v>
       </c>
       <c r="D267" t="s">
+        <v>1265</v>
+      </c>
+      <c r="E267" t="s">
         <v>1266</v>
-      </c>
-      <c r="E267" t="s">
-        <v>1267</v>
       </c>
       <c r="F267">
         <v>16</v>
       </c>
       <c r="G267" t="s">
+        <v>1341</v>
+      </c>
+      <c r="H267" t="s">
         <v>1342</v>
-      </c>
-      <c r="H267" t="s">
-        <v>1343</v>
       </c>
       <c r="I267">
         <v>15.078099999999999</v>
@@ -15891,13 +15888,13 @@
         <v>-88.617800000000003</v>
       </c>
       <c r="K267" t="s">
+        <v>1343</v>
+      </c>
+      <c r="L267" t="s">
         <v>1344</v>
       </c>
-      <c r="L267" t="s">
+      <c r="M267" t="s">
         <v>1345</v>
-      </c>
-      <c r="M267" t="s">
-        <v>1346</v>
       </c>
     </row>
     <row r="268" spans="1:13">
@@ -15911,19 +15908,19 @@
         <v>16</v>
       </c>
       <c r="D268" t="s">
+        <v>1265</v>
+      </c>
+      <c r="E268" t="s">
         <v>1266</v>
-      </c>
-      <c r="E268" t="s">
-        <v>1267</v>
       </c>
       <c r="F268">
         <v>17</v>
       </c>
       <c r="G268" t="s">
+        <v>1346</v>
+      </c>
+      <c r="H268" t="s">
         <v>1347</v>
-      </c>
-      <c r="H268" t="s">
-        <v>1348</v>
       </c>
       <c r="I268">
         <v>15.414099999999999</v>
@@ -15932,13 +15929,13 @@
         <v>-88.357200000000006</v>
       </c>
       <c r="K268" t="s">
+        <v>1348</v>
+      </c>
+      <c r="L268" t="s">
         <v>1349</v>
       </c>
-      <c r="L268" t="s">
+      <c r="M268" t="s">
         <v>1350</v>
-      </c>
-      <c r="M268" t="s">
-        <v>1351</v>
       </c>
     </row>
     <row r="269" spans="1:13">
@@ -15952,19 +15949,19 @@
         <v>16</v>
       </c>
       <c r="D269" t="s">
+        <v>1265</v>
+      </c>
+      <c r="E269" t="s">
         <v>1266</v>
-      </c>
-      <c r="E269" t="s">
-        <v>1267</v>
       </c>
       <c r="F269">
         <v>18</v>
       </c>
       <c r="G269" t="s">
+        <v>1351</v>
+      </c>
+      <c r="H269" t="s">
         <v>1352</v>
-      </c>
-      <c r="H269" t="s">
-        <v>1353</v>
       </c>
       <c r="I269">
         <v>14.712199999999999</v>
@@ -15973,13 +15970,13 @@
         <v>-88.200199999999995</v>
       </c>
       <c r="K269" t="s">
+        <v>1353</v>
+      </c>
+      <c r="L269" t="s">
         <v>1354</v>
       </c>
-      <c r="L269" t="s">
+      <c r="M269" t="s">
         <v>1355</v>
-      </c>
-      <c r="M269" t="s">
-        <v>1356</v>
       </c>
     </row>
     <row r="270" spans="1:13">
@@ -15993,19 +15990,19 @@
         <v>16</v>
       </c>
       <c r="D270" t="s">
+        <v>1265</v>
+      </c>
+      <c r="E270" t="s">
         <v>1266</v>
-      </c>
-      <c r="E270" t="s">
-        <v>1267</v>
       </c>
       <c r="F270">
         <v>19</v>
       </c>
       <c r="G270" t="s">
+        <v>1356</v>
+      </c>
+      <c r="H270" t="s">
         <v>1357</v>
-      </c>
-      <c r="H270" t="s">
-        <v>1358</v>
       </c>
       <c r="I270">
         <v>15.0709</v>
@@ -16014,13 +16011,13 @@
         <v>-88.328100000000006</v>
       </c>
       <c r="K270" t="s">
+        <v>1358</v>
+      </c>
+      <c r="L270" t="s">
         <v>1359</v>
       </c>
-      <c r="L270" t="s">
+      <c r="M270" t="s">
         <v>1360</v>
-      </c>
-      <c r="M270" t="s">
-        <v>1361</v>
       </c>
     </row>
     <row r="271" spans="1:13">
@@ -16034,16 +16031,16 @@
         <v>16</v>
       </c>
       <c r="D271" t="s">
+        <v>1265</v>
+      </c>
+      <c r="E271" t="s">
         <v>1266</v>
-      </c>
-      <c r="E271" t="s">
-        <v>1267</v>
       </c>
       <c r="F271">
         <v>20</v>
       </c>
       <c r="G271" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="H271" t="s">
         <v>186</v>
@@ -16055,13 +16052,13 @@
         <v>-88.477400000000003</v>
       </c>
       <c r="K271" t="s">
+        <v>1362</v>
+      </c>
+      <c r="L271" t="s">
         <v>1363</v>
       </c>
-      <c r="L271" t="s">
+      <c r="M271" t="s">
         <v>1364</v>
-      </c>
-      <c r="M271" t="s">
-        <v>1365</v>
       </c>
     </row>
     <row r="272" spans="1:13">
@@ -16075,19 +16072,19 @@
         <v>16</v>
       </c>
       <c r="D272" t="s">
+        <v>1265</v>
+      </c>
+      <c r="E272" t="s">
         <v>1266</v>
-      </c>
-      <c r="E272" t="s">
-        <v>1267</v>
       </c>
       <c r="F272">
         <v>21</v>
       </c>
       <c r="G272" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="H272" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="I272">
         <v>15.263</v>
@@ -16096,13 +16093,13 @@
         <v>-88.403199999999998</v>
       </c>
       <c r="K272" t="s">
+        <v>1366</v>
+      </c>
+      <c r="L272" t="s">
         <v>1367</v>
       </c>
-      <c r="L272" t="s">
+      <c r="M272" t="s">
         <v>1368</v>
-      </c>
-      <c r="M272" t="s">
-        <v>1369</v>
       </c>
     </row>
     <row r="273" spans="1:13">
@@ -16116,19 +16113,19 @@
         <v>16</v>
       </c>
       <c r="D273" t="s">
+        <v>1265</v>
+      </c>
+      <c r="E273" t="s">
         <v>1266</v>
-      </c>
-      <c r="E273" t="s">
-        <v>1267</v>
       </c>
       <c r="F273">
         <v>22</v>
       </c>
       <c r="G273" t="s">
+        <v>1369</v>
+      </c>
+      <c r="H273" t="s">
         <v>1370</v>
-      </c>
-      <c r="H273" t="s">
-        <v>1371</v>
       </c>
       <c r="I273">
         <v>14.930300000000001</v>
@@ -16137,13 +16134,13 @@
         <v>-88.359700000000004</v>
       </c>
       <c r="K273" t="s">
+        <v>1371</v>
+      </c>
+      <c r="L273" t="s">
         <v>1372</v>
       </c>
-      <c r="L273" t="s">
+      <c r="M273" t="s">
         <v>1373</v>
-      </c>
-      <c r="M273" t="s">
-        <v>1374</v>
       </c>
     </row>
     <row r="274" spans="1:13">
@@ -16157,19 +16154,19 @@
         <v>16</v>
       </c>
       <c r="D274" t="s">
+        <v>1265</v>
+      </c>
+      <c r="E274" t="s">
         <v>1266</v>
-      </c>
-      <c r="E274" t="s">
-        <v>1267</v>
       </c>
       <c r="F274">
         <v>23</v>
       </c>
       <c r="G274" t="s">
+        <v>1374</v>
+      </c>
+      <c r="H274" t="s">
         <v>1375</v>
-      </c>
-      <c r="H274" t="s">
-        <v>1376</v>
       </c>
       <c r="I274">
         <v>14.733700000000001</v>
@@ -16178,13 +16175,13 @@
         <v>-88.123000000000005</v>
       </c>
       <c r="K274" t="s">
+        <v>1376</v>
+      </c>
+      <c r="L274" t="s">
         <v>1377</v>
       </c>
-      <c r="L274" t="s">
+      <c r="M274" t="s">
         <v>1378</v>
-      </c>
-      <c r="M274" t="s">
-        <v>1379</v>
       </c>
     </row>
     <row r="275" spans="1:13">
@@ -16198,19 +16195,19 @@
         <v>16</v>
       </c>
       <c r="D275" t="s">
+        <v>1265</v>
+      </c>
+      <c r="E275" t="s">
         <v>1266</v>
-      </c>
-      <c r="E275" t="s">
-        <v>1267</v>
       </c>
       <c r="F275">
         <v>24</v>
       </c>
       <c r="G275" t="s">
+        <v>1379</v>
+      </c>
+      <c r="H275" t="s">
         <v>1380</v>
-      </c>
-      <c r="H275" t="s">
-        <v>1381</v>
       </c>
       <c r="I275">
         <v>14.886200000000001</v>
@@ -16219,13 +16216,13 @@
         <v>-88.302599999999998</v>
       </c>
       <c r="K275" t="s">
+        <v>1381</v>
+      </c>
+      <c r="L275" t="s">
         <v>1382</v>
       </c>
-      <c r="L275" t="s">
+      <c r="M275" t="s">
         <v>1383</v>
-      </c>
-      <c r="M275" t="s">
-        <v>1384</v>
       </c>
     </row>
     <row r="276" spans="1:13">
@@ -16239,16 +16236,16 @@
         <v>16</v>
       </c>
       <c r="D276" t="s">
+        <v>1265</v>
+      </c>
+      <c r="E276" t="s">
         <v>1266</v>
-      </c>
-      <c r="E276" t="s">
-        <v>1267</v>
       </c>
       <c r="F276">
         <v>25</v>
       </c>
       <c r="G276" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="H276" t="s">
         <v>317</v>
@@ -16260,13 +16257,13 @@
         <v>-88.270600000000002</v>
       </c>
       <c r="K276" t="s">
+        <v>1385</v>
+      </c>
+      <c r="L276" t="s">
         <v>1386</v>
       </c>
-      <c r="L276" t="s">
+      <c r="M276" t="s">
         <v>1387</v>
-      </c>
-      <c r="M276" t="s">
-        <v>1388</v>
       </c>
     </row>
     <row r="277" spans="1:13">
@@ -16280,19 +16277,19 @@
         <v>16</v>
       </c>
       <c r="D277" t="s">
+        <v>1265</v>
+      </c>
+      <c r="E277" t="s">
         <v>1266</v>
-      </c>
-      <c r="E277" t="s">
-        <v>1267</v>
       </c>
       <c r="F277">
         <v>26</v>
       </c>
       <c r="G277" t="s">
+        <v>1388</v>
+      </c>
+      <c r="H277" t="s">
         <v>1389</v>
-      </c>
-      <c r="H277" t="s">
-        <v>1390</v>
       </c>
       <c r="I277">
         <v>15.160500000000001</v>
@@ -16301,13 +16298,13 @@
         <v>-88.2607</v>
       </c>
       <c r="K277" t="s">
+        <v>1390</v>
+      </c>
+      <c r="L277" t="s">
         <v>1391</v>
       </c>
-      <c r="L277" t="s">
+      <c r="M277" t="s">
         <v>1392</v>
-      </c>
-      <c r="M277" t="s">
-        <v>1393</v>
       </c>
     </row>
     <row r="278" spans="1:13">
@@ -16321,19 +16318,19 @@
         <v>16</v>
       </c>
       <c r="D278" t="s">
+        <v>1265</v>
+      </c>
+      <c r="E278" t="s">
         <v>1266</v>
-      </c>
-      <c r="E278" t="s">
-        <v>1267</v>
       </c>
       <c r="F278">
         <v>27</v>
       </c>
       <c r="G278" t="s">
+        <v>1393</v>
+      </c>
+      <c r="H278" t="s">
         <v>1394</v>
-      </c>
-      <c r="H278" t="s">
-        <v>1395</v>
       </c>
       <c r="I278">
         <v>14.8681</v>
@@ -16342,13 +16339,13 @@
         <v>-88.061999999999998</v>
       </c>
       <c r="K278" t="s">
+        <v>1395</v>
+      </c>
+      <c r="L278" t="s">
         <v>1396</v>
       </c>
-      <c r="L278" t="s">
+      <c r="M278" t="s">
         <v>1397</v>
-      </c>
-      <c r="M278" t="s">
-        <v>1398</v>
       </c>
     </row>
     <row r="279" spans="1:13">
@@ -16362,19 +16359,19 @@
         <v>16</v>
       </c>
       <c r="D279" t="s">
+        <v>1265</v>
+      </c>
+      <c r="E279" t="s">
         <v>1266</v>
-      </c>
-      <c r="E279" t="s">
-        <v>1267</v>
       </c>
       <c r="F279">
         <v>28</v>
       </c>
       <c r="G279" t="s">
+        <v>1398</v>
+      </c>
+      <c r="H279" t="s">
         <v>1399</v>
-      </c>
-      <c r="H279" t="s">
-        <v>1400</v>
       </c>
       <c r="I279">
         <v>15.2729</v>
@@ -16383,13 +16380,13 @@
         <v>-88.669899999999998</v>
       </c>
       <c r="K279" t="s">
+        <v>1400</v>
+      </c>
+      <c r="L279" t="s">
         <v>1401</v>
       </c>
-      <c r="L279" t="s">
+      <c r="M279" t="s">
         <v>1402</v>
-      </c>
-      <c r="M279" t="s">
-        <v>1403</v>
       </c>
     </row>
     <row r="280" spans="1:13">
@@ -16403,19 +16400,19 @@
         <v>17</v>
       </c>
       <c r="D280" t="s">
+        <v>1403</v>
+      </c>
+      <c r="E280" t="s">
         <v>1404</v>
-      </c>
-      <c r="E280" t="s">
-        <v>1405</v>
       </c>
       <c r="F280">
         <v>1</v>
       </c>
       <c r="G280" t="s">
+        <v>1405</v>
+      </c>
+      <c r="H280" t="s">
         <v>1406</v>
-      </c>
-      <c r="H280" t="s">
-        <v>1407</v>
       </c>
       <c r="I280">
         <v>13.5185</v>
@@ -16424,13 +16421,13 @@
         <v>-87.5261</v>
       </c>
       <c r="K280" t="s">
+        <v>1407</v>
+      </c>
+      <c r="L280" t="s">
         <v>1408</v>
       </c>
-      <c r="L280" t="s">
+      <c r="M280" t="s">
         <v>1409</v>
-      </c>
-      <c r="M280" t="s">
-        <v>1410</v>
       </c>
     </row>
     <row r="281" spans="1:13">
@@ -16444,19 +16441,19 @@
         <v>17</v>
       </c>
       <c r="D281" t="s">
+        <v>1403</v>
+      </c>
+      <c r="E281" t="s">
         <v>1404</v>
-      </c>
-      <c r="E281" t="s">
-        <v>1405</v>
       </c>
       <c r="F281">
         <v>2</v>
       </c>
       <c r="G281" t="s">
+        <v>1410</v>
+      </c>
+      <c r="H281" t="s">
         <v>1411</v>
-      </c>
-      <c r="H281" t="s">
-        <v>1412</v>
       </c>
       <c r="I281">
         <v>13.4009</v>
@@ -16465,13 +16462,13 @@
         <v>-87.727999999999994</v>
       </c>
       <c r="K281" t="s">
+        <v>1412</v>
+      </c>
+      <c r="L281" t="s">
         <v>1413</v>
       </c>
-      <c r="L281" t="s">
+      <c r="M281" t="s">
         <v>1414</v>
-      </c>
-      <c r="M281" t="s">
-        <v>1415</v>
       </c>
     </row>
     <row r="282" spans="1:13">
@@ -16485,19 +16482,19 @@
         <v>17</v>
       </c>
       <c r="D282" t="s">
+        <v>1403</v>
+      </c>
+      <c r="E282" t="s">
         <v>1404</v>
-      </c>
-      <c r="E282" t="s">
-        <v>1405</v>
       </c>
       <c r="F282">
         <v>3</v>
       </c>
       <c r="G282" t="s">
+        <v>1415</v>
+      </c>
+      <c r="H282" t="s">
         <v>1416</v>
-      </c>
-      <c r="H282" t="s">
-        <v>1417</v>
       </c>
       <c r="I282">
         <v>13.3409</v>
@@ -16506,13 +16503,13 @@
         <v>-87.615899999999996</v>
       </c>
       <c r="K282" t="s">
+        <v>1417</v>
+      </c>
+      <c r="L282" t="s">
         <v>1418</v>
       </c>
-      <c r="L282" t="s">
+      <c r="M282" t="s">
         <v>1419</v>
-      </c>
-      <c r="M282" t="s">
-        <v>1420</v>
       </c>
     </row>
     <row r="283" spans="1:13" ht="15">
@@ -16526,19 +16523,19 @@
         <v>17</v>
       </c>
       <c r="D283" t="s">
+        <v>1403</v>
+      </c>
+      <c r="E283" t="s">
         <v>1404</v>
-      </c>
-      <c r="E283" t="s">
-        <v>1405</v>
       </c>
       <c r="F283">
         <v>4</v>
       </c>
       <c r="G283" t="s">
+        <v>1420</v>
+      </c>
+      <c r="H283" t="s">
         <v>1421</v>
-      </c>
-      <c r="H283" t="s">
-        <v>1422</v>
       </c>
       <c r="I283">
         <v>13.733000000000001</v>
@@ -16547,13 +16544,13 @@
         <v>-87.690399999999997</v>
       </c>
       <c r="K283" t="s">
+        <v>1422</v>
+      </c>
+      <c r="L283" t="s">
         <v>1423</v>
       </c>
-      <c r="L283" t="s">
+      <c r="M283" s="1" t="s">
         <v>1424</v>
-      </c>
-      <c r="M283" s="1" t="s">
-        <v>1425</v>
       </c>
     </row>
     <row r="284" spans="1:13">
@@ -16567,19 +16564,19 @@
         <v>17</v>
       </c>
       <c r="D284" t="s">
+        <v>1403</v>
+      </c>
+      <c r="E284" t="s">
         <v>1404</v>
-      </c>
-      <c r="E284" t="s">
-        <v>1405</v>
       </c>
       <c r="F284">
         <v>5</v>
       </c>
       <c r="G284" t="s">
+        <v>1425</v>
+      </c>
+      <c r="H284" t="s">
         <v>1426</v>
-      </c>
-      <c r="H284" t="s">
-        <v>1427</v>
       </c>
       <c r="I284">
         <v>13.819100000000001</v>
@@ -16588,13 +16585,13 @@
         <v>-87.687700000000007</v>
       </c>
       <c r="K284" t="s">
+        <v>1427</v>
+      </c>
+      <c r="L284" t="s">
         <v>1428</v>
       </c>
-      <c r="L284" t="s">
+      <c r="M284" t="s">
         <v>1429</v>
-      </c>
-      <c r="M284" t="s">
-        <v>1430</v>
       </c>
     </row>
     <row r="285" spans="1:13">
@@ -16608,19 +16605,19 @@
         <v>17</v>
       </c>
       <c r="D285" t="s">
+        <v>1403</v>
+      </c>
+      <c r="E285" t="s">
         <v>1404</v>
-      </c>
-      <c r="E285" t="s">
-        <v>1405</v>
       </c>
       <c r="F285">
         <v>6</v>
       </c>
       <c r="G285" t="s">
+        <v>1430</v>
+      </c>
+      <c r="H285" t="s">
         <v>1431</v>
-      </c>
-      <c r="H285" t="s">
-        <v>1432</v>
       </c>
       <c r="I285">
         <v>13.5938</v>
@@ -16629,13 +16626,13 @@
         <v>-87.712599999999995</v>
       </c>
       <c r="K285" t="s">
+        <v>1432</v>
+      </c>
+      <c r="L285" t="s">
         <v>1433</v>
       </c>
-      <c r="L285" t="s">
+      <c r="M285" t="s">
         <v>1434</v>
-      </c>
-      <c r="M285" t="s">
-        <v>1435</v>
       </c>
     </row>
     <row r="286" spans="1:13">
@@ -16649,19 +16646,19 @@
         <v>17</v>
       </c>
       <c r="D286" t="s">
+        <v>1403</v>
+      </c>
+      <c r="E286" t="s">
         <v>1404</v>
-      </c>
-      <c r="E286" t="s">
-        <v>1405</v>
       </c>
       <c r="F286">
         <v>7</v>
       </c>
       <c r="G286" t="s">
+        <v>1435</v>
+      </c>
+      <c r="H286" t="s">
         <v>1436</v>
-      </c>
-      <c r="H286" t="s">
-        <v>1437</v>
       </c>
       <c r="I286">
         <v>13.6571</v>
@@ -16670,13 +16667,13 @@
         <v>-87.629099999999994</v>
       </c>
       <c r="K286" t="s">
+        <v>1437</v>
+      </c>
+      <c r="L286" t="s">
         <v>1438</v>
       </c>
-      <c r="L286" t="s">
+      <c r="M286" t="s">
         <v>1439</v>
-      </c>
-      <c r="M286" t="s">
-        <v>1440</v>
       </c>
     </row>
     <row r="287" spans="1:13">
@@ -16690,19 +16687,19 @@
         <v>17</v>
       </c>
       <c r="D287" t="s">
+        <v>1403</v>
+      </c>
+      <c r="E287" t="s">
         <v>1404</v>
-      </c>
-      <c r="E287" t="s">
-        <v>1405</v>
       </c>
       <c r="F287">
         <v>8</v>
       </c>
       <c r="G287" t="s">
+        <v>1440</v>
+      </c>
+      <c r="H287" t="s">
         <v>1441</v>
-      </c>
-      <c r="H287" t="s">
-        <v>1442</v>
       </c>
       <c r="I287">
         <v>13.669600000000001</v>
@@ -16711,13 +16708,13 @@
         <v>-87.545699999999997</v>
       </c>
       <c r="K287" t="s">
+        <v>1442</v>
+      </c>
+      <c r="L287" t="s">
         <v>1443</v>
       </c>
-      <c r="L287" t="s">
+      <c r="M287" t="s">
         <v>1444</v>
-      </c>
-      <c r="M287" t="s">
-        <v>1445</v>
       </c>
     </row>
     <row r="288" spans="1:13">
@@ -16731,19 +16728,19 @@
         <v>17</v>
       </c>
       <c r="D288" t="s">
+        <v>1403</v>
+      </c>
+      <c r="E288" t="s">
         <v>1404</v>
-      </c>
-      <c r="E288" t="s">
-        <v>1405</v>
       </c>
       <c r="F288">
         <v>9</v>
       </c>
       <c r="G288" t="s">
+        <v>1445</v>
+      </c>
+      <c r="H288" t="s">
         <v>1446</v>
-      </c>
-      <c r="H288" t="s">
-        <v>1447</v>
       </c>
       <c r="I288">
         <v>13.455500000000001</v>
@@ -16752,13 +16749,13 @@
         <v>-87.4101</v>
       </c>
       <c r="K288" t="s">
+        <v>1447</v>
+      </c>
+      <c r="L288" t="s">
         <v>1448</v>
       </c>
-      <c r="L288" t="s">
+      <c r="M288" t="s">
         <v>1449</v>
-      </c>
-      <c r="M288" t="s">
-        <v>1450</v>
       </c>
     </row>
     <row r="289" spans="1:13">
@@ -16772,19 +16769,19 @@
         <v>18</v>
       </c>
       <c r="D289" t="s">
+        <v>1450</v>
+      </c>
+      <c r="E289" t="s">
         <v>1451</v>
-      </c>
-      <c r="E289" t="s">
-        <v>1452</v>
       </c>
       <c r="F289">
         <v>1</v>
       </c>
       <c r="G289" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="H289" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="I289">
         <v>15.2433</v>
@@ -16793,13 +16790,13 @@
         <v>-87.227500000000006</v>
       </c>
       <c r="K289" t="s">
+        <v>1453</v>
+      </c>
+      <c r="L289" t="s">
         <v>1454</v>
       </c>
-      <c r="L289" t="s">
+      <c r="M289" t="s">
         <v>1455</v>
-      </c>
-      <c r="M289" t="s">
-        <v>1456</v>
       </c>
     </row>
     <row r="290" spans="1:13">
@@ -16813,19 +16810,19 @@
         <v>18</v>
       </c>
       <c r="D290" t="s">
+        <v>1450</v>
+      </c>
+      <c r="E290" t="s">
         <v>1451</v>
-      </c>
-      <c r="E290" t="s">
-        <v>1452</v>
       </c>
       <c r="F290">
         <v>2</v>
       </c>
       <c r="G290" t="s">
+        <v>1456</v>
+      </c>
+      <c r="H290" t="s">
         <v>1457</v>
-      </c>
-      <c r="H290" t="s">
-        <v>1458</v>
       </c>
       <c r="I290">
         <v>15.3565</v>
@@ -16834,13 +16831,13 @@
         <v>-86.821799999999996</v>
       </c>
       <c r="K290" t="s">
+        <v>1458</v>
+      </c>
+      <c r="L290" t="s">
         <v>1459</v>
       </c>
-      <c r="L290" t="s">
+      <c r="M290" t="s">
         <v>1460</v>
-      </c>
-      <c r="M290" t="s">
-        <v>1461</v>
       </c>
     </row>
     <row r="291" spans="1:13">
@@ -16854,19 +16851,19 @@
         <v>18</v>
       </c>
       <c r="D291" t="s">
+        <v>1450</v>
+      </c>
+      <c r="E291" t="s">
         <v>1451</v>
-      </c>
-      <c r="E291" t="s">
-        <v>1452</v>
       </c>
       <c r="F291">
         <v>3</v>
       </c>
       <c r="G291" t="s">
+        <v>1461</v>
+      </c>
+      <c r="H291" t="s">
         <v>1462</v>
-      </c>
-      <c r="H291" t="s">
-        <v>1463</v>
       </c>
       <c r="I291">
         <v>15.3383</v>
@@ -16875,13 +16872,13 @@
         <v>-87.701999999999998</v>
       </c>
       <c r="K291" t="s">
+        <v>1463</v>
+      </c>
+      <c r="L291" t="s">
         <v>1464</v>
       </c>
-      <c r="L291" t="s">
+      <c r="M291" t="s">
         <v>1465</v>
-      </c>
-      <c r="M291" t="s">
-        <v>1466</v>
       </c>
     </row>
     <row r="292" spans="1:13">
@@ -16895,19 +16892,19 @@
         <v>18</v>
       </c>
       <c r="D292" t="s">
+        <v>1450</v>
+      </c>
+      <c r="E292" t="s">
         <v>1451</v>
-      </c>
-      <c r="E292" t="s">
-        <v>1452</v>
       </c>
       <c r="F292">
         <v>4</v>
       </c>
       <c r="G292" t="s">
+        <v>1466</v>
+      </c>
+      <c r="H292" t="s">
         <v>1467</v>
-      </c>
-      <c r="H292" t="s">
-        <v>1468</v>
       </c>
       <c r="I292">
         <v>15.3446</v>
@@ -16916,13 +16913,13 @@
         <v>-87.812100000000001</v>
       </c>
       <c r="K292" t="s">
+        <v>1468</v>
+      </c>
+      <c r="L292" t="s">
         <v>1469</v>
       </c>
-      <c r="L292" t="s">
+      <c r="M292" t="s">
         <v>1470</v>
-      </c>
-      <c r="M292" t="s">
-        <v>1471</v>
       </c>
     </row>
     <row r="293" spans="1:13">
@@ -16936,19 +16933,19 @@
         <v>18</v>
       </c>
       <c r="D293" t="s">
+        <v>1450</v>
+      </c>
+      <c r="E293" t="s">
         <v>1451</v>
-      </c>
-      <c r="E293" t="s">
-        <v>1452</v>
       </c>
       <c r="F293">
         <v>5</v>
       </c>
       <c r="G293" t="s">
+        <v>1471</v>
+      </c>
+      <c r="H293" t="s">
         <v>1472</v>
-      </c>
-      <c r="H293" t="s">
-        <v>1473</v>
       </c>
       <c r="I293">
         <v>15.3</v>
@@ -16957,13 +16954,13 @@
         <v>-86.956900000000005</v>
       </c>
       <c r="K293" t="s">
+        <v>1473</v>
+      </c>
+      <c r="L293" t="s">
         <v>1474</v>
       </c>
-      <c r="L293" t="s">
+      <c r="M293" t="s">
         <v>1475</v>
-      </c>
-      <c r="M293" t="s">
-        <v>1476</v>
       </c>
     </row>
     <row r="294" spans="1:13">
@@ -16977,19 +16974,19 @@
         <v>18</v>
       </c>
       <c r="D294" t="s">
+        <v>1450</v>
+      </c>
+      <c r="E294" t="s">
         <v>1451</v>
-      </c>
-      <c r="E294" t="s">
-        <v>1452</v>
       </c>
       <c r="F294">
         <v>6</v>
       </c>
       <c r="G294" t="s">
+        <v>1476</v>
+      </c>
+      <c r="H294" t="s">
         <v>1477</v>
-      </c>
-      <c r="H294" t="s">
-        <v>1478</v>
       </c>
       <c r="I294">
         <v>15.3363</v>
@@ -16998,13 +16995,13 @@
         <v>-87.561300000000003</v>
       </c>
       <c r="K294" t="s">
+        <v>1478</v>
+      </c>
+      <c r="L294" t="s">
         <v>1479</v>
       </c>
-      <c r="L294" t="s">
+      <c r="M294" t="s">
         <v>1480</v>
-      </c>
-      <c r="M294" t="s">
-        <v>1481</v>
       </c>
     </row>
     <row r="295" spans="1:13">
@@ -17018,19 +17015,19 @@
         <v>18</v>
       </c>
       <c r="D295" t="s">
+        <v>1450</v>
+      </c>
+      <c r="E295" t="s">
         <v>1451</v>
-      </c>
-      <c r="E295" t="s">
-        <v>1452</v>
       </c>
       <c r="F295">
         <v>7</v>
       </c>
       <c r="G295" t="s">
+        <v>1481</v>
+      </c>
+      <c r="H295" t="s">
         <v>1482</v>
-      </c>
-      <c r="H295" t="s">
-        <v>1483</v>
       </c>
       <c r="I295">
         <v>15.499700000000001</v>
@@ -17039,13 +17036,13 @@
         <v>-86.461399999999998</v>
       </c>
       <c r="K295" t="s">
+        <v>1483</v>
+      </c>
+      <c r="L295" t="s">
         <v>1484</v>
       </c>
-      <c r="L295" t="s">
+      <c r="M295" t="s">
         <v>1485</v>
-      </c>
-      <c r="M295" t="s">
-        <v>1486</v>
       </c>
     </row>
     <row r="296" spans="1:13">
@@ -17059,16 +17056,16 @@
         <v>18</v>
       </c>
       <c r="D296" t="s">
+        <v>1450</v>
+      </c>
+      <c r="E296" t="s">
         <v>1451</v>
-      </c>
-      <c r="E296" t="s">
-        <v>1452</v>
       </c>
       <c r="F296">
         <v>8</v>
       </c>
       <c r="G296" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="H296" t="s">
         <v>317</v>
@@ -17080,13 +17077,13 @@
         <v>-87.812799999999996</v>
       </c>
       <c r="K296" t="s">
+        <v>1487</v>
+      </c>
+      <c r="L296" t="s">
         <v>1488</v>
       </c>
-      <c r="L296" t="s">
+      <c r="M296" t="s">
         <v>1489</v>
-      </c>
-      <c r="M296" t="s">
-        <v>1490</v>
       </c>
     </row>
     <row r="297" spans="1:13">
@@ -17100,19 +17097,19 @@
         <v>18</v>
       </c>
       <c r="D297" t="s">
+        <v>1450</v>
+      </c>
+      <c r="E297" t="s">
         <v>1451</v>
-      </c>
-      <c r="E297" t="s">
-        <v>1452</v>
       </c>
       <c r="F297">
         <v>9</v>
       </c>
       <c r="G297" t="s">
+        <v>1490</v>
+      </c>
+      <c r="H297" t="s">
         <v>1491</v>
-      </c>
-      <c r="H297" t="s">
-        <v>1492</v>
       </c>
       <c r="I297">
         <v>14.9725</v>
@@ -17121,13 +17118,13 @@
         <v>-87.278599999999997</v>
       </c>
       <c r="K297" t="s">
+        <v>1492</v>
+      </c>
+      <c r="L297" t="s">
         <v>1493</v>
       </c>
-      <c r="L297" t="s">
+      <c r="M297" t="s">
         <v>1494</v>
-      </c>
-      <c r="M297" t="s">
-        <v>1495</v>
       </c>
     </row>
     <row r="298" spans="1:13">
@@ -17141,19 +17138,19 @@
         <v>18</v>
       </c>
       <c r="D298" t="s">
+        <v>1450</v>
+      </c>
+      <c r="E298" t="s">
         <v>1451</v>
-      </c>
-      <c r="E298" t="s">
-        <v>1452</v>
       </c>
       <c r="F298">
         <v>10</v>
       </c>
       <c r="G298" t="s">
+        <v>1495</v>
+      </c>
+      <c r="H298" t="s">
         <v>1496</v>
-      </c>
-      <c r="H298" t="s">
-        <v>1497</v>
       </c>
       <c r="I298">
         <v>15.1127</v>
@@ -17162,13 +17159,13 @@
         <v>-87.558300000000003</v>
       </c>
       <c r="K298" t="s">
+        <v>1497</v>
+      </c>
+      <c r="L298" t="s">
         <v>1498</v>
       </c>
-      <c r="L298" t="s">
+      <c r="M298" t="s">
         <v>1499</v>
-      </c>
-      <c r="M298" t="s">
-        <v>1500</v>
       </c>
     </row>
     <row r="299" spans="1:13">
@@ -17182,19 +17179,19 @@
         <v>18</v>
       </c>
       <c r="D299" t="s">
+        <v>1450</v>
+      </c>
+      <c r="E299" t="s">
         <v>1451</v>
-      </c>
-      <c r="E299" t="s">
-        <v>1452</v>
       </c>
       <c r="F299">
         <v>11</v>
       </c>
       <c r="G299" t="s">
+        <v>1500</v>
+      </c>
+      <c r="H299" t="s">
         <v>1501</v>
-      </c>
-      <c r="H299" t="s">
-        <v>1502</v>
       </c>
       <c r="I299">
         <v>15.074299999999999</v>
@@ -17203,13 +17200,13 @@
         <v>-87.3048</v>
       </c>
       <c r="K299" t="s">
+        <v>1502</v>
+      </c>
+      <c r="L299" t="s">
         <v>1503</v>
       </c>
-      <c r="L299" t="s">
+      <c r="M299" t="s">
         <v>1504</v>
-      </c>
-      <c r="M299" t="s">
-        <v>1505</v>
       </c>
     </row>
   </sheetData>

--- a/datacovidhn/LOCALIZAHN.xlsx
+++ b/datacovidhn/LOCALIZAHN.xlsx
@@ -4934,8 +4934,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57166B67-A93A-452E-A5E0-8FB31F384F7A}">
   <dimension ref="A1:M299"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="A286" workbookViewId="0">
+      <selection activeCell="G302" sqref="G302"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>

--- a/datacovidhn/LOCALIZAHN.xlsx
+++ b/datacovidhn/LOCALIZAHN.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22904"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22913"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\000 DRIVE\000 DATACOVID HN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="98" documentId="13_ncr:1_{23A5930A-7705-4873-9354-6671A8986A46}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D3BDC38E-FFAB-46A3-A142-FC4BA000E58A}"/>
+  <xr:revisionPtr revIDLastSave="99" documentId="13_ncr:1_{23A5930A-7705-4873-9354-6671A8986A46}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{694996BE-CAB8-444C-AD3D-9AA614815163}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E12A4D3B-4BD9-444E-BCAD-8267569BA124}"/>
   </bookViews>
@@ -4934,8 +4934,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57166B67-A93A-452E-A5E0-8FB31F384F7A}">
   <dimension ref="A1:M299"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A286" workbookViewId="0">
-      <selection activeCell="G302" sqref="G302"/>
+    <sheetView tabSelected="1" topLeftCell="E66" workbookViewId="0">
+      <selection activeCell="H70" sqref="H70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
@@ -4945,7 +4945,7 @@
     <col min="5" max="5" width="16.140625" customWidth="1"/>
     <col min="6" max="6" width="12" customWidth="1"/>
     <col min="7" max="7" width="12.5703125" customWidth="1"/>
-    <col min="8" max="8" width="16.140625" customWidth="1"/>
+    <col min="8" max="8" width="16" customWidth="1"/>
     <col min="11" max="11" width="11.85546875" customWidth="1"/>
     <col min="12" max="12" width="16.28515625" customWidth="1"/>
   </cols>
